--- a/data/original/spain/euskadi/situacion-epidemiologica.xlsx
+++ b/data/original/spain/euskadi/situacion-epidemiologica.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iargueso\Desktop\covid19\BERRIA\23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iargueso\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,18 +14,17 @@
   <sheets>
     <sheet name="01" sheetId="17" r:id="rId1"/>
     <sheet name="02" sheetId="14" r:id="rId2"/>
-    <sheet name="03" sheetId="15" r:id="rId3"/>
-    <sheet name="04" sheetId="16" r:id="rId4"/>
-    <sheet name="05" sheetId="13" r:id="rId5"/>
-    <sheet name="06" sheetId="11" r:id="rId6"/>
-    <sheet name="07" sheetId="12" r:id="rId7"/>
+    <sheet name="03" sheetId="16" r:id="rId3"/>
+    <sheet name="04" sheetId="13" r:id="rId4"/>
+    <sheet name="05" sheetId="11" r:id="rId5"/>
+    <sheet name="06" sheetId="12" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="430">
   <si>
     <t>UDALERRIA / MUNICIPIO</t>
   </si>
@@ -534,9 +533,6 @@
     <t>Kasu positibo berriak Euskadin (PCR testak) / Casos positivos nuevos en Euskadi (test PCRs)</t>
   </si>
   <si>
-    <t>Intzizentzia met./ Incidencia acum.</t>
-  </si>
-  <si>
     <t xml:space="preserve">14 eguneko 100.000 biztanleko intzidentzia metatua Euskadin (PCR testak) / Incidencia acumulada 14 días en Euskadi x 100.000 habitantes (test PCRs) </t>
   </si>
   <si>
@@ -780,9 +776,6 @@
     <t>0,75</t>
   </si>
   <si>
-    <t>ZIUn ospitaleratuak / Hospitalizados en CI</t>
-  </si>
-  <si>
     <t>R0 Euskadin / R0 en Euskadi</t>
   </si>
   <si>
@@ -1246,6 +1239,81 @@
   </si>
   <si>
     <t>Desierto</t>
+  </si>
+  <si>
+    <t>2020/5/15</t>
+  </si>
+  <si>
+    <t>2020/5/16</t>
+  </si>
+  <si>
+    <t>2020/5/17</t>
+  </si>
+  <si>
+    <t>2020/5/18</t>
+  </si>
+  <si>
+    <t>2020/5/19</t>
+  </si>
+  <si>
+    <t>2020/5/20</t>
+  </si>
+  <si>
+    <t>2020/5/21</t>
+  </si>
+  <si>
+    <t>2020/5/22</t>
+  </si>
+  <si>
+    <t>2020/5/23</t>
+  </si>
+  <si>
+    <t>ZIUn ospitaleratuak / Hospitalizados en UCI</t>
+  </si>
+  <si>
+    <t>185119</t>
+  </si>
+  <si>
+    <t>106400</t>
+  </si>
+  <si>
+    <t>161700</t>
+  </si>
+  <si>
+    <t>138253</t>
+  </si>
+  <si>
+    <t>63186</t>
+  </si>
+  <si>
+    <t>13478</t>
+  </si>
+  <si>
+    <t>5914</t>
+  </si>
+  <si>
+    <t>19392</t>
+  </si>
+  <si>
+    <t>7576</t>
+  </si>
+  <si>
+    <t>17417</t>
+  </si>
+  <si>
+    <t>475</t>
+  </si>
+  <si>
+    <t>1500</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2020/5/24</t>
+  </si>
+  <si>
+    <t>24-may.</t>
   </si>
 </sst>
 </file>
@@ -1300,14 +1368,14 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal 2" xfId="1"/>
@@ -1589,602 +1657,670 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" style="9" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="4" customWidth="1"/>
-    <col min="5" max="18" width="9.140625" style="4"/>
-    <col min="19" max="19" width="11.28515625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="12" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="6"/>
+    <col min="9" max="9" width="7.28515625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" style="6" customWidth="1"/>
+    <col min="12" max="12" width="12" style="6" customWidth="1"/>
+    <col min="13" max="13" width="9" style="6" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" style="6" customWidth="1"/>
+    <col min="15" max="15" width="8.140625" style="6" customWidth="1"/>
+    <col min="16" max="16" width="10.42578125" style="6" customWidth="1"/>
+    <col min="17" max="17" width="10" style="6" customWidth="1"/>
+    <col min="18" max="18" width="9.42578125" style="6" customWidth="1"/>
+    <col min="19" max="19" width="11.28515625" style="6" customWidth="1"/>
     <col min="20" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="F2" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="O2" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="P2" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q4" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="R2" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>43966</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="P3" s="6" t="s">
+      <c r="R4" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="Q3" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>43967</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="O4" s="6" t="s">
+      <c r="S4" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="Q4" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="S4" s="6" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>43968</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6" t="s">
+      <c r="I5" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="J5" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="K5" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="L5" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="N5" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="O5" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="L5" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="N5" s="6" t="s">
+      <c r="P5" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="Q5" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="R5" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="P5" s="6" t="s">
+      <c r="S5" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="Q5" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="S5" s="6" t="s">
-        <v>325</v>
-      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>43969</v>
+      <c r="A6" s="6" t="s">
+        <v>408</v>
       </c>
       <c r="B6" s="6">
         <v>166314</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H6" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>231</v>
-      </c>
       <c r="J6" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="K6" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="L6" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="M6" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="M6" s="6" t="s">
-        <v>240</v>
-      </c>
       <c r="N6" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="O6" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="P6" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="P6" s="6" t="s">
-        <v>246</v>
-      </c>
       <c r="Q6" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="R6" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="R6" s="6" t="s">
+      <c r="S6" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="S6" s="6" t="s">
-        <v>250</v>
-      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>43970</v>
+      <c r="A7" s="6" t="s">
+        <v>409</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="G7" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="I7" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="J7" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="K7" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="L7" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="M7" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="N7" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="O7" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="M7" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="N7" s="6" t="s">
+      <c r="P7" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="Q7" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="P7" s="6" t="s">
+      <c r="R7" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="Q7" s="6" t="s">
+      <c r="S7" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="R7" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="S7" s="6" t="s">
-        <v>269</v>
-      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>43971</v>
+      <c r="A8" s="6" t="s">
+        <v>410</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="E8" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="F8" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="G8" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="H8" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="I8" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="J8" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="K8" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="L8" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="N8" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="O8" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="L8" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="N8" s="6" t="s">
+      <c r="P8" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="O8" s="6" t="s">
+      <c r="Q8" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="P8" s="6" t="s">
+      <c r="R8" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="Q8" s="6" t="s">
+      <c r="S8" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="R8" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="S8" s="6" t="s">
-        <v>341</v>
-      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>43972</v>
+      <c r="A9" s="6" t="s">
+        <v>411</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="F9" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="G9" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="H9" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="I9" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="J9" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="K9" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="L9" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="N9" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="O9" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="L9" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="N9" s="6" t="s">
+      <c r="P9" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="O9" s="6" t="s">
+      <c r="Q9" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="R9" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="P9" s="6" t="s">
+      <c r="S9" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="Q9" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="R9" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="S9" s="6" t="s">
-        <v>362</v>
-      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>43973</v>
+      <c r="A10" s="6" t="s">
+        <v>412</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="F10" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="G10" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="H10" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="I10" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="J10" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="K10" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="L10" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="N10" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="O10" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="L10" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="N10" s="6" t="s">
+      <c r="P10" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="O10" s="6" t="s">
+      <c r="Q10" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="R10" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="P10" s="6" t="s">
+      <c r="S10" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="Q10" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="R10" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="S10" s="6" t="s">
-        <v>382</v>
-      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>43974</v>
+      <c r="A11" s="6" t="s">
+        <v>413</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="F11" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="G11" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="H11" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="I11" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="J11" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="K11" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="L11" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="N11" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="O11" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="L11" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="N11" s="6" t="s">
+      <c r="P11" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="S11" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="O11" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="R11" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="S11" s="6" t="s">
-        <v>400</v>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="R12" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="S12" s="6" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -2195,700 +2331,965 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B86"/>
+  <dimension ref="A1:C87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B86" sqref="B3:B86"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>167</v>
       </c>
       <c r="B2" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>90</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="10">
+        <v>4.5703484022290505E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>93</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="10">
+        <v>0.18281393608916202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>96</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" s="10">
+        <v>0.36562787217832404</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>99</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="10">
+        <v>0.54844180826748601</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>102</v>
       </c>
       <c r="B7">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" s="10">
+        <v>1.4168080046910057</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>105</v>
       </c>
       <c r="B8">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" s="10">
+        <v>2.6050985892705585</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>108</v>
       </c>
       <c r="B9">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" s="10">
+        <v>4.1590170460284357</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>111</v>
       </c>
       <c r="B10">
         <v>47</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" s="10">
+        <v>6.3070807950760894</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>114</v>
       </c>
       <c r="B11">
         <v>47</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" s="10">
+        <v>8.4551445441237423</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>117</v>
       </c>
       <c r="B12">
         <v>74</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" s="10">
+        <v>11.83720236177324</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>120</v>
       </c>
       <c r="B13">
         <v>73</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" s="10">
+        <v>15.173556695400448</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>123</v>
       </c>
       <c r="B14">
         <v>84</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" s="10">
+        <v>19.012649353272849</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>126</v>
       </c>
       <c r="B15">
         <v>103</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" s="10">
+        <v>23.720108207568771</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>129</v>
       </c>
       <c r="B16">
         <v>102</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="10">
+        <v>28.381863577842402</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>132</v>
       </c>
       <c r="B17">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="10">
+        <v>32.906508496049163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>135</v>
       </c>
       <c r="B18">
         <v>104</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="10">
+        <v>37.522560382300505</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>137</v>
       </c>
       <c r="B19">
         <v>198</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="10">
+        <v>46.389036282624858</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>139</v>
       </c>
       <c r="B20">
         <v>231</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" s="10">
+        <v>56.763727155684805</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>141</v>
       </c>
       <c r="B21">
         <v>269</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" s="10">
+        <v>68.189598161257436</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>143</v>
       </c>
       <c r="B22">
         <v>335</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" s="10">
+        <v>82.311974724145202</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>145</v>
       </c>
       <c r="B23">
         <v>320</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" s="10">
+        <v>95.383171154520284</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>147</v>
       </c>
       <c r="B24">
         <v>311</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" s="10">
+        <v>107.44889093640498</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>149</v>
       </c>
       <c r="B25">
         <v>362</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" s="10">
+        <v>121.84548840342649</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>151</v>
       </c>
       <c r="B26">
         <v>579</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" s="10">
+        <v>144.92574783468319</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>153</v>
       </c>
       <c r="B27">
         <v>723</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" s="10">
+        <v>174.63301244917201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>155</v>
       </c>
       <c r="B28">
         <v>632</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" s="10">
+        <v>199.67852169338721</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>157</v>
       </c>
       <c r="B29">
         <v>501</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" s="10">
+        <v>217.86850833425882</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>159</v>
       </c>
       <c r="B30">
         <v>576</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" s="10">
+        <v>239.53195976082452</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>161</v>
       </c>
       <c r="B31">
         <v>246</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" s="10">
+        <v>246.20466842807895</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>163</v>
       </c>
       <c r="B32">
         <v>327</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" s="10">
+        <v>256.39654536504975</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>165</v>
       </c>
       <c r="B33">
         <v>581</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" s="10">
+        <v>273.90097974558699</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>91</v>
       </c>
       <c r="B34">
         <v>481</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" s="10">
+        <v>285.32685075115961</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>94</v>
       </c>
       <c r="B35">
         <v>491</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" s="10">
+        <v>295.47302420410813</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>97</v>
       </c>
       <c r="B36">
         <v>419</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" s="10">
+        <v>299.31211686198048</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>100</v>
       </c>
       <c r="B37">
         <v>296</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" s="10">
+        <v>298.21523324544552</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>103</v>
       </c>
       <c r="B38">
         <v>196</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" s="10">
+        <v>292.9593325828821</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>106</v>
       </c>
       <c r="B39">
         <v>240</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" s="10">
+        <v>287.3835075321627</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>109</v>
       </c>
       <c r="B40">
         <v>416</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40" s="10">
+        <v>279.93383963652934</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>112</v>
       </c>
       <c r="B41">
         <v>312</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41" s="10">
+        <v>261.14970770336794</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>115</v>
       </c>
       <c r="B42">
         <v>279</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42" s="10">
+        <v>245.01637784349938</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>118</v>
       </c>
       <c r="B43">
         <v>284</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43" s="10">
+        <v>235.09872181066234</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>121</v>
       </c>
       <c r="B44">
         <v>151</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44" s="10">
+        <v>215.67474110118889</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>124</v>
       </c>
       <c r="B45">
         <v>158</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45" s="10">
+        <v>211.65283450722731</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>127</v>
       </c>
       <c r="B46">
         <v>175</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46" s="10">
+        <v>204.70590493583916</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>130</v>
       </c>
       <c r="B47">
         <v>194</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47" s="10">
+        <v>187.01865661921275</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>133</v>
       </c>
       <c r="B48">
         <v>194</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48" s="10">
+        <v>173.90175670481537</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>136</v>
       </c>
       <c r="B49">
         <v>209</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49" s="10">
+        <v>161.01337421052943</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>138</v>
       </c>
       <c r="B50">
         <v>125</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50" s="10">
+        <v>147.57654990797604</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>140</v>
       </c>
       <c r="B51">
         <v>147</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51" s="10">
+        <v>140.76673078865474</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>142</v>
       </c>
       <c r="B52">
         <v>57</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52" s="10">
+        <v>134.41394650955638</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>144</v>
       </c>
       <c r="B53">
         <v>65</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53" s="10">
+        <v>126.41583680565553</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>146</v>
       </c>
       <c r="B54">
         <v>129</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54" s="10">
+        <v>113.29893689125815</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>148</v>
       </c>
       <c r="B55">
         <v>109</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55" s="10">
+        <v>104.02112963473319</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>150</v>
       </c>
       <c r="B56">
         <v>149</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56" s="10">
+        <v>98.079676711835418</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>152</v>
       </c>
       <c r="B57">
         <v>147</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57" s="10">
+        <v>91.818299400781626</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>154</v>
       </c>
       <c r="B58">
         <v>63</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58" s="10">
+        <v>87.796392806820052</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>156</v>
       </c>
       <c r="B59">
         <v>47</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59" s="10">
+        <v>82.723306080345807</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>158</v>
       </c>
       <c r="B60">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60" s="10">
+        <v>77.421701933760119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>160</v>
       </c>
       <c r="B61">
         <v>55</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61" s="10">
+        <v>71.068917654661732</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>162</v>
       </c>
       <c r="B62">
         <v>89</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62" s="10">
+        <v>66.270051832321229</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>164</v>
       </c>
       <c r="B63">
         <v>126</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63" s="10">
+        <v>62.47666265847112</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>92</v>
       </c>
       <c r="B64">
         <v>47</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64" s="10">
+        <v>58.911790904732456</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>95</v>
       </c>
       <c r="B65">
         <v>45</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65" s="10">
+        <v>54.250035534458824</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>98</v>
       </c>
       <c r="B66">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66" s="10">
+        <v>52.147675269433464</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>101</v>
       </c>
       <c r="B67">
         <v>31</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67" s="10">
+        <v>50.593756812675586</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>104</v>
       </c>
       <c r="B68">
         <v>33</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68" s="10">
+        <v>46.206222346535696</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>107</v>
       </c>
       <c r="B69">
         <v>32</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69" s="10">
+        <v>42.687054076819329</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>110</v>
       </c>
       <c r="B70">
         <v>50</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C70" s="10">
+        <v>38.162409158612569</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>113</v>
       </c>
       <c r="B71">
         <v>56</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C71" s="10">
+        <v>34.003392112584137</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>116</v>
       </c>
       <c r="B72">
         <v>32</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C72" s="10">
+        <v>32.586584107893131</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>119</v>
       </c>
       <c r="B73">
         <v>10</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C73" s="10">
+        <v>30.895555199068379</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>122</v>
       </c>
       <c r="B74">
         <v>27</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C74" s="10">
+        <v>29.433043710355083</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>125</v>
       </c>
       <c r="B75">
         <v>29</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C75" s="10">
+        <v>28.244753125775532</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>128</v>
       </c>
       <c r="B76">
         <v>42</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C76" s="10">
+        <v>26.096689376727877</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>131</v>
       </c>
       <c r="B77">
         <v>29</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C77" s="10">
+        <v>21.663451426565697</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>134</v>
       </c>
       <c r="B78">
         <v>16</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C78" s="10">
+        <v>20.246643421874694</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B79">
         <v>16</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C79" s="10">
+        <v>18.921242385228268</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B80">
         <v>7</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C80" s="10">
+        <v>18.738428449139107</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B81">
         <v>16</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C81" s="10">
+        <v>18.052876188804749</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B82">
         <v>25</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C82" s="10">
+        <v>17.687248316626423</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B83">
         <v>9</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C83" s="10">
+        <v>16.636068184113743</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B84">
         <v>13</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C84" s="10">
+        <v>14.945039275288995</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B85">
         <v>13</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C85" s="10">
+        <v>12.98</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B86">
         <v>9</v>
+      </c>
+      <c r="C86" s="10">
+        <v>11.93</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>429</v>
+      </c>
+      <c r="B87">
+        <v>2</v>
+      </c>
+      <c r="C87">
+        <v>11.56</v>
       </c>
     </row>
   </sheetData>
@@ -2899,702 +3300,285 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B86"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="6">
+        <v>64</v>
+      </c>
+      <c r="C2" s="6">
+        <v>195423</v>
+      </c>
+      <c r="D2" s="6">
+        <v>32.749471658914253</v>
+      </c>
+      <c r="E2" s="3">
+        <v>3.3013514907665326E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="6">
+        <v>175</v>
+      </c>
+      <c r="C3" s="6">
+        <v>206343</v>
+      </c>
+      <c r="D3" s="6">
+        <v>84.810243138851334</v>
+      </c>
+      <c r="E3" s="3">
+        <v>9.0271329825647381E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1190</v>
+      </c>
+      <c r="C4" s="6">
+        <v>194050</v>
+      </c>
+      <c r="D4" s="6">
+        <v>613.2440092759598</v>
+      </c>
+      <c r="E4" s="3">
+        <v>6.1384504281440218E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1991</v>
+      </c>
+      <c r="C5" s="6">
+        <v>266369</v>
+      </c>
+      <c r="D5" s="6">
+        <v>747.45935150111313</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.1027029815330651</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="6">
+        <v>3125</v>
+      </c>
+      <c r="C6" s="6">
+        <v>358785</v>
+      </c>
+      <c r="D6" s="6">
+        <v>870.99516423484818</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.16119880326008459</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="6">
+        <v>3874</v>
+      </c>
+      <c r="C7" s="6">
+        <v>335098</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1156.0797139941151</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.19983493242546169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B3" s="11">
-        <v>4.5703484022290505E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" s="11">
-        <v>0.18281393608916202</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" s="11">
-        <v>0.36562787217832404</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B6" s="11">
-        <v>0.54844180826748601</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B7" s="11">
-        <v>1.4168080046910057</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B8" s="11">
-        <v>2.6050985892705585</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="6">
+        <v>2602</v>
+      </c>
+      <c r="C8" s="6">
+        <v>272250</v>
+      </c>
+      <c r="D8" s="6">
+        <v>955.73921028466486</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.13422057154647685</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B9" s="11">
-        <v>4.1590170460284357</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="B9" s="6">
+        <v>2168</v>
+      </c>
+      <c r="C9" s="6">
+        <v>202172</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1072.3542330293019</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.1118332817497163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B10" s="11">
-        <v>6.3070807950760894</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="B10" s="6">
+        <v>2612</v>
+      </c>
+      <c r="C10" s="6">
+        <v>127540</v>
+      </c>
+      <c r="D10" s="6">
+        <v>2047.9849458993258</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.13473640771690912</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B11" s="11">
-        <v>8.4551445441237423</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1509</v>
+      </c>
+      <c r="C11" s="6">
+        <v>29987</v>
+      </c>
+      <c r="D11" s="6">
+        <v>5032.1806115983591</v>
+      </c>
+      <c r="E11" s="3">
+        <v>7.7839678118229644E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>117</v>
-      </c>
-      <c r="B12" s="11">
-        <v>11.83720236177324</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>120</v>
-      </c>
-      <c r="B13" s="11">
-        <v>15.173556695400448</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+      <c r="B12">
+        <v>76</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3.9203548952852574E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>123</v>
-      </c>
-      <c r="B14" s="11">
-        <v>19.012649353272849</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>126</v>
-      </c>
-      <c r="B15" s="11">
-        <v>23.720108207568771</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>129</v>
-      </c>
-      <c r="B16" s="11">
-        <v>28.381863577842402</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B17" s="11">
-        <v>32.906508496049163</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>135</v>
-      </c>
-      <c r="B18" s="11">
-        <v>37.522560382300505</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>137</v>
-      </c>
-      <c r="B19" s="11">
-        <v>46.389036282624858</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>139</v>
-      </c>
-      <c r="B20" s="11">
-        <v>56.763727155684805</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>141</v>
-      </c>
-      <c r="B21" s="11">
-        <v>68.189598161257436</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>143</v>
-      </c>
-      <c r="B22" s="11">
-        <v>82.311974724145202</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>145</v>
-      </c>
-      <c r="B23" s="11">
-        <v>95.383171154520284</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>147</v>
-      </c>
-      <c r="B24" s="11">
-        <v>107.44889093640498</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>149</v>
-      </c>
-      <c r="B25" s="11">
-        <v>121.84548840342649</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>151</v>
-      </c>
-      <c r="B26" s="11">
-        <v>144.92574783468319</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>153</v>
-      </c>
-      <c r="B27" s="11">
-        <v>174.63301244917201</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>155</v>
-      </c>
-      <c r="B28" s="11">
-        <v>199.67852169338721</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>157</v>
-      </c>
-      <c r="B29" s="11">
-        <v>217.86850833425882</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>159</v>
-      </c>
-      <c r="B30" s="11">
-        <v>239.53195976082452</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>161</v>
-      </c>
-      <c r="B31" s="11">
-        <v>246.20466842807895</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>163</v>
-      </c>
-      <c r="B32" s="11">
-        <v>256.39654536504975</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>165</v>
-      </c>
-      <c r="B33" s="11">
-        <v>273.90097974558699</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>91</v>
-      </c>
-      <c r="B34" s="11">
-        <v>285.32685075115961</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>94</v>
-      </c>
-      <c r="B35" s="11">
-        <v>295.47302420410813</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>97</v>
-      </c>
-      <c r="B36" s="11">
-        <v>299.31211686198048</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>100</v>
-      </c>
-      <c r="B37" s="11">
-        <v>298.21523324544552</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>103</v>
-      </c>
-      <c r="B38" s="11">
-        <v>292.9593325828821</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>106</v>
-      </c>
-      <c r="B39" s="11">
-        <v>287.3835075321627</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>109</v>
-      </c>
-      <c r="B40" s="11">
-        <v>279.93383963652934</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>112</v>
-      </c>
-      <c r="B41" s="11">
-        <v>261.14970770336794</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>115</v>
-      </c>
-      <c r="B42" s="11">
-        <v>245.01637784349938</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>118</v>
-      </c>
-      <c r="B43" s="11">
-        <v>235.09872181066234</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>121</v>
-      </c>
-      <c r="B44" s="11">
-        <v>215.67474110118889</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>124</v>
-      </c>
-      <c r="B45" s="11">
-        <v>211.65283450722731</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>127</v>
-      </c>
-      <c r="B46" s="11">
-        <v>204.70590493583916</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>130</v>
-      </c>
-      <c r="B47" s="11">
-        <v>187.01865661921275</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>133</v>
-      </c>
-      <c r="B48" s="11">
-        <v>173.90175670481537</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>136</v>
-      </c>
-      <c r="B49" s="11">
-        <v>161.01337421052943</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>138</v>
-      </c>
-      <c r="B50" s="11">
-        <v>147.57654990797604</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>140</v>
-      </c>
-      <c r="B51" s="11">
-        <v>140.76673078865474</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>142</v>
-      </c>
-      <c r="B52" s="11">
-        <v>134.41394650955638</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>144</v>
-      </c>
-      <c r="B53" s="11">
-        <v>126.41583680565553</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>146</v>
-      </c>
-      <c r="B54" s="11">
-        <v>113.29893689125815</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>148</v>
-      </c>
-      <c r="B55" s="11">
-        <v>104.02112963473319</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>150</v>
-      </c>
-      <c r="B56" s="11">
-        <v>98.079676711835418</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>152</v>
-      </c>
-      <c r="B57" s="11">
-        <v>91.818299400781626</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>154</v>
-      </c>
-      <c r="B58" s="11">
-        <v>87.796392806820052</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>156</v>
-      </c>
-      <c r="B59" s="11">
-        <v>82.723306080345807</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>158</v>
-      </c>
-      <c r="B60" s="11">
-        <v>77.421701933760119</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>160</v>
-      </c>
-      <c r="B61" s="11">
-        <v>71.068917654661732</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>162</v>
-      </c>
-      <c r="B62" s="11">
-        <v>66.270051832321229</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>164</v>
-      </c>
-      <c r="B63" s="11">
-        <v>62.47666265847112</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>92</v>
-      </c>
-      <c r="B64" s="11">
-        <v>58.911790904732456</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>95</v>
-      </c>
-      <c r="B65" s="11">
-        <v>54.250035534458824</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>98</v>
-      </c>
-      <c r="B66" s="11">
-        <v>52.147675269433464</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>101</v>
-      </c>
-      <c r="B67" s="11">
-        <v>50.593756812675586</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>104</v>
-      </c>
-      <c r="B68" s="11">
-        <v>46.206222346535696</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>107</v>
-      </c>
-      <c r="B69" s="11">
-        <v>42.687054076819329</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>110</v>
-      </c>
-      <c r="B70" s="11">
-        <v>38.162409158612569</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>113</v>
-      </c>
-      <c r="B71" s="11">
-        <v>34.003392112584137</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>116</v>
-      </c>
-      <c r="B72" s="11">
-        <v>32.586584107893131</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>119</v>
-      </c>
-      <c r="B73" s="11">
-        <v>30.895555199068379</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>122</v>
-      </c>
-      <c r="B74" s="11">
-        <v>29.433043710355083</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>125</v>
-      </c>
-      <c r="B75" s="11">
-        <v>28.244753125775532</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>128</v>
-      </c>
-      <c r="B76" s="11">
-        <v>26.096689376727877</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>131</v>
-      </c>
-      <c r="B77" s="11">
-        <v>21.663451426565697</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>134</v>
-      </c>
-      <c r="B78" s="11">
-        <v>20.246643421874694</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>186</v>
-      </c>
-      <c r="B79" s="11">
-        <v>18.921242385228268</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>201</v>
-      </c>
-      <c r="B80" s="11">
-        <v>18.738428449139107</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>207</v>
-      </c>
-      <c r="B81" s="11">
-        <v>18.052876188804749</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>270</v>
-      </c>
-      <c r="B82" s="11">
-        <v>17.687248316626423</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>342</v>
-      </c>
-      <c r="B83" s="11">
-        <v>16.636068184113743</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>363</v>
-      </c>
-      <c r="B84" s="11">
-        <v>14.945039275288995</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>383</v>
-      </c>
-      <c r="B85" s="11">
-        <v>12.98</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>401</v>
-      </c>
-      <c r="B86" s="11">
-        <v>11.93</v>
-      </c>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="1"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="C20" s="1"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E30" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -3603,298 +3587,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="6">
-        <v>64</v>
-      </c>
-      <c r="C2" s="6">
-        <v>195423</v>
-      </c>
-      <c r="D2" s="6">
-        <v>32.749471658914253</v>
-      </c>
-      <c r="E2" s="3">
-        <v>3.3013514907665326E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="6">
-        <v>175</v>
-      </c>
-      <c r="C3" s="6">
-        <v>206343</v>
-      </c>
-      <c r="D3" s="6">
-        <v>84.810243138851334</v>
-      </c>
-      <c r="E3" s="3">
-        <v>9.0271329825647381E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="6">
-        <v>1190</v>
-      </c>
-      <c r="C4" s="6">
-        <v>194050</v>
-      </c>
-      <c r="D4" s="6">
-        <v>613.2440092759598</v>
-      </c>
-      <c r="E4" s="3">
-        <v>6.1384504281440218E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" s="6">
-        <v>1991</v>
-      </c>
-      <c r="C5" s="6">
-        <v>266369</v>
-      </c>
-      <c r="D5" s="6">
-        <v>747.45935150111313</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.1027029815330651</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="6">
-        <v>3125</v>
-      </c>
-      <c r="C6" s="6">
-        <v>358785</v>
-      </c>
-      <c r="D6" s="6">
-        <v>870.99516423484818</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.16119880326008459</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="6">
-        <v>3874</v>
-      </c>
-      <c r="C7" s="6">
-        <v>335098</v>
-      </c>
-      <c r="D7" s="6">
-        <v>1156.0797139941151</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0.19983493242546169</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>171</v>
-      </c>
-      <c r="B8" s="6">
-        <v>2602</v>
-      </c>
-      <c r="C8" s="6">
-        <v>272250</v>
-      </c>
-      <c r="D8" s="6">
-        <v>955.73921028466486</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.13422057154647685</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="6">
-        <v>2168</v>
-      </c>
-      <c r="C9" s="6">
-        <v>202172</v>
-      </c>
-      <c r="D9" s="6">
-        <v>1072.3542330293019</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0.1118332817497163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" s="6">
-        <v>2612</v>
-      </c>
-      <c r="C10" s="6">
-        <v>127540</v>
-      </c>
-      <c r="D10" s="6">
-        <v>2047.9849458993258</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0.13473640771690912</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>172</v>
-      </c>
-      <c r="B11" s="6">
-        <v>1509</v>
-      </c>
-      <c r="C11" s="6">
-        <v>29987</v>
-      </c>
-      <c r="D11" s="6">
-        <v>5032.1806115983591</v>
-      </c>
-      <c r="E11" s="3">
-        <v>7.7839678118229644E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>173</v>
-      </c>
-      <c r="B12">
-        <v>76</v>
-      </c>
-      <c r="E12" s="3">
-        <v>3.9203548952852574E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="1"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="C20" s="1"/>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E30" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:D12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3906,16 +3601,16 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" t="s">
         <v>174</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>175</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>176</v>
-      </c>
-      <c r="D1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -4098,12 +3793,12 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -4165,13 +3860,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L50"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4189,37 +3882,37 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" t="s">
         <v>274</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" t="s">
         <v>275</v>
       </c>
-      <c r="G2" t="s">
-        <v>276</v>
-      </c>
-      <c r="H2" t="s">
-        <v>277</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>345</v>
+      <c r="I2" s="9" t="s">
+        <v>343</v>
       </c>
       <c r="J2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="K2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="L2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -4262,7 +3955,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -4300,7 +3993,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -4338,7 +4031,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4490,7 +4183,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -4528,7 +4221,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -4566,7 +4259,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -4639,7 +4332,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -4677,7 +4370,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -4905,7 +4598,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -4943,7 +4636,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -5209,7 +4902,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -5437,7 +5130,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -5475,7 +5168,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -5513,7 +5206,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -5589,7 +5282,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B39">
         <v>31</v>
@@ -5665,7 +5358,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5703,7 +5396,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5779,7 +5472,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -5855,7 +5548,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -5893,7 +5586,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -5969,7 +5662,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B49">
         <v>2</v>
@@ -6052,12 +5745,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6070,45 +5763,45 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C2" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>345</v>
+      <c r="I2" s="8" t="s">
+        <v>343</v>
       </c>
       <c r="J2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="K2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="L2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -6189,7 +5882,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -6227,7 +5920,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -6303,7 +5996,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -6379,7 +6072,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -6417,7 +6110,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -6455,7 +6148,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -6493,7 +6186,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -6531,7 +6224,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -6569,7 +6262,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -6721,7 +6414,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -6911,7 +6604,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -7025,7 +6718,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -7291,7 +6984,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -7405,7 +7098,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -7519,7 +7212,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -7709,7 +7402,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -7899,7 +7592,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -7975,7 +7668,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -8469,7 +8162,7 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -8545,7 +8238,7 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -8659,7 +8352,7 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -8735,7 +8428,7 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -8773,7 +8466,7 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -8811,7 +8504,7 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -8887,7 +8580,7 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -8925,7 +8618,7 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B77">
         <v>0</v>

--- a/data/original/spain/euskadi/situacion-epidemiologica.xlsx
+++ b/data/original/spain/euskadi/situacion-epidemiologica.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iargueso\Desktop\covid19\BERRIA\29\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iargueso\Desktop\covid19\BERRIA\30\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19425" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="01" sheetId="17" r:id="rId1"/>
@@ -20,12 +20,12 @@
     <sheet name="06" sheetId="18" r:id="rId6"/>
     <sheet name="07" sheetId="19" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="969">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="986">
   <si>
     <t>UDALERRIA / MUNICIPIO</t>
   </si>
@@ -2931,7 +2931,58 @@
     <t>Ermua</t>
   </si>
   <si>
+    <t>2020/5/30</t>
+  </si>
+  <si>
+    <t>201970</t>
+  </si>
+  <si>
+    <t>113650</t>
+  </si>
+  <si>
+    <t>177460</t>
+  </si>
+  <si>
+    <t>150863</t>
+  </si>
+  <si>
+    <t>68950</t>
+  </si>
+  <si>
+    <t>13518</t>
+  </si>
+  <si>
+    <t>6302</t>
+  </si>
+  <si>
+    <t>19820</t>
+  </si>
+  <si>
+    <t>3006</t>
+  </si>
+  <si>
+    <t>7610</t>
+  </si>
+  <si>
+    <t>16499</t>
+  </si>
+  <si>
+    <t>1780</t>
+  </si>
+  <si>
+    <t>1541</t>
+  </si>
+  <si>
     <t>29-may.</t>
+  </si>
+  <si>
+    <t>30-may.</t>
+  </si>
+  <si>
+    <t>30/05</t>
+  </si>
+  <si>
+    <t>Zaramaga</t>
   </si>
 </sst>
 </file>
@@ -3037,7 +3088,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office gaia">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3299,7 +3350,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S98"/>
+  <dimension ref="A1:S99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6638,6 +6689,65 @@
         <v>328</v>
       </c>
     </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A99" s="6" t="s">
+        <v>968</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>969</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>970</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>971</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>973</v>
+      </c>
+      <c r="G99" s="6" t="s">
+        <v>974</v>
+      </c>
+      <c r="H99" s="6" t="s">
+        <v>975</v>
+      </c>
+      <c r="I99" s="6" t="s">
+        <v>976</v>
+      </c>
+      <c r="J99" s="6" t="s">
+        <v>977</v>
+      </c>
+      <c r="K99" s="6" t="s">
+        <v>978</v>
+      </c>
+      <c r="L99" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="M99" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="N99" s="6" t="s">
+        <v>979</v>
+      </c>
+      <c r="O99" s="6" t="s">
+        <v>980</v>
+      </c>
+      <c r="P99" s="6" t="s">
+        <v>981</v>
+      </c>
+      <c r="Q99" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="R99" s="6" t="s">
+        <v>854</v>
+      </c>
+      <c r="S99" s="6" t="s">
+        <v>925</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6646,7 +6756,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C92"/>
+  <dimension ref="A1:C93"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7653,13 +7763,24 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>968</v>
+        <v>982</v>
       </c>
       <c r="B92">
         <v>7</v>
       </c>
       <c r="C92" s="10">
         <v>6.6270051832321233</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>983</v>
+      </c>
+      <c r="B93">
+        <v>5</v>
+      </c>
+      <c r="C93" s="10">
+        <v>6.12</v>
       </c>
     </row>
   </sheetData>
@@ -7672,7 +7793,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7681,8 +7804,8 @@
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="18.140625" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="23.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" customWidth="1"/>
     <col min="8" max="8" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7717,19 +7840,19 @@
         <v>43</v>
       </c>
       <c r="B2" s="6">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C2" s="6">
         <v>195423</v>
       </c>
       <c r="D2" s="6">
-        <v>35.819734626937461</v>
+        <v>36.331445121607999</v>
       </c>
       <c r="E2" s="3">
-        <v>3.5341041046094814E-3</v>
+        <v>3.5822401614530779E-3</v>
       </c>
       <c r="F2" s="6">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -7752,7 +7875,7 @@
         <v>94.987472315513486</v>
       </c>
       <c r="E3" s="3">
-        <v>9.8954914929065482E-3</v>
+        <v>9.8890010090817351E-3</v>
       </c>
       <c r="F3" s="6">
         <v>196</v>
@@ -7769,25 +7892,25 @@
         <v>44</v>
       </c>
       <c r="B4" s="6">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="C4" s="6">
         <v>194050</v>
       </c>
       <c r="D4" s="6">
-        <v>628.18861118268489</v>
+        <v>628.70394228291673</v>
       </c>
       <c r="E4" s="3">
-        <v>6.15438986216994E-2</v>
+        <v>6.1553985872855703E-2</v>
       </c>
       <c r="F4" s="6">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="G4" s="6">
         <v>2</v>
       </c>
       <c r="H4" s="3">
-        <v>1.6406890894175555E-3</v>
+        <v>1.639344262295082E-3</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -7804,7 +7927,7 @@
         <v>765.47946645442971</v>
       </c>
       <c r="E5" s="3">
-        <v>0.10294340384712475</v>
+        <v>0.10287588294651867</v>
       </c>
       <c r="F5" s="6">
         <v>2039</v>
@@ -7821,25 +7944,25 @@
         <v>46</v>
       </c>
       <c r="B6" s="6">
-        <v>3211</v>
+        <v>3218</v>
       </c>
       <c r="C6" s="6">
         <v>358785</v>
       </c>
       <c r="D6" s="6">
-        <v>894.96495115459118</v>
+        <v>896.91598032247725</v>
       </c>
       <c r="E6" s="3">
-        <v>0.16211440399858637</v>
+        <v>0.16236125126135217</v>
       </c>
       <c r="F6" s="6">
-        <v>3211</v>
+        <v>3218</v>
       </c>
       <c r="G6" s="6">
         <v>11</v>
       </c>
       <c r="H6" s="3">
-        <v>3.425724073497353E-3</v>
+        <v>3.4182722187694218E-3</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -7856,7 +7979,7 @@
         <v>1190.0996126506275</v>
       </c>
       <c r="E7" s="3">
-        <v>0.20134295955975159</v>
+        <v>0.2012108980827447</v>
       </c>
       <c r="F7" s="6">
         <v>3988</v>
@@ -7873,25 +7996,25 @@
         <v>136</v>
       </c>
       <c r="B8" s="6">
-        <v>2658</v>
+        <v>2660</v>
       </c>
       <c r="C8" s="6">
         <v>272250</v>
       </c>
       <c r="D8" s="6">
-        <v>976.3085399449036</v>
+        <v>977.04315886134066</v>
       </c>
       <c r="E8" s="3">
-        <v>0.13419498157217147</v>
+        <v>0.13420787083753785</v>
       </c>
       <c r="F8" s="6">
-        <v>2658</v>
+        <v>2660</v>
       </c>
       <c r="G8" s="6">
         <v>108</v>
       </c>
       <c r="H8" s="3">
-        <v>4.0632054176072234E-2</v>
+        <v>4.06015037593985E-2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -7908,16 +8031,16 @@
         <v>1085.2145697722731</v>
       </c>
       <c r="E9" s="3">
-        <v>0.11076892007876003</v>
+        <v>0.11069626639757821</v>
       </c>
       <c r="F9" s="6">
         <v>2194</v>
       </c>
       <c r="G9" s="6">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="H9" s="3">
-        <v>0.1349134001823154</v>
+        <v>0.13628076572470374</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -7925,25 +8048,25 @@
         <v>49</v>
       </c>
       <c r="B10" s="6">
-        <v>2639</v>
+        <v>2641</v>
       </c>
       <c r="C10" s="6">
         <v>127540</v>
       </c>
       <c r="D10" s="6">
-        <v>2069.1547749725578</v>
+        <v>2070.7229104594635</v>
       </c>
       <c r="E10" s="3">
-        <v>0.13323572474377746</v>
+        <v>0.1332492431886983</v>
       </c>
       <c r="F10" s="6">
-        <v>2639</v>
+        <v>2641</v>
       </c>
       <c r="G10" s="6">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="H10" s="3">
-        <v>0.23645320197044334</v>
+        <v>0.23703142748958728</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -7960,7 +8083,7 @@
         <v>5048.854503618235</v>
       </c>
       <c r="E11" s="3">
-        <v>7.6437623062553639E-2</v>
+        <v>7.6387487386478312E-2</v>
       </c>
       <c r="F11" s="6">
         <v>1514</v>
@@ -7980,7 +8103,7 @@
         <v>79</v>
       </c>
       <c r="E12" s="3">
-        <v>3.9884889180592719E-3</v>
+        <v>3.9858728557013116E-3</v>
       </c>
       <c r="H12" s="3"/>
     </row>
@@ -7989,25 +8112,25 @@
         <v>50</v>
       </c>
       <c r="B13">
-        <v>19807</v>
+        <v>19820</v>
       </c>
       <c r="C13">
         <v>2188017</v>
       </c>
       <c r="D13">
-        <v>905.24890802950802</v>
+        <v>905.84305332179781</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>19807</v>
+        <v>19820</v>
       </c>
       <c r="G13">
-        <v>1536</v>
+        <v>1541</v>
       </c>
       <c r="H13" s="3">
-        <v>7.7548341495430911E-2</v>
+        <v>7.7749747729566096E-2</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -8101,7 +8224,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R49"/>
+  <dimension ref="A1:S49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8111,12 +8234,12 @@
     <col min="2" max="8" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -8171,8 +8294,11 @@
       <c r="R2" t="s">
         <v>966</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S2" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -8227,8 +8353,11 @@
       <c r="R3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>331</v>
       </c>
@@ -8283,8 +8412,11 @@
       <c r="R4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>152</v>
       </c>
@@ -8339,8 +8471,11 @@
       <c r="R5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>313</v>
       </c>
@@ -8395,8 +8530,11 @@
       <c r="R6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -8451,8 +8589,11 @@
       <c r="R7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -8507,8 +8648,11 @@
       <c r="R8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -8563,8 +8707,11 @@
       <c r="R9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>232</v>
       </c>
@@ -8619,8 +8766,11 @@
       <c r="R10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>293</v>
       </c>
@@ -8675,8 +8825,11 @@
       <c r="R11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -8731,8 +8884,11 @@
       <c r="R12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>168</v>
       </c>
@@ -8787,8 +8943,11 @@
       <c r="R13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>294</v>
       </c>
@@ -8843,8 +9002,11 @@
       <c r="R14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -8899,8 +9061,11 @@
       <c r="R15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -8955,8 +9120,11 @@
       <c r="R16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -9011,8 +9179,11 @@
       <c r="R17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -9067,8 +9238,11 @@
       <c r="R18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -9123,8 +9297,11 @@
       <c r="R19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>169</v>
       </c>
@@ -9179,8 +9356,11 @@
       <c r="R20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>170</v>
       </c>
@@ -9235,8 +9415,11 @@
       <c r="R21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>552</v>
       </c>
@@ -9291,8 +9474,11 @@
       <c r="R22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -9347,8 +9533,11 @@
       <c r="R23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -9403,8 +9592,11 @@
       <c r="R24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -9459,8 +9651,11 @@
       <c r="R25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>54</v>
       </c>
@@ -9515,8 +9710,11 @@
       <c r="R26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -9571,8 +9769,11 @@
       <c r="R27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -9627,8 +9828,11 @@
       <c r="R28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>164</v>
       </c>
@@ -9683,8 +9887,11 @@
       <c r="R29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -9739,8 +9946,11 @@
       <c r="R30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -9795,8 +10005,11 @@
       <c r="R31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>484</v>
       </c>
@@ -9851,8 +10064,11 @@
       <c r="R32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -9907,8 +10123,11 @@
       <c r="R33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -9963,8 +10182,11 @@
       <c r="R34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>55</v>
       </c>
@@ -10019,8 +10241,11 @@
       <c r="R35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>165</v>
       </c>
@@ -10075,8 +10300,11 @@
       <c r="R36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>233</v>
       </c>
@@ -10131,8 +10359,11 @@
       <c r="R37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>153</v>
       </c>
@@ -10187,8 +10418,11 @@
       <c r="R38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>23</v>
       </c>
@@ -10243,8 +10477,11 @@
       <c r="R39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -10299,8 +10536,11 @@
       <c r="R40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>154</v>
       </c>
@@ -10355,8 +10595,11 @@
       <c r="R41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>155</v>
       </c>
@@ -10411,8 +10654,11 @@
       <c r="R42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -10467,8 +10713,11 @@
       <c r="R43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>156</v>
       </c>
@@ -10523,8 +10772,11 @@
       <c r="R44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -10579,8 +10831,11 @@
       <c r="R45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>234</v>
       </c>
@@ -10635,8 +10890,11 @@
       <c r="R46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>157</v>
       </c>
@@ -10691,8 +10949,11 @@
       <c r="R47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>24</v>
       </c>
@@ -10747,8 +11008,11 @@
       <c r="R48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>25</v>
       </c>
@@ -10801,6 +11065,9 @@
         <v>0</v>
       </c>
       <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
         <v>0</v>
       </c>
     </row>
@@ -10815,7 +11082,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R81"/>
+  <dimension ref="A1:S82"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10827,12 +11094,12 @@
     <col min="7" max="8" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>858</v>
       </c>
@@ -10887,8 +11154,11 @@
       <c r="R2" t="s">
         <v>966</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S2" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>860</v>
       </c>
@@ -10943,8 +11213,11 @@
       <c r="R3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>861</v>
       </c>
@@ -10999,8 +11272,11 @@
       <c r="R4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>862</v>
       </c>
@@ -11055,8 +11331,11 @@
       <c r="R5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>863</v>
       </c>
@@ -11111,8 +11390,11 @@
       <c r="R6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>864</v>
       </c>
@@ -11167,8 +11449,11 @@
       <c r="R7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>865</v>
       </c>
@@ -11223,8 +11508,11 @@
       <c r="R8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>866</v>
       </c>
@@ -11279,8 +11567,11 @@
       <c r="R9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>867</v>
       </c>
@@ -11335,8 +11626,11 @@
       <c r="R10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>868</v>
       </c>
@@ -11391,8 +11685,11 @@
       <c r="R11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>869</v>
       </c>
@@ -11447,8 +11744,11 @@
       <c r="R12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>870</v>
       </c>
@@ -11503,8 +11803,11 @@
       <c r="R13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>871</v>
       </c>
@@ -11559,8 +11862,11 @@
       <c r="R14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>872</v>
       </c>
@@ -11615,8 +11921,11 @@
       <c r="R15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>873</v>
       </c>
@@ -11671,8 +11980,11 @@
       <c r="R16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>874</v>
       </c>
@@ -11727,8 +12039,11 @@
       <c r="R17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>875</v>
       </c>
@@ -11783,8 +12098,11 @@
       <c r="R18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>876</v>
       </c>
@@ -11839,8 +12157,11 @@
       <c r="R19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>877</v>
       </c>
@@ -11895,8 +12216,11 @@
       <c r="R20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>878</v>
       </c>
@@ -11951,8 +12275,11 @@
       <c r="R21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>879</v>
       </c>
@@ -12007,8 +12334,11 @@
       <c r="R22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>880</v>
       </c>
@@ -12063,8 +12393,11 @@
       <c r="R23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>881</v>
       </c>
@@ -12119,8 +12452,11 @@
       <c r="R24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>882</v>
       </c>
@@ -12175,8 +12511,11 @@
       <c r="R25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>883</v>
       </c>
@@ -12231,8 +12570,11 @@
       <c r="R26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>884</v>
       </c>
@@ -12287,8 +12629,11 @@
       <c r="R27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>967</v>
       </c>
@@ -12343,8 +12688,11 @@
       <c r="R28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>885</v>
       </c>
@@ -12399,8 +12747,11 @@
       <c r="R29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>886</v>
       </c>
@@ -12455,8 +12806,11 @@
       <c r="R30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>887</v>
       </c>
@@ -12511,8 +12865,11 @@
       <c r="R31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>888</v>
       </c>
@@ -12567,8 +12924,11 @@
       <c r="R32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>928</v>
       </c>
@@ -12623,8 +12983,11 @@
       <c r="R33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>889</v>
       </c>
@@ -12679,8 +13042,11 @@
       <c r="R34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>890</v>
       </c>
@@ -12735,8 +13101,11 @@
       <c r="R35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>891</v>
       </c>
@@ -12791,8 +13160,11 @@
       <c r="R36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>892</v>
       </c>
@@ -12847,8 +13219,11 @@
       <c r="R37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>893</v>
       </c>
@@ -12903,8 +13278,11 @@
       <c r="R38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>894</v>
       </c>
@@ -12959,8 +13337,11 @@
       <c r="R39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>895</v>
       </c>
@@ -13015,8 +13396,11 @@
       <c r="R40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>896</v>
       </c>
@@ -13071,8 +13455,11 @@
       <c r="R41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>897</v>
       </c>
@@ -13127,8 +13514,11 @@
       <c r="R42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>898</v>
       </c>
@@ -13183,8 +13573,11 @@
       <c r="R43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>899</v>
       </c>
@@ -13239,8 +13632,11 @@
       <c r="R44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>900</v>
       </c>
@@ -13295,8 +13691,11 @@
       <c r="R45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>901</v>
       </c>
@@ -13351,8 +13750,11 @@
       <c r="R46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>902</v>
       </c>
@@ -13407,8 +13809,11 @@
       <c r="R47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>903</v>
       </c>
@@ -13463,8 +13868,11 @@
       <c r="R48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>904</v>
       </c>
@@ -13519,8 +13927,11 @@
       <c r="R49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>905</v>
       </c>
@@ -13575,8 +13986,11 @@
       <c r="R50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>906</v>
       </c>
@@ -13631,8 +14045,11 @@
       <c r="R51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>907</v>
       </c>
@@ -13687,8 +14104,11 @@
       <c r="R52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>908</v>
       </c>
@@ -13743,8 +14163,11 @@
       <c r="R53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>166</v>
       </c>
@@ -13799,8 +14222,11 @@
       <c r="R54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>909</v>
       </c>
@@ -13855,8 +14281,11 @@
       <c r="R55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>27</v>
       </c>
@@ -13911,8 +14340,11 @@
       <c r="R56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>28</v>
       </c>
@@ -13967,8 +14399,11 @@
       <c r="R57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>29</v>
       </c>
@@ -14023,8 +14458,11 @@
       <c r="R58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>30</v>
       </c>
@@ -14079,8 +14517,11 @@
       <c r="R59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>31</v>
       </c>
@@ -14135,8 +14576,11 @@
       <c r="R60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>52</v>
       </c>
@@ -14191,8 +14635,11 @@
       <c r="R61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>32</v>
       </c>
@@ -14247,8 +14694,11 @@
       <c r="R62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>33</v>
       </c>
@@ -14303,8 +14753,11 @@
       <c r="R63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>34</v>
       </c>
@@ -14359,8 +14812,11 @@
       <c r="R64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>35</v>
       </c>
@@ -14415,8 +14871,11 @@
       <c r="R65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>36</v>
       </c>
@@ -14471,8 +14930,11 @@
       <c r="R66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>37</v>
       </c>
@@ -14527,8 +14989,11 @@
       <c r="R67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>332</v>
       </c>
@@ -14583,8 +15048,11 @@
       <c r="R68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>53</v>
       </c>
@@ -14639,8 +15107,11 @@
       <c r="R69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>158</v>
       </c>
@@ -14695,8 +15166,11 @@
       <c r="R70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>38</v>
       </c>
@@ -14751,8 +15225,11 @@
       <c r="R71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>39</v>
       </c>
@@ -14807,8 +15284,11 @@
       <c r="R72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>159</v>
       </c>
@@ -14863,8 +15343,11 @@
       <c r="R73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>40</v>
       </c>
@@ -14919,8 +15402,11 @@
       <c r="R74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>333</v>
       </c>
@@ -14975,8 +15461,11 @@
       <c r="R75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>160</v>
       </c>
@@ -15031,284 +15520,331 @@
       <c r="R76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>985</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>171</v>
       </c>
-      <c r="B77">
-        <v>0</v>
-      </c>
-      <c r="C77">
-        <v>0</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-      <c r="G77">
-        <v>1</v>
-      </c>
-      <c r="H77">
-        <v>0</v>
-      </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
-      <c r="J77">
-        <v>0</v>
-      </c>
-      <c r="K77">
-        <v>0</v>
-      </c>
-      <c r="L77">
-        <v>0</v>
-      </c>
-      <c r="M77">
-        <v>0</v>
-      </c>
-      <c r="N77">
-        <v>0</v>
-      </c>
-      <c r="O77">
-        <v>0</v>
-      </c>
-      <c r="P77">
-        <v>0</v>
-      </c>
-      <c r="Q77">
-        <v>0</v>
-      </c>
-      <c r="R77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>41</v>
       </c>
-      <c r="B78">
-        <v>0</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78">
-        <v>0</v>
-      </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
-      <c r="H78">
-        <v>0</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-      <c r="J78">
-        <v>0</v>
-      </c>
-      <c r="K78">
-        <v>0</v>
-      </c>
-      <c r="L78">
-        <v>0</v>
-      </c>
-      <c r="M78">
-        <v>0</v>
-      </c>
-      <c r="N78">
-        <v>0</v>
-      </c>
-      <c r="O78">
-        <v>1</v>
-      </c>
-      <c r="P78">
-        <v>0</v>
-      </c>
-      <c r="Q78">
-        <v>0</v>
-      </c>
-      <c r="R78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>1</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>161</v>
       </c>
-      <c r="B79">
-        <v>0</v>
-      </c>
-      <c r="C79">
-        <v>0</v>
-      </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-      <c r="E79">
-        <v>1</v>
-      </c>
-      <c r="F79">
-        <v>0</v>
-      </c>
-      <c r="G79">
-        <v>0</v>
-      </c>
-      <c r="H79">
-        <v>0</v>
-      </c>
-      <c r="I79">
-        <v>0</v>
-      </c>
-      <c r="J79">
-        <v>0</v>
-      </c>
-      <c r="K79">
-        <v>0</v>
-      </c>
-      <c r="L79">
-        <v>0</v>
-      </c>
-      <c r="M79">
-        <v>0</v>
-      </c>
-      <c r="N79">
-        <v>0</v>
-      </c>
-      <c r="O79">
-        <v>0</v>
-      </c>
-      <c r="P79">
-        <v>0</v>
-      </c>
-      <c r="Q79">
-        <v>0</v>
-      </c>
-      <c r="R79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>235</v>
       </c>
-      <c r="B80">
-        <v>0</v>
-      </c>
-      <c r="C80">
-        <v>0</v>
-      </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-      <c r="F80">
-        <v>0</v>
-      </c>
-      <c r="G80">
-        <v>0</v>
-      </c>
-      <c r="H80">
-        <v>1</v>
-      </c>
-      <c r="I80">
-        <v>0</v>
-      </c>
-      <c r="J80">
-        <v>0</v>
-      </c>
-      <c r="K80">
-        <v>0</v>
-      </c>
-      <c r="L80">
-        <v>0</v>
-      </c>
-      <c r="M80">
-        <v>0</v>
-      </c>
-      <c r="N80">
-        <v>0</v>
-      </c>
-      <c r="O80">
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81">
         <v>2</v>
       </c>
-      <c r="P80">
-        <v>0</v>
-      </c>
-      <c r="Q80">
-        <v>0</v>
-      </c>
-      <c r="R80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <v>0</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>42</v>
       </c>
-      <c r="B81">
+      <c r="B82">
         <v>4</v>
       </c>
-      <c r="C81">
+      <c r="C82">
         <v>2</v>
       </c>
-      <c r="D81">
+      <c r="D82">
         <v>3</v>
       </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-      <c r="F81">
-        <v>1</v>
-      </c>
-      <c r="G81">
-        <v>0</v>
-      </c>
-      <c r="H81">
-        <v>0</v>
-      </c>
-      <c r="I81">
-        <v>0</v>
-      </c>
-      <c r="J81">
-        <v>1</v>
-      </c>
-      <c r="K81">
-        <v>1</v>
-      </c>
-      <c r="L81">
-        <v>0</v>
-      </c>
-      <c r="M81">
-        <v>0</v>
-      </c>
-      <c r="N81">
-        <v>0</v>
-      </c>
-      <c r="O81">
-        <v>0</v>
-      </c>
-      <c r="P81">
-        <v>0</v>
-      </c>
-      <c r="Q81">
-        <v>0</v>
-      </c>
-      <c r="R81">
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82">
+        <v>0</v>
+      </c>
+      <c r="S82">
         <v>0</v>
       </c>
     </row>
@@ -15321,15 +15857,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E223"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.140625" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" style="14" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="14" customWidth="1"/>
     <col min="4" max="4" width="26.85546875" style="15" customWidth="1"/>
     <col min="5" max="16384" width="8.85546875" style="14"/>
   </cols>
@@ -18457,9 +18991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E137"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A109" sqref="A109"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/data/original/spain/euskadi/situacion-epidemiologica.xlsx
+++ b/data/original/spain/euskadi/situacion-epidemiologica.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iargueso\Desktop\covid19\BERRIA\30\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iargueso\Desktop\covid19\BERRIA\31\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19425" windowHeight="9195"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="01" sheetId="17" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="986">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="1001">
   <si>
     <t>UDALERRIA / MUNICIPIO</t>
   </si>
@@ -2983,6 +2983,51 @@
   </si>
   <si>
     <t>Zaramaga</t>
+  </si>
+  <si>
+    <t>2020/5/31</t>
+  </si>
+  <si>
+    <t>202947</t>
+  </si>
+  <si>
+    <t>113875</t>
+  </si>
+  <si>
+    <t>178342</t>
+  </si>
+  <si>
+    <t>151624</t>
+  </si>
+  <si>
+    <t>69297</t>
+  </si>
+  <si>
+    <t>6315</t>
+  </si>
+  <si>
+    <t>19833</t>
+  </si>
+  <si>
+    <t>16510</t>
+  </si>
+  <si>
+    <t>1782</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>0,68</t>
+  </si>
+  <si>
+    <t>31-may.</t>
+  </si>
+  <si>
+    <t>31/05</t>
   </si>
 </sst>
 </file>
@@ -3088,7 +3133,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office gaia">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3350,7 +3395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S99"/>
+  <dimension ref="A1:S100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6748,6 +6793,65 @@
         <v>925</v>
       </c>
     </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A100" s="6" t="s">
+        <v>986</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>987</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>988</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>989</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>990</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>991</v>
+      </c>
+      <c r="G100" s="6" t="s">
+        <v>974</v>
+      </c>
+      <c r="H100" s="6" t="s">
+        <v>992</v>
+      </c>
+      <c r="I100" s="6" t="s">
+        <v>993</v>
+      </c>
+      <c r="J100" s="6" t="s">
+        <v>977</v>
+      </c>
+      <c r="K100" s="6" t="s">
+        <v>978</v>
+      </c>
+      <c r="L100" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="M100" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="N100" s="6" t="s">
+        <v>994</v>
+      </c>
+      <c r="O100" s="6" t="s">
+        <v>995</v>
+      </c>
+      <c r="P100" s="6" t="s">
+        <v>981</v>
+      </c>
+      <c r="Q100" s="6" t="s">
+        <v>996</v>
+      </c>
+      <c r="R100" s="6" t="s">
+        <v>997</v>
+      </c>
+      <c r="S100" s="6" t="s">
+        <v>998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6756,9 +6860,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C93"/>
+  <dimension ref="A1:C94"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C95" sqref="C95"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7783,6 +7889,17 @@
         <v>6.12</v>
       </c>
     </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>999</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94" s="10">
+        <v>5.85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7793,9 +7910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7804,8 +7919,8 @@
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="18.140625" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" customWidth="1"/>
     <col min="8" max="8" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7849,7 +7964,7 @@
         <v>36.331445121607999</v>
       </c>
       <c r="E2" s="3">
-        <v>3.5822401614530779E-3</v>
+        <v>3.5798920990268743E-3</v>
       </c>
       <c r="F2" s="6">
         <v>71</v>
@@ -7875,7 +7990,7 @@
         <v>94.987472315513486</v>
       </c>
       <c r="E3" s="3">
-        <v>9.8890010090817351E-3</v>
+        <v>9.8825190339333433E-3</v>
       </c>
       <c r="F3" s="6">
         <v>196</v>
@@ -7901,7 +8016,7 @@
         <v>628.70394228291673</v>
       </c>
       <c r="E4" s="3">
-        <v>6.1553985872855703E-2</v>
+        <v>6.1513638884687138E-2</v>
       </c>
       <c r="F4" s="6">
         <v>1220</v>
@@ -7918,25 +8033,25 @@
         <v>45</v>
       </c>
       <c r="B5" s="6">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="C5" s="6">
         <v>266369</v>
       </c>
       <c r="D5" s="6">
-        <v>765.47946645442971</v>
+        <v>765.85488551595722</v>
       </c>
       <c r="E5" s="3">
-        <v>0.10287588294651867</v>
+        <v>0.10285887157767358</v>
       </c>
       <c r="F5" s="6">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="G5" s="6">
         <v>4</v>
       </c>
       <c r="H5" s="3">
-        <v>1.9617459538989702E-3</v>
+        <v>1.9607843137254902E-3</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -7944,25 +8059,25 @@
         <v>46</v>
       </c>
       <c r="B6" s="6">
-        <v>3218</v>
+        <v>3220</v>
       </c>
       <c r="C6" s="6">
         <v>358785</v>
       </c>
       <c r="D6" s="6">
-        <v>896.91598032247725</v>
+        <v>897.47341722758756</v>
       </c>
       <c r="E6" s="3">
-        <v>0.16236125126135217</v>
+        <v>0.16235566984319064</v>
       </c>
       <c r="F6" s="6">
-        <v>3218</v>
+        <v>3220</v>
       </c>
       <c r="G6" s="6">
         <v>11</v>
       </c>
       <c r="H6" s="3">
-        <v>3.4182722187694218E-3</v>
+        <v>3.4161490683229812E-3</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -7970,25 +8085,25 @@
         <v>47</v>
       </c>
       <c r="B7" s="6">
-        <v>3988</v>
+        <v>3992</v>
       </c>
       <c r="C7" s="6">
         <v>335098</v>
       </c>
       <c r="D7" s="6">
-        <v>1190.0996126506275</v>
+        <v>1191.2932933052421</v>
       </c>
       <c r="E7" s="3">
-        <v>0.2012108980827447</v>
+        <v>0.20128069379317298</v>
       </c>
       <c r="F7" s="6">
-        <v>3988</v>
+        <v>3992</v>
       </c>
       <c r="G7" s="6">
         <v>26</v>
       </c>
       <c r="H7" s="3">
-        <v>6.5195586760280842E-3</v>
+        <v>6.513026052104208E-3</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -7996,25 +8111,25 @@
         <v>136</v>
       </c>
       <c r="B8" s="6">
-        <v>2660</v>
+        <v>2664</v>
       </c>
       <c r="C8" s="6">
         <v>272250</v>
       </c>
       <c r="D8" s="6">
-        <v>977.04315886134066</v>
+        <v>978.51239669421489</v>
       </c>
       <c r="E8" s="3">
-        <v>0.13420787083753785</v>
+        <v>0.13432158523672666</v>
       </c>
       <c r="F8" s="6">
-        <v>2660</v>
+        <v>2664</v>
       </c>
       <c r="G8" s="6">
         <v>108</v>
       </c>
       <c r="H8" s="3">
-        <v>4.06015037593985E-2</v>
+        <v>4.0540540540540543E-2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -8022,25 +8137,25 @@
         <v>48</v>
       </c>
       <c r="B9" s="6">
-        <v>2194</v>
+        <v>2195</v>
       </c>
       <c r="C9" s="6">
         <v>202172</v>
       </c>
       <c r="D9" s="6">
-        <v>1085.2145697722731</v>
+        <v>1085.7091981085412</v>
       </c>
       <c r="E9" s="3">
-        <v>0.11069626639757821</v>
+        <v>0.11067412897695759</v>
       </c>
       <c r="F9" s="6">
-        <v>2194</v>
+        <v>2195</v>
       </c>
       <c r="G9" s="6">
         <v>299</v>
       </c>
       <c r="H9" s="3">
-        <v>0.13628076572470374</v>
+        <v>0.13621867881548974</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -8048,25 +8163,25 @@
         <v>49</v>
       </c>
       <c r="B10" s="6">
-        <v>2641</v>
+        <v>2642</v>
       </c>
       <c r="C10" s="6">
         <v>127540</v>
       </c>
       <c r="D10" s="6">
-        <v>2070.7229104594635</v>
+        <v>2071.5069782029168</v>
       </c>
       <c r="E10" s="3">
-        <v>0.1332492431886983</v>
+        <v>0.13321232289618312</v>
       </c>
       <c r="F10" s="6">
-        <v>2641</v>
+        <v>2642</v>
       </c>
       <c r="G10" s="6">
         <v>626</v>
       </c>
       <c r="H10" s="3">
-        <v>0.23703142748958728</v>
+        <v>0.23694171082513246</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -8083,7 +8198,7 @@
         <v>5048.854503618235</v>
       </c>
       <c r="E11" s="3">
-        <v>7.6387487386478312E-2</v>
+        <v>7.6337417435587154E-2</v>
       </c>
       <c r="F11" s="6">
         <v>1514</v>
@@ -8103,7 +8218,7 @@
         <v>79</v>
       </c>
       <c r="E12" s="3">
-        <v>3.9858728557013116E-3</v>
+        <v>3.9832602228608883E-3</v>
       </c>
       <c r="H12" s="3"/>
     </row>
@@ -8112,25 +8227,25 @@
         <v>50</v>
       </c>
       <c r="B13">
-        <v>19820</v>
+        <v>19833</v>
       </c>
       <c r="C13">
         <v>2188017</v>
       </c>
       <c r="D13">
-        <v>905.84305332179781</v>
+        <v>906.43719861408761</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>19820</v>
+        <v>19833</v>
       </c>
       <c r="G13">
         <v>1541</v>
       </c>
       <c r="H13" s="3">
-        <v>7.7749747729566096E-2</v>
+        <v>7.769878485352695E-2</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -8224,7 +8339,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S49"/>
+  <dimension ref="A1:T49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8234,12 +8349,12 @@
     <col min="2" max="8" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -8297,8 +8412,11 @@
       <c r="S2" t="s">
         <v>984</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T2" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -8356,8 +8474,11 @@
       <c r="S3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>331</v>
       </c>
@@ -8415,8 +8536,11 @@
       <c r="S4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>152</v>
       </c>
@@ -8474,8 +8598,11 @@
       <c r="S5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>313</v>
       </c>
@@ -8533,8 +8660,11 @@
       <c r="S6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -8592,8 +8722,11 @@
       <c r="S7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -8651,8 +8784,11 @@
       <c r="S8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -8710,8 +8846,11 @@
       <c r="S9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>232</v>
       </c>
@@ -8769,8 +8908,11 @@
       <c r="S10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>293</v>
       </c>
@@ -8828,8 +8970,11 @@
       <c r="S11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -8887,8 +9032,11 @@
       <c r="S12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>168</v>
       </c>
@@ -8946,8 +9094,11 @@
       <c r="S13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>294</v>
       </c>
@@ -9005,8 +9156,11 @@
       <c r="S14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -9064,8 +9218,11 @@
       <c r="S15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -9123,8 +9280,11 @@
       <c r="S16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -9182,8 +9342,11 @@
       <c r="S17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -9241,8 +9404,11 @@
       <c r="S18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -9300,8 +9466,11 @@
       <c r="S19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>169</v>
       </c>
@@ -9359,8 +9528,11 @@
       <c r="S20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>170</v>
       </c>
@@ -9418,8 +9590,11 @@
       <c r="S21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>552</v>
       </c>
@@ -9477,8 +9652,11 @@
       <c r="S22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -9536,8 +9714,11 @@
       <c r="S23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -9595,8 +9776,11 @@
       <c r="S24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -9654,8 +9838,11 @@
       <c r="S25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>54</v>
       </c>
@@ -9713,8 +9900,11 @@
       <c r="S26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -9772,8 +9962,11 @@
       <c r="S27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -9831,8 +10024,11 @@
       <c r="S28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>164</v>
       </c>
@@ -9890,8 +10086,11 @@
       <c r="S29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -9949,8 +10148,11 @@
       <c r="S30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -10008,8 +10210,11 @@
       <c r="S31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>484</v>
       </c>
@@ -10067,8 +10272,11 @@
       <c r="S32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -10126,8 +10334,11 @@
       <c r="S33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -10185,8 +10396,11 @@
       <c r="S34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>55</v>
       </c>
@@ -10244,8 +10458,11 @@
       <c r="S35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>165</v>
       </c>
@@ -10303,8 +10520,11 @@
       <c r="S36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>233</v>
       </c>
@@ -10362,8 +10582,11 @@
       <c r="S37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>153</v>
       </c>
@@ -10421,8 +10644,11 @@
       <c r="S38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>23</v>
       </c>
@@ -10480,8 +10706,11 @@
       <c r="S39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -10539,8 +10768,11 @@
       <c r="S40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>154</v>
       </c>
@@ -10598,8 +10830,11 @@
       <c r="S41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>155</v>
       </c>
@@ -10657,8 +10892,11 @@
       <c r="S42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -10716,8 +10954,11 @@
       <c r="S43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>156</v>
       </c>
@@ -10775,8 +11016,11 @@
       <c r="S44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -10834,8 +11078,11 @@
       <c r="S45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>234</v>
       </c>
@@ -10893,8 +11140,11 @@
       <c r="S46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>157</v>
       </c>
@@ -10952,8 +11202,11 @@
       <c r="S47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>24</v>
       </c>
@@ -11011,8 +11264,11 @@
       <c r="S48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>25</v>
       </c>
@@ -11068,6 +11324,9 @@
         <v>0</v>
       </c>
       <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
         <v>0</v>
       </c>
     </row>
@@ -11082,7 +11341,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S82"/>
+  <dimension ref="A1:T82"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11094,12 +11353,12 @@
     <col min="7" max="8" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>858</v>
       </c>
@@ -11157,8 +11416,11 @@
       <c r="S2" t="s">
         <v>984</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T2" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>860</v>
       </c>
@@ -11216,8 +11478,11 @@
       <c r="S3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>861</v>
       </c>
@@ -11275,8 +11540,11 @@
       <c r="S4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>862</v>
       </c>
@@ -11334,8 +11602,11 @@
       <c r="S5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>863</v>
       </c>
@@ -11393,8 +11664,11 @@
       <c r="S6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>864</v>
       </c>
@@ -11452,8 +11726,11 @@
       <c r="S7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>865</v>
       </c>
@@ -11511,8 +11788,11 @@
       <c r="S8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>866</v>
       </c>
@@ -11570,8 +11850,11 @@
       <c r="S9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>867</v>
       </c>
@@ -11629,8 +11912,11 @@
       <c r="S10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>868</v>
       </c>
@@ -11688,8 +11974,11 @@
       <c r="S11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>869</v>
       </c>
@@ -11747,8 +12036,11 @@
       <c r="S12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>870</v>
       </c>
@@ -11806,8 +12098,11 @@
       <c r="S13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>871</v>
       </c>
@@ -11865,8 +12160,11 @@
       <c r="S14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>872</v>
       </c>
@@ -11924,8 +12222,11 @@
       <c r="S15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>873</v>
       </c>
@@ -11983,8 +12284,11 @@
       <c r="S16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>874</v>
       </c>
@@ -12042,8 +12346,11 @@
       <c r="S17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>875</v>
       </c>
@@ -12101,8 +12408,11 @@
       <c r="S18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>876</v>
       </c>
@@ -12160,8 +12470,11 @@
       <c r="S19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>877</v>
       </c>
@@ -12219,8 +12532,11 @@
       <c r="S20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>878</v>
       </c>
@@ -12278,8 +12594,11 @@
       <c r="S21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>879</v>
       </c>
@@ -12337,8 +12656,11 @@
       <c r="S22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>880</v>
       </c>
@@ -12391,13 +12713,16 @@
         <v>0</v>
       </c>
       <c r="R23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>881</v>
       </c>
@@ -12455,8 +12780,11 @@
       <c r="S24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>882</v>
       </c>
@@ -12514,8 +12842,11 @@
       <c r="S25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>883</v>
       </c>
@@ -12573,8 +12904,11 @@
       <c r="S26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>884</v>
       </c>
@@ -12632,8 +12966,11 @@
       <c r="S27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>967</v>
       </c>
@@ -12691,8 +13028,11 @@
       <c r="S28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>885</v>
       </c>
@@ -12750,8 +13090,11 @@
       <c r="S29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>886</v>
       </c>
@@ -12804,13 +13147,16 @@
         <v>0</v>
       </c>
       <c r="R30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>887</v>
       </c>
@@ -12868,8 +13214,11 @@
       <c r="S31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>888</v>
       </c>
@@ -12927,8 +13276,11 @@
       <c r="S32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>928</v>
       </c>
@@ -12986,8 +13338,11 @@
       <c r="S33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>889</v>
       </c>
@@ -13045,8 +13400,11 @@
       <c r="S34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>890</v>
       </c>
@@ -13104,8 +13462,11 @@
       <c r="S35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>891</v>
       </c>
@@ -13163,8 +13524,11 @@
       <c r="S36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>892</v>
       </c>
@@ -13222,8 +13586,11 @@
       <c r="S37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>893</v>
       </c>
@@ -13281,8 +13648,11 @@
       <c r="S38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>894</v>
       </c>
@@ -13340,8 +13710,11 @@
       <c r="S39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>895</v>
       </c>
@@ -13399,8 +13772,11 @@
       <c r="S40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>896</v>
       </c>
@@ -13458,8 +13834,11 @@
       <c r="S41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>897</v>
       </c>
@@ -13517,8 +13896,11 @@
       <c r="S42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>898</v>
       </c>
@@ -13576,8 +13958,11 @@
       <c r="S43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>899</v>
       </c>
@@ -13635,8 +14020,11 @@
       <c r="S44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>900</v>
       </c>
@@ -13694,8 +14082,11 @@
       <c r="S45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>901</v>
       </c>
@@ -13753,8 +14144,11 @@
       <c r="S46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>902</v>
       </c>
@@ -13812,8 +14206,11 @@
       <c r="S47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>903</v>
       </c>
@@ -13871,8 +14268,11 @@
       <c r="S48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>904</v>
       </c>
@@ -13930,8 +14330,11 @@
       <c r="S49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>905</v>
       </c>
@@ -13989,8 +14392,11 @@
       <c r="S50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>906</v>
       </c>
@@ -14048,8 +14454,11 @@
       <c r="S51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>907</v>
       </c>
@@ -14107,8 +14516,11 @@
       <c r="S52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>908</v>
       </c>
@@ -14166,8 +14578,11 @@
       <c r="S53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>166</v>
       </c>
@@ -14225,8 +14640,11 @@
       <c r="S54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>909</v>
       </c>
@@ -14284,8 +14702,11 @@
       <c r="S55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>27</v>
       </c>
@@ -14343,8 +14764,11 @@
       <c r="S56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>28</v>
       </c>
@@ -14402,8 +14826,11 @@
       <c r="S57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>29</v>
       </c>
@@ -14461,8 +14888,11 @@
       <c r="S58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>30</v>
       </c>
@@ -14520,8 +14950,11 @@
       <c r="S59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>31</v>
       </c>
@@ -14579,8 +15012,11 @@
       <c r="S60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>52</v>
       </c>
@@ -14638,8 +15074,11 @@
       <c r="S61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>32</v>
       </c>
@@ -14697,8 +15136,11 @@
       <c r="S62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>33</v>
       </c>
@@ -14756,8 +15198,11 @@
       <c r="S63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>34</v>
       </c>
@@ -14815,8 +15260,11 @@
       <c r="S64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>35</v>
       </c>
@@ -14874,8 +15322,11 @@
       <c r="S65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>36</v>
       </c>
@@ -14933,8 +15384,11 @@
       <c r="S66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>37</v>
       </c>
@@ -14992,8 +15446,11 @@
       <c r="S67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>332</v>
       </c>
@@ -15051,8 +15508,11 @@
       <c r="S68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>53</v>
       </c>
@@ -15110,8 +15570,11 @@
       <c r="S69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>158</v>
       </c>
@@ -15169,8 +15632,11 @@
       <c r="S70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>38</v>
       </c>
@@ -15228,8 +15694,11 @@
       <c r="S71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>39</v>
       </c>
@@ -15287,8 +15756,11 @@
       <c r="S72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>159</v>
       </c>
@@ -15346,8 +15818,11 @@
       <c r="S73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>40</v>
       </c>
@@ -15405,8 +15880,11 @@
       <c r="S74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>333</v>
       </c>
@@ -15464,69 +15942,105 @@
       <c r="S75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>985</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>1</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>160</v>
       </c>
-      <c r="B76">
-        <v>0</v>
-      </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76">
-        <v>1</v>
-      </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-      <c r="H76">
-        <v>0</v>
-      </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
-      <c r="K76">
-        <v>0</v>
-      </c>
-      <c r="L76">
-        <v>0</v>
-      </c>
-      <c r="M76">
-        <v>0</v>
-      </c>
-      <c r="N76">
-        <v>0</v>
-      </c>
-      <c r="O76">
-        <v>0</v>
-      </c>
-      <c r="P76">
-        <v>0</v>
-      </c>
-      <c r="Q76">
-        <v>0</v>
-      </c>
-      <c r="R76">
-        <v>0</v>
-      </c>
-      <c r="S76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>985</v>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
       </c>
       <c r="L77">
         <v>0</v>
@@ -15550,10 +16064,13 @@
         <v>0</v>
       </c>
       <c r="S77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>171</v>
       </c>
@@ -15611,8 +16128,11 @@
       <c r="S78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>41</v>
       </c>
@@ -15670,8 +16190,11 @@
       <c r="S79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>161</v>
       </c>
@@ -15729,8 +16252,11 @@
       <c r="S80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>235</v>
       </c>
@@ -15788,8 +16314,11 @@
       <c r="S81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>42</v>
       </c>
@@ -15845,6 +16374,9 @@
         <v>0</v>
       </c>
       <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
         <v>0</v>
       </c>
     </row>
@@ -15863,7 +16395,7 @@
   <cols>
     <col min="1" max="1" width="32.140625" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" style="14" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="14" customWidth="1"/>
     <col min="4" max="4" width="26.85546875" style="15" customWidth="1"/>
     <col min="5" max="16384" width="8.85546875" style="14"/>
   </cols>

--- a/data/original/spain/euskadi/situacion-epidemiologica.xlsx
+++ b/data/original/spain/euskadi/situacion-epidemiologica.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iargueso\Desktop\covid19\BERRIA\31\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iargueso\Desktop\covid19\Ekaina\01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11460" windowHeight="9075"/>
   </bookViews>
   <sheets>
     <sheet name="01" sheetId="17" r:id="rId1"/>
@@ -20,12 +20,12 @@
     <sheet name="06" sheetId="18" r:id="rId6"/>
     <sheet name="07" sheetId="19" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="1001">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="1017">
   <si>
     <t>UDALERRIA / MUNICIPIO</t>
   </si>
@@ -3028,6 +3028,54 @@
   </si>
   <si>
     <t>31/05</t>
+  </si>
+  <si>
+    <t>2020/6/01</t>
+  </si>
+  <si>
+    <t>204749</t>
+  </si>
+  <si>
+    <t>114976</t>
+  </si>
+  <si>
+    <t>180442</t>
+  </si>
+  <si>
+    <t>153022</t>
+  </si>
+  <si>
+    <t>69936</t>
+  </si>
+  <si>
+    <t>13522</t>
+  </si>
+  <si>
+    <t>6372</t>
+  </si>
+  <si>
+    <t>19894</t>
+  </si>
+  <si>
+    <t>3010</t>
+  </si>
+  <si>
+    <t>16547</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1543</t>
+  </si>
+  <si>
+    <t>0,72</t>
+  </si>
+  <si>
+    <t>01-jun.</t>
+  </si>
+  <si>
+    <t>01/06</t>
   </si>
 </sst>
 </file>
@@ -3395,7 +3443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S100"/>
+  <dimension ref="A1:S101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6852,6 +6900,65 @@
         <v>998</v>
       </c>
     </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A101" s="6" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>1006</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H101" s="6" t="s">
+        <v>1008</v>
+      </c>
+      <c r="I101" s="6" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J101" s="6" t="s">
+        <v>1010</v>
+      </c>
+      <c r="K101" s="6" t="s">
+        <v>978</v>
+      </c>
+      <c r="L101" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="M101" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="N101" s="6" t="s">
+        <v>1011</v>
+      </c>
+      <c r="O101" s="6" t="s">
+        <v>1012</v>
+      </c>
+      <c r="P101" s="6" t="s">
+        <v>1013</v>
+      </c>
+      <c r="Q101" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="R101" s="6" t="s">
+        <v>854</v>
+      </c>
+      <c r="S101" s="6" t="s">
+        <v>1014</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6860,11 +6967,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C94"/>
+  <dimension ref="A1:C95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C95" sqref="C95"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7900,6 +8005,17 @@
         <v>5.85</v>
       </c>
     </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B95">
+        <v>4</v>
+      </c>
+      <c r="C95" s="10">
+        <v>5.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7910,7 +8026,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7964,7 +8082,7 @@
         <v>36.331445121607999</v>
       </c>
       <c r="E2" s="3">
-        <v>3.5798920990268743E-3</v>
+        <v>3.5689152508293956E-3</v>
       </c>
       <c r="F2" s="6">
         <v>71</v>
@@ -7990,7 +8108,7 @@
         <v>94.987472315513486</v>
       </c>
       <c r="E3" s="3">
-        <v>9.8825190339333433E-3</v>
+        <v>9.852216748768473E-3</v>
       </c>
       <c r="F3" s="6">
         <v>196</v>
@@ -8007,25 +8125,25 @@
         <v>44</v>
       </c>
       <c r="B4" s="6">
-        <v>1220</v>
+        <v>1226</v>
       </c>
       <c r="C4" s="6">
         <v>194050</v>
       </c>
       <c r="D4" s="6">
-        <v>628.70394228291673</v>
+        <v>631.79592888430818</v>
       </c>
       <c r="E4" s="3">
-        <v>6.1513638884687138E-2</v>
+        <v>6.1626621091786467E-2</v>
       </c>
       <c r="F4" s="6">
-        <v>1220</v>
+        <v>1226</v>
       </c>
       <c r="G4" s="6">
         <v>2</v>
       </c>
       <c r="H4" s="3">
-        <v>1.639344262295082E-3</v>
+        <v>1.6313213703099511E-3</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -8033,25 +8151,25 @@
         <v>45</v>
       </c>
       <c r="B5" s="6">
-        <v>2040</v>
+        <v>2047</v>
       </c>
       <c r="C5" s="6">
         <v>266369</v>
       </c>
       <c r="D5" s="6">
-        <v>765.85488551595722</v>
+        <v>768.48281894664922</v>
       </c>
       <c r="E5" s="3">
-        <v>0.10285887157767358</v>
+        <v>0.10289534533025033</v>
       </c>
       <c r="F5" s="6">
-        <v>2040</v>
+        <v>2047</v>
       </c>
       <c r="G5" s="6">
         <v>4</v>
       </c>
       <c r="H5" s="3">
-        <v>1.9607843137254902E-3</v>
+        <v>1.9540791402051783E-3</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -8059,25 +8177,25 @@
         <v>46</v>
       </c>
       <c r="B6" s="6">
-        <v>3220</v>
+        <v>3233</v>
       </c>
       <c r="C6" s="6">
         <v>358785</v>
       </c>
       <c r="D6" s="6">
-        <v>897.47341722758756</v>
+        <v>901.09675711080456</v>
       </c>
       <c r="E6" s="3">
-        <v>0.16235566984319064</v>
+        <v>0.1625113099426963</v>
       </c>
       <c r="F6" s="6">
-        <v>3220</v>
+        <v>3233</v>
       </c>
       <c r="G6" s="6">
         <v>11</v>
       </c>
       <c r="H6" s="3">
-        <v>3.4161490683229812E-3</v>
+        <v>3.4024126198577173E-3</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -8085,25 +8203,25 @@
         <v>47</v>
       </c>
       <c r="B7" s="6">
-        <v>3992</v>
+        <v>4011</v>
       </c>
       <c r="C7" s="6">
         <v>335098</v>
       </c>
       <c r="D7" s="6">
-        <v>1191.2932933052421</v>
+        <v>1196.9632764146609</v>
       </c>
       <c r="E7" s="3">
-        <v>0.20128069379317298</v>
+        <v>0.20161857846586911</v>
       </c>
       <c r="F7" s="6">
-        <v>3992</v>
+        <v>4011</v>
       </c>
       <c r="G7" s="6">
         <v>26</v>
       </c>
       <c r="H7" s="3">
-        <v>6.513026052104208E-3</v>
+        <v>6.4821740214410367E-3</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -8111,25 +8229,25 @@
         <v>136</v>
       </c>
       <c r="B8" s="6">
-        <v>2664</v>
+        <v>2674</v>
       </c>
       <c r="C8" s="6">
         <v>272250</v>
       </c>
       <c r="D8" s="6">
-        <v>978.51239669421489</v>
+        <v>982.1854912764004</v>
       </c>
       <c r="E8" s="3">
-        <v>0.13432158523672666</v>
+        <v>0.13441238564391272</v>
       </c>
       <c r="F8" s="6">
-        <v>2664</v>
+        <v>2674</v>
       </c>
       <c r="G8" s="6">
         <v>108</v>
       </c>
       <c r="H8" s="3">
-        <v>4.0540540540540543E-2</v>
+        <v>4.0388930441286462E-2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -8137,25 +8255,25 @@
         <v>48</v>
       </c>
       <c r="B9" s="6">
-        <v>2195</v>
+        <v>2199</v>
       </c>
       <c r="C9" s="6">
         <v>202172</v>
       </c>
       <c r="D9" s="6">
-        <v>1085.7091981085412</v>
+        <v>1087.6877114536137</v>
       </c>
       <c r="E9" s="3">
-        <v>0.11067412897695759</v>
+        <v>0.11053583995174425</v>
       </c>
       <c r="F9" s="6">
-        <v>2195</v>
+        <v>2199</v>
       </c>
       <c r="G9" s="6">
         <v>299</v>
       </c>
       <c r="H9" s="3">
-        <v>0.13621867881548974</v>
+        <v>0.13597089586175534</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -8163,25 +8281,25 @@
         <v>49</v>
       </c>
       <c r="B10" s="6">
-        <v>2642</v>
+        <v>2644</v>
       </c>
       <c r="C10" s="6">
         <v>127540</v>
       </c>
       <c r="D10" s="6">
-        <v>2071.5069782029168</v>
+        <v>2073.075113689823</v>
       </c>
       <c r="E10" s="3">
-        <v>0.13321232289618312</v>
+        <v>0.13290439328440737</v>
       </c>
       <c r="F10" s="6">
-        <v>2642</v>
+        <v>2644</v>
       </c>
       <c r="G10" s="6">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="H10" s="3">
-        <v>0.23694171082513246</v>
+        <v>0.23751891074130105</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -8198,7 +8316,7 @@
         <v>5048.854503618235</v>
       </c>
       <c r="E11" s="3">
-        <v>7.6337417435587154E-2</v>
+        <v>7.6103347743038105E-2</v>
       </c>
       <c r="F11" s="6">
         <v>1514</v>
@@ -8218,7 +8336,7 @@
         <v>79</v>
       </c>
       <c r="E12" s="3">
-        <v>3.9832602228608883E-3</v>
+        <v>3.9710465466974969E-3</v>
       </c>
       <c r="H12" s="3"/>
     </row>
@@ -8227,25 +8345,25 @@
         <v>50</v>
       </c>
       <c r="B13">
-        <v>19833</v>
+        <v>19894</v>
       </c>
       <c r="C13">
         <v>2188017</v>
       </c>
       <c r="D13">
-        <v>906.43719861408761</v>
+        <v>909.22511113944722</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>19833</v>
+        <v>19894</v>
       </c>
       <c r="G13">
-        <v>1541</v>
+        <v>1543</v>
       </c>
       <c r="H13" s="3">
-        <v>7.769878485352695E-2</v>
+        <v>7.7561073690559965E-2</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -8339,9 +8457,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T49"/>
+  <dimension ref="A1:U50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:XFD50"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8349,12 +8469,12 @@
     <col min="2" max="8" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -8415,8 +8535,11 @@
       <c r="T2" t="s">
         <v>1000</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U2" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -8477,2856 +8600,3062 @@
       <c r="T3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>500</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>331</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>152</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>313</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
         <v>2</v>
       </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>3</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>3</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>7</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
         <v>6</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>2</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>3</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <v>8</v>
       </c>
-      <c r="I9">
+      <c r="I10">
         <v>2</v>
       </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
         <v>2</v>
       </c>
-      <c r="L9">
+      <c r="L10">
         <v>2</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
         <v>2</v>
       </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-      <c r="R9">
-        <v>1</v>
-      </c>
-      <c r="S9">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
         <v>2</v>
       </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>232</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>293</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>3</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>1</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>168</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>294</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>4</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>7</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>3</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>2</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15">
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
         <v>2</v>
       </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
         <v>2</v>
       </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>1</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>5</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
         <v>2</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>6</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>7</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>11</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>5</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>7</v>
       </c>
-      <c r="E18">
+      <c r="E19">
         <v>2</v>
       </c>
-      <c r="F18">
+      <c r="F19">
         <v>2</v>
       </c>
-      <c r="G18">
+      <c r="G19">
         <v>7</v>
       </c>
-      <c r="H18">
+      <c r="H19">
         <v>9</v>
       </c>
-      <c r="I18">
+      <c r="I19">
         <v>4</v>
       </c>
-      <c r="J18">
+      <c r="J19">
         <v>4</v>
       </c>
-      <c r="K18">
+      <c r="K19">
         <v>3</v>
       </c>
-      <c r="L18">
+      <c r="L19">
         <v>5</v>
       </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
         <v>2</v>
       </c>
-      <c r="O18">
+      <c r="O19">
         <v>7</v>
       </c>
-      <c r="P18">
+      <c r="P19">
         <v>3</v>
       </c>
-      <c r="Q18">
+      <c r="Q19">
         <v>4</v>
       </c>
-      <c r="R18">
+      <c r="R19">
         <v>2</v>
       </c>
-      <c r="S18">
-        <v>1</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>8</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>169</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>170</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>552</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>1</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>10</v>
       </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>1</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>11</v>
       </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>12</v>
       </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
         <v>2</v>
       </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>1</v>
-      </c>
-      <c r="R25">
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26">
         <v>2</v>
       </c>
-      <c r="S25">
-        <v>1</v>
-      </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>54</v>
       </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>14</v>
       </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>15</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <v>2</v>
       </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <v>0</v>
-      </c>
-      <c r="T28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>164</v>
       </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>16</v>
       </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-      <c r="S30">
-        <v>0</v>
-      </c>
-      <c r="T30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>17</v>
       </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
-      <c r="T31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>484</v>
       </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>1</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <v>0</v>
-      </c>
-      <c r="T32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>19</v>
       </c>
-      <c r="B33">
+      <c r="B34">
         <v>3</v>
       </c>
-      <c r="C33">
+      <c r="C34">
         <v>2</v>
       </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
-      <c r="S33">
-        <v>0</v>
-      </c>
-      <c r="T33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>21</v>
       </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>1</v>
-      </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>1</v>
-      </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
-      <c r="S34">
-        <v>0</v>
-      </c>
-      <c r="T34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>1</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>55</v>
       </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>1</v>
-      </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="R35">
-        <v>1</v>
-      </c>
-      <c r="S35">
-        <v>0</v>
-      </c>
-      <c r="T35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>1</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>165</v>
       </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-      <c r="R36">
-        <v>0</v>
-      </c>
-      <c r="S36">
-        <v>0</v>
-      </c>
-      <c r="T36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>233</v>
       </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-      <c r="S37">
-        <v>0</v>
-      </c>
-      <c r="T37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>153</v>
       </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>1</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-      <c r="S38">
-        <v>0</v>
-      </c>
-      <c r="T38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>23</v>
       </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
-      <c r="S39">
-        <v>0</v>
-      </c>
-      <c r="T39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>2</v>
       </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <v>0</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>0</v>
-      </c>
-      <c r="R40">
-        <v>0</v>
-      </c>
-      <c r="S40">
-        <v>0</v>
-      </c>
-      <c r="T40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>154</v>
       </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
-        <v>0</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>0</v>
-      </c>
-      <c r="R41">
-        <v>0</v>
-      </c>
-      <c r="S41">
-        <v>0</v>
-      </c>
-      <c r="T41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>155</v>
       </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <v>0</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
-      <c r="R42">
-        <v>0</v>
-      </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="T42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>9</v>
       </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-      <c r="N43">
-        <v>0</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>0</v>
-      </c>
-      <c r="R43">
-        <v>0</v>
-      </c>
-      <c r="S43">
-        <v>0</v>
-      </c>
-      <c r="T43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>156</v>
       </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44">
-        <v>0</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>0</v>
-      </c>
-      <c r="R44">
-        <v>0</v>
-      </c>
-      <c r="S44">
-        <v>0</v>
-      </c>
-      <c r="T44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>13</v>
       </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="N45">
-        <v>0</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>0</v>
-      </c>
-      <c r="R45">
-        <v>0</v>
-      </c>
-      <c r="S45">
-        <v>0</v>
-      </c>
-      <c r="T45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>234</v>
       </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>1</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-      <c r="N46">
-        <v>0</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
-      <c r="R46">
-        <v>0</v>
-      </c>
-      <c r="S46">
-        <v>0</v>
-      </c>
-      <c r="T46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>157</v>
       </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47">
-        <v>0</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>0</v>
-      </c>
-      <c r="R47">
-        <v>0</v>
-      </c>
-      <c r="S47">
-        <v>0</v>
-      </c>
-      <c r="T47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>24</v>
       </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="N48">
-        <v>0</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>0</v>
-      </c>
-      <c r="R48">
-        <v>0</v>
-      </c>
-      <c r="S48">
-        <v>0</v>
-      </c>
-      <c r="T48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>25</v>
       </c>
-      <c r="B49">
+      <c r="B50">
         <v>4</v>
       </c>
-      <c r="C49">
+      <c r="C50">
         <v>3</v>
       </c>
-      <c r="D49">
+      <c r="D50">
         <v>2</v>
       </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>1</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49">
-        <v>0</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>0</v>
-      </c>
-      <c r="R49">
-        <v>0</v>
-      </c>
-      <c r="S49">
-        <v>0</v>
-      </c>
-      <c r="T49">
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
         <v>0</v>
       </c>
     </row>
@@ -11341,7 +11670,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T82"/>
+  <dimension ref="A1:U82"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11353,12 +11682,12 @@
     <col min="7" max="8" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>858</v>
       </c>
@@ -11419,8 +11748,11 @@
       <c r="T2" t="s">
         <v>1000</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U2" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>860</v>
       </c>
@@ -11481,8 +11813,11 @@
       <c r="T3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>861</v>
       </c>
@@ -11543,8 +11878,11 @@
       <c r="T4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>862</v>
       </c>
@@ -11605,8 +11943,11 @@
       <c r="T5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>863</v>
       </c>
@@ -11667,8 +12008,11 @@
       <c r="T6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>864</v>
       </c>
@@ -11729,8 +12073,11 @@
       <c r="T7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>865</v>
       </c>
@@ -11791,8 +12138,11 @@
       <c r="T8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>866</v>
       </c>
@@ -11853,8 +12203,11 @@
       <c r="T9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>867</v>
       </c>
@@ -11915,8 +12268,11 @@
       <c r="T10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>868</v>
       </c>
@@ -11977,8 +12333,11 @@
       <c r="T11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>869</v>
       </c>
@@ -12039,8 +12398,11 @@
       <c r="T12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>870</v>
       </c>
@@ -12101,8 +12463,11 @@
       <c r="T13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>871</v>
       </c>
@@ -12163,8 +12528,11 @@
       <c r="T14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>872</v>
       </c>
@@ -12225,8 +12593,11 @@
       <c r="T15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>873</v>
       </c>
@@ -12287,8 +12658,11 @@
       <c r="T16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>874</v>
       </c>
@@ -12349,8 +12723,11 @@
       <c r="T17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>875</v>
       </c>
@@ -12411,8 +12788,11 @@
       <c r="T18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>876</v>
       </c>
@@ -12473,8 +12853,11 @@
       <c r="T19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>877</v>
       </c>
@@ -12535,8 +12918,11 @@
       <c r="T20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>878</v>
       </c>
@@ -12597,8 +12983,11 @@
       <c r="T21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>879</v>
       </c>
@@ -12659,8 +13048,11 @@
       <c r="T22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>880</v>
       </c>
@@ -12721,8 +13113,11 @@
       <c r="T23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>881</v>
       </c>
@@ -12783,8 +13178,11 @@
       <c r="T24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>882</v>
       </c>
@@ -12845,8 +13243,11 @@
       <c r="T25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>883</v>
       </c>
@@ -12907,8 +13308,11 @@
       <c r="T26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>884</v>
       </c>
@@ -12969,8 +13373,11 @@
       <c r="T27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>967</v>
       </c>
@@ -13031,8 +13438,11 @@
       <c r="T28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>885</v>
       </c>
@@ -13093,8 +13503,11 @@
       <c r="T29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>886</v>
       </c>
@@ -13155,8 +13568,11 @@
       <c r="T30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>887</v>
       </c>
@@ -13217,8 +13633,11 @@
       <c r="T31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>888</v>
       </c>
@@ -13279,8 +13698,11 @@
       <c r="T32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>928</v>
       </c>
@@ -13341,8 +13763,11 @@
       <c r="T33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>889</v>
       </c>
@@ -13403,8 +13828,11 @@
       <c r="T34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>890</v>
       </c>
@@ -13465,8 +13893,11 @@
       <c r="T35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>891</v>
       </c>
@@ -13527,8 +13958,11 @@
       <c r="T36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>892</v>
       </c>
@@ -13589,8 +14023,11 @@
       <c r="T37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>893</v>
       </c>
@@ -13651,8 +14088,11 @@
       <c r="T38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>894</v>
       </c>
@@ -13713,8 +14153,11 @@
       <c r="T39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>895</v>
       </c>
@@ -13775,8 +14218,11 @@
       <c r="T40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>896</v>
       </c>
@@ -13837,8 +14283,11 @@
       <c r="T41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>897</v>
       </c>
@@ -13899,8 +14348,11 @@
       <c r="T42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>898</v>
       </c>
@@ -13961,8 +14413,11 @@
       <c r="T43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>899</v>
       </c>
@@ -14023,8 +14478,11 @@
       <c r="T44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>900</v>
       </c>
@@ -14085,8 +14543,11 @@
       <c r="T45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>901</v>
       </c>
@@ -14147,8 +14608,11 @@
       <c r="T46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>902</v>
       </c>
@@ -14209,8 +14673,11 @@
       <c r="T47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>903</v>
       </c>
@@ -14271,8 +14738,11 @@
       <c r="T48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>904</v>
       </c>
@@ -14333,8 +14803,11 @@
       <c r="T49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>905</v>
       </c>
@@ -14395,8 +14868,11 @@
       <c r="T50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>906</v>
       </c>
@@ -14457,8 +14933,11 @@
       <c r="T51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>907</v>
       </c>
@@ -14519,8 +14998,11 @@
       <c r="T52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>908</v>
       </c>
@@ -14581,8 +15063,11 @@
       <c r="T53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>166</v>
       </c>
@@ -14643,8 +15128,11 @@
       <c r="T54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>909</v>
       </c>
@@ -14705,8 +15193,11 @@
       <c r="T55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>27</v>
       </c>
@@ -14767,8 +15258,11 @@
       <c r="T56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>28</v>
       </c>
@@ -14829,8 +15323,11 @@
       <c r="T57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>29</v>
       </c>
@@ -14891,8 +15388,11 @@
       <c r="T58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>30</v>
       </c>
@@ -14953,8 +15453,11 @@
       <c r="T59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>31</v>
       </c>
@@ -15015,8 +15518,11 @@
       <c r="T60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>52</v>
       </c>
@@ -15077,8 +15583,11 @@
       <c r="T61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>32</v>
       </c>
@@ -15139,8 +15648,11 @@
       <c r="T62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>33</v>
       </c>
@@ -15201,8 +15713,11 @@
       <c r="T63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>34</v>
       </c>
@@ -15263,8 +15778,11 @@
       <c r="T64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>35</v>
       </c>
@@ -15325,8 +15843,11 @@
       <c r="T65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>36</v>
       </c>
@@ -15387,8 +15908,11 @@
       <c r="T66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>37</v>
       </c>
@@ -15449,8 +15973,11 @@
       <c r="T67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>332</v>
       </c>
@@ -15511,8 +16038,11 @@
       <c r="T68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>53</v>
       </c>
@@ -15573,8 +16103,11 @@
       <c r="T69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>158</v>
       </c>
@@ -15635,8 +16168,11 @@
       <c r="T70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>38</v>
       </c>
@@ -15697,8 +16233,11 @@
       <c r="T71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>39</v>
       </c>
@@ -15759,8 +16298,11 @@
       <c r="T72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>159</v>
       </c>
@@ -15821,8 +16363,11 @@
       <c r="T73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>40</v>
       </c>
@@ -15883,8 +16428,11 @@
       <c r="T74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>333</v>
       </c>
@@ -15945,41 +16493,14 @@
       <c r="T75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>985</v>
       </c>
-      <c r="B76">
-        <v>0</v>
-      </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-      <c r="H76">
-        <v>0</v>
-      </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
-      <c r="K76">
-        <v>0</v>
-      </c>
       <c r="L76">
         <v>0</v>
       </c>
@@ -16007,8 +16528,11 @@
       <c r="T76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>160</v>
       </c>
@@ -16069,8 +16593,11 @@
       <c r="T77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>171</v>
       </c>
@@ -16131,8 +16658,11 @@
       <c r="T78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>41</v>
       </c>
@@ -16193,8 +16723,11 @@
       <c r="T79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>161</v>
       </c>
@@ -16255,8 +16788,11 @@
       <c r="T80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>235</v>
       </c>
@@ -16317,8 +16853,11 @@
       <c r="T81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>42</v>
       </c>
@@ -16377,6 +16916,9 @@
         <v>0</v>
       </c>
       <c r="T82">
+        <v>0</v>
+      </c>
+      <c r="U82">
         <v>0</v>
       </c>
     </row>

--- a/data/original/spain/euskadi/situacion-epidemiologica.xlsx
+++ b/data/original/spain/euskadi/situacion-epidemiologica.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iargueso\Desktop\covid19\Ekaina\01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iargueso\Desktop\covid19\Ekaina\02\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="1017">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="1034">
   <si>
     <t>UDALERRIA / MUNICIPIO</t>
   </si>
@@ -3076,6 +3076,57 @@
   </si>
   <si>
     <t>01/06</t>
+  </si>
+  <si>
+    <t>2020/6/02</t>
+  </si>
+  <si>
+    <t>209026</t>
+  </si>
+  <si>
+    <t>116078</t>
+  </si>
+  <si>
+    <t>184108</t>
+  </si>
+  <si>
+    <t>156204</t>
+  </si>
+  <si>
+    <t>71391</t>
+  </si>
+  <si>
+    <t>13528</t>
+  </si>
+  <si>
+    <t>6439</t>
+  </si>
+  <si>
+    <t>19967</t>
+  </si>
+  <si>
+    <t>3013</t>
+  </si>
+  <si>
+    <t>7613</t>
+  </si>
+  <si>
+    <t>16656</t>
+  </si>
+  <si>
+    <t>1758</t>
+  </si>
+  <si>
+    <t>1553</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>02-jun.</t>
+  </si>
+  <si>
+    <t>02/06</t>
   </si>
 </sst>
 </file>
@@ -3443,7 +3494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S101"/>
+  <dimension ref="A1:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6959,6 +7010,65 @@
         <v>1014</v>
       </c>
     </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A102" s="6" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>1022</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>1023</v>
+      </c>
+      <c r="H102" s="6" t="s">
+        <v>1024</v>
+      </c>
+      <c r="I102" s="6" t="s">
+        <v>1025</v>
+      </c>
+      <c r="J102" s="6" t="s">
+        <v>1026</v>
+      </c>
+      <c r="K102" s="6" t="s">
+        <v>1027</v>
+      </c>
+      <c r="L102" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="M102" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="N102" s="6" t="s">
+        <v>1028</v>
+      </c>
+      <c r="O102" s="6" t="s">
+        <v>1029</v>
+      </c>
+      <c r="P102" s="6" t="s">
+        <v>1030</v>
+      </c>
+      <c r="Q102" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="R102" s="6" t="s">
+        <v>1031</v>
+      </c>
+      <c r="S102" s="6" t="s">
+        <v>998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6967,7 +7077,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C95"/>
+  <dimension ref="A1:C96"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8016,6 +8126,17 @@
         <v>5.3</v>
       </c>
     </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B96">
+        <v>6</v>
+      </c>
+      <c r="C96" s="10">
+        <v>4.43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8026,9 +8147,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8073,19 +8192,19 @@
         <v>43</v>
       </c>
       <c r="B2" s="6">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C2" s="6">
         <v>195423</v>
       </c>
       <c r="D2" s="6">
-        <v>36.331445121607999</v>
+        <v>36.843155616278537</v>
       </c>
       <c r="E2" s="3">
-        <v>3.5689152508293956E-3</v>
+        <v>3.6059498171983773E-3</v>
       </c>
       <c r="F2" s="6">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -8099,19 +8218,19 @@
         <v>51</v>
       </c>
       <c r="B3" s="6">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C3" s="6">
         <v>206343</v>
       </c>
       <c r="D3" s="6">
-        <v>94.987472315513486</v>
+        <v>97.410622119480664</v>
       </c>
       <c r="E3" s="3">
-        <v>9.852216748768473E-3</v>
+        <v>1.006660990634547E-2</v>
       </c>
       <c r="F3" s="6">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -8125,25 +8244,25 @@
         <v>44</v>
       </c>
       <c r="B4" s="6">
-        <v>1226</v>
+        <v>1231</v>
       </c>
       <c r="C4" s="6">
         <v>194050</v>
       </c>
       <c r="D4" s="6">
-        <v>631.79592888430818</v>
+        <v>634.37258438546769</v>
       </c>
       <c r="E4" s="3">
-        <v>6.1626621091786467E-2</v>
+        <v>6.1651725346822256E-2</v>
       </c>
       <c r="F4" s="6">
-        <v>1226</v>
+        <v>1231</v>
       </c>
       <c r="G4" s="6">
         <v>2</v>
       </c>
       <c r="H4" s="3">
-        <v>1.6313213703099511E-3</v>
+        <v>1.6246953696181965E-3</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -8151,25 +8270,25 @@
         <v>45</v>
       </c>
       <c r="B5" s="6">
-        <v>2047</v>
+        <v>2056</v>
       </c>
       <c r="C5" s="6">
         <v>266369</v>
       </c>
       <c r="D5" s="6">
-        <v>768.48281894664922</v>
+        <v>771.86159050039612</v>
       </c>
       <c r="E5" s="3">
-        <v>0.10289534533025033</v>
+        <v>0.10296990033555366</v>
       </c>
       <c r="F5" s="6">
-        <v>2047</v>
+        <v>2056</v>
       </c>
       <c r="G5" s="6">
         <v>4</v>
       </c>
       <c r="H5" s="3">
-        <v>1.9540791402051783E-3</v>
+        <v>1.9455252918287938E-3</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -8177,25 +8296,25 @@
         <v>46</v>
       </c>
       <c r="B6" s="6">
-        <v>3233</v>
+        <v>3245</v>
       </c>
       <c r="C6" s="6">
         <v>358785</v>
       </c>
       <c r="D6" s="6">
-        <v>901.09675711080456</v>
+        <v>904.44137854146629</v>
       </c>
       <c r="E6" s="3">
-        <v>0.1625113099426963</v>
+        <v>0.16251815495567687</v>
       </c>
       <c r="F6" s="6">
-        <v>3233</v>
+        <v>3245</v>
       </c>
       <c r="G6" s="6">
         <v>11</v>
       </c>
       <c r="H6" s="3">
-        <v>3.4024126198577173E-3</v>
+        <v>3.3898305084745762E-3</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -8203,25 +8322,25 @@
         <v>47</v>
       </c>
       <c r="B7" s="6">
-        <v>4011</v>
+        <v>4030</v>
       </c>
       <c r="C7" s="6">
         <v>335098</v>
       </c>
       <c r="D7" s="6">
-        <v>1196.9632764146609</v>
+        <v>1202.6332595240794</v>
       </c>
       <c r="E7" s="3">
-        <v>0.20161857846586911</v>
+        <v>0.20183302449040919</v>
       </c>
       <c r="F7" s="6">
-        <v>4011</v>
+        <v>4030</v>
       </c>
       <c r="G7" s="6">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H7" s="3">
-        <v>6.4821740214410367E-3</v>
+        <v>6.6997518610421841E-3</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -8229,25 +8348,25 @@
         <v>136</v>
       </c>
       <c r="B8" s="6">
-        <v>2674</v>
+        <v>2685</v>
       </c>
       <c r="C8" s="6">
         <v>272250</v>
       </c>
       <c r="D8" s="6">
-        <v>982.1854912764004</v>
+        <v>986.22589531680444</v>
       </c>
       <c r="E8" s="3">
-        <v>0.13441238564391272</v>
+        <v>0.13447187859968948</v>
       </c>
       <c r="F8" s="6">
-        <v>2674</v>
+        <v>2685</v>
       </c>
       <c r="G8" s="6">
         <v>108</v>
       </c>
       <c r="H8" s="3">
-        <v>4.0388930441286462E-2</v>
+        <v>4.0223463687150837E-2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -8255,25 +8374,25 @@
         <v>48</v>
       </c>
       <c r="B9" s="6">
-        <v>2199</v>
+        <v>2209</v>
       </c>
       <c r="C9" s="6">
         <v>202172</v>
       </c>
       <c r="D9" s="6">
-        <v>1087.6877114536137</v>
+        <v>1092.6339948162949</v>
       </c>
       <c r="E9" s="3">
-        <v>0.11053583995174425</v>
+        <v>0.11063254369710021</v>
       </c>
       <c r="F9" s="6">
-        <v>2199</v>
+        <v>2209</v>
       </c>
       <c r="G9" s="6">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="H9" s="3">
-        <v>0.13597089586175534</v>
+        <v>0.13626075147125397</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -8281,25 +8400,25 @@
         <v>49</v>
       </c>
       <c r="B10" s="6">
-        <v>2644</v>
+        <v>2645</v>
       </c>
       <c r="C10" s="6">
         <v>127540</v>
       </c>
       <c r="D10" s="6">
-        <v>2073.075113689823</v>
+        <v>2073.8591814332758</v>
       </c>
       <c r="E10" s="3">
-        <v>0.13290439328440737</v>
+        <v>0.13246857314569038</v>
       </c>
       <c r="F10" s="6">
-        <v>2644</v>
+        <v>2645</v>
       </c>
       <c r="G10" s="6">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="H10" s="3">
-        <v>0.23751891074130105</v>
+        <v>0.23856332703213612</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -8316,16 +8435,16 @@
         <v>5048.854503618235</v>
       </c>
       <c r="E11" s="3">
-        <v>7.6103347743038105E-2</v>
+        <v>7.5825111433865874E-2</v>
       </c>
       <c r="F11" s="6">
         <v>1514</v>
       </c>
       <c r="G11" s="6">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="H11" s="3">
-        <v>0.29920739762219284</v>
+        <v>0.30184940554821665</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -8336,7 +8455,7 @@
         <v>79</v>
       </c>
       <c r="E12" s="3">
-        <v>3.9710465466974969E-3</v>
+        <v>3.9565282716482195E-3</v>
       </c>
       <c r="H12" s="3"/>
     </row>
@@ -8345,25 +8464,25 @@
         <v>50</v>
       </c>
       <c r="B13">
-        <v>19894</v>
+        <v>19967</v>
       </c>
       <c r="C13">
         <v>2188017</v>
       </c>
       <c r="D13">
-        <v>909.22511113944722</v>
+        <v>912.56146547307446</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>19894</v>
+        <v>19967</v>
       </c>
       <c r="G13">
-        <v>1543</v>
+        <v>1553</v>
       </c>
       <c r="H13" s="3">
-        <v>7.7561073690559965E-2</v>
+        <v>7.7778334251514994E-2</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -8457,7 +8576,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U50"/>
+  <dimension ref="A1:V50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A50" sqref="A50:XFD50"/>
@@ -8469,12 +8588,12 @@
     <col min="2" max="8" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -8538,8 +8657,11 @@
       <c r="U2" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V2" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -8603,8 +8725,11 @@
       <c r="U3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>500</v>
       </c>
@@ -8668,8 +8793,11 @@
       <c r="U4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>331</v>
       </c>
@@ -8733,8 +8861,11 @@
       <c r="U5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>152</v>
       </c>
@@ -8798,8 +8929,11 @@
       <c r="U6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>313</v>
       </c>
@@ -8863,8 +8997,11 @@
       <c r="U7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -8928,8 +9065,11 @@
       <c r="U8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -8993,8 +9133,11 @@
       <c r="U9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -9058,8 +9201,11 @@
       <c r="U10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>232</v>
       </c>
@@ -9123,8 +9269,11 @@
       <c r="U11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>293</v>
       </c>
@@ -9188,8 +9337,11 @@
       <c r="U12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -9253,8 +9405,11 @@
       <c r="U13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>168</v>
       </c>
@@ -9318,8 +9473,11 @@
       <c r="U14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>294</v>
       </c>
@@ -9383,8 +9541,11 @@
       <c r="U15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -9448,8 +9609,11 @@
       <c r="U16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -9513,8 +9677,11 @@
       <c r="U17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -9578,8 +9745,11 @@
       <c r="U18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -9643,8 +9813,11 @@
       <c r="U19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -9708,8 +9881,11 @@
       <c r="U20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>169</v>
       </c>
@@ -9773,8 +9949,11 @@
       <c r="U21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>170</v>
       </c>
@@ -9838,8 +10017,11 @@
       <c r="U22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>552</v>
       </c>
@@ -9903,8 +10085,11 @@
       <c r="U23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -9968,8 +10153,11 @@
       <c r="U24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -10033,8 +10221,11 @@
       <c r="U25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -10098,8 +10289,11 @@
       <c r="U26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -10163,8 +10357,11 @@
       <c r="U27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -10228,8 +10425,11 @@
       <c r="U28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -10293,8 +10493,11 @@
       <c r="U29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>164</v>
       </c>
@@ -10358,8 +10561,11 @@
       <c r="U30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -10423,8 +10629,11 @@
       <c r="U31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -10488,8 +10697,11 @@
       <c r="U32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>484</v>
       </c>
@@ -10553,8 +10765,11 @@
       <c r="U33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -10618,8 +10833,11 @@
       <c r="U34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -10683,8 +10901,11 @@
       <c r="U35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>55</v>
       </c>
@@ -10748,8 +10969,11 @@
       <c r="U36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>165</v>
       </c>
@@ -10813,8 +11037,11 @@
       <c r="U37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>233</v>
       </c>
@@ -10878,8 +11105,11 @@
       <c r="U38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>153</v>
       </c>
@@ -10943,8 +11173,11 @@
       <c r="U39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>23</v>
       </c>
@@ -11008,8 +11241,11 @@
       <c r="U40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>2</v>
       </c>
@@ -11073,8 +11309,11 @@
       <c r="U41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>154</v>
       </c>
@@ -11138,8 +11377,11 @@
       <c r="U42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>155</v>
       </c>
@@ -11203,8 +11445,11 @@
       <c r="U43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -11268,8 +11513,11 @@
       <c r="U44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>156</v>
       </c>
@@ -11333,8 +11581,11 @@
       <c r="U45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -11398,8 +11649,11 @@
       <c r="U46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>234</v>
       </c>
@@ -11463,8 +11717,11 @@
       <c r="U47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>157</v>
       </c>
@@ -11528,8 +11785,11 @@
       <c r="U48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>24</v>
       </c>
@@ -11593,8 +11853,11 @@
       <c r="U49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>25</v>
       </c>
@@ -11656,6 +11919,9 @@
         <v>0</v>
       </c>
       <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="V50">
         <v>0</v>
       </c>
     </row>
@@ -11670,9 +11936,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U82"/>
+  <dimension ref="A1:V82"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X76" sqref="X76"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11682,12 +11950,12 @@
     <col min="7" max="8" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>858</v>
       </c>
@@ -11751,8 +12019,11 @@
       <c r="U2" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V2" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>860</v>
       </c>
@@ -11816,8 +12087,11 @@
       <c r="U3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>861</v>
       </c>
@@ -11881,8 +12155,11 @@
       <c r="U4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>862</v>
       </c>
@@ -11946,8 +12223,11 @@
       <c r="U5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>863</v>
       </c>
@@ -12011,8 +12291,11 @@
       <c r="U6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>864</v>
       </c>
@@ -12076,8 +12359,11 @@
       <c r="U7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>865</v>
       </c>
@@ -12141,8 +12427,11 @@
       <c r="U8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>866</v>
       </c>
@@ -12206,8 +12495,11 @@
       <c r="U9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>867</v>
       </c>
@@ -12271,8 +12563,11 @@
       <c r="U10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>868</v>
       </c>
@@ -12336,8 +12631,11 @@
       <c r="U11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>869</v>
       </c>
@@ -12401,8 +12699,11 @@
       <c r="U12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>870</v>
       </c>
@@ -12466,8 +12767,11 @@
       <c r="U13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>871</v>
       </c>
@@ -12531,8 +12835,11 @@
       <c r="U14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>872</v>
       </c>
@@ -12596,8 +12903,11 @@
       <c r="U15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>873</v>
       </c>
@@ -12661,8 +12971,11 @@
       <c r="U16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>874</v>
       </c>
@@ -12726,8 +13039,11 @@
       <c r="U17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>875</v>
       </c>
@@ -12791,8 +13107,11 @@
       <c r="U18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>876</v>
       </c>
@@ -12856,8 +13175,11 @@
       <c r="U19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>877</v>
       </c>
@@ -12921,8 +13243,11 @@
       <c r="U20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>878</v>
       </c>
@@ -12986,8 +13311,11 @@
       <c r="U21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>879</v>
       </c>
@@ -13051,8 +13379,11 @@
       <c r="U22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>880</v>
       </c>
@@ -13116,8 +13447,11 @@
       <c r="U23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>881</v>
       </c>
@@ -13181,8 +13515,11 @@
       <c r="U24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>882</v>
       </c>
@@ -13246,8 +13583,11 @@
       <c r="U25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>883</v>
       </c>
@@ -13311,8 +13651,11 @@
       <c r="U26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>884</v>
       </c>
@@ -13376,8 +13719,11 @@
       <c r="U27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>967</v>
       </c>
@@ -13441,8 +13787,11 @@
       <c r="U28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>885</v>
       </c>
@@ -13506,8 +13855,11 @@
       <c r="U29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>886</v>
       </c>
@@ -13571,8 +13923,11 @@
       <c r="U30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>887</v>
       </c>
@@ -13636,8 +13991,11 @@
       <c r="U31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>888</v>
       </c>
@@ -13701,8 +14059,11 @@
       <c r="U32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>928</v>
       </c>
@@ -13766,8 +14127,11 @@
       <c r="U33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>889</v>
       </c>
@@ -13831,8 +14195,11 @@
       <c r="U34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>890</v>
       </c>
@@ -13896,8 +14263,11 @@
       <c r="U35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>891</v>
       </c>
@@ -13961,8 +14331,11 @@
       <c r="U36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>892</v>
       </c>
@@ -14026,8 +14399,11 @@
       <c r="U37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>893</v>
       </c>
@@ -14091,8 +14467,11 @@
       <c r="U38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>894</v>
       </c>
@@ -14156,8 +14535,11 @@
       <c r="U39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>895</v>
       </c>
@@ -14221,8 +14603,11 @@
       <c r="U40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>896</v>
       </c>
@@ -14286,8 +14671,11 @@
       <c r="U41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>897</v>
       </c>
@@ -14351,8 +14739,11 @@
       <c r="U42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>898</v>
       </c>
@@ -14416,8 +14807,11 @@
       <c r="U43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>899</v>
       </c>
@@ -14481,8 +14875,11 @@
       <c r="U44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>900</v>
       </c>
@@ -14546,8 +14943,11 @@
       <c r="U45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>901</v>
       </c>
@@ -14611,8 +15011,11 @@
       <c r="U46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>902</v>
       </c>
@@ -14676,8 +15079,11 @@
       <c r="U47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>903</v>
       </c>
@@ -14741,8 +15147,11 @@
       <c r="U48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>904</v>
       </c>
@@ -14806,8 +15215,11 @@
       <c r="U49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>905</v>
       </c>
@@ -14871,8 +15283,11 @@
       <c r="U50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>906</v>
       </c>
@@ -14936,8 +15351,11 @@
       <c r="U51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>907</v>
       </c>
@@ -15001,8 +15419,11 @@
       <c r="U52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>908</v>
       </c>
@@ -15066,8 +15487,11 @@
       <c r="U53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>166</v>
       </c>
@@ -15131,8 +15555,11 @@
       <c r="U54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>909</v>
       </c>
@@ -15196,8 +15623,11 @@
       <c r="U55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>27</v>
       </c>
@@ -15261,8 +15691,11 @@
       <c r="U56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>28</v>
       </c>
@@ -15326,8 +15759,11 @@
       <c r="U57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>29</v>
       </c>
@@ -15391,8 +15827,11 @@
       <c r="U58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>30</v>
       </c>
@@ -15456,8 +15895,11 @@
       <c r="U59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>31</v>
       </c>
@@ -15521,8 +15963,11 @@
       <c r="U60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>52</v>
       </c>
@@ -15586,8 +16031,11 @@
       <c r="U61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>32</v>
       </c>
@@ -15651,8 +16099,11 @@
       <c r="U62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>33</v>
       </c>
@@ -15716,8 +16167,11 @@
       <c r="U63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>34</v>
       </c>
@@ -15781,8 +16235,11 @@
       <c r="U64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>35</v>
       </c>
@@ -15846,8 +16303,11 @@
       <c r="U65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>36</v>
       </c>
@@ -15911,8 +16371,11 @@
       <c r="U66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>37</v>
       </c>
@@ -15976,8 +16439,11 @@
       <c r="U67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>332</v>
       </c>
@@ -16041,8 +16507,11 @@
       <c r="U68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>53</v>
       </c>
@@ -16106,8 +16575,11 @@
       <c r="U69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>158</v>
       </c>
@@ -16171,8 +16643,11 @@
       <c r="U70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>38</v>
       </c>
@@ -16236,8 +16711,11 @@
       <c r="U71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>39</v>
       </c>
@@ -16301,8 +16779,11 @@
       <c r="U72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>159</v>
       </c>
@@ -16366,8 +16847,11 @@
       <c r="U73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>40</v>
       </c>
@@ -16431,8 +16915,11 @@
       <c r="U74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>333</v>
       </c>
@@ -16496,11 +16983,44 @@
       <c r="U75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>985</v>
       </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
       <c r="L76">
         <v>0</v>
       </c>
@@ -16531,8 +17051,11 @@
       <c r="U76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>160</v>
       </c>
@@ -16596,8 +17119,11 @@
       <c r="U77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>171</v>
       </c>
@@ -16661,8 +17187,11 @@
       <c r="U78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>41</v>
       </c>
@@ -16726,8 +17255,11 @@
       <c r="U79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>161</v>
       </c>
@@ -16791,8 +17323,11 @@
       <c r="U80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>235</v>
       </c>
@@ -16856,8 +17391,11 @@
       <c r="U81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>42</v>
       </c>
@@ -16919,6 +17457,9 @@
         <v>0</v>
       </c>
       <c r="U82">
+        <v>0</v>
+      </c>
+      <c r="V82">
         <v>0</v>
       </c>
     </row>
@@ -20065,7 +20606,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E137"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/data/original/spain/euskadi/situacion-epidemiologica.xlsx
+++ b/data/original/spain/euskadi/situacion-epidemiologica.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iargueso\Desktop\covid19\Ekaina\02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iargueso\Desktop\covid19\Ekaina\03\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11460" windowHeight="9075"/>
+    <workbookView xWindow="7605" yWindow="-240" windowWidth="11460" windowHeight="9075"/>
   </bookViews>
   <sheets>
     <sheet name="01" sheetId="17" r:id="rId1"/>
@@ -20,12 +20,12 @@
     <sheet name="06" sheetId="18" r:id="rId6"/>
     <sheet name="07" sheetId="19" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="1034">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="1053">
   <si>
     <t>UDALERRIA / MUNICIPIO</t>
   </si>
@@ -2814,9 +2814,6 @@
     <t>Gros</t>
   </si>
   <si>
-    <t>2020/05/25 (Ultima actualización / Azken eguneratzea)</t>
-  </si>
-  <si>
     <t>Biztanleak/Población</t>
   </si>
   <si>
@@ -3127,6 +3124,66 @@
   </si>
   <si>
     <t>02/06</t>
+  </si>
+  <si>
+    <t>2020/6/03</t>
+  </si>
+  <si>
+    <t>211789</t>
+  </si>
+  <si>
+    <t>117010</t>
+  </si>
+  <si>
+    <t>186747</t>
+  </si>
+  <si>
+    <t>158338</t>
+  </si>
+  <si>
+    <t>72366</t>
+  </si>
+  <si>
+    <t>13533</t>
+  </si>
+  <si>
+    <t>6474</t>
+  </si>
+  <si>
+    <t>20007</t>
+  </si>
+  <si>
+    <t>3016</t>
+  </si>
+  <si>
+    <t>7615</t>
+  </si>
+  <si>
+    <t>16757</t>
+  </si>
+  <si>
+    <t>1689</t>
+  </si>
+  <si>
+    <t>1561</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>0,74</t>
+  </si>
+  <si>
+    <t>03-jun.</t>
+  </si>
+  <si>
+    <t>03/06</t>
+  </si>
+  <si>
+    <t>Salburua</t>
+  </si>
+  <si>
+    <t>2020/06/01 (Ultima actualización / Azken eguneratzea)</t>
   </si>
 </sst>
 </file>
@@ -3232,7 +3289,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office gaia">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3494,9 +3551,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S102"/>
+  <dimension ref="A1:S103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T103" sqref="T103"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6717,37 +6776,37 @@
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
+        <v>933</v>
+      </c>
+      <c r="B97" s="6" t="s">
         <v>934</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="C97" s="6" t="s">
         <v>935</v>
       </c>
-      <c r="C97" s="6" t="s">
+      <c r="D97" s="6" t="s">
         <v>936</v>
       </c>
-      <c r="D97" s="6" t="s">
+      <c r="E97" s="6" t="s">
         <v>937</v>
       </c>
-      <c r="E97" s="6" t="s">
+      <c r="F97" s="6" t="s">
         <v>938</v>
       </c>
-      <c r="F97" s="6" t="s">
+      <c r="G97" s="6" t="s">
         <v>939</v>
       </c>
-      <c r="G97" s="6" t="s">
+      <c r="H97" s="6" t="s">
         <v>940</v>
       </c>
-      <c r="H97" s="6" t="s">
+      <c r="I97" s="6" t="s">
         <v>941</v>
       </c>
-      <c r="I97" s="6" t="s">
+      <c r="J97" s="6" t="s">
         <v>942</v>
       </c>
-      <c r="J97" s="6" t="s">
+      <c r="K97" s="6" t="s">
         <v>943</v>
-      </c>
-      <c r="K97" s="6" t="s">
-        <v>944</v>
       </c>
       <c r="L97" s="6" t="s">
         <v>921</v>
@@ -6756,57 +6815,57 @@
         <v>245</v>
       </c>
       <c r="N97" s="6" t="s">
+        <v>944</v>
+      </c>
+      <c r="O97" s="6" t="s">
         <v>945</v>
       </c>
-      <c r="O97" s="6" t="s">
+      <c r="P97" s="6" t="s">
         <v>946</v>
-      </c>
-      <c r="P97" s="6" t="s">
-        <v>947</v>
       </c>
       <c r="Q97" s="6" t="s">
         <v>249</v>
       </c>
       <c r="R97" s="6" t="s">
+        <v>947</v>
+      </c>
+      <c r="S97" s="6" t="s">
         <v>948</v>
-      </c>
-      <c r="S97" s="6" t="s">
-        <v>949</v>
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
+        <v>951</v>
+      </c>
+      <c r="B98" s="6" t="s">
         <v>952</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="C98" s="6" t="s">
         <v>953</v>
       </c>
-      <c r="C98" s="6" t="s">
+      <c r="D98" s="6" t="s">
         <v>954</v>
       </c>
-      <c r="D98" s="6" t="s">
+      <c r="E98" s="6" t="s">
         <v>955</v>
       </c>
-      <c r="E98" s="6" t="s">
+      <c r="F98" s="6" t="s">
         <v>956</v>
       </c>
-      <c r="F98" s="6" t="s">
+      <c r="G98" s="6" t="s">
         <v>957</v>
       </c>
-      <c r="G98" s="6" t="s">
+      <c r="H98" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="H98" s="6" t="s">
+      <c r="I98" s="6" t="s">
         <v>959</v>
       </c>
-      <c r="I98" s="6" t="s">
+      <c r="J98" s="6" t="s">
         <v>960</v>
       </c>
-      <c r="J98" s="6" t="s">
+      <c r="K98" s="6" t="s">
         <v>961</v>
-      </c>
-      <c r="K98" s="6" t="s">
-        <v>962</v>
       </c>
       <c r="L98" s="6" t="s">
         <v>217</v>
@@ -6815,13 +6874,13 @@
         <v>245</v>
       </c>
       <c r="N98" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="O98" s="6" t="s">
         <v>963</v>
       </c>
-      <c r="O98" s="6" t="s">
+      <c r="P98" s="6" t="s">
         <v>964</v>
-      </c>
-      <c r="P98" s="6" t="s">
-        <v>965</v>
       </c>
       <c r="Q98" s="6" t="s">
         <v>465</v>
@@ -6835,37 +6894,37 @@
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
+        <v>967</v>
+      </c>
+      <c r="B99" s="6" t="s">
         <v>968</v>
       </c>
-      <c r="B99" s="6" t="s">
+      <c r="C99" s="6" t="s">
         <v>969</v>
       </c>
-      <c r="C99" s="6" t="s">
+      <c r="D99" s="6" t="s">
         <v>970</v>
       </c>
-      <c r="D99" s="6" t="s">
+      <c r="E99" s="6" t="s">
         <v>971</v>
       </c>
-      <c r="E99" s="6" t="s">
+      <c r="F99" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="F99" s="6" t="s">
+      <c r="G99" s="6" t="s">
         <v>973</v>
       </c>
-      <c r="G99" s="6" t="s">
+      <c r="H99" s="6" t="s">
         <v>974</v>
       </c>
-      <c r="H99" s="6" t="s">
+      <c r="I99" s="6" t="s">
         <v>975</v>
       </c>
-      <c r="I99" s="6" t="s">
+      <c r="J99" s="6" t="s">
         <v>976</v>
       </c>
-      <c r="J99" s="6" t="s">
+      <c r="K99" s="6" t="s">
         <v>977</v>
-      </c>
-      <c r="K99" s="6" t="s">
-        <v>978</v>
       </c>
       <c r="L99" s="6" t="s">
         <v>217</v>
@@ -6874,13 +6933,13 @@
         <v>245</v>
       </c>
       <c r="N99" s="6" t="s">
+        <v>978</v>
+      </c>
+      <c r="O99" s="6" t="s">
         <v>979</v>
       </c>
-      <c r="O99" s="6" t="s">
+      <c r="P99" s="6" t="s">
         <v>980</v>
-      </c>
-      <c r="P99" s="6" t="s">
-        <v>981</v>
       </c>
       <c r="Q99" s="6" t="s">
         <v>249</v>
@@ -6894,37 +6953,37 @@
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
+        <v>985</v>
+      </c>
+      <c r="B100" s="6" t="s">
         <v>986</v>
       </c>
-      <c r="B100" s="6" t="s">
+      <c r="C100" s="6" t="s">
         <v>987</v>
       </c>
-      <c r="C100" s="6" t="s">
+      <c r="D100" s="6" t="s">
         <v>988</v>
       </c>
-      <c r="D100" s="6" t="s">
+      <c r="E100" s="6" t="s">
         <v>989</v>
       </c>
-      <c r="E100" s="6" t="s">
+      <c r="F100" s="6" t="s">
         <v>990</v>
       </c>
-      <c r="F100" s="6" t="s">
+      <c r="G100" s="6" t="s">
+        <v>973</v>
+      </c>
+      <c r="H100" s="6" t="s">
         <v>991</v>
       </c>
-      <c r="G100" s="6" t="s">
-        <v>974</v>
-      </c>
-      <c r="H100" s="6" t="s">
+      <c r="I100" s="6" t="s">
         <v>992</v>
       </c>
-      <c r="I100" s="6" t="s">
-        <v>993</v>
-      </c>
       <c r="J100" s="6" t="s">
+        <v>976</v>
+      </c>
+      <c r="K100" s="6" t="s">
         <v>977</v>
-      </c>
-      <c r="K100" s="6" t="s">
-        <v>978</v>
       </c>
       <c r="L100" s="6" t="s">
         <v>217</v>
@@ -6933,57 +6992,57 @@
         <v>245</v>
       </c>
       <c r="N100" s="6" t="s">
+        <v>993</v>
+      </c>
+      <c r="O100" s="6" t="s">
         <v>994</v>
       </c>
-      <c r="O100" s="6" t="s">
+      <c r="P100" s="6" t="s">
+        <v>980</v>
+      </c>
+      <c r="Q100" s="6" t="s">
         <v>995</v>
       </c>
-      <c r="P100" s="6" t="s">
-        <v>981</v>
-      </c>
-      <c r="Q100" s="6" t="s">
+      <c r="R100" s="6" t="s">
         <v>996</v>
       </c>
-      <c r="R100" s="6" t="s">
+      <c r="S100" s="6" t="s">
         <v>997</v>
-      </c>
-      <c r="S100" s="6" t="s">
-        <v>998</v>
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B101" s="6" t="s">
         <v>1001</v>
       </c>
-      <c r="B101" s="6" t="s">
+      <c r="C101" s="6" t="s">
         <v>1002</v>
       </c>
-      <c r="C101" s="6" t="s">
+      <c r="D101" s="6" t="s">
         <v>1003</v>
       </c>
-      <c r="D101" s="6" t="s">
+      <c r="E101" s="6" t="s">
         <v>1004</v>
       </c>
-      <c r="E101" s="6" t="s">
+      <c r="F101" s="6" t="s">
         <v>1005</v>
       </c>
-      <c r="F101" s="6" t="s">
+      <c r="G101" s="6" t="s">
         <v>1006</v>
       </c>
-      <c r="G101" s="6" t="s">
+      <c r="H101" s="6" t="s">
         <v>1007</v>
       </c>
-      <c r="H101" s="6" t="s">
+      <c r="I101" s="6" t="s">
         <v>1008</v>
       </c>
-      <c r="I101" s="6" t="s">
+      <c r="J101" s="6" t="s">
         <v>1009</v>
       </c>
-      <c r="J101" s="6" t="s">
-        <v>1010</v>
-      </c>
       <c r="K101" s="6" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="L101" s="6" t="s">
         <v>217</v>
@@ -6992,13 +7051,13 @@
         <v>245</v>
       </c>
       <c r="N101" s="6" t="s">
+        <v>1010</v>
+      </c>
+      <c r="O101" s="6" t="s">
         <v>1011</v>
       </c>
-      <c r="O101" s="6" t="s">
+      <c r="P101" s="6" t="s">
         <v>1012</v>
-      </c>
-      <c r="P101" s="6" t="s">
-        <v>1013</v>
       </c>
       <c r="Q101" s="6" t="s">
         <v>221</v>
@@ -7007,42 +7066,42 @@
         <v>854</v>
       </c>
       <c r="S101" s="6" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B102" s="6" t="s">
         <v>1017</v>
       </c>
-      <c r="B102" s="6" t="s">
+      <c r="C102" s="6" t="s">
         <v>1018</v>
       </c>
-      <c r="C102" s="6" t="s">
+      <c r="D102" s="6" t="s">
         <v>1019</v>
       </c>
-      <c r="D102" s="6" t="s">
+      <c r="E102" s="6" t="s">
         <v>1020</v>
       </c>
-      <c r="E102" s="6" t="s">
+      <c r="F102" s="6" t="s">
         <v>1021</v>
       </c>
-      <c r="F102" s="6" t="s">
+      <c r="G102" s="6" t="s">
         <v>1022</v>
       </c>
-      <c r="G102" s="6" t="s">
+      <c r="H102" s="6" t="s">
         <v>1023</v>
       </c>
-      <c r="H102" s="6" t="s">
+      <c r="I102" s="6" t="s">
         <v>1024</v>
       </c>
-      <c r="I102" s="6" t="s">
+      <c r="J102" s="6" t="s">
         <v>1025</v>
       </c>
-      <c r="J102" s="6" t="s">
+      <c r="K102" s="6" t="s">
         <v>1026</v>
-      </c>
-      <c r="K102" s="6" t="s">
-        <v>1027</v>
       </c>
       <c r="L102" s="6" t="s">
         <v>217</v>
@@ -7051,22 +7110,81 @@
         <v>245</v>
       </c>
       <c r="N102" s="6" t="s">
+        <v>1027</v>
+      </c>
+      <c r="O102" s="6" t="s">
         <v>1028</v>
       </c>
-      <c r="O102" s="6" t="s">
+      <c r="P102" s="6" t="s">
         <v>1029</v>
-      </c>
-      <c r="P102" s="6" t="s">
-        <v>1030</v>
       </c>
       <c r="Q102" s="6" t="s">
         <v>203</v>
       </c>
       <c r="R102" s="6" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="S102" s="6" t="s">
-        <v>998</v>
+        <v>997</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A103" s="6" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G103" s="6" t="s">
+        <v>1039</v>
+      </c>
+      <c r="H103" s="6" t="s">
+        <v>1040</v>
+      </c>
+      <c r="I103" s="6" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J103" s="6" t="s">
+        <v>1042</v>
+      </c>
+      <c r="K103" s="6" t="s">
+        <v>1043</v>
+      </c>
+      <c r="L103" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="M103" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="N103" s="6" t="s">
+        <v>1044</v>
+      </c>
+      <c r="O103" s="6" t="s">
+        <v>1045</v>
+      </c>
+      <c r="P103" s="6" t="s">
+        <v>1046</v>
+      </c>
+      <c r="Q103" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="R103" s="6" t="s">
+        <v>1047</v>
+      </c>
+      <c r="S103" s="6" t="s">
+        <v>1048</v>
       </c>
     </row>
   </sheetData>
@@ -7077,9 +7195,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:C97"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="H87" sqref="H87"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8073,7 +8193,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B91">
         <v>7</v>
@@ -8084,7 +8204,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B92">
         <v>7</v>
@@ -8095,7 +8215,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B93">
         <v>5</v>
@@ -8106,7 +8226,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -8117,7 +8237,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B95">
         <v>4</v>
@@ -8128,13 +8248,24 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B96">
         <v>6</v>
       </c>
       <c r="C96" s="10">
         <v>4.43</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B97">
+        <v>5</v>
+      </c>
+      <c r="C97" s="10">
+        <v>4.25</v>
       </c>
     </row>
   </sheetData>
@@ -8147,7 +8278,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8156,8 +8289,8 @@
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="18.140625" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="23.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" customWidth="1"/>
     <col min="8" max="8" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8201,7 +8334,7 @@
         <v>36.843155616278537</v>
       </c>
       <c r="E2" s="3">
-        <v>3.6059498171983773E-3</v>
+        <v>3.5987404408457041E-3</v>
       </c>
       <c r="F2" s="6">
         <v>72</v>
@@ -8218,19 +8351,19 @@
         <v>51</v>
       </c>
       <c r="B3" s="6">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C3" s="6">
         <v>206343</v>
       </c>
       <c r="D3" s="6">
-        <v>97.410622119480664</v>
+        <v>97.895252080274105</v>
       </c>
       <c r="E3" s="3">
-        <v>1.006660990634547E-2</v>
+        <v>1.0096466236817115E-2</v>
       </c>
       <c r="F3" s="6">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -8244,25 +8377,25 @@
         <v>44</v>
       </c>
       <c r="B4" s="6">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="C4" s="6">
         <v>194050</v>
       </c>
       <c r="D4" s="6">
-        <v>634.37258438546769</v>
+        <v>635.40324658593147</v>
       </c>
       <c r="E4" s="3">
-        <v>6.1651725346822256E-2</v>
+        <v>6.162843004948268E-2</v>
       </c>
       <c r="F4" s="6">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="G4" s="6">
         <v>2</v>
       </c>
       <c r="H4" s="3">
-        <v>1.6246953696181965E-3</v>
+        <v>1.6220600162206002E-3</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -8270,25 +8403,25 @@
         <v>45</v>
       </c>
       <c r="B5" s="6">
-        <v>2056</v>
+        <v>2062</v>
       </c>
       <c r="C5" s="6">
         <v>266369</v>
       </c>
       <c r="D5" s="6">
-        <v>771.86159050039612</v>
+        <v>774.11410486956061</v>
       </c>
       <c r="E5" s="3">
-        <v>0.10296990033555366</v>
+        <v>0.10306392762533113</v>
       </c>
       <c r="F5" s="6">
-        <v>2056</v>
+        <v>2062</v>
       </c>
       <c r="G5" s="6">
         <v>4</v>
       </c>
       <c r="H5" s="3">
-        <v>1.9455252918287938E-3</v>
+        <v>1.9398642095053346E-3</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -8296,25 +8429,25 @@
         <v>46</v>
       </c>
       <c r="B6" s="6">
-        <v>3245</v>
+        <v>3253</v>
       </c>
       <c r="C6" s="6">
         <v>358785</v>
       </c>
       <c r="D6" s="6">
-        <v>904.44137854146629</v>
+        <v>906.67112616190752</v>
       </c>
       <c r="E6" s="3">
-        <v>0.16251815495567687</v>
+        <v>0.16259309241765382</v>
       </c>
       <c r="F6" s="6">
-        <v>3245</v>
+        <v>3253</v>
       </c>
       <c r="G6" s="6">
         <v>11</v>
       </c>
       <c r="H6" s="3">
-        <v>3.3898305084745762E-3</v>
+        <v>3.3814940055333538E-3</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -8322,25 +8455,25 @@
         <v>47</v>
       </c>
       <c r="B7" s="6">
-        <v>4030</v>
+        <v>4040</v>
       </c>
       <c r="C7" s="6">
         <v>335098</v>
       </c>
       <c r="D7" s="6">
-        <v>1202.6332595240794</v>
+        <v>1205.6174611606157</v>
       </c>
       <c r="E7" s="3">
-        <v>0.20183302449040919</v>
+        <v>0.20192932473634229</v>
       </c>
       <c r="F7" s="6">
-        <v>4030</v>
+        <v>4040</v>
       </c>
       <c r="G7" s="6">
         <v>27</v>
       </c>
       <c r="H7" s="3">
-        <v>6.6997518610421841E-3</v>
+        <v>6.683168316831683E-3</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -8348,25 +8481,25 @@
         <v>136</v>
       </c>
       <c r="B8" s="6">
-        <v>2685</v>
+        <v>2689</v>
       </c>
       <c r="C8" s="6">
         <v>272250</v>
       </c>
       <c r="D8" s="6">
-        <v>986.22589531680444</v>
+        <v>987.69513314967855</v>
       </c>
       <c r="E8" s="3">
-        <v>0.13447187859968948</v>
+        <v>0.13440295896436247</v>
       </c>
       <c r="F8" s="6">
-        <v>2685</v>
+        <v>2689</v>
       </c>
       <c r="G8" s="6">
         <v>108</v>
       </c>
       <c r="H8" s="3">
-        <v>4.0223463687150837E-2</v>
+        <v>4.0163629602082557E-2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -8374,25 +8507,25 @@
         <v>48</v>
       </c>
       <c r="B9" s="6">
-        <v>2209</v>
+        <v>2214</v>
       </c>
       <c r="C9" s="6">
         <v>202172</v>
       </c>
       <c r="D9" s="6">
-        <v>1092.6339948162949</v>
+        <v>1095.1071364976356</v>
       </c>
       <c r="E9" s="3">
-        <v>0.11063254369710021</v>
+        <v>0.1106612685560054</v>
       </c>
       <c r="F9" s="6">
-        <v>2209</v>
+        <v>2214</v>
       </c>
       <c r="G9" s="6">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H9" s="3">
-        <v>0.13626075147125397</v>
+        <v>0.13640469738030714</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -8400,25 +8533,25 @@
         <v>49</v>
       </c>
       <c r="B10" s="6">
-        <v>2645</v>
+        <v>2649</v>
       </c>
       <c r="C10" s="6">
         <v>127540</v>
       </c>
       <c r="D10" s="6">
-        <v>2073.8591814332758</v>
+        <v>2076.9954524070881</v>
       </c>
       <c r="E10" s="3">
-        <v>0.13246857314569038</v>
+        <v>0.1324036587194482</v>
       </c>
       <c r="F10" s="6">
-        <v>2645</v>
+        <v>2649</v>
       </c>
       <c r="G10" s="6">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="H10" s="3">
-        <v>0.23856332703213612</v>
+        <v>0.24009060022650056</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -8435,16 +8568,16 @@
         <v>5048.854503618235</v>
       </c>
       <c r="E11" s="3">
-        <v>7.5825111433865874E-2</v>
+        <v>7.5673514270005501E-2</v>
       </c>
       <c r="F11" s="6">
         <v>1514</v>
       </c>
       <c r="G11" s="6">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="H11" s="3">
-        <v>0.30184940554821665</v>
+        <v>0.30317040951122853</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -8455,7 +8588,7 @@
         <v>79</v>
       </c>
       <c r="E12" s="3">
-        <v>3.9565282716482195E-3</v>
+        <v>3.9486179837057026E-3</v>
       </c>
       <c r="H12" s="3"/>
     </row>
@@ -8464,25 +8597,25 @@
         <v>50</v>
       </c>
       <c r="B13">
-        <v>19967</v>
+        <v>20007</v>
       </c>
       <c r="C13">
         <v>2188017</v>
       </c>
       <c r="D13">
-        <v>912.56146547307446</v>
+        <v>914.38960483396613</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>19967</v>
+        <v>20007</v>
       </c>
       <c r="G13">
-        <v>1553</v>
+        <v>1561</v>
       </c>
       <c r="H13" s="3">
-        <v>7.7778334251514994E-2</v>
+        <v>7.8022692057779772E-2</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -8576,9 +8709,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V50"/>
+  <dimension ref="A1:W50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="A50" sqref="A50:XFD50"/>
     </sheetView>
   </sheetViews>
@@ -8588,12 +8721,12 @@
     <col min="2" max="8" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -8643,25 +8776,28 @@
         <v>927</v>
       </c>
       <c r="Q2" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="R2" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="S2" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="T2" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="U2" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="V2" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+        <v>1032</v>
+      </c>
+      <c r="W2" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -8728,8 +8864,11 @@
       <c r="V3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>500</v>
       </c>
@@ -8796,8 +8935,11 @@
       <c r="V4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>331</v>
       </c>
@@ -8864,8 +9006,11 @@
       <c r="V5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>152</v>
       </c>
@@ -8932,8 +9077,11 @@
       <c r="V6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>313</v>
       </c>
@@ -9000,8 +9148,11 @@
       <c r="V7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -9068,8 +9219,11 @@
       <c r="V8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -9136,8 +9290,11 @@
       <c r="V9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -9204,8 +9361,11 @@
       <c r="V10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>232</v>
       </c>
@@ -9272,8 +9432,11 @@
       <c r="V11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>293</v>
       </c>
@@ -9340,8 +9503,11 @@
       <c r="V12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -9408,8 +9574,11 @@
       <c r="V13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>168</v>
       </c>
@@ -9476,8 +9645,11 @@
       <c r="V14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>294</v>
       </c>
@@ -9544,8 +9716,11 @@
       <c r="V15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -9612,8 +9787,11 @@
       <c r="V16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -9680,8 +9858,11 @@
       <c r="V17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -9748,8 +9929,11 @@
       <c r="V18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -9816,8 +10000,11 @@
       <c r="V19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -9884,8 +10071,11 @@
       <c r="V20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>169</v>
       </c>
@@ -9952,8 +10142,11 @@
       <c r="V21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>170</v>
       </c>
@@ -10020,8 +10213,11 @@
       <c r="V22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>552</v>
       </c>
@@ -10088,8 +10284,11 @@
       <c r="V23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -10156,8 +10355,11 @@
       <c r="V24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -10224,8 +10426,11 @@
       <c r="V25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -10292,8 +10497,11 @@
       <c r="V26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -10360,8 +10568,11 @@
       <c r="V27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -10428,8 +10639,11 @@
       <c r="V28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -10496,8 +10710,11 @@
       <c r="V29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>164</v>
       </c>
@@ -10564,8 +10781,11 @@
       <c r="V30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -10632,8 +10852,11 @@
       <c r="V31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -10700,8 +10923,11 @@
       <c r="V32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>484</v>
       </c>
@@ -10768,8 +10994,11 @@
       <c r="V33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -10836,8 +11065,11 @@
       <c r="V34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -10904,8 +11136,11 @@
       <c r="V35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>55</v>
       </c>
@@ -10972,8 +11207,11 @@
       <c r="V36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>165</v>
       </c>
@@ -11040,8 +11278,11 @@
       <c r="V37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>233</v>
       </c>
@@ -11108,8 +11349,11 @@
       <c r="V38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>153</v>
       </c>
@@ -11176,8 +11420,11 @@
       <c r="V39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>23</v>
       </c>
@@ -11244,8 +11491,11 @@
       <c r="V40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>2</v>
       </c>
@@ -11312,8 +11562,11 @@
       <c r="V41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>154</v>
       </c>
@@ -11380,8 +11633,11 @@
       <c r="V42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>155</v>
       </c>
@@ -11448,8 +11704,11 @@
       <c r="V43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -11516,8 +11775,11 @@
       <c r="V44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>156</v>
       </c>
@@ -11584,8 +11846,11 @@
       <c r="V45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -11652,8 +11917,11 @@
       <c r="V46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>234</v>
       </c>
@@ -11720,8 +11988,11 @@
       <c r="V47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>157</v>
       </c>
@@ -11788,8 +12059,11 @@
       <c r="V48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>24</v>
       </c>
@@ -11856,8 +12130,11 @@
       <c r="V49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>25</v>
       </c>
@@ -11922,6 +12199,9 @@
         <v>0</v>
       </c>
       <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
         <v>0</v>
       </c>
     </row>
@@ -11936,10 +12216,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V82"/>
+  <dimension ref="A1:W83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="X76" sqref="X76"/>
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11950,12 +12230,12 @@
     <col min="7" max="8" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>858</v>
       </c>
@@ -12005,25 +12285,28 @@
         <v>927</v>
       </c>
       <c r="Q2" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="R2" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="S2" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="T2" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="U2" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="V2" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+        <v>1032</v>
+      </c>
+      <c r="W2" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>860</v>
       </c>
@@ -12090,8 +12373,11 @@
       <c r="V3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>861</v>
       </c>
@@ -12158,8 +12444,11 @@
       <c r="V4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>862</v>
       </c>
@@ -12226,8 +12515,11 @@
       <c r="V5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>863</v>
       </c>
@@ -12294,8 +12586,11 @@
       <c r="V6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>864</v>
       </c>
@@ -12362,8 +12657,11 @@
       <c r="V7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>865</v>
       </c>
@@ -12430,8 +12728,11 @@
       <c r="V8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>866</v>
       </c>
@@ -12498,8 +12799,11 @@
       <c r="V9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>867</v>
       </c>
@@ -12566,8 +12870,11 @@
       <c r="V10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>868</v>
       </c>
@@ -12634,8 +12941,11 @@
       <c r="V11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>869</v>
       </c>
@@ -12702,8 +13012,11 @@
       <c r="V12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>870</v>
       </c>
@@ -12770,8 +13083,11 @@
       <c r="V13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>871</v>
       </c>
@@ -12838,8 +13154,11 @@
       <c r="V14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>872</v>
       </c>
@@ -12906,8 +13225,11 @@
       <c r="V15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>873</v>
       </c>
@@ -12974,8 +13296,11 @@
       <c r="V16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>874</v>
       </c>
@@ -13042,8 +13367,11 @@
       <c r="V17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>875</v>
       </c>
@@ -13110,8 +13438,11 @@
       <c r="V18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>876</v>
       </c>
@@ -13178,8 +13509,11 @@
       <c r="V19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>877</v>
       </c>
@@ -13246,8 +13580,11 @@
       <c r="V20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>878</v>
       </c>
@@ -13314,8 +13651,11 @@
       <c r="V21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>879</v>
       </c>
@@ -13382,8 +13722,11 @@
       <c r="V22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>880</v>
       </c>
@@ -13450,8 +13793,11 @@
       <c r="V23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>881</v>
       </c>
@@ -13518,8 +13864,11 @@
       <c r="V24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>882</v>
       </c>
@@ -13586,8 +13935,11 @@
       <c r="V25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>883</v>
       </c>
@@ -13654,8 +14006,11 @@
       <c r="V26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>884</v>
       </c>
@@ -13722,10 +14077,13 @@
       <c r="V27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -13790,8 +14148,11 @@
       <c r="V28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>885</v>
       </c>
@@ -13858,8 +14219,11 @@
       <c r="V29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>886</v>
       </c>
@@ -13926,8 +14290,11 @@
       <c r="V30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>887</v>
       </c>
@@ -13994,8 +14361,11 @@
       <c r="V31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>888</v>
       </c>
@@ -14062,8 +14432,11 @@
       <c r="V32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>928</v>
       </c>
@@ -14130,8 +14503,11 @@
       <c r="V33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>889</v>
       </c>
@@ -14198,8 +14574,11 @@
       <c r="V34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>890</v>
       </c>
@@ -14266,8 +14645,11 @@
       <c r="V35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>891</v>
       </c>
@@ -14334,8 +14716,11 @@
       <c r="V36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>892</v>
       </c>
@@ -14402,8 +14787,11 @@
       <c r="V37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>893</v>
       </c>
@@ -14470,8 +14858,11 @@
       <c r="V38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>894</v>
       </c>
@@ -14538,8 +14929,11 @@
       <c r="V39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>895</v>
       </c>
@@ -14606,8 +15000,11 @@
       <c r="V40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>896</v>
       </c>
@@ -14674,8 +15071,11 @@
       <c r="V41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>897</v>
       </c>
@@ -14742,8 +15142,11 @@
       <c r="V42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>898</v>
       </c>
@@ -14810,8 +15213,11 @@
       <c r="V43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>899</v>
       </c>
@@ -14878,8 +15284,11 @@
       <c r="V44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>900</v>
       </c>
@@ -14946,8 +15355,11 @@
       <c r="V45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>901</v>
       </c>
@@ -15014,8 +15426,11 @@
       <c r="V46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>902</v>
       </c>
@@ -15082,8 +15497,11 @@
       <c r="V47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>903</v>
       </c>
@@ -15150,8 +15568,11 @@
       <c r="V48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>904</v>
       </c>
@@ -15218,8 +15639,11 @@
       <c r="V49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>905</v>
       </c>
@@ -15286,8 +15710,11 @@
       <c r="V50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>906</v>
       </c>
@@ -15354,8 +15781,11 @@
       <c r="V51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>907</v>
       </c>
@@ -15422,8 +15852,11 @@
       <c r="V52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>908</v>
       </c>
@@ -15490,8 +15923,11 @@
       <c r="V53">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>166</v>
       </c>
@@ -15558,8 +15994,11 @@
       <c r="V54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>909</v>
       </c>
@@ -15626,8 +16065,11 @@
       <c r="V55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>27</v>
       </c>
@@ -15694,8 +16136,11 @@
       <c r="V56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>28</v>
       </c>
@@ -15762,8 +16207,11 @@
       <c r="V57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>29</v>
       </c>
@@ -15830,8 +16278,11 @@
       <c r="V58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>30</v>
       </c>
@@ -15898,8 +16349,11 @@
       <c r="V59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>31</v>
       </c>
@@ -15966,1031 +16420,1034 @@
       <c r="V60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>1051</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <v>0</v>
+      </c>
+      <c r="V61">
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>52</v>
       </c>
-      <c r="B61">
-        <v>0</v>
-      </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61">
-        <v>1</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-      <c r="L61">
-        <v>0</v>
-      </c>
-      <c r="M61">
-        <v>0</v>
-      </c>
-      <c r="N61">
-        <v>0</v>
-      </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
-      <c r="P61">
-        <v>0</v>
-      </c>
-      <c r="Q61">
-        <v>1</v>
-      </c>
-      <c r="R61">
-        <v>0</v>
-      </c>
-      <c r="S61">
-        <v>0</v>
-      </c>
-      <c r="T61">
-        <v>0</v>
-      </c>
-      <c r="U61">
-        <v>0</v>
-      </c>
-      <c r="V61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>1</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <v>0</v>
+      </c>
+      <c r="V62">
+        <v>0</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>32</v>
       </c>
-      <c r="B62">
-        <v>0</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <v>1</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62">
-        <v>0</v>
-      </c>
-      <c r="L62">
-        <v>0</v>
-      </c>
-      <c r="M62">
-        <v>0</v>
-      </c>
-      <c r="N62">
-        <v>0</v>
-      </c>
-      <c r="O62">
-        <v>1</v>
-      </c>
-      <c r="P62">
-        <v>1</v>
-      </c>
-      <c r="Q62">
-        <v>1</v>
-      </c>
-      <c r="R62">
-        <v>0</v>
-      </c>
-      <c r="S62">
-        <v>0</v>
-      </c>
-      <c r="T62">
-        <v>0</v>
-      </c>
-      <c r="U62">
-        <v>0</v>
-      </c>
-      <c r="V62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>1</v>
+      </c>
+      <c r="P63">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>1</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="U63">
+        <v>0</v>
+      </c>
+      <c r="V63">
+        <v>0</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>33</v>
       </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-      <c r="C63">
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
         <v>3</v>
       </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="E63">
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
         <v>2</v>
       </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="H63">
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
         <v>2</v>
       </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-      <c r="K63">
-        <v>0</v>
-      </c>
-      <c r="L63">
-        <v>0</v>
-      </c>
-      <c r="M63">
-        <v>0</v>
-      </c>
-      <c r="N63">
-        <v>0</v>
-      </c>
-      <c r="O63">
-        <v>0</v>
-      </c>
-      <c r="P63">
-        <v>0</v>
-      </c>
-      <c r="Q63">
-        <v>0</v>
-      </c>
-      <c r="R63">
-        <v>0</v>
-      </c>
-      <c r="S63">
-        <v>0</v>
-      </c>
-      <c r="T63">
-        <v>0</v>
-      </c>
-      <c r="U63">
-        <v>1</v>
-      </c>
-      <c r="V63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <v>1</v>
+      </c>
+      <c r="V64">
+        <v>0</v>
+      </c>
+      <c r="W64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>34</v>
       </c>
-      <c r="B64">
+      <c r="B65">
         <v>5</v>
       </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-      <c r="L64">
-        <v>0</v>
-      </c>
-      <c r="M64">
-        <v>0</v>
-      </c>
-      <c r="N64">
-        <v>0</v>
-      </c>
-      <c r="O64">
-        <v>0</v>
-      </c>
-      <c r="P64">
-        <v>0</v>
-      </c>
-      <c r="Q64">
-        <v>0</v>
-      </c>
-      <c r="R64">
-        <v>0</v>
-      </c>
-      <c r="S64">
-        <v>0</v>
-      </c>
-      <c r="T64">
-        <v>0</v>
-      </c>
-      <c r="U64">
-        <v>0</v>
-      </c>
-      <c r="V64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <v>0</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>35</v>
       </c>
-      <c r="B65">
-        <v>0</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65">
-        <v>1</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="L65">
-        <v>0</v>
-      </c>
-      <c r="M65">
-        <v>0</v>
-      </c>
-      <c r="N65">
-        <v>0</v>
-      </c>
-      <c r="O65">
-        <v>1</v>
-      </c>
-      <c r="P65">
-        <v>0</v>
-      </c>
-      <c r="Q65">
-        <v>0</v>
-      </c>
-      <c r="R65">
-        <v>0</v>
-      </c>
-      <c r="S65">
-        <v>1</v>
-      </c>
-      <c r="T65">
-        <v>0</v>
-      </c>
-      <c r="U65">
-        <v>0</v>
-      </c>
-      <c r="V65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>1</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>1</v>
+      </c>
+      <c r="T66">
+        <v>0</v>
+      </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
+      <c r="V66">
+        <v>0</v>
+      </c>
+      <c r="W66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>36</v>
       </c>
-      <c r="B66">
-        <v>1</v>
-      </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>1</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
-      <c r="K66">
-        <v>0</v>
-      </c>
-      <c r="L66">
-        <v>0</v>
-      </c>
-      <c r="M66">
-        <v>0</v>
-      </c>
-      <c r="N66">
-        <v>1</v>
-      </c>
-      <c r="O66">
-        <v>1</v>
-      </c>
-      <c r="P66">
-        <v>0</v>
-      </c>
-      <c r="Q66">
-        <v>0</v>
-      </c>
-      <c r="R66">
-        <v>0</v>
-      </c>
-      <c r="S66">
-        <v>0</v>
-      </c>
-      <c r="T66">
-        <v>0</v>
-      </c>
-      <c r="U66">
-        <v>0</v>
-      </c>
-      <c r="V66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <v>1</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>0</v>
+      </c>
+      <c r="V67">
+        <v>0</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>37</v>
       </c>
-      <c r="B67">
-        <v>0</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="I67">
-        <v>1</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-      <c r="K67">
-        <v>0</v>
-      </c>
-      <c r="L67">
-        <v>0</v>
-      </c>
-      <c r="M67">
-        <v>0</v>
-      </c>
-      <c r="N67">
-        <v>0</v>
-      </c>
-      <c r="O67">
-        <v>0</v>
-      </c>
-      <c r="P67">
-        <v>0</v>
-      </c>
-      <c r="Q67">
-        <v>0</v>
-      </c>
-      <c r="R67">
-        <v>0</v>
-      </c>
-      <c r="S67">
-        <v>0</v>
-      </c>
-      <c r="T67">
-        <v>0</v>
-      </c>
-      <c r="U67">
-        <v>0</v>
-      </c>
-      <c r="V67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <v>0</v>
+      </c>
+      <c r="V68">
+        <v>0</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>332</v>
       </c>
-      <c r="B68">
-        <v>0</v>
-      </c>
-      <c r="C68">
-        <v>0</v>
-      </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
-      <c r="K68">
-        <v>1</v>
-      </c>
-      <c r="L68">
-        <v>0</v>
-      </c>
-      <c r="M68">
-        <v>0</v>
-      </c>
-      <c r="N68">
-        <v>0</v>
-      </c>
-      <c r="O68">
-        <v>0</v>
-      </c>
-      <c r="P68">
-        <v>0</v>
-      </c>
-      <c r="Q68">
-        <v>0</v>
-      </c>
-      <c r="R68">
-        <v>0</v>
-      </c>
-      <c r="S68">
-        <v>0</v>
-      </c>
-      <c r="T68">
-        <v>0</v>
-      </c>
-      <c r="U68">
-        <v>0</v>
-      </c>
-      <c r="V68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <v>0</v>
+      </c>
+      <c r="V69">
+        <v>0</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>53</v>
       </c>
-      <c r="B69">
-        <v>0</v>
-      </c>
-      <c r="C69">
-        <v>0</v>
-      </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
-      <c r="H69">
-        <v>0</v>
-      </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-      <c r="J69">
-        <v>1</v>
-      </c>
-      <c r="K69">
-        <v>0</v>
-      </c>
-      <c r="L69">
-        <v>0</v>
-      </c>
-      <c r="M69">
-        <v>0</v>
-      </c>
-      <c r="N69">
-        <v>1</v>
-      </c>
-      <c r="O69">
-        <v>0</v>
-      </c>
-      <c r="P69">
-        <v>0</v>
-      </c>
-      <c r="Q69">
-        <v>0</v>
-      </c>
-      <c r="R69">
-        <v>1</v>
-      </c>
-      <c r="S69">
-        <v>0</v>
-      </c>
-      <c r="T69">
-        <v>0</v>
-      </c>
-      <c r="U69">
-        <v>0</v>
-      </c>
-      <c r="V69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>1</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <v>0</v>
+      </c>
+      <c r="V70">
+        <v>0</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>158</v>
       </c>
-      <c r="B70">
-        <v>0</v>
-      </c>
-      <c r="C70">
-        <v>0</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70">
-        <v>1</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
-      <c r="H70">
-        <v>1</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-      <c r="K70">
-        <v>0</v>
-      </c>
-      <c r="L70">
-        <v>0</v>
-      </c>
-      <c r="M70">
-        <v>0</v>
-      </c>
-      <c r="N70">
-        <v>0</v>
-      </c>
-      <c r="O70">
-        <v>0</v>
-      </c>
-      <c r="P70">
-        <v>0</v>
-      </c>
-      <c r="Q70">
-        <v>0</v>
-      </c>
-      <c r="R70">
-        <v>0</v>
-      </c>
-      <c r="S70">
-        <v>0</v>
-      </c>
-      <c r="T70">
-        <v>0</v>
-      </c>
-      <c r="U70">
-        <v>0</v>
-      </c>
-      <c r="V70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>0</v>
+      </c>
+      <c r="V71">
+        <v>1</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>38</v>
       </c>
-      <c r="B71">
-        <v>1</v>
-      </c>
-      <c r="C71">
-        <v>0</v>
-      </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-      <c r="H71">
-        <v>0</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-      <c r="K71">
-        <v>0</v>
-      </c>
-      <c r="L71">
-        <v>0</v>
-      </c>
-      <c r="M71">
-        <v>0</v>
-      </c>
-      <c r="N71">
-        <v>0</v>
-      </c>
-      <c r="O71">
-        <v>0</v>
-      </c>
-      <c r="P71">
-        <v>0</v>
-      </c>
-      <c r="Q71">
-        <v>0</v>
-      </c>
-      <c r="R71">
-        <v>0</v>
-      </c>
-      <c r="S71">
-        <v>0</v>
-      </c>
-      <c r="T71">
-        <v>0</v>
-      </c>
-      <c r="U71">
-        <v>0</v>
-      </c>
-      <c r="V71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>0</v>
+      </c>
+      <c r="U72">
+        <v>0</v>
+      </c>
+      <c r="V72">
+        <v>0</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>39</v>
       </c>
-      <c r="B72">
+      <c r="B73">
         <v>2</v>
       </c>
-      <c r="C72">
-        <v>0</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
-      <c r="H72">
-        <v>0</v>
-      </c>
-      <c r="I72">
-        <v>1</v>
-      </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
-      <c r="K72">
-        <v>0</v>
-      </c>
-      <c r="L72">
-        <v>0</v>
-      </c>
-      <c r="M72">
-        <v>0</v>
-      </c>
-      <c r="N72">
-        <v>0</v>
-      </c>
-      <c r="O72">
-        <v>1</v>
-      </c>
-      <c r="P72">
-        <v>0</v>
-      </c>
-      <c r="Q72">
-        <v>0</v>
-      </c>
-      <c r="R72">
-        <v>0</v>
-      </c>
-      <c r="S72">
-        <v>0</v>
-      </c>
-      <c r="T72">
-        <v>0</v>
-      </c>
-      <c r="U72">
-        <v>0</v>
-      </c>
-      <c r="V72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>1</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>0</v>
+      </c>
+      <c r="U73">
+        <v>0</v>
+      </c>
+      <c r="V73">
+        <v>0</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>159</v>
       </c>
-      <c r="B73">
-        <v>0</v>
-      </c>
-      <c r="C73">
-        <v>0</v>
-      </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-      <c r="E73">
-        <v>1</v>
-      </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <v>0</v>
-      </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-      <c r="K73">
-        <v>0</v>
-      </c>
-      <c r="L73">
-        <v>0</v>
-      </c>
-      <c r="M73">
-        <v>0</v>
-      </c>
-      <c r="N73">
-        <v>0</v>
-      </c>
-      <c r="O73">
-        <v>0</v>
-      </c>
-      <c r="P73">
-        <v>0</v>
-      </c>
-      <c r="Q73">
-        <v>0</v>
-      </c>
-      <c r="R73">
-        <v>0</v>
-      </c>
-      <c r="S73">
-        <v>0</v>
-      </c>
-      <c r="T73">
-        <v>0</v>
-      </c>
-      <c r="U73">
-        <v>0</v>
-      </c>
-      <c r="V73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <v>0</v>
+      </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>40</v>
       </c>
-      <c r="B74">
-        <v>1</v>
-      </c>
-      <c r="C74">
-        <v>0</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <v>1</v>
-      </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-      <c r="K74">
-        <v>0</v>
-      </c>
-      <c r="L74">
-        <v>0</v>
-      </c>
-      <c r="M74">
-        <v>0</v>
-      </c>
-      <c r="N74">
-        <v>0</v>
-      </c>
-      <c r="O74">
-        <v>0</v>
-      </c>
-      <c r="P74">
-        <v>0</v>
-      </c>
-      <c r="Q74">
-        <v>0</v>
-      </c>
-      <c r="R74">
-        <v>0</v>
-      </c>
-      <c r="S74">
-        <v>0</v>
-      </c>
-      <c r="T74">
-        <v>0</v>
-      </c>
-      <c r="U74">
-        <v>0</v>
-      </c>
-      <c r="V74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>0</v>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>333</v>
       </c>
-      <c r="B75">
-        <v>0</v>
-      </c>
-      <c r="C75">
-        <v>0</v>
-      </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
-      <c r="K75">
-        <v>1</v>
-      </c>
-      <c r="L75">
-        <v>0</v>
-      </c>
-      <c r="M75">
-        <v>0</v>
-      </c>
-      <c r="N75">
-        <v>0</v>
-      </c>
-      <c r="O75">
-        <v>1</v>
-      </c>
-      <c r="P75">
-        <v>0</v>
-      </c>
-      <c r="Q75">
-        <v>0</v>
-      </c>
-      <c r="R75">
-        <v>0</v>
-      </c>
-      <c r="S75">
-        <v>0</v>
-      </c>
-      <c r="T75">
-        <v>0</v>
-      </c>
-      <c r="U75">
-        <v>0</v>
-      </c>
-      <c r="V75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>985</v>
-      </c>
       <c r="B76">
         <v>0</v>
       </c>
@@ -17019,7 +17476,7 @@
         <v>0</v>
       </c>
       <c r="K76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L76">
         <v>0</v>
@@ -17031,7 +17488,7 @@
         <v>0</v>
       </c>
       <c r="O76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P76">
         <v>0</v>
@@ -17043,7 +17500,7 @@
         <v>0</v>
       </c>
       <c r="S76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T76">
         <v>0</v>
@@ -17052,414 +17509,506 @@
         <v>0</v>
       </c>
       <c r="V76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>984</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <v>1</v>
+      </c>
+      <c r="T77">
+        <v>0</v>
+      </c>
+      <c r="U77">
+        <v>0</v>
+      </c>
+      <c r="V77">
+        <v>1</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>160</v>
       </c>
-      <c r="B77">
-        <v>0</v>
-      </c>
-      <c r="C77">
-        <v>0</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77">
-        <v>1</v>
-      </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-      <c r="G77">
-        <v>0</v>
-      </c>
-      <c r="H77">
-        <v>0</v>
-      </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
-      <c r="J77">
-        <v>0</v>
-      </c>
-      <c r="K77">
-        <v>0</v>
-      </c>
-      <c r="L77">
-        <v>0</v>
-      </c>
-      <c r="M77">
-        <v>0</v>
-      </c>
-      <c r="N77">
-        <v>0</v>
-      </c>
-      <c r="O77">
-        <v>0</v>
-      </c>
-      <c r="P77">
-        <v>0</v>
-      </c>
-      <c r="Q77">
-        <v>0</v>
-      </c>
-      <c r="R77">
-        <v>0</v>
-      </c>
-      <c r="S77">
-        <v>0</v>
-      </c>
-      <c r="T77">
-        <v>0</v>
-      </c>
-      <c r="U77">
-        <v>0</v>
-      </c>
-      <c r="V77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <v>0</v>
+      </c>
+      <c r="V78">
+        <v>0</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>171</v>
       </c>
-      <c r="B78">
-        <v>0</v>
-      </c>
-      <c r="C78">
-        <v>0</v>
-      </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78">
-        <v>0</v>
-      </c>
-      <c r="G78">
-        <v>1</v>
-      </c>
-      <c r="H78">
-        <v>0</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-      <c r="J78">
-        <v>0</v>
-      </c>
-      <c r="K78">
-        <v>0</v>
-      </c>
-      <c r="L78">
-        <v>0</v>
-      </c>
-      <c r="M78">
-        <v>0</v>
-      </c>
-      <c r="N78">
-        <v>0</v>
-      </c>
-      <c r="O78">
-        <v>0</v>
-      </c>
-      <c r="P78">
-        <v>0</v>
-      </c>
-      <c r="Q78">
-        <v>0</v>
-      </c>
-      <c r="R78">
-        <v>0</v>
-      </c>
-      <c r="S78">
-        <v>0</v>
-      </c>
-      <c r="T78">
-        <v>0</v>
-      </c>
-      <c r="U78">
-        <v>0</v>
-      </c>
-      <c r="V78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>0</v>
+      </c>
+      <c r="U79">
+        <v>0</v>
+      </c>
+      <c r="V79">
+        <v>0</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>41</v>
       </c>
-      <c r="B79">
-        <v>0</v>
-      </c>
-      <c r="C79">
-        <v>1</v>
-      </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-      <c r="F79">
-        <v>0</v>
-      </c>
-      <c r="G79">
-        <v>0</v>
-      </c>
-      <c r="H79">
-        <v>0</v>
-      </c>
-      <c r="I79">
-        <v>0</v>
-      </c>
-      <c r="J79">
-        <v>0</v>
-      </c>
-      <c r="K79">
-        <v>0</v>
-      </c>
-      <c r="L79">
-        <v>0</v>
-      </c>
-      <c r="M79">
-        <v>0</v>
-      </c>
-      <c r="N79">
-        <v>0</v>
-      </c>
-      <c r="O79">
-        <v>1</v>
-      </c>
-      <c r="P79">
-        <v>0</v>
-      </c>
-      <c r="Q79">
-        <v>0</v>
-      </c>
-      <c r="R79">
-        <v>0</v>
-      </c>
-      <c r="S79">
-        <v>0</v>
-      </c>
-      <c r="T79">
-        <v>0</v>
-      </c>
-      <c r="U79">
-        <v>0</v>
-      </c>
-      <c r="V79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>1</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>0</v>
+      </c>
+      <c r="U80">
+        <v>0</v>
+      </c>
+      <c r="V80">
+        <v>0</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>161</v>
       </c>
-      <c r="B80">
-        <v>0</v>
-      </c>
-      <c r="C80">
-        <v>0</v>
-      </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-      <c r="E80">
-        <v>1</v>
-      </c>
-      <c r="F80">
-        <v>0</v>
-      </c>
-      <c r="G80">
-        <v>0</v>
-      </c>
-      <c r="H80">
-        <v>0</v>
-      </c>
-      <c r="I80">
-        <v>0</v>
-      </c>
-      <c r="J80">
-        <v>0</v>
-      </c>
-      <c r="K80">
-        <v>0</v>
-      </c>
-      <c r="L80">
-        <v>0</v>
-      </c>
-      <c r="M80">
-        <v>0</v>
-      </c>
-      <c r="N80">
-        <v>0</v>
-      </c>
-      <c r="O80">
-        <v>0</v>
-      </c>
-      <c r="P80">
-        <v>0</v>
-      </c>
-      <c r="Q80">
-        <v>0</v>
-      </c>
-      <c r="R80">
-        <v>0</v>
-      </c>
-      <c r="S80">
-        <v>0</v>
-      </c>
-      <c r="T80">
-        <v>0</v>
-      </c>
-      <c r="U80">
-        <v>0</v>
-      </c>
-      <c r="V80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <v>0</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>0</v>
+      </c>
+      <c r="U81">
+        <v>0</v>
+      </c>
+      <c r="V81">
+        <v>0</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>235</v>
       </c>
-      <c r="B81">
-        <v>0</v>
-      </c>
-      <c r="C81">
-        <v>0</v>
-      </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-      <c r="F81">
-        <v>0</v>
-      </c>
-      <c r="G81">
-        <v>0</v>
-      </c>
-      <c r="H81">
-        <v>1</v>
-      </c>
-      <c r="I81">
-        <v>0</v>
-      </c>
-      <c r="J81">
-        <v>0</v>
-      </c>
-      <c r="K81">
-        <v>0</v>
-      </c>
-      <c r="L81">
-        <v>0</v>
-      </c>
-      <c r="M81">
-        <v>0</v>
-      </c>
-      <c r="N81">
-        <v>0</v>
-      </c>
-      <c r="O81">
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82">
         <v>2</v>
       </c>
-      <c r="P81">
-        <v>0</v>
-      </c>
-      <c r="Q81">
-        <v>0</v>
-      </c>
-      <c r="R81">
-        <v>0</v>
-      </c>
-      <c r="S81">
-        <v>0</v>
-      </c>
-      <c r="T81">
-        <v>0</v>
-      </c>
-      <c r="U81">
-        <v>0</v>
-      </c>
-      <c r="V81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82">
+        <v>0</v>
+      </c>
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
+        <v>0</v>
+      </c>
+      <c r="U82">
+        <v>0</v>
+      </c>
+      <c r="V82">
+        <v>0</v>
+      </c>
+      <c r="W82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>42</v>
       </c>
-      <c r="B82">
+      <c r="B83">
         <v>4</v>
       </c>
-      <c r="C82">
+      <c r="C83">
         <v>2</v>
       </c>
-      <c r="D82">
+      <c r="D83">
         <v>3</v>
       </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-      <c r="F82">
-        <v>1</v>
-      </c>
-      <c r="G82">
-        <v>0</v>
-      </c>
-      <c r="H82">
-        <v>0</v>
-      </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
-      <c r="J82">
-        <v>1</v>
-      </c>
-      <c r="K82">
-        <v>1</v>
-      </c>
-      <c r="L82">
-        <v>0</v>
-      </c>
-      <c r="M82">
-        <v>0</v>
-      </c>
-      <c r="N82">
-        <v>0</v>
-      </c>
-      <c r="O82">
-        <v>0</v>
-      </c>
-      <c r="P82">
-        <v>0</v>
-      </c>
-      <c r="Q82">
-        <v>0</v>
-      </c>
-      <c r="R82">
-        <v>0</v>
-      </c>
-      <c r="S82">
-        <v>0</v>
-      </c>
-      <c r="T82">
-        <v>0</v>
-      </c>
-      <c r="U82">
-        <v>0</v>
-      </c>
-      <c r="V82">
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="R83">
+        <v>0</v>
+      </c>
+      <c r="S83">
+        <v>0</v>
+      </c>
+      <c r="T83">
+        <v>0</v>
+      </c>
+      <c r="U83">
+        <v>0</v>
+      </c>
+      <c r="V83">
+        <v>0</v>
+      </c>
+      <c r="W83">
         <v>0</v>
       </c>
     </row>
@@ -17472,20 +18021,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E223"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A230" sqref="A230"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.140625" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" style="14" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="14" customWidth="1"/>
     <col min="4" max="4" width="26.85546875" style="15" customWidth="1"/>
     <col min="5" max="16384" width="8.85546875" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>929</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -17496,10 +18047,10 @@
         <v>486</v>
       </c>
       <c r="C2" s="14" t="s">
+        <v>929</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>930</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -17521,13 +18072,13 @@
         <v>488</v>
       </c>
       <c r="B4" s="14">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C4" s="14">
         <v>9476</v>
       </c>
       <c r="D4" s="15">
-        <v>759.81426762346985</v>
+        <v>802.02617138032929</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -17619,13 +18170,13 @@
         <v>494</v>
       </c>
       <c r="B11" s="14">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" s="14">
         <v>3075</v>
       </c>
       <c r="D11" s="15">
-        <v>878.04878048780483</v>
+        <v>910.56910569105696</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -17703,13 +18254,13 @@
         <v>293</v>
       </c>
       <c r="B17" s="14">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C17" s="14">
         <v>19119</v>
       </c>
       <c r="D17" s="15">
-        <v>889.16784350645958</v>
+        <v>931.01103614205761</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -17717,13 +18268,13 @@
         <v>500</v>
       </c>
       <c r="B18" s="14">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C18" s="14">
         <v>10419</v>
       </c>
       <c r="D18" s="15">
-        <v>1065.3613590555715</v>
+        <v>1074.9592091371533</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -17829,13 +18380,13 @@
         <v>506</v>
       </c>
       <c r="B26" s="14">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C26" s="14">
         <v>7098</v>
       </c>
       <c r="D26" s="15">
-        <v>803.0431107354184</v>
+        <v>817.13158636235562</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -17871,13 +18422,13 @@
         <v>509</v>
       </c>
       <c r="B29" s="14">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C29" s="14">
         <v>22058</v>
       </c>
       <c r="D29" s="15">
-        <v>1187.7776770332759</v>
+        <v>1192.3111796173723</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -17913,13 +18464,13 @@
         <v>3</v>
       </c>
       <c r="B32" s="14">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C32" s="14">
         <v>11882</v>
       </c>
       <c r="D32" s="15">
-        <v>1035.1792627503787</v>
+        <v>1060.4275374516076</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -17969,13 +18520,13 @@
         <v>515</v>
       </c>
       <c r="B36" s="14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C36" s="14">
         <v>1609</v>
       </c>
       <c r="D36" s="15">
-        <v>683.65444375388438</v>
+        <v>745.80484773151022</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -17997,13 +18548,13 @@
         <v>517</v>
       </c>
       <c r="B38" s="14">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C38" s="14">
         <v>6180</v>
       </c>
       <c r="D38" s="15">
-        <v>323.62459546925567</v>
+        <v>339.80582524271847</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -18053,13 +18604,13 @@
         <v>520</v>
       </c>
       <c r="B42" s="14">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C42" s="14">
         <v>2901</v>
       </c>
       <c r="D42" s="15">
-        <v>2171.6649431230612</v>
+        <v>2206.1358152361254</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -18109,13 +18660,13 @@
         <v>294</v>
       </c>
       <c r="B46" s="14">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C46" s="14">
         <v>7595</v>
       </c>
       <c r="D46" s="15">
-        <v>1737.9855167873602</v>
+        <v>1751.1520737327189</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -18137,13 +18688,13 @@
         <v>4</v>
       </c>
       <c r="B48" s="14">
-        <v>1083</v>
+        <v>1122</v>
       </c>
       <c r="C48" s="14">
         <v>98497</v>
       </c>
       <c r="D48" s="15">
-        <v>1099.5258738844839</v>
+        <v>1139.1209884565012</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -18179,13 +18730,13 @@
         <v>5</v>
       </c>
       <c r="B51" s="14">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="C51" s="14">
         <v>40711</v>
       </c>
       <c r="D51" s="15">
-        <v>1269.9270467441231</v>
+        <v>1279.7524010709635</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -18235,13 +18786,13 @@
         <v>6</v>
       </c>
       <c r="B55" s="14">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C55" s="14">
         <v>7230</v>
       </c>
       <c r="D55" s="15">
-        <v>774.55048409405254</v>
+        <v>802.21300138312586</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -18277,13 +18828,13 @@
         <v>155</v>
       </c>
       <c r="B58" s="14">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C58" s="14">
         <v>15004</v>
       </c>
       <c r="D58" s="15">
-        <v>393.22847240735803</v>
+        <v>413.22314049586777</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -18291,13 +18842,13 @@
         <v>532</v>
       </c>
       <c r="B59" s="14">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C59" s="14">
         <v>16880</v>
       </c>
       <c r="D59" s="15">
-        <v>870.85308056872043</v>
+        <v>882.70142180094786</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -18361,13 +18912,13 @@
         <v>7</v>
       </c>
       <c r="B64" s="14">
-        <v>3906</v>
+        <v>4005</v>
       </c>
       <c r="C64" s="14">
         <v>343430</v>
       </c>
       <c r="D64" s="15">
-        <v>1137.3496782459308</v>
+        <v>1166.1765134088459</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -18431,13 +18982,13 @@
         <v>8</v>
       </c>
       <c r="B69" s="14">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C69" s="14">
         <v>6472</v>
       </c>
       <c r="D69" s="15">
-        <v>849.81458590852901</v>
+        <v>880.71693448702104</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -18459,13 +19010,13 @@
         <v>542</v>
       </c>
       <c r="B71" s="14">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="C71" s="14">
         <v>181652</v>
       </c>
       <c r="D71" s="15">
-        <v>441.5035342302865</v>
+        <v>444.25605002972719</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -18473,13 +19024,13 @@
         <v>169</v>
       </c>
       <c r="B72" s="14">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C72" s="14">
         <v>29436</v>
       </c>
       <c r="D72" s="15">
-        <v>740.5897540426688</v>
+        <v>767.76735969561082</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -18529,13 +19080,13 @@
         <v>546</v>
       </c>
       <c r="B76" s="14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C76" s="14">
         <v>1038</v>
       </c>
       <c r="D76" s="15">
-        <v>867.05202312138726</v>
+        <v>963.39113680154139</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -18557,13 +19108,13 @@
         <v>548</v>
       </c>
       <c r="B78" s="14">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C78" s="14">
         <v>11585</v>
       </c>
       <c r="D78" s="15">
-        <v>388.43331894691408</v>
+        <v>397.06517047906777</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -18599,13 +19150,13 @@
         <v>170</v>
       </c>
       <c r="B81" s="14">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="C81" s="14">
         <v>24297</v>
       </c>
       <c r="D81" s="15">
-        <v>1115.3640367123512</v>
+        <v>1148.2899123348561</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -18627,13 +19178,13 @@
         <v>552</v>
       </c>
       <c r="B83" s="14">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C83" s="14">
         <v>16039</v>
       </c>
       <c r="D83" s="15">
-        <v>1053.6816509757466</v>
+        <v>1066.1512563127378</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -18655,13 +19206,13 @@
         <v>554</v>
       </c>
       <c r="B85" s="14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C85" s="14">
         <v>836</v>
       </c>
       <c r="D85" s="15">
-        <v>1315.7894736842106</v>
+        <v>1435.4066985645934</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -18683,13 +19234,13 @@
         <v>156</v>
       </c>
       <c r="B87" s="14">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C87" s="14">
         <v>4065</v>
       </c>
       <c r="D87" s="15">
-        <v>369.00369003690037</v>
+        <v>393.60393603936041</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -18697,13 +19248,13 @@
         <v>556</v>
       </c>
       <c r="B88" s="14">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C88" s="14">
         <v>11338</v>
       </c>
       <c r="D88" s="15">
-        <v>890.80966660786737</v>
+        <v>899.62956429705412</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -18767,13 +19318,13 @@
         <v>10</v>
       </c>
       <c r="B93" s="14">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C93" s="14">
         <v>29389</v>
       </c>
       <c r="D93" s="15">
-        <v>1092.2453979380041</v>
+        <v>1105.8559324917487</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -18865,13 +19416,13 @@
         <v>12</v>
       </c>
       <c r="B100" s="14">
-        <v>619</v>
+        <v>631</v>
       </c>
       <c r="C100" s="14">
         <v>77088</v>
       </c>
       <c r="D100" s="15">
-        <v>802.97841427978415</v>
+        <v>818.54503943545035</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -18921,13 +19472,13 @@
         <v>568</v>
       </c>
       <c r="B104" s="14">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C104" s="14">
         <v>6564</v>
       </c>
       <c r="D104" s="15">
-        <v>868.37294332723945</v>
+        <v>929.31139549055456</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -18935,13 +19486,13 @@
         <v>569</v>
       </c>
       <c r="B105" s="14">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C105" s="14">
         <v>20013</v>
       </c>
       <c r="D105" s="15">
-        <v>299.805126667666</v>
+        <v>304.80187877879376</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -18963,13 +19514,13 @@
         <v>571</v>
       </c>
       <c r="B107" s="14">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C107" s="14">
         <v>16937</v>
       </c>
       <c r="D107" s="15">
-        <v>242.07356674735786</v>
+        <v>247.97780008265926</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -19019,13 +19570,13 @@
         <v>575</v>
       </c>
       <c r="B111" s="14">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C111" s="14">
         <v>4163</v>
       </c>
       <c r="D111" s="15">
-        <v>408.35935623348547</v>
+        <v>456.40163343742495</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -19145,13 +19696,13 @@
         <v>582</v>
       </c>
       <c r="B120" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C120" s="14">
         <v>437</v>
       </c>
       <c r="D120" s="15">
-        <v>686.49885583524031</v>
+        <v>915.33180778032033</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -19159,13 +19710,13 @@
         <v>583</v>
       </c>
       <c r="B121" s="14">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C121" s="14">
         <v>1492</v>
       </c>
       <c r="D121" s="15">
-        <v>2412.8686327077749</v>
+        <v>2546.9168900804289</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -19173,13 +19724,13 @@
         <v>584</v>
       </c>
       <c r="B122" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C122" s="14">
         <v>1549</v>
       </c>
       <c r="D122" s="15">
-        <v>193.67333763718528</v>
+        <v>258.23111684958036</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -19257,13 +19808,13 @@
         <v>313</v>
       </c>
       <c r="B128" s="14">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C128" s="14">
         <v>18345</v>
       </c>
       <c r="D128" s="15">
-        <v>812.21041155628234</v>
+        <v>834.01471790678659</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -19355,13 +19906,13 @@
         <v>15</v>
       </c>
       <c r="B135" s="14">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C135" s="14">
         <v>31188</v>
       </c>
       <c r="D135" s="15">
-        <v>843.27305373861736</v>
+        <v>862.51122226497375</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -19369,13 +19920,13 @@
         <v>164</v>
       </c>
       <c r="B136" s="14">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C136" s="14">
         <v>7246</v>
       </c>
       <c r="D136" s="15">
-        <v>331.21722329561135</v>
+        <v>345.01794093292852</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -19509,13 +20060,13 @@
         <v>604</v>
       </c>
       <c r="B146" s="14">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C146" s="14">
         <v>4964</v>
       </c>
       <c r="D146" s="15">
-        <v>402.90088638195004</v>
+        <v>423.04593070104755</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -19635,13 +20186,13 @@
         <v>612</v>
       </c>
       <c r="B155" s="14">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C155" s="14">
         <v>17349</v>
       </c>
       <c r="D155" s="15">
-        <v>570.63807712260075</v>
+        <v>576.40209810363706</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -19817,13 +20368,13 @@
         <v>624</v>
       </c>
       <c r="B168" s="14">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C168" s="14">
         <v>6061</v>
       </c>
       <c r="D168" s="15">
-        <v>445.47104438211517</v>
+        <v>461.96997195182314</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -19859,13 +20410,13 @@
         <v>626</v>
       </c>
       <c r="B171" s="14">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C171" s="14">
         <v>8350</v>
       </c>
       <c r="D171" s="15">
-        <v>646.70658682634735</v>
+        <v>670.65868263473055</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -19943,13 +20494,13 @@
         <v>19</v>
       </c>
       <c r="B177" s="14">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="C177" s="14">
         <v>46191</v>
       </c>
       <c r="D177" s="15">
-        <v>878.9591045874738</v>
+        <v>889.78372410209784</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -19999,13 +20550,13 @@
         <v>21</v>
       </c>
       <c r="B181" s="14">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="C181" s="14">
         <v>45690</v>
       </c>
       <c r="D181" s="15">
-        <v>938.93630991464215</v>
+        <v>965.2002626395273</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -20027,13 +20578,13 @@
         <v>55</v>
       </c>
       <c r="B183" s="14">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="C183" s="14">
         <v>27146</v>
       </c>
       <c r="D183" s="15">
-        <v>865.68923598320191</v>
+        <v>913.57842776099608</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -20041,13 +20592,13 @@
         <v>636</v>
       </c>
       <c r="B184" s="14">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C184" s="14">
         <v>4489</v>
       </c>
       <c r="D184" s="15">
-        <v>1336.6005791935843</v>
+        <v>1381.1539318333705</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -20055,13 +20606,13 @@
         <v>637</v>
       </c>
       <c r="B185" s="14">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C185" s="14">
         <v>12947</v>
       </c>
       <c r="D185" s="15">
-        <v>1050.4363945315517</v>
+        <v>1058.160191550166</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -20139,13 +20690,13 @@
         <v>642</v>
       </c>
       <c r="B191" s="14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C191" s="14">
         <v>177</v>
       </c>
       <c r="D191" s="15">
-        <v>1694.9152542372881</v>
+        <v>2824.8587570621471</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -20181,13 +20732,13 @@
         <v>233</v>
       </c>
       <c r="B194" s="14">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C194" s="14">
         <v>4274</v>
       </c>
       <c r="D194" s="15">
-        <v>912.49415067852124</v>
+        <v>959.28872250818904</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
@@ -20251,13 +20802,13 @@
         <v>648</v>
       </c>
       <c r="B199" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C199" s="14">
         <v>1069</v>
       </c>
       <c r="D199" s="15">
-        <v>280.63610851262865</v>
+        <v>374.18147801683818</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
@@ -20265,13 +20816,13 @@
         <v>649</v>
       </c>
       <c r="B200" s="14">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C200" s="17">
         <v>11875</v>
       </c>
       <c r="D200" s="15">
-        <v>1103.1578947368421</v>
+        <v>1145.2631578947369</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
@@ -20293,13 +20844,13 @@
         <v>22</v>
       </c>
       <c r="B202" s="14">
-        <v>4282</v>
+        <v>4348</v>
       </c>
       <c r="C202" s="17">
         <v>246149</v>
       </c>
       <c r="D202" s="15">
-        <v>1739.5967483109823</v>
+        <v>1766.4097761924688</v>
       </c>
       <c r="E202" s="17"/>
     </row>
@@ -20322,13 +20873,13 @@
         <v>652</v>
       </c>
       <c r="B204" s="14">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C204" s="14">
         <v>3056</v>
       </c>
       <c r="D204" s="15">
-        <v>490.83769633507853</v>
+        <v>523.56020942408372</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
@@ -20420,13 +20971,13 @@
         <v>24</v>
       </c>
       <c r="B211" s="14">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C211" s="14">
         <v>23301</v>
       </c>
       <c r="D211" s="15">
-        <v>862.62392172009788</v>
+        <v>871.20724432427789</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -20504,13 +21055,13 @@
         <v>663</v>
       </c>
       <c r="B217" s="14">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C217" s="14">
         <v>1712</v>
       </c>
       <c r="D217" s="15">
-        <v>992.99065420560748</v>
+        <v>1051.4018691588785</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -20560,13 +21111,13 @@
         <v>666</v>
       </c>
       <c r="B221" s="14">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C221" s="14">
         <v>9825</v>
       </c>
       <c r="D221" s="15">
-        <v>539.44020356234091</v>
+        <v>549.61832061068708</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -20588,7 +21139,7 @@
         <v>25</v>
       </c>
       <c r="B223" s="14">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C223" s="14" t="s">
         <v>627</v>
@@ -20607,7 +21158,7 @@
   <dimension ref="A1:E137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20626,16 +21177,16 @@
         <v>837</v>
       </c>
       <c r="B2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>486</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -20646,13 +21197,13 @@
         <v>668</v>
       </c>
       <c r="C3">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D3">
         <v>24328</v>
       </c>
       <c r="E3" s="18">
-        <v>394.60703715882931</v>
+        <v>398.71752712923382</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -20663,13 +21214,13 @@
         <v>669</v>
       </c>
       <c r="C4">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D4">
         <v>17149</v>
       </c>
       <c r="E4" s="18">
-        <v>938.83025249285674</v>
+        <v>962.15522771007056</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -20680,13 +21231,13 @@
         <v>670</v>
       </c>
       <c r="C5">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D5">
         <v>3841</v>
       </c>
       <c r="E5" s="18">
-        <v>2056.756053111169</v>
+        <v>2082.7909398594115</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -20697,13 +21248,13 @@
         <v>671</v>
       </c>
       <c r="C6">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D6">
         <v>19096</v>
       </c>
       <c r="E6" s="18">
-        <v>1188.7306242144953</v>
+        <v>1209.6774193548388</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -20714,13 +21265,13 @@
         <v>672</v>
       </c>
       <c r="C7">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D7">
         <v>19660</v>
       </c>
       <c r="E7" s="18">
-        <v>966.42929806714142</v>
+        <v>986.77517802644968</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -20748,13 +21299,13 @@
         <v>673</v>
       </c>
       <c r="C9">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D9">
         <v>33128</v>
       </c>
       <c r="E9" s="18">
-        <v>745.59285196812368</v>
+        <v>766.72301376479106</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -20765,13 +21316,13 @@
         <v>674</v>
       </c>
       <c r="C10">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D10">
         <v>19664</v>
       </c>
       <c r="E10" s="18">
-        <v>839.09682668836456</v>
+        <v>844.18226200162735</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -20799,13 +21350,13 @@
         <v>676</v>
       </c>
       <c r="C12">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D12">
         <v>16578</v>
       </c>
       <c r="E12" s="18">
-        <v>398.11798769453492</v>
+        <v>410.18216913982388</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -20816,13 +21367,13 @@
         <v>677</v>
       </c>
       <c r="C13">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="D13">
         <v>19813</v>
       </c>
       <c r="E13" s="18">
-        <v>868.11689294907387</v>
+        <v>908.49442285368195</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -20850,13 +21401,13 @@
         <v>678</v>
       </c>
       <c r="C15">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D15">
         <v>15096</v>
       </c>
       <c r="E15" s="18">
-        <v>1357.975622681505</v>
+        <v>1391.0969793322733</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -20867,13 +21418,13 @@
         <v>679</v>
       </c>
       <c r="C16">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D16">
         <v>12426</v>
       </c>
       <c r="E16" s="18">
-        <v>1247.3845163367134</v>
+        <v>1255.4321583775954</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -20884,13 +21435,13 @@
         <v>680</v>
       </c>
       <c r="C17">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D17">
         <v>25129</v>
       </c>
       <c r="E17" s="18">
-        <v>1102.3120697202435</v>
+        <v>1106.2915356759122</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -20901,13 +21452,13 @@
         <v>681</v>
       </c>
       <c r="C18">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D18">
         <v>13737</v>
       </c>
       <c r="E18" s="18">
-        <v>429.49697896192765</v>
+        <v>444.05619858775572</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -20935,13 +21486,13 @@
         <v>682</v>
       </c>
       <c r="C20">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D20">
         <v>10532</v>
       </c>
       <c r="E20" s="18">
-        <v>1129.889859475883</v>
+        <v>1158.3744777819977</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -20986,13 +21537,13 @@
         <v>294</v>
       </c>
       <c r="C23">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D23">
         <v>11715</v>
       </c>
       <c r="E23" s="18">
-        <v>1425.5228339735381</v>
+        <v>1434.0588988476313</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -21003,13 +21554,13 @@
         <v>683</v>
       </c>
       <c r="C24">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D24">
         <v>26715</v>
       </c>
       <c r="E24" s="18">
-        <v>1407.4489986898745</v>
+        <v>1418.6786449560173</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -21020,13 +21571,13 @@
         <v>684</v>
       </c>
       <c r="C25">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D25">
         <v>15332</v>
       </c>
       <c r="E25" s="18">
-        <v>1069.6582311505349</v>
+        <v>1076.1805374380381</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -21037,13 +21588,13 @@
         <v>685</v>
       </c>
       <c r="C26">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D26">
         <v>21071</v>
       </c>
       <c r="E26" s="18">
-        <v>1010.8680176545963</v>
+        <v>1029.8514546058564</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -21071,13 +21622,13 @@
         <v>686</v>
       </c>
       <c r="C28">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D28">
         <v>11870</v>
       </c>
       <c r="E28" s="18">
-        <v>1061.4995787700084</v>
+        <v>1103.6225779275485</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -21105,13 +21656,13 @@
         <v>155</v>
       </c>
       <c r="C30">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D30">
         <v>18193</v>
       </c>
       <c r="E30" s="18">
-        <v>412.2464684219205</v>
+        <v>428.73632715879734</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -21122,13 +21673,13 @@
         <v>532</v>
       </c>
       <c r="C31">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D31">
         <v>19139</v>
       </c>
       <c r="E31" s="18">
-        <v>1060.6614765661739</v>
+        <v>1071.1113433303726</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -21173,13 +21724,13 @@
         <v>690</v>
       </c>
       <c r="C34">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="D34">
         <v>38328</v>
       </c>
       <c r="E34" s="18">
-        <v>1103.6318096430807</v>
+        <v>1132.3314548111041</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -21190,13 +21741,13 @@
         <v>691</v>
       </c>
       <c r="C35">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="D35">
         <v>13102</v>
       </c>
       <c r="E35" s="18">
-        <v>1999.6947030987635</v>
+        <v>2037.85681575332</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -21207,13 +21758,13 @@
         <v>692</v>
       </c>
       <c r="C36">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="D36">
         <v>18232</v>
       </c>
       <c r="E36" s="18">
-        <v>1371.2154453707767</v>
+        <v>1409.6094778411584</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -21241,13 +21792,13 @@
         <v>693</v>
       </c>
       <c r="C38">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="D38">
         <v>25904</v>
       </c>
       <c r="E38" s="18">
-        <v>818.40642371834463</v>
+        <v>857.01050030883266</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -21275,13 +21826,13 @@
         <v>169</v>
       </c>
       <c r="C40">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="D40">
         <v>35097</v>
       </c>
       <c r="E40" s="18">
-        <v>661.02515884548541</v>
+        <v>683.8191298401573</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -21326,13 +21877,13 @@
         <v>548</v>
       </c>
       <c r="C43">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D43">
         <v>18203</v>
       </c>
       <c r="E43" s="18">
-        <v>340.60319727517441</v>
+        <v>346.09679723122559</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -21343,13 +21894,13 @@
         <v>170</v>
       </c>
       <c r="C44">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D44">
         <v>14199</v>
       </c>
       <c r="E44" s="18">
-        <v>1070.4979223889006</v>
+        <v>1105.7116698359039</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -21360,13 +21911,13 @@
         <v>552</v>
       </c>
       <c r="C45">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D45">
         <v>17250</v>
       </c>
       <c r="E45" s="18">
-        <v>1008.695652173913</v>
+        <v>1020.2898550724638</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -21377,13 +21928,13 @@
         <v>556</v>
       </c>
       <c r="C46">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D46">
         <v>10766</v>
       </c>
       <c r="E46" s="18">
-        <v>882.4075794166821</v>
+        <v>891.69608025264722</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -21394,13 +21945,13 @@
         <v>10</v>
       </c>
       <c r="C47">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D47">
         <v>31686</v>
       </c>
       <c r="E47" s="18">
-        <v>962.57022028656183</v>
+        <v>975.19409202802501</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -21411,13 +21962,13 @@
         <v>696</v>
       </c>
       <c r="C48">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D48">
         <v>15651</v>
       </c>
       <c r="E48" s="18">
-        <v>1814.5805379847934</v>
+        <v>1833.7486422592806</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -21428,13 +21979,13 @@
         <v>697</v>
       </c>
       <c r="C49">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="D49">
         <v>21093</v>
       </c>
       <c r="E49" s="18">
-        <v>952.92277058739865</v>
+        <v>986.10913573223343</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -21445,13 +21996,13 @@
         <v>698</v>
       </c>
       <c r="C50">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D50">
         <v>19002</v>
       </c>
       <c r="E50" s="18">
-        <v>484.15956215135247</v>
+        <v>489.42216608778023</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -21479,13 +22030,13 @@
         <v>700</v>
       </c>
       <c r="C52">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D52">
         <v>12094</v>
       </c>
       <c r="E52" s="18">
-        <v>669.75359682487181</v>
+        <v>678.02215974863566</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -21513,13 +22064,13 @@
         <v>702</v>
       </c>
       <c r="C54">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D54">
         <v>34494</v>
       </c>
       <c r="E54" s="18">
-        <v>295.70360062619585</v>
+        <v>301.50171044239579</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -21530,13 +22081,13 @@
         <v>571</v>
       </c>
       <c r="C55">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D55">
         <v>17896</v>
       </c>
       <c r="E55" s="18">
-        <v>257.04067948144836</v>
+        <v>262.6285203397407</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -21564,13 +22115,13 @@
         <v>703</v>
       </c>
       <c r="C57">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D57">
         <v>19894</v>
       </c>
       <c r="E57" s="18">
-        <v>1090.7811400422238</v>
+        <v>1095.807781240575</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -21632,13 +22183,13 @@
         <v>707</v>
       </c>
       <c r="C61">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D61">
         <v>15899</v>
       </c>
       <c r="E61" s="18">
-        <v>679.28800553493932</v>
+        <v>691.86741304484553</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -21649,13 +22200,13 @@
         <v>708</v>
       </c>
       <c r="C62">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D62">
         <v>12046</v>
       </c>
       <c r="E62" s="18">
-        <v>946.37223974763413</v>
+        <v>954.67375062261328</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -21666,13 +22217,13 @@
         <v>709</v>
       </c>
       <c r="C63">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D63">
         <v>10273</v>
       </c>
       <c r="E63" s="18">
-        <v>1002.6282488075537</v>
+        <v>1012.3625036503456</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -21683,13 +22234,13 @@
         <v>710</v>
       </c>
       <c r="C64">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D64">
         <v>12036</v>
       </c>
       <c r="E64" s="18">
-        <v>1694.9152542372881</v>
+        <v>1736.4572947823197</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -21700,13 +22251,13 @@
         <v>711</v>
       </c>
       <c r="C65">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D65">
         <v>19466</v>
       </c>
       <c r="E65" s="18">
-        <v>1387.0338025274839</v>
+        <v>1417.8567759169835</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -21717,13 +22268,13 @@
         <v>712</v>
       </c>
       <c r="C66">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D66">
         <v>22077</v>
       </c>
       <c r="E66" s="18">
-        <v>833.44657335688726</v>
+        <v>842.50577524120126</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -21734,13 +22285,13 @@
         <v>713</v>
       </c>
       <c r="C67">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D67">
         <v>10234</v>
       </c>
       <c r="E67" s="18">
-        <v>850.10748485440683</v>
+        <v>889.19288645690835</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -21751,13 +22302,13 @@
         <v>714</v>
       </c>
       <c r="C68">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="D68">
         <v>15491</v>
       </c>
       <c r="E68" s="18">
-        <v>1400.8133755083597</v>
+        <v>1433.0901813956491</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -21768,13 +22319,13 @@
         <v>715</v>
       </c>
       <c r="C69">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="D69">
         <v>29226</v>
       </c>
       <c r="E69" s="18">
-        <v>1680.0109491548621</v>
+        <v>1707.3838363101347</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -21785,13 +22336,13 @@
         <v>716</v>
       </c>
       <c r="C70">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D70">
         <v>34417</v>
       </c>
       <c r="E70" s="18">
-        <v>671.17994014585815</v>
+        <v>676.99102187872268</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -21853,13 +22404,13 @@
         <v>15</v>
       </c>
       <c r="C74">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D74">
         <v>25063</v>
       </c>
       <c r="E74" s="18">
-        <v>817.93879423851888</v>
+        <v>833.89857558951439</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -21870,13 +22421,13 @@
         <v>164</v>
       </c>
       <c r="C75">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D75">
         <v>10065</v>
       </c>
       <c r="E75" s="18">
-        <v>307.9980129160457</v>
+        <v>317.93343268753102</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -21904,13 +22455,13 @@
         <v>719</v>
       </c>
       <c r="C77">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D77">
         <v>12020</v>
       </c>
       <c r="E77" s="18">
-        <v>1106.4891846921796</v>
+        <v>1131.4475873544093</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -21921,13 +22472,13 @@
         <v>720</v>
       </c>
       <c r="C78">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D78">
         <v>23072</v>
       </c>
       <c r="E78" s="18">
-        <v>784.50069348127602</v>
+        <v>801.83772538141466</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -21955,13 +22506,13 @@
         <v>722</v>
       </c>
       <c r="C80">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D80">
         <v>7325</v>
       </c>
       <c r="E80" s="18">
-        <v>1569.9658703071673</v>
+        <v>1624.5733788395905</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -21972,13 +22523,13 @@
         <v>604</v>
       </c>
       <c r="C81">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D81">
         <v>6488</v>
       </c>
       <c r="E81" s="18">
-        <v>431.56596794081383</v>
+        <v>446.9790382244143</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -21989,13 +22540,13 @@
         <v>723</v>
       </c>
       <c r="C82">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="D82">
         <v>17831</v>
       </c>
       <c r="E82" s="18">
-        <v>773.9330379675846</v>
+        <v>841.23156300824405</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -22006,13 +22557,13 @@
         <v>724</v>
       </c>
       <c r="C83">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D83">
         <v>11067</v>
       </c>
       <c r="E83" s="18">
-        <v>822.26438962681846</v>
+        <v>840.33613445378148</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -22023,13 +22574,13 @@
         <v>725</v>
       </c>
       <c r="C84">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D84">
         <v>19466</v>
       </c>
       <c r="E84" s="18">
-        <v>1387.0338025274839</v>
+        <v>1417.8567759169835</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -22057,13 +22608,13 @@
         <v>612</v>
       </c>
       <c r="C86">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D86">
         <v>26968</v>
       </c>
       <c r="E86" s="18">
-        <v>533.96618214179773</v>
+        <v>537.67428062889348</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -22074,13 +22625,13 @@
         <v>727</v>
       </c>
       <c r="C87">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D87">
         <v>4253</v>
       </c>
       <c r="E87" s="18">
-        <v>752.41006348459905</v>
+        <v>799.43569245238655</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -22091,13 +22642,13 @@
         <v>728</v>
       </c>
       <c r="C88">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D88">
         <v>5480</v>
       </c>
       <c r="E88" s="18">
-        <v>948.90510948905114</v>
+        <v>967.1532846715329</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -22125,13 +22676,13 @@
         <v>729</v>
       </c>
       <c r="C90">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="D90">
         <v>34045</v>
       </c>
       <c r="E90" s="18">
-        <v>1697.7529740049933</v>
+        <v>1724.1885739462475</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -22142,13 +22693,13 @@
         <v>730</v>
       </c>
       <c r="C91">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D91">
         <v>16235</v>
       </c>
       <c r="E91" s="18">
-        <v>1299.6612257468432</v>
+        <v>1318.1398213735756</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -22159,13 +22710,13 @@
         <v>731</v>
       </c>
       <c r="C92">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D92">
         <v>36720</v>
       </c>
       <c r="E92" s="18">
-        <v>392.15686274509807</v>
+        <v>397.60348583877993</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -22227,13 +22778,13 @@
         <v>626</v>
       </c>
       <c r="C96">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D96">
         <v>8489</v>
       </c>
       <c r="E96" s="18">
-        <v>636.1173283072211</v>
+        <v>659.67722935563665</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -22244,13 +22795,13 @@
         <v>732</v>
       </c>
       <c r="C97">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D97">
         <v>11293</v>
       </c>
       <c r="E97" s="18">
-        <v>788.09882227928802</v>
+        <v>805.8089081732046</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -22312,13 +22863,13 @@
         <v>736</v>
       </c>
       <c r="C101">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D101">
         <v>13261</v>
       </c>
       <c r="E101" s="18">
-        <v>1063.2682301485559</v>
+        <v>1078.3500490159113</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -22329,13 +22880,13 @@
         <v>737</v>
       </c>
       <c r="C102">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D102">
         <v>16767</v>
       </c>
       <c r="E102" s="18">
-        <v>769.36840221864372</v>
+        <v>775.33249835987351</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -22346,13 +22897,13 @@
         <v>738</v>
       </c>
       <c r="C103">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D103">
         <v>20149</v>
       </c>
       <c r="E103" s="18">
-        <v>794.08407365129779</v>
+        <v>813.93617549258033</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -22363,13 +22914,13 @@
         <v>739</v>
       </c>
       <c r="C104">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="D104">
         <v>28171</v>
       </c>
       <c r="E104" s="18">
-        <v>1302.7581555500337</v>
+        <v>1338.2556529764652</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -22380,13 +22931,13 @@
         <v>740</v>
       </c>
       <c r="C105">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D105">
         <v>10885</v>
       </c>
       <c r="E105" s="18">
-        <v>1240.2388608176389</v>
+        <v>1276.9866789159394</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -22397,13 +22948,13 @@
         <v>741</v>
       </c>
       <c r="C106">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D106">
         <v>11371</v>
       </c>
       <c r="E106" s="18">
-        <v>633.18969307888483</v>
+        <v>721.13270600650776</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -22414,13 +22965,13 @@
         <v>742</v>
       </c>
       <c r="C107">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D107">
         <v>16341</v>
       </c>
       <c r="E107" s="18">
-        <v>1248.3936111621076</v>
+        <v>1254.513187687412</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -22448,13 +22999,13 @@
         <v>744</v>
       </c>
       <c r="C109">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="D109">
         <v>24872</v>
       </c>
       <c r="E109" s="18">
-        <v>993.08459311675779</v>
+        <v>1037.3110324863301</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -22465,13 +23016,13 @@
         <v>745</v>
       </c>
       <c r="C110">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="D110">
         <v>32825</v>
       </c>
       <c r="E110" s="18">
-        <v>2394.5163747143947</v>
+        <v>2409.7486671744095</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -22482,13 +23033,13 @@
         <v>746</v>
       </c>
       <c r="C111">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="D111">
         <v>20040</v>
       </c>
       <c r="E111" s="18">
-        <v>1531.9361277445109</v>
+        <v>1566.8662674650698</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -22499,13 +23050,13 @@
         <v>747</v>
       </c>
       <c r="C112">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D112">
         <v>9295</v>
       </c>
       <c r="E112" s="18">
-        <v>1710.5970952124799</v>
+        <v>1753.6309844002151</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -22516,13 +23067,13 @@
         <v>748</v>
       </c>
       <c r="C113">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D113">
         <v>18352</v>
       </c>
       <c r="E113" s="18">
-        <v>741.06364428945074</v>
+        <v>762.85963382737577</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -22533,13 +23084,13 @@
         <v>749</v>
       </c>
       <c r="C114">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="D114">
         <v>26023</v>
       </c>
       <c r="E114" s="18">
-        <v>1072.1285017100258</v>
+        <v>1095.185028628521</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -22550,13 +23101,13 @@
         <v>750</v>
       </c>
       <c r="C115">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="D115">
         <v>16372</v>
       </c>
       <c r="E115" s="18">
-        <v>818.47055949181527</v>
+        <v>855.11849499144887</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -22567,13 +23118,13 @@
         <v>751</v>
       </c>
       <c r="C116">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D116">
         <v>8207</v>
       </c>
       <c r="E116" s="18">
-        <v>1011.3317899354209</v>
+        <v>1060.0706713780919</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -22584,13 +23135,13 @@
         <v>752</v>
       </c>
       <c r="C117">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D117">
         <v>25427</v>
       </c>
       <c r="E117" s="18">
-        <v>861.28918079207142</v>
+        <v>873.0876627207299</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -22635,13 +23186,13 @@
         <v>754</v>
       </c>
       <c r="C120">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D120">
         <v>12011</v>
       </c>
       <c r="E120" s="18">
-        <v>1082.3411872450254</v>
+        <v>1123.9696944467571</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -22652,13 +23203,13 @@
         <v>755</v>
       </c>
       <c r="C121">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D121">
         <v>18956</v>
       </c>
       <c r="E121" s="18">
-        <v>1160.582401350496</v>
+        <v>1181.6838995568685</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -22669,13 +23220,13 @@
         <v>756</v>
       </c>
       <c r="C122">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="D122">
         <v>14726</v>
       </c>
       <c r="E122" s="18">
-        <v>2064.3759337226675</v>
+        <v>2098.3294852641588</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -22686,13 +23237,13 @@
         <v>757</v>
       </c>
       <c r="C123">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D123">
         <v>9598</v>
       </c>
       <c r="E123" s="18">
-        <v>1375.2865180245885</v>
+        <v>1427.3807043133986</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -22703,13 +23254,13 @@
         <v>758</v>
       </c>
       <c r="C124">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D124">
         <v>11415</v>
       </c>
       <c r="E124" s="18">
-        <v>578.18659658344279</v>
+        <v>595.70740254051691</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -22720,13 +23271,13 @@
         <v>759</v>
       </c>
       <c r="C125">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D125">
         <v>4622</v>
       </c>
       <c r="E125" s="18">
-        <v>757.24794461272177</v>
+        <v>778.88360017308526</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -22771,13 +23322,13 @@
         <v>761</v>
       </c>
       <c r="C128">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D128">
         <v>23794</v>
       </c>
       <c r="E128" s="18">
-        <v>1189.3754728082711</v>
+        <v>1214.591913927881</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -22788,13 +23339,13 @@
         <v>762</v>
       </c>
       <c r="C129">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D129">
         <v>13124</v>
       </c>
       <c r="E129" s="18">
-        <v>838.15909783602558</v>
+        <v>853.39835416031701</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -22822,13 +23373,13 @@
         <v>763</v>
       </c>
       <c r="C131">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D131">
         <v>14371</v>
       </c>
       <c r="E131" s="18">
-        <v>1148.1455709414793</v>
+        <v>1169.0209449585973</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -22839,13 +23390,13 @@
         <v>764</v>
       </c>
       <c r="C132">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D132">
         <v>32323</v>
       </c>
       <c r="E132" s="18">
-        <v>720.8489311016923</v>
+        <v>730.1302478111561</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -22856,13 +23407,13 @@
         <v>765</v>
       </c>
       <c r="C133">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D133">
         <v>14648</v>
       </c>
       <c r="E133" s="18">
-        <v>737.30202075368652</v>
+        <v>785.09011469142547</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -22873,13 +23424,13 @@
         <v>766</v>
       </c>
       <c r="C134">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="D134">
         <v>18056</v>
       </c>
       <c r="E134" s="18">
-        <v>836.28710677891002</v>
+        <v>886.1320336730173</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -22890,13 +23441,13 @@
         <v>767</v>
       </c>
       <c r="C135">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D135">
         <v>17564</v>
       </c>
       <c r="E135" s="18">
-        <v>392.84900933728079</v>
+        <v>398.54247324071963</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -22924,13 +23475,13 @@
         <v>768</v>
       </c>
       <c r="C137">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D137">
         <v>10598</v>
       </c>
       <c r="E137" s="18">
-        <v>1415.3613889413098</v>
+        <v>1434.2328741271938</v>
       </c>
     </row>
   </sheetData>

--- a/data/original/spain/euskadi/situacion-epidemiologica.xlsx
+++ b/data/original/spain/euskadi/situacion-epidemiologica.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iargueso\Desktop\covid19\Ekaina\05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iargueso\Desktop\covid19\Ekaina\06\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19425" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="01" sheetId="17" r:id="rId1"/>
@@ -20,12 +20,12 @@
     <sheet name="06" sheetId="18" r:id="rId6"/>
     <sheet name="07" sheetId="19" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="1091">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="1109">
   <si>
     <t>UDALERRIA / MUNICIPIO</t>
   </si>
@@ -3298,6 +3298,60 @@
   </si>
   <si>
     <t>Gernikaldea</t>
+  </si>
+  <si>
+    <t>219329</t>
+  </si>
+  <si>
+    <t>119956</t>
+  </si>
+  <si>
+    <t>194087</t>
+  </si>
+  <si>
+    <t>164059</t>
+  </si>
+  <si>
+    <t>74981</t>
+  </si>
+  <si>
+    <t>13549</t>
+  </si>
+  <si>
+    <t>6588</t>
+  </si>
+  <si>
+    <t>20137</t>
+  </si>
+  <si>
+    <t>3023</t>
+  </si>
+  <si>
+    <t>7624</t>
+  </si>
+  <si>
+    <t>16966</t>
+  </si>
+  <si>
+    <t>1597</t>
+  </si>
+  <si>
+    <t>1574</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>0,89</t>
+  </si>
+  <si>
+    <t>06-jun.</t>
+  </si>
+  <si>
+    <t>06/06</t>
+  </si>
+  <si>
+    <t>2020/6/06</t>
   </si>
 </sst>
 </file>
@@ -3403,7 +3457,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office gaia">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3665,7 +3719,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S105"/>
+  <dimension ref="A1:S106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7417,6 +7471,65 @@
         <v>1013</v>
       </c>
     </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A106" s="6" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>1095</v>
+      </c>
+      <c r="G106" s="6" t="s">
+        <v>1096</v>
+      </c>
+      <c r="H106" s="6" t="s">
+        <v>1097</v>
+      </c>
+      <c r="I106" s="6" t="s">
+        <v>1098</v>
+      </c>
+      <c r="J106" s="6" t="s">
+        <v>1099</v>
+      </c>
+      <c r="K106" s="6" t="s">
+        <v>1100</v>
+      </c>
+      <c r="L106" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="M106" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="N106" s="6" t="s">
+        <v>1101</v>
+      </c>
+      <c r="O106" s="6" t="s">
+        <v>1102</v>
+      </c>
+      <c r="P106" s="6" t="s">
+        <v>1103</v>
+      </c>
+      <c r="Q106" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="R106" s="6" t="s">
+        <v>1104</v>
+      </c>
+      <c r="S106" s="6" t="s">
+        <v>1105</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7425,7 +7538,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C99"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8518,6 +8631,17 @@
         <v>3.43</v>
       </c>
     </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B100">
+        <v>8</v>
+      </c>
+      <c r="C100" s="10">
+        <v>3.38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8528,7 +8652,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8537,8 +8663,8 @@
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="18.140625" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="23.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" customWidth="1"/>
     <col min="8" max="8" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8582,7 +8708,7 @@
         <v>37.354866110949068</v>
       </c>
       <c r="E2" s="3">
-        <v>3.628771685639012E-3</v>
+        <v>3.6251676019268013E-3</v>
       </c>
       <c r="F2" s="6">
         <v>73</v>
@@ -8608,7 +8734,7 @@
         <v>99.349141962654414</v>
       </c>
       <c r="E3" s="3">
-        <v>1.0190386240493116E-2</v>
+        <v>1.0180265183493072E-2</v>
       </c>
       <c r="F3" s="6">
         <v>205</v>
@@ -8625,25 +8751,25 @@
         <v>44</v>
       </c>
       <c r="B4" s="6">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="C4" s="6">
         <v>194050</v>
       </c>
       <c r="D4" s="6">
-        <v>644.67920639010561</v>
+        <v>645.19453749033755</v>
       </c>
       <c r="E4" s="3">
-        <v>6.2186210667594569E-2</v>
+        <v>6.2174107364552811E-2</v>
       </c>
       <c r="F4" s="6">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="G4" s="6">
         <v>2</v>
       </c>
       <c r="H4" s="3">
-        <v>1.5987210231814548E-3</v>
+        <v>1.5974440894568689E-3</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -8651,25 +8777,25 @@
         <v>45</v>
       </c>
       <c r="B5" s="6">
-        <v>2083</v>
+        <v>2087</v>
       </c>
       <c r="C5" s="6">
         <v>266369</v>
       </c>
       <c r="D5" s="6">
-        <v>781.99790516163671</v>
+        <v>783.4995814077464</v>
       </c>
       <c r="E5" s="3">
-        <v>0.10354426604364468</v>
+        <v>0.10364006555097581</v>
       </c>
       <c r="F5" s="6">
-        <v>2083</v>
+        <v>2087</v>
       </c>
       <c r="G5" s="6">
         <v>4</v>
       </c>
       <c r="H5" s="3">
-        <v>1.9203072491598655E-3</v>
+        <v>1.9166267369429804E-3</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -8677,25 +8803,25 @@
         <v>46</v>
       </c>
       <c r="B6" s="6">
-        <v>3271</v>
+        <v>3277</v>
       </c>
       <c r="C6" s="6">
         <v>358785</v>
       </c>
       <c r="D6" s="6">
-        <v>911.68805830790029</v>
+        <v>913.36036902323121</v>
       </c>
       <c r="E6" s="3">
-        <v>0.1625987970373316</v>
+        <v>0.16273526344539901</v>
       </c>
       <c r="F6" s="6">
-        <v>3271</v>
+        <v>3277</v>
       </c>
       <c r="G6" s="6">
         <v>11</v>
       </c>
       <c r="H6" s="3">
-        <v>3.3628859675940079E-3</v>
+        <v>3.3567287152883735E-3</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -8703,25 +8829,25 @@
         <v>47</v>
       </c>
       <c r="B7" s="6">
-        <v>4064</v>
+        <v>4065</v>
       </c>
       <c r="C7" s="6">
         <v>335098</v>
       </c>
       <c r="D7" s="6">
-        <v>1212.7795450883025</v>
+        <v>1213.0779652519561</v>
       </c>
       <c r="E7" s="3">
-        <v>0.20201819356762937</v>
+        <v>0.20186720961414312</v>
       </c>
       <c r="F7" s="6">
-        <v>4064</v>
+        <v>4065</v>
       </c>
       <c r="G7" s="6">
         <v>27</v>
       </c>
       <c r="H7" s="3">
-        <v>6.6437007874015751E-3</v>
+        <v>6.6420664206642069E-3</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -8729,25 +8855,25 @@
         <v>136</v>
       </c>
       <c r="B8" s="6">
-        <v>2699</v>
+        <v>2702</v>
       </c>
       <c r="C8" s="6">
         <v>272250</v>
       </c>
       <c r="D8" s="6">
-        <v>991.36822773186407</v>
+        <v>992.47015610651977</v>
       </c>
       <c r="E8" s="3">
-        <v>0.13416513396629717</v>
+        <v>0.13418086110145502</v>
       </c>
       <c r="F8" s="6">
-        <v>2699</v>
+        <v>2702</v>
       </c>
       <c r="G8" s="6">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H8" s="3">
-        <v>4.0014820303816229E-2</v>
+        <v>4.0340488527017021E-2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -8755,25 +8881,25 @@
         <v>48</v>
       </c>
       <c r="B9" s="6">
-        <v>2225</v>
+        <v>2228</v>
       </c>
       <c r="C9" s="6">
         <v>202172</v>
       </c>
       <c r="D9" s="6">
-        <v>1100.5480481965851</v>
+        <v>1102.0319332053896</v>
       </c>
       <c r="E9" s="3">
-        <v>0.11060297261023015</v>
+        <v>0.11064210160401251</v>
       </c>
       <c r="F9" s="6">
-        <v>2225</v>
+        <v>2228</v>
       </c>
       <c r="G9" s="6">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H9" s="3">
-        <v>0.13707865168539327</v>
+        <v>0.13734290843806105</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -8790,7 +8916,7 @@
         <v>2079.3476556374471</v>
       </c>
       <c r="E10" s="3">
-        <v>0.13182880151115972</v>
+        <v>0.131697869593286</v>
       </c>
       <c r="F10" s="6">
         <v>2652</v>
@@ -8816,16 +8942,16 @@
         <v>5052.1892820222092</v>
       </c>
       <c r="E11" s="3">
-        <v>7.5309439777302783E-2</v>
+        <v>7.5234642697521975E-2</v>
       </c>
       <c r="F11" s="6">
         <v>1515</v>
       </c>
       <c r="G11" s="6">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H11" s="3">
-        <v>0.30561056105610562</v>
+        <v>0.30627062706270625</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -8833,10 +8959,10 @@
         <v>138</v>
       </c>
       <c r="B12">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E12" s="3">
-        <v>3.9270268926778346E-3</v>
+        <v>4.0224462432338478E-3</v>
       </c>
       <c r="H12" s="3"/>
     </row>
@@ -8845,25 +8971,25 @@
         <v>50</v>
       </c>
       <c r="B13">
-        <v>20117</v>
+        <v>20137</v>
       </c>
       <c r="C13">
         <v>2188017</v>
       </c>
       <c r="D13">
-        <v>919.41698807641808</v>
+        <v>920.33105775686386</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>20117</v>
+        <v>20137</v>
       </c>
       <c r="G13">
-        <v>1571</v>
+        <v>1574</v>
       </c>
       <c r="H13" s="3">
-        <v>7.8093155042998463E-2</v>
+        <v>7.816457267716144E-2</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -8957,7 +9083,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y52"/>
+  <dimension ref="A1:Z52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8967,12 +9093,12 @@
     <col min="2" max="8" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -9048,8 +9174,11 @@
       <c r="Y2" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z2" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -9125,8 +9254,11 @@
       <c r="Y3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>500</v>
       </c>
@@ -9202,8 +9334,11 @@
       <c r="Y4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>331</v>
       </c>
@@ -9279,8 +9414,11 @@
       <c r="Y5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>152</v>
       </c>
@@ -9356,8 +9494,11 @@
       <c r="Y6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>313</v>
       </c>
@@ -9433,8 +9574,11 @@
       <c r="Y7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -9510,8 +9654,11 @@
       <c r="Y8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -9587,8 +9734,11 @@
       <c r="Y9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -9664,8 +9814,11 @@
       <c r="Y10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>232</v>
       </c>
@@ -9741,8 +9894,11 @@
       <c r="Y11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>496</v>
       </c>
@@ -9818,8 +9974,11 @@
       <c r="Y12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>293</v>
       </c>
@@ -9895,8 +10054,11 @@
       <c r="Y13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -9972,8 +10134,11 @@
       <c r="Y14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>168</v>
       </c>
@@ -10049,8 +10214,11 @@
       <c r="Y15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>294</v>
       </c>
@@ -10126,8 +10294,11 @@
       <c r="Y16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -10203,8 +10374,11 @@
       <c r="Y17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -10280,8 +10454,11 @@
       <c r="Y18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -10357,8 +10534,11 @@
       <c r="Y19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -10434,8 +10614,11 @@
       <c r="Y20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>538</v>
       </c>
@@ -10511,8 +10694,11 @@
       <c r="Y21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -10588,8 +10774,11 @@
       <c r="Y22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>169</v>
       </c>
@@ -10665,8 +10854,11 @@
       <c r="Y23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>170</v>
       </c>
@@ -10742,8 +10934,11 @@
       <c r="Y24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>552</v>
       </c>
@@ -10819,8 +11014,11 @@
       <c r="Y25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -10896,8 +11094,11 @@
       <c r="Y26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -10973,8 +11174,11 @@
       <c r="Y27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -11050,8 +11254,11 @@
       <c r="Y28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -11127,8 +11334,11 @@
       <c r="Y29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -11204,8 +11414,11 @@
       <c r="Y30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -11281,8 +11494,11 @@
       <c r="Y31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>164</v>
       </c>
@@ -11358,8 +11574,11 @@
       <c r="Y32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -11435,8 +11654,11 @@
       <c r="Y33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -11512,8 +11734,11 @@
       <c r="Y34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>484</v>
       </c>
@@ -11589,8 +11814,11 @@
       <c r="Y35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -11666,8 +11894,11 @@
       <c r="Y36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -11743,8 +11974,11 @@
       <c r="Y37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>55</v>
       </c>
@@ -11820,8 +12054,11 @@
       <c r="Y38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>165</v>
       </c>
@@ -11897,8 +12134,11 @@
       <c r="Y39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>233</v>
       </c>
@@ -11974,8 +12214,11 @@
       <c r="Y40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>153</v>
       </c>
@@ -12051,8 +12294,11 @@
       <c r="Y41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>23</v>
       </c>
@@ -12128,8 +12374,11 @@
       <c r="Y42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>2</v>
       </c>
@@ -12205,8 +12454,11 @@
       <c r="Y43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>154</v>
       </c>
@@ -12282,8 +12534,11 @@
       <c r="Y44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>155</v>
       </c>
@@ -12359,8 +12614,11 @@
       <c r="Y45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -12436,8 +12694,11 @@
       <c r="Y46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>156</v>
       </c>
@@ -12513,8 +12774,11 @@
       <c r="Y47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>13</v>
       </c>
@@ -12590,8 +12854,11 @@
       <c r="Y48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>234</v>
       </c>
@@ -12667,8 +12934,11 @@
       <c r="Y49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>157</v>
       </c>
@@ -12744,8 +13014,11 @@
       <c r="Y50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>24</v>
       </c>
@@ -12821,8 +13094,11 @@
       <c r="Y51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>25</v>
       </c>
@@ -12896,6 +13172,9 @@
         <v>0</v>
       </c>
       <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
         <v>0</v>
       </c>
     </row>
@@ -12910,10 +13189,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y85"/>
+  <dimension ref="A1:Z85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W6" sqref="W6"/>
+      <selection activeCell="AA20" sqref="AA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12924,12 +13203,12 @@
     <col min="7" max="8" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>858</v>
       </c>
@@ -13005,8 +13284,11 @@
       <c r="Y2" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z2" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>860</v>
       </c>
@@ -13082,8 +13364,11 @@
       <c r="Y3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>861</v>
       </c>
@@ -13159,8 +13444,11 @@
       <c r="Y4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>862</v>
       </c>
@@ -13236,8 +13524,11 @@
       <c r="Y5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>863</v>
       </c>
@@ -13313,8 +13604,11 @@
       <c r="Y6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>864</v>
       </c>
@@ -13390,8 +13684,11 @@
       <c r="Y7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>865</v>
       </c>
@@ -13467,8 +13764,11 @@
       <c r="Y8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>866</v>
       </c>
@@ -13544,8 +13844,11 @@
       <c r="Y9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>867</v>
       </c>
@@ -13621,8 +13924,11 @@
       <c r="Y10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>868</v>
       </c>
@@ -13698,8 +14004,11 @@
       <c r="Y11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>869</v>
       </c>
@@ -13775,8 +14084,11 @@
       <c r="Y12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>870</v>
       </c>
@@ -13852,8 +14164,11 @@
       <c r="Y13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>871</v>
       </c>
@@ -13929,8 +14244,11 @@
       <c r="Y14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>872</v>
       </c>
@@ -14006,8 +14324,11 @@
       <c r="Y15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>873</v>
       </c>
@@ -14083,8 +14404,11 @@
       <c r="Y16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>874</v>
       </c>
@@ -14160,8 +14484,11 @@
       <c r="Y17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>875</v>
       </c>
@@ -14237,8 +14564,11 @@
       <c r="Y18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>876</v>
       </c>
@@ -14314,8 +14644,11 @@
       <c r="Y19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>877</v>
       </c>
@@ -14391,8 +14724,11 @@
       <c r="Y20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>878</v>
       </c>
@@ -14468,8 +14804,11 @@
       <c r="Y21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>879</v>
       </c>
@@ -14545,8 +14884,11 @@
       <c r="Y22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>880</v>
       </c>
@@ -14622,8 +14964,11 @@
       <c r="Y23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>881</v>
       </c>
@@ -14699,8 +15044,11 @@
       <c r="Y24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>882</v>
       </c>
@@ -14776,8 +15124,11 @@
       <c r="Y25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>883</v>
       </c>
@@ -14853,8 +15204,11 @@
       <c r="Y26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>884</v>
       </c>
@@ -14930,8 +15284,11 @@
       <c r="Y27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>966</v>
       </c>
@@ -15007,8 +15364,11 @@
       <c r="Y28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>885</v>
       </c>
@@ -15084,8 +15444,11 @@
       <c r="Y29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>886</v>
       </c>
@@ -15161,8 +15524,11 @@
       <c r="Y30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1071</v>
       </c>
@@ -15238,8 +15604,11 @@
       <c r="Y31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>887</v>
       </c>
@@ -15315,8 +15684,11 @@
       <c r="Y32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1090</v>
       </c>
@@ -15392,8 +15764,11 @@
       <c r="Y33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>888</v>
       </c>
@@ -15469,8 +15844,11 @@
       <c r="Y34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>928</v>
       </c>
@@ -15546,8 +15924,11 @@
       <c r="Y35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>889</v>
       </c>
@@ -15623,8 +16004,11 @@
       <c r="Y36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>890</v>
       </c>
@@ -15700,8 +16084,11 @@
       <c r="Y37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>891</v>
       </c>
@@ -15777,8 +16164,11 @@
       <c r="Y38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>892</v>
       </c>
@@ -15854,8 +16244,11 @@
       <c r="Y39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>893</v>
       </c>
@@ -15931,8 +16324,11 @@
       <c r="Y40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>894</v>
       </c>
@@ -16008,8 +16404,11 @@
       <c r="Y41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>895</v>
       </c>
@@ -16085,8 +16484,11 @@
       <c r="Y42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>896</v>
       </c>
@@ -16162,8 +16564,11 @@
       <c r="Y43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>897</v>
       </c>
@@ -16239,8 +16644,11 @@
       <c r="Y44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>898</v>
       </c>
@@ -16316,8 +16724,11 @@
       <c r="Y45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>899</v>
       </c>
@@ -16393,8 +16804,11 @@
       <c r="Y46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>900</v>
       </c>
@@ -16470,8 +16884,11 @@
       <c r="Y47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>901</v>
       </c>
@@ -16547,8 +16964,11 @@
       <c r="Y48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>902</v>
       </c>
@@ -16624,8 +17044,11 @@
       <c r="Y49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>903</v>
       </c>
@@ -16701,8 +17124,11 @@
       <c r="Y50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>904</v>
       </c>
@@ -16778,8 +17204,11 @@
       <c r="Y51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>905</v>
       </c>
@@ -16855,8 +17284,11 @@
       <c r="Y52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>906</v>
       </c>
@@ -16932,8 +17364,11 @@
       <c r="Y53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>907</v>
       </c>
@@ -17009,8 +17444,11 @@
       <c r="Y54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>908</v>
       </c>
@@ -17086,8 +17524,11 @@
       <c r="Y55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>166</v>
       </c>
@@ -17163,8 +17604,11 @@
       <c r="Y56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>909</v>
       </c>
@@ -17240,8 +17684,11 @@
       <c r="Y57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>27</v>
       </c>
@@ -17317,8 +17764,11 @@
       <c r="Y58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>28</v>
       </c>
@@ -17394,8 +17844,11 @@
       <c r="Y59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>29</v>
       </c>
@@ -17471,8 +17924,11 @@
       <c r="Y60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>30</v>
       </c>
@@ -17548,8 +18004,11 @@
       <c r="Y61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>31</v>
       </c>
@@ -17625,8 +18084,11 @@
       <c r="Y62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>1051</v>
       </c>
@@ -17657,8 +18119,11 @@
       <c r="Y63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>52</v>
       </c>
@@ -17734,8 +18199,11 @@
       <c r="Y64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>32</v>
       </c>
@@ -17811,8 +18279,11 @@
       <c r="Y65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>33</v>
       </c>
@@ -17888,8 +18359,11 @@
       <c r="Y66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>34</v>
       </c>
@@ -17965,8 +18439,11 @@
       <c r="Y67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>35</v>
       </c>
@@ -18042,8 +18519,11 @@
       <c r="Y68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>36</v>
       </c>
@@ -18119,8 +18599,11 @@
       <c r="Y69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>37</v>
       </c>
@@ -18196,8 +18679,11 @@
       <c r="Y70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>332</v>
       </c>
@@ -18273,8 +18759,11 @@
       <c r="Y71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>53</v>
       </c>
@@ -18350,8 +18839,11 @@
       <c r="Y72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>158</v>
       </c>
@@ -18427,8 +18919,11 @@
       <c r="Y73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>38</v>
       </c>
@@ -18504,8 +18999,11 @@
       <c r="Y74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>39</v>
       </c>
@@ -18581,8 +19079,11 @@
       <c r="Y75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>159</v>
       </c>
@@ -18658,8 +19159,11 @@
       <c r="Y76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>40</v>
       </c>
@@ -18735,8 +19239,11 @@
       <c r="Y77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>333</v>
       </c>
@@ -18812,8 +19319,11 @@
       <c r="Y78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>984</v>
       </c>
@@ -18889,8 +19399,11 @@
       <c r="Y79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>160</v>
       </c>
@@ -18966,8 +19479,11 @@
       <c r="Y80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>171</v>
       </c>
@@ -19043,8 +19559,11 @@
       <c r="Y81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>41</v>
       </c>
@@ -19120,8 +19639,11 @@
       <c r="Y82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>161</v>
       </c>
@@ -19197,8 +19719,11 @@
       <c r="Y83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>235</v>
       </c>
@@ -19274,8 +19799,11 @@
       <c r="Y84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>42</v>
       </c>
@@ -19349,6 +19877,9 @@
         <v>0</v>
       </c>
       <c r="Y85">
+        <v>0</v>
+      </c>
+      <c r="Z85">
         <v>0</v>
       </c>
     </row>
@@ -19369,7 +19900,7 @@
   <cols>
     <col min="1" max="1" width="32.140625" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" style="14" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="14" customWidth="1"/>
     <col min="4" max="4" width="26.85546875" style="15" customWidth="1"/>
     <col min="5" max="16384" width="8.85546875" style="14"/>
   </cols>

--- a/data/original/spain/euskadi/situacion-epidemiologica.xlsx
+++ b/data/original/spain/euskadi/situacion-epidemiologica.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iargueso\Desktop\covid19\Ekaina\06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iargueso\Desktop\covid19\Ekaina\07\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19425" windowHeight="9195"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="01" sheetId="17" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="05" sheetId="12" r:id="rId5"/>
     <sheet name="06" sheetId="18" r:id="rId6"/>
     <sheet name="07" sheetId="19" r:id="rId7"/>
+    <sheet name="08" sheetId="20" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="1109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="1130">
   <si>
     <t>UDALERRIA / MUNICIPIO</t>
   </si>
@@ -3352,6 +3353,69 @@
   </si>
   <si>
     <t>2020/6/06</t>
+  </si>
+  <si>
+    <t>2020/6/07</t>
+  </si>
+  <si>
+    <t>220375</t>
+  </si>
+  <si>
+    <t>120013</t>
+  </si>
+  <si>
+    <t>194798</t>
+  </si>
+  <si>
+    <t>164788</t>
+  </si>
+  <si>
+    <t>75314</t>
+  </si>
+  <si>
+    <t>13506</t>
+  </si>
+  <si>
+    <t>6570</t>
+  </si>
+  <si>
+    <t>20076</t>
+  </si>
+  <si>
+    <t>3296</t>
+  </si>
+  <si>
+    <t>7791</t>
+  </si>
+  <si>
+    <t>2263</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>1,19</t>
+  </si>
+  <si>
+    <t>11902</t>
+  </si>
+  <si>
+    <t>4184</t>
+  </si>
+  <si>
+    <t>Negatibizatuak / Negativizados</t>
+  </si>
+  <si>
+    <t>Ospitaleko altak / Altas hospitalarias</t>
+  </si>
+  <si>
+    <t>07-jun.</t>
+  </si>
+  <si>
+    <t>07/06</t>
+  </si>
+  <si>
+    <t>Hildako kasu positiboak Euskadin heriotza dataren arabera / Casos positivos fallecidos en Euskadi por fecha de fallecimiento</t>
   </si>
 </sst>
 </file>
@@ -3457,7 +3521,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office gaia">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3719,9 +3783,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S106"/>
+  <dimension ref="A1:U107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3747,12 +3813,12 @@
     <col min="20" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>133</v>
       </c>
@@ -3810,8 +3876,14 @@
       <c r="S2" s="6" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T2" s="4" t="s">
+        <v>1125</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>440</v>
       </c>
@@ -3835,7 +3907,7 @@
       </c>
       <c r="R3" s="11"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>439</v>
       </c>
@@ -3859,7 +3931,7 @@
       </c>
       <c r="R4" s="11"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>438</v>
       </c>
@@ -3883,7 +3955,7 @@
       </c>
       <c r="R5" s="11"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>437</v>
       </c>
@@ -3907,7 +3979,7 @@
       </c>
       <c r="R6" s="11"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>436</v>
       </c>
@@ -3931,7 +4003,7 @@
       </c>
       <c r="R7" s="11"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>435</v>
       </c>
@@ -3955,7 +4027,7 @@
       </c>
       <c r="R8" s="11"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>434</v>
       </c>
@@ -3979,7 +4051,7 @@
       </c>
       <c r="R9" s="11"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>433</v>
       </c>
@@ -4003,7 +4075,7 @@
       </c>
       <c r="R10" s="11"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>432</v>
       </c>
@@ -4027,7 +4099,7 @@
       </c>
       <c r="R11" s="11"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>431</v>
       </c>
@@ -4051,7 +4123,7 @@
       </c>
       <c r="R12" s="11"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>430</v>
       </c>
@@ -4075,7 +4147,7 @@
       </c>
       <c r="R13" s="11"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>429</v>
       </c>
@@ -4099,7 +4171,7 @@
       </c>
       <c r="R14" s="11"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>428</v>
       </c>
@@ -4123,7 +4195,7 @@
       </c>
       <c r="R15" s="11"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>424</v>
       </c>
@@ -6940,7 +7012,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>933</v>
       </c>
@@ -6999,7 +7071,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>951</v>
       </c>
@@ -7058,7 +7130,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>967</v>
       </c>
@@ -7117,7 +7189,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>985</v>
       </c>
@@ -7176,7 +7248,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>1000</v>
       </c>
@@ -7235,7 +7307,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>1016</v>
       </c>
@@ -7294,7 +7366,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>1033</v>
       </c>
@@ -7353,7 +7425,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>1053</v>
       </c>
@@ -7412,7 +7484,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>1073</v>
       </c>
@@ -7471,7 +7543,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>1108</v>
       </c>
@@ -7528,6 +7600,65 @@
       </c>
       <c r="S106" s="6" t="s">
         <v>1105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A107" s="6" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>1113</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>1114</v>
+      </c>
+      <c r="G107" s="6" t="s">
+        <v>1115</v>
+      </c>
+      <c r="H107" s="6" t="s">
+        <v>1116</v>
+      </c>
+      <c r="I107" s="6" t="s">
+        <v>1117</v>
+      </c>
+      <c r="J107" s="6" t="s">
+        <v>1118</v>
+      </c>
+      <c r="K107" s="6" t="s">
+        <v>1119</v>
+      </c>
+      <c r="L107" s="6" t="s">
+        <v>1120</v>
+      </c>
+      <c r="M107" s="6" t="s">
+        <v>1121</v>
+      </c>
+      <c r="P107" s="6" t="s">
+        <v>1103</v>
+      </c>
+      <c r="Q107" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="R107" s="6" t="s">
+        <v>1104</v>
+      </c>
+      <c r="S107" s="6" t="s">
+        <v>1122</v>
+      </c>
+      <c r="T107" s="4" t="s">
+        <v>1123</v>
+      </c>
+      <c r="U107" s="4" t="s">
+        <v>1124</v>
       </c>
     </row>
   </sheetData>
@@ -7538,9 +7669,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7767,10 +7900,10 @@
         <v>107</v>
       </c>
       <c r="B21">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C21" s="10">
-        <v>68.189598161257436</v>
+        <v>68.143894677235139</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -7778,10 +7911,10 @@
         <v>109</v>
       </c>
       <c r="B22">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C22" s="10">
-        <v>82.311974724145202</v>
+        <v>82.220567756100621</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -7792,7 +7925,7 @@
         <v>320</v>
       </c>
       <c r="C23" s="10">
-        <v>95.383171154520284</v>
+        <v>95.291764186475703</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -7803,7 +7936,7 @@
         <v>311</v>
       </c>
       <c r="C24" s="10">
-        <v>107.44889093640498</v>
+        <v>107.3574839683604</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -7811,10 +7944,10 @@
         <v>115</v>
       </c>
       <c r="B25">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C25" s="10">
-        <v>121.84548840342649</v>
+        <v>121.66267446733733</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -7825,7 +7958,7 @@
         <v>579</v>
       </c>
       <c r="C26" s="10">
-        <v>144.92574783468319</v>
+        <v>144.74293389859403</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -7836,7 +7969,7 @@
         <v>723</v>
       </c>
       <c r="C27" s="10">
-        <v>174.63301244917201</v>
+        <v>174.45019851308285</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -7844,10 +7977,10 @@
         <v>121</v>
       </c>
       <c r="B28">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C28" s="10">
-        <v>199.67852169338721</v>
+        <v>199.45000427327577</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -7858,7 +7991,7 @@
         <v>501</v>
       </c>
       <c r="C29" s="10">
-        <v>217.86850833425882</v>
+        <v>217.63999091414738</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -7869,7 +8002,7 @@
         <v>576</v>
       </c>
       <c r="C30" s="10">
-        <v>239.53195976082452</v>
+        <v>239.30344234071308</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -7877,10 +8010,10 @@
         <v>127</v>
       </c>
       <c r="B31">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C31" s="10">
-        <v>246.20466842807895</v>
+        <v>245.93044752394519</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -7888,10 +8021,10 @@
         <v>129</v>
       </c>
       <c r="B32">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C32" s="10">
-        <v>256.39654536504975</v>
+        <v>256.03091749287142</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -7899,10 +8032,10 @@
         <v>131</v>
       </c>
       <c r="B33">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C33" s="10">
-        <v>273.90097974558699</v>
+        <v>273.48964838938639</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -7910,10 +8043,10 @@
         <v>57</v>
       </c>
       <c r="B34">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C34" s="10">
-        <v>285.32685075115961</v>
+        <v>284.96122287898129</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -7921,10 +8054,10 @@
         <v>60</v>
       </c>
       <c r="B35">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C35" s="10">
-        <v>295.47302420410813</v>
+        <v>295.06169284790747</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -7932,10 +8065,10 @@
         <v>63</v>
       </c>
       <c r="B36">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C36" s="10">
-        <v>299.31211686198048</v>
+        <v>298.90078550577988</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -7943,10 +8076,10 @@
         <v>66</v>
       </c>
       <c r="B37">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C37" s="10">
-        <v>298.21523324544552</v>
+        <v>297.75819840522263</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -7954,10 +8087,10 @@
         <v>69</v>
       </c>
       <c r="B38">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C38" s="10">
-        <v>292.9593325828821</v>
+        <v>292.45659425863693</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -7965,10 +8098,10 @@
         <v>72</v>
       </c>
       <c r="B39">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C39" s="10">
-        <v>287.3835075321627</v>
+        <v>286.83506572389518</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -7979,7 +8112,7 @@
         <v>416</v>
       </c>
       <c r="C40" s="10">
-        <v>279.93383963652934</v>
+        <v>279.38539782826183</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -7987,10 +8120,10 @@
         <v>78</v>
       </c>
       <c r="B41">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C41" s="10">
-        <v>261.14970770336794</v>
+        <v>260.50985892705586</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -7998,10 +8131,10 @@
         <v>81</v>
       </c>
       <c r="B42">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C42" s="10">
-        <v>245.01637784349938</v>
+        <v>244.37652906718733</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -8009,10 +8142,10 @@
         <v>84</v>
       </c>
       <c r="B43">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C43" s="10">
-        <v>235.09872181066234</v>
+        <v>234.41316955032798</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -8023,7 +8156,7 @@
         <v>151</v>
       </c>
       <c r="C44" s="10">
-        <v>215.67474110118889</v>
+        <v>214.98918884085452</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -8034,7 +8167,7 @@
         <v>158</v>
       </c>
       <c r="C45" s="10">
-        <v>211.65283450722731</v>
+        <v>211.01298573091526</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -8045,7 +8178,7 @@
         <v>175</v>
       </c>
       <c r="C46" s="10">
-        <v>204.70590493583916</v>
+        <v>204.15746312757167</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -8053,10 +8186,10 @@
         <v>96</v>
       </c>
       <c r="B47">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C47" s="10">
-        <v>187.01865661921275</v>
+        <v>186.47021481094527</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -8064,10 +8197,10 @@
         <v>99</v>
       </c>
       <c r="B48">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C48" s="10">
-        <v>173.90175670481537</v>
+        <v>173.07909399241413</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -8075,10 +8208,10 @@
         <v>102</v>
       </c>
       <c r="B49">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C49" s="10">
-        <v>161.01337421052943</v>
+        <v>160.23641498215051</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -8089,7 +8222,7 @@
         <v>125</v>
       </c>
       <c r="C50" s="10">
-        <v>147.57654990797604</v>
+        <v>146.8452941636194</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -8100,7 +8233,7 @@
         <v>147</v>
       </c>
       <c r="C51" s="10">
-        <v>140.76673078865474</v>
+        <v>140.08117852832038</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -8111,7 +8244,7 @@
         <v>57</v>
       </c>
       <c r="C52" s="10">
-        <v>134.41394650955638</v>
+        <v>133.7740977332443</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -8119,10 +8252,10 @@
         <v>110</v>
       </c>
       <c r="B53">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C53" s="10">
-        <v>126.41583680565553</v>
+        <v>125.82169151336575</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -8133,7 +8266,7 @@
         <v>129</v>
       </c>
       <c r="C54" s="10">
-        <v>113.29893689125815</v>
+        <v>112.70479159896838</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -8144,7 +8277,7 @@
         <v>109</v>
       </c>
       <c r="C55" s="10">
-        <v>104.02112963473319</v>
+        <v>103.51839131048798</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -8152,10 +8285,10 @@
         <v>116</v>
       </c>
       <c r="B56">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C56" s="10">
-        <v>98.079676711835418</v>
+        <v>97.576938387590218</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -8163,10 +8296,10 @@
         <v>118</v>
       </c>
       <c r="B57">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C57" s="10">
-        <v>91.818299400781626</v>
+        <v>91.087043656424967</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -8174,10 +8307,10 @@
         <v>120</v>
       </c>
       <c r="B58">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C58" s="10">
-        <v>87.796392806820052</v>
+        <v>87.019433578441124</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -8188,7 +8321,7 @@
         <v>47</v>
       </c>
       <c r="C59" s="10">
-        <v>82.723306080345807</v>
+        <v>81.946346851966865</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -8199,7 +8332,7 @@
         <v>59</v>
       </c>
       <c r="C60" s="10">
-        <v>77.421701933760119</v>
+        <v>76.644742705381177</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -8210,7 +8343,7 @@
         <v>55</v>
       </c>
       <c r="C61" s="10">
-        <v>71.068917654661732</v>
+        <v>70.337661910305087</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -8218,10 +8351,10 @@
         <v>128</v>
       </c>
       <c r="B62">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C62" s="10">
-        <v>66.270051832321229</v>
+        <v>65.675906540031448</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -8229,10 +8362,10 @@
         <v>130</v>
       </c>
       <c r="B63">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C63" s="10">
-        <v>62.47666265847112</v>
+        <v>61.791110398136759</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -8243,7 +8376,7 @@
         <v>47</v>
       </c>
       <c r="C64" s="10">
-        <v>58.911790904732456</v>
+        <v>58.226238644398101</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -8254,7 +8387,7 @@
         <v>45</v>
       </c>
       <c r="C65" s="10">
-        <v>54.250035534458824</v>
+        <v>53.56448327412447</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -8265,7 +8398,7 @@
         <v>11</v>
       </c>
       <c r="C66" s="10">
-        <v>52.147675269433464</v>
+        <v>51.462123009099109</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -8276,7 +8409,7 @@
         <v>31</v>
       </c>
       <c r="C67" s="10">
-        <v>50.593756812675586</v>
+        <v>49.999611520385812</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -8284,10 +8417,10 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C68" s="10">
-        <v>46.206222346535696</v>
+        <v>45.566373570223632</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -8295,10 +8428,10 @@
         <v>73</v>
       </c>
       <c r="B69">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C69" s="10">
-        <v>42.687054076819329</v>
+        <v>41.955798332462685</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -8306,10 +8439,10 @@
         <v>76</v>
       </c>
       <c r="B70">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C70" s="10">
-        <v>38.162409158612569</v>
+        <v>37.431153414255924</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -8317,10 +8450,10 @@
         <v>79</v>
       </c>
       <c r="B71">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C71" s="10">
-        <v>34.003392112584137</v>
+        <v>33.454950304316647</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -8331,7 +8464,7 @@
         <v>32</v>
       </c>
       <c r="C72" s="10">
-        <v>32.586584107893131</v>
+        <v>32.083845783647931</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -8342,7 +8475,7 @@
         <v>10</v>
       </c>
       <c r="C73" s="10">
-        <v>30.895555199068379</v>
+        <v>30.392816874823186</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -8353,7 +8486,7 @@
         <v>27</v>
       </c>
       <c r="C74" s="10">
-        <v>29.433043710355083</v>
+        <v>28.93030538610989</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -8364,7 +8497,7 @@
         <v>29</v>
       </c>
       <c r="C75" s="10">
-        <v>28.244753125775532</v>
+        <v>27.742014801530335</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -8372,10 +8505,10 @@
         <v>94</v>
       </c>
       <c r="B76">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C76" s="10">
-        <v>26.096689376727877</v>
+        <v>25.639654536504974</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -8386,7 +8519,7 @@
         <v>29</v>
       </c>
       <c r="C77" s="10">
-        <v>21.663451426565697</v>
+        <v>21.343527038409665</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -8394,10 +8527,10 @@
         <v>100</v>
       </c>
       <c r="B78">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C78" s="10">
-        <v>20.246643421874694</v>
+        <v>19.881015549696368</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -8408,7 +8541,7 @@
         <v>16</v>
       </c>
       <c r="C79" s="10">
-        <v>18.921242385228268</v>
+        <v>18.555614513049946</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -8419,7 +8552,7 @@
         <v>6</v>
       </c>
       <c r="C80" s="10">
-        <v>18.692724965116817</v>
+        <v>18.327097092938491</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -8430,7 +8563,7 @@
         <v>16</v>
       </c>
       <c r="C81" s="10">
-        <v>18.007172704782459</v>
+        <v>17.641544832604133</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -8438,10 +8571,10 @@
         <v>224</v>
       </c>
       <c r="B82">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C82" s="10">
-        <v>17.641544832604133</v>
+        <v>17.27591696042581</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -8452,7 +8585,7 @@
         <v>9</v>
       </c>
       <c r="C83" s="10">
-        <v>16.590364700091452</v>
+        <v>16.316143795957711</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -8460,10 +8593,10 @@
         <v>311</v>
       </c>
       <c r="B84">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C84" s="10">
-        <v>14.899335791266704</v>
+        <v>14.762225339199832</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -8471,10 +8604,10 @@
         <v>329</v>
       </c>
       <c r="B85">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C85" s="10">
-        <v>12.934085978308213</v>
+        <v>12.79697552624134</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -8485,7 +8618,7 @@
         <v>9</v>
       </c>
       <c r="C86" s="10">
-        <v>11.882905845795531</v>
+        <v>11.74579539372866</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -8493,10 +8626,10 @@
         <v>467</v>
       </c>
       <c r="B87">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C87" s="10">
-        <v>11.517277973617206</v>
+        <v>11.425871005572626</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -8504,10 +8637,10 @@
         <v>481</v>
       </c>
       <c r="B88">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C88" s="10">
-        <v>10.557504809149107</v>
+        <v>10.420394357082234</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -8518,7 +8651,7 @@
         <v>12</v>
       </c>
       <c r="C89" s="10">
-        <v>9.780545580770168</v>
+        <v>9.6434351287032953</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -8529,7 +8662,7 @@
         <v>4</v>
       </c>
       <c r="C90" s="10">
-        <v>8.0438131879231278</v>
+        <v>7.9524062198785472</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -8537,10 +8670,10 @@
         <v>949</v>
       </c>
       <c r="B91">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" s="10">
-        <v>7.0383365394327377</v>
+        <v>6.9926330554104466</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -8559,10 +8692,10 @@
         <v>982</v>
       </c>
       <c r="B93">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C93" s="10">
-        <v>6.12</v>
+        <v>6.0785633749646371</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -8573,7 +8706,7 @@
         <v>0</v>
       </c>
       <c r="C94" s="10">
-        <v>5.85</v>
+        <v>5.8043424708308935</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -8584,7 +8717,7 @@
         <v>4</v>
       </c>
       <c r="C95" s="10">
-        <v>5.3</v>
+        <v>5.2559006625634082</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -8595,7 +8728,7 @@
         <v>6</v>
       </c>
       <c r="C96" s="10">
-        <v>4.43</v>
+        <v>4.4332379501621793</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -8606,7 +8739,7 @@
         <v>5</v>
       </c>
       <c r="C97" s="10">
-        <v>4.25</v>
+        <v>4.2504240140730172</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -8617,7 +8750,7 @@
         <v>4</v>
       </c>
       <c r="C98" s="10">
-        <v>3.84</v>
+        <v>3.7476856898278212</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -8625,10 +8758,10 @@
         <v>1088</v>
       </c>
       <c r="B99">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C99" s="10">
-        <v>3.43</v>
+        <v>3.4734647856940781</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -8636,10 +8769,21 @@
         <v>1106</v>
       </c>
       <c r="B100">
+        <v>7</v>
+      </c>
+      <c r="C100" s="10">
+        <v>3.3820578176494971</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B101">
         <v>8</v>
       </c>
-      <c r="C100" s="10">
-        <v>3.38</v>
+      <c r="C101" s="10">
+        <v>3.6105752377609499</v>
       </c>
     </row>
   </sheetData>
@@ -8652,9 +8796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8663,8 +8805,8 @@
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="18.140625" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" customWidth="1"/>
     <col min="8" max="8" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8699,19 +8841,19 @@
         <v>43</v>
       </c>
       <c r="B2" s="6">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C2" s="6">
         <v>195423</v>
       </c>
       <c r="D2" s="6">
-        <v>37.354866110949068</v>
+        <v>37.866576605619606</v>
       </c>
       <c r="E2" s="3">
-        <v>3.6251676019268013E-3</v>
+        <v>3.6859932257421795E-3</v>
       </c>
       <c r="F2" s="6">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -8734,7 +8876,7 @@
         <v>99.349141962654414</v>
       </c>
       <c r="E3" s="3">
-        <v>1.0180265183493072E-2</v>
+        <v>1.0211197449691173E-2</v>
       </c>
       <c r="F3" s="6">
         <v>205</v>
@@ -8751,25 +8893,25 @@
         <v>44</v>
       </c>
       <c r="B4" s="6">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="C4" s="6">
         <v>194050</v>
       </c>
       <c r="D4" s="6">
-        <v>645.19453749033755</v>
+        <v>643.13321308940999</v>
       </c>
       <c r="E4" s="3">
-        <v>6.2174107364552811E-2</v>
+        <v>6.2163777644949195E-2</v>
       </c>
       <c r="F4" s="6">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="G4" s="6">
         <v>2</v>
       </c>
       <c r="H4" s="3">
-        <v>1.5974440894568689E-3</v>
+        <v>1.6025641025641025E-3</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -8777,25 +8919,25 @@
         <v>45</v>
       </c>
       <c r="B5" s="6">
-        <v>2087</v>
+        <v>2078</v>
       </c>
       <c r="C5" s="6">
         <v>266369</v>
       </c>
       <c r="D5" s="6">
-        <v>783.4995814077464</v>
+        <v>780.1208098539995</v>
       </c>
       <c r="E5" s="3">
-        <v>0.10364006555097581</v>
+        <v>0.10350667463638175</v>
       </c>
       <c r="F5" s="6">
-        <v>2087</v>
+        <v>2078</v>
       </c>
       <c r="G5" s="6">
         <v>4</v>
       </c>
       <c r="H5" s="3">
-        <v>1.9166267369429804E-3</v>
+        <v>1.9249278152069298E-3</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -8803,25 +8945,25 @@
         <v>46</v>
       </c>
       <c r="B6" s="6">
-        <v>3277</v>
+        <v>3269</v>
       </c>
       <c r="C6" s="6">
         <v>358785</v>
       </c>
       <c r="D6" s="6">
-        <v>913.36036902323121</v>
+        <v>911.13062140278998</v>
       </c>
       <c r="E6" s="3">
-        <v>0.16273526344539901</v>
+        <v>0.16283124128312412</v>
       </c>
       <c r="F6" s="6">
-        <v>3277</v>
+        <v>3269</v>
       </c>
       <c r="G6" s="6">
         <v>11</v>
       </c>
       <c r="H6" s="3">
-        <v>3.3567287152883735E-3</v>
+        <v>3.3649434077699602E-3</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -8829,25 +8971,25 @@
         <v>47</v>
       </c>
       <c r="B7" s="6">
-        <v>4065</v>
+        <v>4055</v>
       </c>
       <c r="C7" s="6">
         <v>335098</v>
       </c>
       <c r="D7" s="6">
-        <v>1213.0779652519561</v>
+        <v>1210.0937636154199</v>
       </c>
       <c r="E7" s="3">
-        <v>0.20186720961414312</v>
+        <v>0.2019824666268181</v>
       </c>
       <c r="F7" s="6">
-        <v>4065</v>
+        <v>4055</v>
       </c>
       <c r="G7" s="6">
         <v>27</v>
       </c>
       <c r="H7" s="3">
-        <v>6.6420664206642069E-3</v>
+        <v>6.6584463625154128E-3</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -8855,25 +8997,25 @@
         <v>136</v>
       </c>
       <c r="B8" s="6">
-        <v>2702</v>
+        <v>2694</v>
       </c>
       <c r="C8" s="6">
         <v>272250</v>
       </c>
       <c r="D8" s="6">
-        <v>992.47015610651977</v>
+        <v>989.53168044077131</v>
       </c>
       <c r="E8" s="3">
-        <v>0.13418086110145502</v>
+        <v>0.13419007770472205</v>
       </c>
       <c r="F8" s="6">
-        <v>2702</v>
+        <v>2694</v>
       </c>
       <c r="G8" s="6">
         <v>109</v>
       </c>
       <c r="H8" s="3">
-        <v>4.0340488527017021E-2</v>
+        <v>4.0460282108389013E-2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -8881,25 +9023,25 @@
         <v>48</v>
       </c>
       <c r="B9" s="6">
-        <v>2228</v>
+        <v>2216</v>
       </c>
       <c r="C9" s="6">
         <v>202172</v>
       </c>
       <c r="D9" s="6">
-        <v>1102.0319332053896</v>
+        <v>1096.096393170172</v>
       </c>
       <c r="E9" s="3">
-        <v>0.11064210160401251</v>
+        <v>0.11038055389519824</v>
       </c>
       <c r="F9" s="6">
-        <v>2228</v>
+        <v>2216</v>
       </c>
       <c r="G9" s="6">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="H9" s="3">
-        <v>0.13734290843806105</v>
+        <v>0.13628158844765342</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -8907,25 +9049,25 @@
         <v>49</v>
       </c>
       <c r="B10" s="6">
-        <v>2652</v>
+        <v>2646</v>
       </c>
       <c r="C10" s="6">
         <v>127540</v>
       </c>
       <c r="D10" s="6">
-        <v>2079.3476556374471</v>
+        <v>2074.6432491767287</v>
       </c>
       <c r="E10" s="3">
-        <v>0.131697869593286</v>
+        <v>0.13179916317991633</v>
       </c>
       <c r="F10" s="6">
-        <v>2652</v>
+        <v>2646</v>
       </c>
       <c r="G10" s="6">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="H10" s="3">
-        <v>0.2409502262443439</v>
+        <v>0.24225245653817082</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -8933,25 +9075,25 @@
         <v>137</v>
       </c>
       <c r="B11" s="6">
-        <v>1515</v>
+        <v>1510</v>
       </c>
       <c r="C11" s="6">
         <v>29987</v>
       </c>
       <c r="D11" s="6">
-        <v>5052.1892820222092</v>
+        <v>5035.5153900023342</v>
       </c>
       <c r="E11" s="3">
-        <v>7.5234642697521975E-2</v>
+        <v>7.5214186092847177E-2</v>
       </c>
       <c r="F11" s="6">
-        <v>1515</v>
+        <v>1510</v>
       </c>
       <c r="G11" s="6">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H11" s="3">
-        <v>0.30627062706270625</v>
+        <v>0.30794701986754969</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -8962,7 +9104,7 @@
         <v>81</v>
       </c>
       <c r="E12" s="3">
-        <v>4.0224462432338478E-3</v>
+        <v>4.0346682606096831E-3</v>
       </c>
       <c r="H12" s="3"/>
     </row>
@@ -8971,25 +9113,25 @@
         <v>50</v>
       </c>
       <c r="B13">
-        <v>20137</v>
+        <v>20076</v>
       </c>
       <c r="C13">
         <v>2188017</v>
       </c>
       <c r="D13">
-        <v>920.33105775686386</v>
+        <v>917.54314523150413</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>20137</v>
+        <v>20076</v>
       </c>
       <c r="G13">
         <v>1574</v>
       </c>
       <c r="H13" s="3">
-        <v>7.816457267716144E-2</v>
+        <v>7.8402072125921499E-2</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -9083,7 +9225,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z52"/>
+  <dimension ref="A1:AA52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9093,12 +9235,12 @@
     <col min="2" max="8" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -9177,8 +9319,11 @@
       <c r="Z2" t="s">
         <v>1107</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA2" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -9257,8 +9402,11 @@
       <c r="Z3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>500</v>
       </c>
@@ -9337,8 +9485,11 @@
       <c r="Z4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>331</v>
       </c>
@@ -9417,8 +9568,11 @@
       <c r="Z5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>152</v>
       </c>
@@ -9497,8 +9651,11 @@
       <c r="Z6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>313</v>
       </c>
@@ -9577,8 +9734,11 @@
       <c r="Z7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -9657,8 +9817,11 @@
       <c r="Z8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -9737,8 +9900,11 @@
       <c r="Z9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -9817,8 +9983,11 @@
       <c r="Z10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>232</v>
       </c>
@@ -9897,8 +10066,11 @@
       <c r="Z11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>496</v>
       </c>
@@ -9977,8 +10149,11 @@
       <c r="Z12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>293</v>
       </c>
@@ -10057,8 +10232,11 @@
       <c r="Z13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -10137,8 +10315,11 @@
       <c r="Z14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>168</v>
       </c>
@@ -10217,8 +10398,11 @@
       <c r="Z15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>294</v>
       </c>
@@ -10297,8 +10481,11 @@
       <c r="Z16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -10377,8 +10564,11 @@
       <c r="Z17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -10457,8 +10647,11 @@
       <c r="Z18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -10537,8 +10730,11 @@
       <c r="Z19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -10617,8 +10813,11 @@
       <c r="Z20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>538</v>
       </c>
@@ -10697,8 +10896,11 @@
       <c r="Z21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -10777,8 +10979,11 @@
       <c r="Z22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>169</v>
       </c>
@@ -10857,8 +11062,11 @@
       <c r="Z23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>170</v>
       </c>
@@ -10937,8 +11145,11 @@
       <c r="Z24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>552</v>
       </c>
@@ -11017,8 +11228,11 @@
       <c r="Z25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -11097,8 +11311,11 @@
       <c r="Z26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -11177,8 +11394,11 @@
       <c r="Z27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -11257,8 +11477,11 @@
       <c r="Z28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -11337,8 +11560,11 @@
       <c r="Z29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -11417,8 +11643,11 @@
       <c r="Z30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -11497,8 +11726,11 @@
       <c r="Z31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>164</v>
       </c>
@@ -11577,8 +11809,11 @@
       <c r="Z32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -11657,8 +11892,11 @@
       <c r="Z33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -11737,8 +11975,11 @@
       <c r="Z34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>484</v>
       </c>
@@ -11817,8 +12058,11 @@
       <c r="Z35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -11897,8 +12141,11 @@
       <c r="Z36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -11977,8 +12224,11 @@
       <c r="Z37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>55</v>
       </c>
@@ -12057,8 +12307,11 @@
       <c r="Z38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>165</v>
       </c>
@@ -12137,8 +12390,11 @@
       <c r="Z39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>233</v>
       </c>
@@ -12217,8 +12473,11 @@
       <c r="Z40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>153</v>
       </c>
@@ -12297,8 +12556,11 @@
       <c r="Z41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>23</v>
       </c>
@@ -12377,8 +12639,11 @@
       <c r="Z42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>2</v>
       </c>
@@ -12457,8 +12722,11 @@
       <c r="Z43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>154</v>
       </c>
@@ -12537,8 +12805,11 @@
       <c r="Z44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>155</v>
       </c>
@@ -12617,8 +12888,11 @@
       <c r="Z45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -12697,8 +12971,11 @@
       <c r="Z46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>156</v>
       </c>
@@ -12777,8 +13054,11 @@
       <c r="Z47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>13</v>
       </c>
@@ -12857,8 +13137,11 @@
       <c r="Z48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>234</v>
       </c>
@@ -12937,8 +13220,11 @@
       <c r="Z49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>157</v>
       </c>
@@ -13017,8 +13303,11 @@
       <c r="Z50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>24</v>
       </c>
@@ -13097,8 +13386,11 @@
       <c r="Z51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>25</v>
       </c>
@@ -13175,6 +13467,9 @@
         <v>0</v>
       </c>
       <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
         <v>0</v>
       </c>
     </row>
@@ -13189,11 +13484,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z85"/>
+  <dimension ref="A1:AA85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AA20" sqref="AA20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13203,12 +13496,12 @@
     <col min="7" max="8" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>858</v>
       </c>
@@ -13287,8 +13580,11 @@
       <c r="Z2" t="s">
         <v>1107</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA2" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>860</v>
       </c>
@@ -13367,8 +13663,11 @@
       <c r="Z3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>861</v>
       </c>
@@ -13447,8 +13746,11 @@
       <c r="Z4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>862</v>
       </c>
@@ -13527,8 +13829,11 @@
       <c r="Z5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>863</v>
       </c>
@@ -13607,8 +13912,11 @@
       <c r="Z6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>864</v>
       </c>
@@ -13687,8 +13995,11 @@
       <c r="Z7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>865</v>
       </c>
@@ -13767,8 +14078,11 @@
       <c r="Z8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>866</v>
       </c>
@@ -13847,8 +14161,11 @@
       <c r="Z9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>867</v>
       </c>
@@ -13927,8 +14244,11 @@
       <c r="Z10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>868</v>
       </c>
@@ -14007,8 +14327,11 @@
       <c r="Z11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>869</v>
       </c>
@@ -14087,8 +14410,11 @@
       <c r="Z12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>870</v>
       </c>
@@ -14167,8 +14493,11 @@
       <c r="Z13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>871</v>
       </c>
@@ -14247,8 +14576,11 @@
       <c r="Z14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>872</v>
       </c>
@@ -14327,8 +14659,11 @@
       <c r="Z15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>873</v>
       </c>
@@ -14407,8 +14742,11 @@
       <c r="Z16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>874</v>
       </c>
@@ -14487,8 +14825,11 @@
       <c r="Z17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>875</v>
       </c>
@@ -14567,8 +14908,11 @@
       <c r="Z18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>876</v>
       </c>
@@ -14647,8 +14991,11 @@
       <c r="Z19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>877</v>
       </c>
@@ -14727,8 +15074,11 @@
       <c r="Z20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>878</v>
       </c>
@@ -14807,8 +15157,11 @@
       <c r="Z21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>879</v>
       </c>
@@ -14887,8 +15240,11 @@
       <c r="Z22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>880</v>
       </c>
@@ -14967,8 +15323,11 @@
       <c r="Z23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>881</v>
       </c>
@@ -15047,8 +15406,11 @@
       <c r="Z24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>882</v>
       </c>
@@ -15127,8 +15489,11 @@
       <c r="Z25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>883</v>
       </c>
@@ -15207,8 +15572,11 @@
       <c r="Z26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>884</v>
       </c>
@@ -15287,8 +15655,11 @@
       <c r="Z27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>966</v>
       </c>
@@ -15367,8 +15738,11 @@
       <c r="Z28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>885</v>
       </c>
@@ -15447,8 +15821,11 @@
       <c r="Z29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>886</v>
       </c>
@@ -15527,8 +15904,11 @@
       <c r="Z30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1071</v>
       </c>
@@ -15607,8 +15987,11 @@
       <c r="Z31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>887</v>
       </c>
@@ -15687,8 +16070,11 @@
       <c r="Z32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1090</v>
       </c>
@@ -15767,8 +16153,11 @@
       <c r="Z33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>888</v>
       </c>
@@ -15847,8 +16236,11 @@
       <c r="Z34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>928</v>
       </c>
@@ -15927,8 +16319,11 @@
       <c r="Z35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>889</v>
       </c>
@@ -16005,10 +16400,13 @@
         <v>0</v>
       </c>
       <c r="Z36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>890</v>
       </c>
@@ -16087,8 +16485,11 @@
       <c r="Z37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>891</v>
       </c>
@@ -16167,8 +16568,11 @@
       <c r="Z38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>892</v>
       </c>
@@ -16245,10 +16649,13 @@
         <v>0</v>
       </c>
       <c r="Z39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AA39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>893</v>
       </c>
@@ -16327,8 +16734,11 @@
       <c r="Z40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>894</v>
       </c>
@@ -16407,8 +16817,11 @@
       <c r="Z41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>895</v>
       </c>
@@ -16487,8 +16900,11 @@
       <c r="Z42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>896</v>
       </c>
@@ -16567,8 +16983,11 @@
       <c r="Z43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>897</v>
       </c>
@@ -16647,8 +17066,11 @@
       <c r="Z44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>898</v>
       </c>
@@ -16727,8 +17149,11 @@
       <c r="Z45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>899</v>
       </c>
@@ -16807,8 +17232,11 @@
       <c r="Z46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>900</v>
       </c>
@@ -16887,8 +17315,11 @@
       <c r="Z47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>901</v>
       </c>
@@ -16967,8 +17398,11 @@
       <c r="Z48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>902</v>
       </c>
@@ -17047,8 +17481,11 @@
       <c r="Z49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>903</v>
       </c>
@@ -17127,8 +17564,11 @@
       <c r="Z50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>904</v>
       </c>
@@ -17207,8 +17647,11 @@
       <c r="Z51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>905</v>
       </c>
@@ -17287,8 +17730,11 @@
       <c r="Z52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>906</v>
       </c>
@@ -17367,8 +17813,11 @@
       <c r="Z53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>907</v>
       </c>
@@ -17447,8 +17896,11 @@
       <c r="Z54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>908</v>
       </c>
@@ -17527,8 +17979,11 @@
       <c r="Z55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>166</v>
       </c>
@@ -17607,8 +18062,11 @@
       <c r="Z56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>909</v>
       </c>
@@ -17687,8 +18145,11 @@
       <c r="Z57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>27</v>
       </c>
@@ -17767,8 +18228,11 @@
       <c r="Z58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>28</v>
       </c>
@@ -17847,8 +18311,11 @@
       <c r="Z59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>29</v>
       </c>
@@ -17927,8 +18394,11 @@
       <c r="Z60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>30</v>
       </c>
@@ -18007,8 +18477,11 @@
       <c r="Z61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>31</v>
       </c>
@@ -18087,8 +18560,11 @@
       <c r="Z62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>1051</v>
       </c>
@@ -18122,8 +18598,11 @@
       <c r="Z63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>52</v>
       </c>
@@ -18202,8 +18681,11 @@
       <c r="Z64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>32</v>
       </c>
@@ -18282,8 +18764,11 @@
       <c r="Z65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>33</v>
       </c>
@@ -18362,8 +18847,11 @@
       <c r="Z66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>34</v>
       </c>
@@ -18442,8 +18930,11 @@
       <c r="Z67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>35</v>
       </c>
@@ -18522,8 +19013,11 @@
       <c r="Z68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>36</v>
       </c>
@@ -18602,8 +19096,11 @@
       <c r="Z69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>37</v>
       </c>
@@ -18682,8 +19179,11 @@
       <c r="Z70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>332</v>
       </c>
@@ -18762,8 +19262,11 @@
       <c r="Z71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>53</v>
       </c>
@@ -18842,8 +19345,11 @@
       <c r="Z72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>158</v>
       </c>
@@ -18922,8 +19428,11 @@
       <c r="Z73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>38</v>
       </c>
@@ -19002,8 +19511,11 @@
       <c r="Z74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>39</v>
       </c>
@@ -19082,8 +19594,11 @@
       <c r="Z75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>159</v>
       </c>
@@ -19162,8 +19677,11 @@
       <c r="Z76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>40</v>
       </c>
@@ -19242,8 +19760,11 @@
       <c r="Z77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>333</v>
       </c>
@@ -19322,8 +19843,11 @@
       <c r="Z78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>984</v>
       </c>
@@ -19402,8 +19926,11 @@
       <c r="Z79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>160</v>
       </c>
@@ -19482,8 +20009,11 @@
       <c r="Z80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>171</v>
       </c>
@@ -19562,8 +20092,11 @@
       <c r="Z81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>41</v>
       </c>
@@ -19642,8 +20175,11 @@
       <c r="Z82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>161</v>
       </c>
@@ -19722,8 +20258,11 @@
       <c r="Z83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>235</v>
       </c>
@@ -19802,8 +20341,11 @@
       <c r="Z84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>42</v>
       </c>
@@ -19880,6 +20422,9 @@
         <v>0</v>
       </c>
       <c r="Z85">
+        <v>0</v>
+      </c>
+      <c r="AA85">
         <v>0</v>
       </c>
     </row>
@@ -19900,7 +20445,7 @@
   <cols>
     <col min="1" max="1" width="32.140625" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" style="14" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="14" customWidth="1"/>
     <col min="4" max="4" width="26.85546875" style="15" customWidth="1"/>
     <col min="5" max="16384" width="8.85546875" style="14"/>
   </cols>
@@ -25358,4 +25903,826 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>123</v>
+      </c>
+      <c r="B29">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>125</v>
+      </c>
+      <c r="B30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>127</v>
+      </c>
+      <c r="B31">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>129</v>
+      </c>
+      <c r="B32">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>99</v>
+      </c>
+      <c r="B48">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>102</v>
+      </c>
+      <c r="B49">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>104</v>
+      </c>
+      <c r="B50">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>106</v>
+      </c>
+      <c r="B51">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>108</v>
+      </c>
+      <c r="B52">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>110</v>
+      </c>
+      <c r="B53">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>112</v>
+      </c>
+      <c r="B54">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>114</v>
+      </c>
+      <c r="B55">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>116</v>
+      </c>
+      <c r="B56">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>118</v>
+      </c>
+      <c r="B57">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>120</v>
+      </c>
+      <c r="B58">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>122</v>
+      </c>
+      <c r="B59">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>124</v>
+      </c>
+      <c r="B60">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>126</v>
+      </c>
+      <c r="B61">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>128</v>
+      </c>
+      <c r="B62">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>130</v>
+      </c>
+      <c r="B63">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>58</v>
+      </c>
+      <c r="B64">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>61</v>
+      </c>
+      <c r="B65">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>73</v>
+      </c>
+      <c r="B69">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>76</v>
+      </c>
+      <c r="B70">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>79</v>
+      </c>
+      <c r="B71">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>82</v>
+      </c>
+      <c r="B72">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>85</v>
+      </c>
+      <c r="B73">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>88</v>
+      </c>
+      <c r="B74">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>91</v>
+      </c>
+      <c r="B75">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>94</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>97</v>
+      </c>
+      <c r="B77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>100</v>
+      </c>
+      <c r="B78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>151</v>
+      </c>
+      <c r="B79">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>163</v>
+      </c>
+      <c r="B80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>167</v>
+      </c>
+      <c r="B81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>224</v>
+      </c>
+      <c r="B82">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>292</v>
+      </c>
+      <c r="B83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>311</v>
+      </c>
+      <c r="B84">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>329</v>
+      </c>
+      <c r="B85">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>347</v>
+      </c>
+      <c r="B86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>467</v>
+      </c>
+      <c r="B87">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>481</v>
+      </c>
+      <c r="B88">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>856</v>
+      </c>
+      <c r="B89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>926</v>
+      </c>
+      <c r="B90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>949</v>
+      </c>
+      <c r="B91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>981</v>
+      </c>
+      <c r="B92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>982</v>
+      </c>
+      <c r="B93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>998</v>
+      </c>
+      <c r="B94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B96">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B97">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/original/spain/euskadi/situacion-epidemiologica.xlsx
+++ b/data/original/spain/euskadi/situacion-epidemiologica.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12945" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="01" sheetId="17" r:id="rId1"/>
@@ -21,12 +21,12 @@
     <sheet name="07" sheetId="19" r:id="rId7"/>
     <sheet name="08" sheetId="20" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="1149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="1167">
   <si>
     <t>UDALERRIA / MUNICIPIO</t>
   </si>
@@ -2758,9 +2758,6 @@
     <t>Otxarkoaga</t>
   </si>
   <si>
-    <t>2020/05/18 (Ultima actualización / Azken eguneratzea)</t>
-  </si>
-  <si>
     <t>2020/5/27</t>
   </si>
   <si>
@@ -3473,6 +3470,63 @@
   </si>
   <si>
     <t>Güeñes</t>
+  </si>
+  <si>
+    <t>2020/6/09</t>
+  </si>
+  <si>
+    <t>226098</t>
+  </si>
+  <si>
+    <t>122011</t>
+  </si>
+  <si>
+    <t>200418</t>
+  </si>
+  <si>
+    <t>168973</t>
+  </si>
+  <si>
+    <t>77227</t>
+  </si>
+  <si>
+    <t>6668</t>
+  </si>
+  <si>
+    <t>20209</t>
+  </si>
+  <si>
+    <t>3304</t>
+  </si>
+  <si>
+    <t>7816</t>
+  </si>
+  <si>
+    <t>2265</t>
+  </si>
+  <si>
+    <t>1580</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>1,90</t>
+  </si>
+  <si>
+    <t>13205</t>
+  </si>
+  <si>
+    <t>4204</t>
+  </si>
+  <si>
+    <t>09-jun.</t>
+  </si>
+  <si>
+    <t>09/06</t>
+  </si>
+  <si>
+    <t>Torrekua</t>
   </si>
 </sst>
 </file>
@@ -3840,10 +3894,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U108"/>
+  <dimension ref="A1:U109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A108" sqref="A108"/>
+      <selection activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3934,10 +3988,10 @@
         <v>206</v>
       </c>
       <c r="T2" s="4" t="s">
+        <v>1124</v>
+      </c>
+      <c r="U2" s="4" t="s">
         <v>1125</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>1126</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -7012,52 +7066,52 @@
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
+        <v>910</v>
+      </c>
+      <c r="B96" s="6" t="s">
         <v>911</v>
       </c>
-      <c r="B96" s="6" t="s">
+      <c r="C96" s="6" t="s">
         <v>912</v>
       </c>
-      <c r="C96" s="6" t="s">
+      <c r="D96" s="6" t="s">
         <v>913</v>
       </c>
-      <c r="D96" s="6" t="s">
+      <c r="E96" s="6" t="s">
         <v>914</v>
       </c>
-      <c r="E96" s="6" t="s">
+      <c r="F96" s="6" t="s">
         <v>915</v>
       </c>
-      <c r="F96" s="6" t="s">
+      <c r="G96" s="6" t="s">
         <v>916</v>
       </c>
-      <c r="G96" s="6" t="s">
+      <c r="H96" s="6" t="s">
         <v>917</v>
       </c>
-      <c r="H96" s="6" t="s">
+      <c r="I96" s="6" t="s">
         <v>918</v>
-      </c>
-      <c r="I96" s="6" t="s">
-        <v>919</v>
       </c>
       <c r="J96" s="6" t="s">
         <v>848</v>
       </c>
       <c r="K96" s="6" t="s">
+        <v>919</v>
+      </c>
+      <c r="L96" s="6" t="s">
         <v>920</v>
-      </c>
-      <c r="L96" s="6" t="s">
-        <v>921</v>
       </c>
       <c r="M96" s="6" t="s">
         <v>245</v>
       </c>
       <c r="N96" s="6" t="s">
+        <v>921</v>
+      </c>
+      <c r="O96" s="6" t="s">
         <v>922</v>
       </c>
-      <c r="O96" s="6" t="s">
+      <c r="P96" s="6" t="s">
         <v>923</v>
-      </c>
-      <c r="P96" s="6" t="s">
-        <v>924</v>
       </c>
       <c r="Q96" s="6" t="s">
         <v>203</v>
@@ -7066,101 +7120,101 @@
         <v>480</v>
       </c>
       <c r="S96" s="6" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
+        <v>932</v>
+      </c>
+      <c r="B97" s="6" t="s">
         <v>933</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="C97" s="6" t="s">
         <v>934</v>
       </c>
-      <c r="C97" s="6" t="s">
+      <c r="D97" s="6" t="s">
         <v>935</v>
       </c>
-      <c r="D97" s="6" t="s">
+      <c r="E97" s="6" t="s">
         <v>936</v>
       </c>
-      <c r="E97" s="6" t="s">
+      <c r="F97" s="6" t="s">
         <v>937</v>
       </c>
-      <c r="F97" s="6" t="s">
+      <c r="G97" s="6" t="s">
         <v>938</v>
       </c>
-      <c r="G97" s="6" t="s">
+      <c r="H97" s="6" t="s">
         <v>939</v>
       </c>
-      <c r="H97" s="6" t="s">
+      <c r="I97" s="6" t="s">
         <v>940</v>
       </c>
-      <c r="I97" s="6" t="s">
+      <c r="J97" s="6" t="s">
         <v>941</v>
       </c>
-      <c r="J97" s="6" t="s">
+      <c r="K97" s="6" t="s">
         <v>942</v>
       </c>
-      <c r="K97" s="6" t="s">
-        <v>943</v>
-      </c>
       <c r="L97" s="6" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="M97" s="6" t="s">
         <v>245</v>
       </c>
       <c r="N97" s="6" t="s">
+        <v>943</v>
+      </c>
+      <c r="O97" s="6" t="s">
         <v>944</v>
       </c>
-      <c r="O97" s="6" t="s">
+      <c r="P97" s="6" t="s">
         <v>945</v>
-      </c>
-      <c r="P97" s="6" t="s">
-        <v>946</v>
       </c>
       <c r="Q97" s="6" t="s">
         <v>249</v>
       </c>
       <c r="R97" s="6" t="s">
+        <v>946</v>
+      </c>
+      <c r="S97" s="6" t="s">
         <v>947</v>
-      </c>
-      <c r="S97" s="6" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
+        <v>950</v>
+      </c>
+      <c r="B98" s="6" t="s">
         <v>951</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="C98" s="6" t="s">
         <v>952</v>
       </c>
-      <c r="C98" s="6" t="s">
+      <c r="D98" s="6" t="s">
         <v>953</v>
       </c>
-      <c r="D98" s="6" t="s">
+      <c r="E98" s="6" t="s">
         <v>954</v>
       </c>
-      <c r="E98" s="6" t="s">
+      <c r="F98" s="6" t="s">
         <v>955</v>
       </c>
-      <c r="F98" s="6" t="s">
+      <c r="G98" s="6" t="s">
         <v>956</v>
       </c>
-      <c r="G98" s="6" t="s">
+      <c r="H98" s="6" t="s">
         <v>957</v>
       </c>
-      <c r="H98" s="6" t="s">
+      <c r="I98" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="I98" s="6" t="s">
+      <c r="J98" s="6" t="s">
         <v>959</v>
       </c>
-      <c r="J98" s="6" t="s">
+      <c r="K98" s="6" t="s">
         <v>960</v>
-      </c>
-      <c r="K98" s="6" t="s">
-        <v>961</v>
       </c>
       <c r="L98" s="6" t="s">
         <v>217</v>
@@ -7169,13 +7223,13 @@
         <v>245</v>
       </c>
       <c r="N98" s="6" t="s">
+        <v>961</v>
+      </c>
+      <c r="O98" s="6" t="s">
         <v>962</v>
       </c>
-      <c r="O98" s="6" t="s">
+      <c r="P98" s="6" t="s">
         <v>963</v>
-      </c>
-      <c r="P98" s="6" t="s">
-        <v>964</v>
       </c>
       <c r="Q98" s="6" t="s">
         <v>465</v>
@@ -7189,37 +7243,37 @@
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
+        <v>966</v>
+      </c>
+      <c r="B99" s="6" t="s">
         <v>967</v>
       </c>
-      <c r="B99" s="6" t="s">
+      <c r="C99" s="6" t="s">
         <v>968</v>
       </c>
-      <c r="C99" s="6" t="s">
+      <c r="D99" s="6" t="s">
         <v>969</v>
       </c>
-      <c r="D99" s="6" t="s">
+      <c r="E99" s="6" t="s">
         <v>970</v>
       </c>
-      <c r="E99" s="6" t="s">
+      <c r="F99" s="6" t="s">
         <v>971</v>
       </c>
-      <c r="F99" s="6" t="s">
+      <c r="G99" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="G99" s="6" t="s">
+      <c r="H99" s="6" t="s">
         <v>973</v>
       </c>
-      <c r="H99" s="6" t="s">
+      <c r="I99" s="6" t="s">
         <v>974</v>
       </c>
-      <c r="I99" s="6" t="s">
+      <c r="J99" s="6" t="s">
         <v>975</v>
       </c>
-      <c r="J99" s="6" t="s">
+      <c r="K99" s="6" t="s">
         <v>976</v>
-      </c>
-      <c r="K99" s="6" t="s">
-        <v>977</v>
       </c>
       <c r="L99" s="6" t="s">
         <v>217</v>
@@ -7228,13 +7282,13 @@
         <v>245</v>
       </c>
       <c r="N99" s="6" t="s">
+        <v>977</v>
+      </c>
+      <c r="O99" s="6" t="s">
         <v>978</v>
       </c>
-      <c r="O99" s="6" t="s">
+      <c r="P99" s="6" t="s">
         <v>979</v>
-      </c>
-      <c r="P99" s="6" t="s">
-        <v>980</v>
       </c>
       <c r="Q99" s="6" t="s">
         <v>249</v>
@@ -7243,42 +7297,42 @@
         <v>854</v>
       </c>
       <c r="S99" s="6" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
+        <v>984</v>
+      </c>
+      <c r="B100" s="6" t="s">
         <v>985</v>
       </c>
-      <c r="B100" s="6" t="s">
+      <c r="C100" s="6" t="s">
         <v>986</v>
       </c>
-      <c r="C100" s="6" t="s">
+      <c r="D100" s="6" t="s">
         <v>987</v>
       </c>
-      <c r="D100" s="6" t="s">
+      <c r="E100" s="6" t="s">
         <v>988</v>
       </c>
-      <c r="E100" s="6" t="s">
+      <c r="F100" s="6" t="s">
         <v>989</v>
       </c>
-      <c r="F100" s="6" t="s">
+      <c r="G100" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="H100" s="6" t="s">
         <v>990</v>
       </c>
-      <c r="G100" s="6" t="s">
-        <v>973</v>
-      </c>
-      <c r="H100" s="6" t="s">
+      <c r="I100" s="6" t="s">
         <v>991</v>
       </c>
-      <c r="I100" s="6" t="s">
-        <v>992</v>
-      </c>
       <c r="J100" s="6" t="s">
+        <v>975</v>
+      </c>
+      <c r="K100" s="6" t="s">
         <v>976</v>
-      </c>
-      <c r="K100" s="6" t="s">
-        <v>977</v>
       </c>
       <c r="L100" s="6" t="s">
         <v>217</v>
@@ -7287,57 +7341,57 @@
         <v>245</v>
       </c>
       <c r="N100" s="6" t="s">
+        <v>992</v>
+      </c>
+      <c r="O100" s="6" t="s">
         <v>993</v>
       </c>
-      <c r="O100" s="6" t="s">
+      <c r="P100" s="6" t="s">
+        <v>979</v>
+      </c>
+      <c r="Q100" s="6" t="s">
         <v>994</v>
       </c>
-      <c r="P100" s="6" t="s">
-        <v>980</v>
-      </c>
-      <c r="Q100" s="6" t="s">
+      <c r="R100" s="6" t="s">
         <v>995</v>
       </c>
-      <c r="R100" s="6" t="s">
+      <c r="S100" s="6" t="s">
         <v>996</v>
-      </c>
-      <c r="S100" s="6" t="s">
-        <v>997</v>
       </c>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
+        <v>999</v>
+      </c>
+      <c r="B101" s="6" t="s">
         <v>1000</v>
       </c>
-      <c r="B101" s="6" t="s">
+      <c r="C101" s="6" t="s">
         <v>1001</v>
       </c>
-      <c r="C101" s="6" t="s">
+      <c r="D101" s="6" t="s">
         <v>1002</v>
       </c>
-      <c r="D101" s="6" t="s">
+      <c r="E101" s="6" t="s">
         <v>1003</v>
       </c>
-      <c r="E101" s="6" t="s">
+      <c r="F101" s="6" t="s">
         <v>1004</v>
       </c>
-      <c r="F101" s="6" t="s">
+      <c r="G101" s="6" t="s">
         <v>1005</v>
       </c>
-      <c r="G101" s="6" t="s">
+      <c r="H101" s="6" t="s">
         <v>1006</v>
       </c>
-      <c r="H101" s="6" t="s">
+      <c r="I101" s="6" t="s">
         <v>1007</v>
       </c>
-      <c r="I101" s="6" t="s">
+      <c r="J101" s="6" t="s">
         <v>1008</v>
       </c>
-      <c r="J101" s="6" t="s">
-        <v>1009</v>
-      </c>
       <c r="K101" s="6" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="L101" s="6" t="s">
         <v>217</v>
@@ -7346,13 +7400,13 @@
         <v>245</v>
       </c>
       <c r="N101" s="6" t="s">
+        <v>1009</v>
+      </c>
+      <c r="O101" s="6" t="s">
         <v>1010</v>
       </c>
-      <c r="O101" s="6" t="s">
+      <c r="P101" s="6" t="s">
         <v>1011</v>
-      </c>
-      <c r="P101" s="6" t="s">
-        <v>1012</v>
       </c>
       <c r="Q101" s="6" t="s">
         <v>221</v>
@@ -7361,42 +7415,42 @@
         <v>854</v>
       </c>
       <c r="S101" s="6" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B102" s="6" t="s">
         <v>1016</v>
       </c>
-      <c r="B102" s="6" t="s">
+      <c r="C102" s="6" t="s">
         <v>1017</v>
       </c>
-      <c r="C102" s="6" t="s">
+      <c r="D102" s="6" t="s">
         <v>1018</v>
       </c>
-      <c r="D102" s="6" t="s">
+      <c r="E102" s="6" t="s">
         <v>1019</v>
       </c>
-      <c r="E102" s="6" t="s">
+      <c r="F102" s="6" t="s">
         <v>1020</v>
       </c>
-      <c r="F102" s="6" t="s">
+      <c r="G102" s="6" t="s">
         <v>1021</v>
       </c>
-      <c r="G102" s="6" t="s">
+      <c r="H102" s="6" t="s">
         <v>1022</v>
       </c>
-      <c r="H102" s="6" t="s">
+      <c r="I102" s="6" t="s">
         <v>1023</v>
       </c>
-      <c r="I102" s="6" t="s">
+      <c r="J102" s="6" t="s">
         <v>1024</v>
       </c>
-      <c r="J102" s="6" t="s">
+      <c r="K102" s="6" t="s">
         <v>1025</v>
-      </c>
-      <c r="K102" s="6" t="s">
-        <v>1026</v>
       </c>
       <c r="L102" s="6" t="s">
         <v>217</v>
@@ -7405,57 +7459,57 @@
         <v>245</v>
       </c>
       <c r="N102" s="6" t="s">
+        <v>1026</v>
+      </c>
+      <c r="O102" s="6" t="s">
         <v>1027</v>
       </c>
-      <c r="O102" s="6" t="s">
+      <c r="P102" s="6" t="s">
         <v>1028</v>
-      </c>
-      <c r="P102" s="6" t="s">
-        <v>1029</v>
       </c>
       <c r="Q102" s="6" t="s">
         <v>203</v>
       </c>
       <c r="R102" s="6" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="S102" s="6" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B103" s="6" t="s">
         <v>1033</v>
       </c>
-      <c r="B103" s="6" t="s">
+      <c r="C103" s="6" t="s">
         <v>1034</v>
       </c>
-      <c r="C103" s="6" t="s">
+      <c r="D103" s="6" t="s">
         <v>1035</v>
       </c>
-      <c r="D103" s="6" t="s">
+      <c r="E103" s="6" t="s">
         <v>1036</v>
       </c>
-      <c r="E103" s="6" t="s">
+      <c r="F103" s="6" t="s">
         <v>1037</v>
       </c>
-      <c r="F103" s="6" t="s">
+      <c r="G103" s="6" t="s">
         <v>1038</v>
       </c>
-      <c r="G103" s="6" t="s">
+      <c r="H103" s="6" t="s">
         <v>1039</v>
       </c>
-      <c r="H103" s="6" t="s">
+      <c r="I103" s="6" t="s">
         <v>1040</v>
       </c>
-      <c r="I103" s="6" t="s">
+      <c r="J103" s="6" t="s">
         <v>1041</v>
       </c>
-      <c r="J103" s="6" t="s">
+      <c r="K103" s="6" t="s">
         <v>1042</v>
-      </c>
-      <c r="K103" s="6" t="s">
-        <v>1043</v>
       </c>
       <c r="L103" s="6" t="s">
         <v>217</v>
@@ -7464,57 +7518,57 @@
         <v>245</v>
       </c>
       <c r="N103" s="6" t="s">
+        <v>1043</v>
+      </c>
+      <c r="O103" s="6" t="s">
         <v>1044</v>
       </c>
-      <c r="O103" s="6" t="s">
+      <c r="P103" s="6" t="s">
         <v>1045</v>
-      </c>
-      <c r="P103" s="6" t="s">
-        <v>1046</v>
       </c>
       <c r="Q103" s="6" t="s">
         <v>221</v>
       </c>
       <c r="R103" s="6" t="s">
+        <v>1046</v>
+      </c>
+      <c r="S103" s="6" t="s">
         <v>1047</v>
-      </c>
-      <c r="S103" s="6" t="s">
-        <v>1048</v>
       </c>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B104" s="6" t="s">
         <v>1053</v>
       </c>
-      <c r="B104" s="6" t="s">
+      <c r="C104" s="6" t="s">
         <v>1054</v>
       </c>
-      <c r="C104" s="6" t="s">
+      <c r="D104" s="6" t="s">
         <v>1055</v>
       </c>
-      <c r="D104" s="6" t="s">
+      <c r="E104" s="6" t="s">
         <v>1056</v>
       </c>
-      <c r="E104" s="6" t="s">
+      <c r="F104" s="6" t="s">
         <v>1057</v>
       </c>
-      <c r="F104" s="6" t="s">
+      <c r="G104" s="6" t="s">
         <v>1058</v>
       </c>
-      <c r="G104" s="6" t="s">
+      <c r="H104" s="6" t="s">
         <v>1059</v>
       </c>
-      <c r="H104" s="6" t="s">
+      <c r="I104" s="6" t="s">
         <v>1060</v>
       </c>
-      <c r="I104" s="6" t="s">
+      <c r="J104" s="6" t="s">
+        <v>1071</v>
+      </c>
+      <c r="K104" s="6" t="s">
         <v>1061</v>
-      </c>
-      <c r="J104" s="6" t="s">
-        <v>1072</v>
-      </c>
-      <c r="K104" s="6" t="s">
-        <v>1062</v>
       </c>
       <c r="L104" s="6" t="s">
         <v>217</v>
@@ -7523,57 +7577,57 @@
         <v>245</v>
       </c>
       <c r="N104" s="6" t="s">
+        <v>1062</v>
+      </c>
+      <c r="O104" s="6" t="s">
         <v>1063</v>
       </c>
-      <c r="O104" s="6" t="s">
+      <c r="P104" s="6" t="s">
         <v>1064</v>
       </c>
-      <c r="P104" s="6" t="s">
+      <c r="Q104" s="6" t="s">
         <v>1065</v>
       </c>
-      <c r="Q104" s="6" t="s">
+      <c r="R104" s="6" t="s">
         <v>1066</v>
       </c>
-      <c r="R104" s="6" t="s">
+      <c r="S104" s="6" t="s">
         <v>1067</v>
-      </c>
-      <c r="S104" s="6" t="s">
-        <v>1068</v>
       </c>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B105" s="6" t="s">
         <v>1073</v>
       </c>
-      <c r="B105" s="6" t="s">
+      <c r="C105" s="6" t="s">
         <v>1074</v>
       </c>
-      <c r="C105" s="6" t="s">
+      <c r="D105" s="6" t="s">
         <v>1075</v>
       </c>
-      <c r="D105" s="6" t="s">
+      <c r="E105" s="6" t="s">
         <v>1076</v>
       </c>
-      <c r="E105" s="6" t="s">
+      <c r="F105" s="6" t="s">
         <v>1077</v>
       </c>
-      <c r="F105" s="6" t="s">
+      <c r="G105" s="6" t="s">
         <v>1078</v>
       </c>
-      <c r="G105" s="6" t="s">
+      <c r="H105" s="6" t="s">
         <v>1079</v>
       </c>
-      <c r="H105" s="6" t="s">
+      <c r="I105" s="6" t="s">
         <v>1080</v>
       </c>
-      <c r="I105" s="6" t="s">
+      <c r="J105" s="6" t="s">
         <v>1081</v>
       </c>
-      <c r="J105" s="6" t="s">
+      <c r="K105" s="6" t="s">
         <v>1082</v>
-      </c>
-      <c r="K105" s="6" t="s">
-        <v>1083</v>
       </c>
       <c r="L105" s="6" t="s">
         <v>217</v>
@@ -7582,57 +7636,57 @@
         <v>245</v>
       </c>
       <c r="N105" s="6" t="s">
+        <v>1083</v>
+      </c>
+      <c r="O105" s="6" t="s">
         <v>1084</v>
       </c>
-      <c r="O105" s="6" t="s">
+      <c r="P105" s="6" t="s">
         <v>1085</v>
-      </c>
-      <c r="P105" s="6" t="s">
-        <v>1086</v>
       </c>
       <c r="Q105" s="6" t="s">
         <v>465</v>
       </c>
       <c r="R105" s="6" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="S105" s="6" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B106" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C106" s="6" t="s">
         <v>1091</v>
       </c>
-      <c r="C106" s="6" t="s">
+      <c r="D106" s="6" t="s">
         <v>1092</v>
       </c>
-      <c r="D106" s="6" t="s">
+      <c r="E106" s="6" t="s">
         <v>1093</v>
       </c>
-      <c r="E106" s="6" t="s">
+      <c r="F106" s="6" t="s">
         <v>1094</v>
       </c>
-      <c r="F106" s="6" t="s">
+      <c r="G106" s="6" t="s">
         <v>1095</v>
       </c>
-      <c r="G106" s="6" t="s">
+      <c r="H106" s="6" t="s">
         <v>1096</v>
       </c>
-      <c r="H106" s="6" t="s">
+      <c r="I106" s="6" t="s">
         <v>1097</v>
       </c>
-      <c r="I106" s="6" t="s">
+      <c r="J106" s="6" t="s">
         <v>1098</v>
       </c>
-      <c r="J106" s="6" t="s">
+      <c r="K106" s="6" t="s">
         <v>1099</v>
-      </c>
-      <c r="K106" s="6" t="s">
-        <v>1100</v>
       </c>
       <c r="L106" s="6" t="s">
         <v>217</v>
@@ -7641,140 +7695,199 @@
         <v>245</v>
       </c>
       <c r="N106" s="6" t="s">
+        <v>1100</v>
+      </c>
+      <c r="O106" s="6" t="s">
         <v>1101</v>
       </c>
-      <c r="O106" s="6" t="s">
+      <c r="P106" s="6" t="s">
         <v>1102</v>
-      </c>
-      <c r="P106" s="6" t="s">
-        <v>1103</v>
       </c>
       <c r="Q106" s="6" t="s">
         <v>465</v>
       </c>
       <c r="R106" s="6" t="s">
+        <v>1103</v>
+      </c>
+      <c r="S106" s="6" t="s">
         <v>1104</v>
-      </c>
-      <c r="S106" s="6" t="s">
-        <v>1105</v>
       </c>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B107" s="6" t="s">
         <v>1109</v>
       </c>
-      <c r="B107" s="6" t="s">
+      <c r="C107" s="6" t="s">
         <v>1110</v>
       </c>
-      <c r="C107" s="6" t="s">
+      <c r="D107" s="6" t="s">
         <v>1111</v>
       </c>
-      <c r="D107" s="6" t="s">
+      <c r="E107" s="6" t="s">
         <v>1112</v>
       </c>
-      <c r="E107" s="6" t="s">
+      <c r="F107" s="6" t="s">
         <v>1113</v>
       </c>
-      <c r="F107" s="6" t="s">
+      <c r="G107" s="6" t="s">
         <v>1114</v>
       </c>
-      <c r="G107" s="6" t="s">
+      <c r="H107" s="6" t="s">
         <v>1115</v>
       </c>
-      <c r="H107" s="6" t="s">
+      <c r="I107" s="6" t="s">
         <v>1116</v>
       </c>
-      <c r="I107" s="6" t="s">
+      <c r="J107" s="6" t="s">
         <v>1117</v>
       </c>
-      <c r="J107" s="6" t="s">
+      <c r="K107" s="6" t="s">
         <v>1118</v>
       </c>
-      <c r="K107" s="6" t="s">
+      <c r="L107" s="6" t="s">
         <v>1119</v>
       </c>
-      <c r="L107" s="6" t="s">
+      <c r="M107" s="6" t="s">
         <v>1120</v>
       </c>
-      <c r="M107" s="6" t="s">
-        <v>1121</v>
-      </c>
       <c r="P107" s="6" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="Q107" s="6" t="s">
         <v>465</v>
       </c>
       <c r="R107" s="6" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="S107" s="6" t="s">
+        <v>1121</v>
+      </c>
+      <c r="T107" s="4" t="s">
         <v>1122</v>
       </c>
-      <c r="T107" s="4" t="s">
+      <c r="U107" s="4" t="s">
         <v>1123</v>
-      </c>
-      <c r="U107" s="4" t="s">
-        <v>1124</v>
       </c>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B108" s="6" t="s">
         <v>1131</v>
       </c>
-      <c r="B108" s="6" t="s">
+      <c r="C108" s="6" t="s">
         <v>1132</v>
       </c>
-      <c r="C108" s="6" t="s">
+      <c r="D108" s="6" t="s">
         <v>1133</v>
       </c>
-      <c r="D108" s="6" t="s">
+      <c r="E108" s="6" t="s">
         <v>1134</v>
       </c>
-      <c r="E108" s="6" t="s">
+      <c r="F108" s="6" t="s">
         <v>1135</v>
       </c>
-      <c r="F108" s="6" t="s">
+      <c r="G108" s="6" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H108" s="6" t="s">
         <v>1136</v>
       </c>
-      <c r="G108" s="6" t="s">
-        <v>1006</v>
-      </c>
-      <c r="H108" s="6" t="s">
+      <c r="I108" s="6" t="s">
         <v>1137</v>
       </c>
-      <c r="I108" s="6" t="s">
+      <c r="J108" s="6" t="s">
         <v>1138</v>
       </c>
-      <c r="J108" s="6" t="s">
+      <c r="K108" s="6" t="s">
         <v>1139</v>
       </c>
-      <c r="K108" s="6" t="s">
+      <c r="L108" s="6" t="s">
         <v>1140</v>
       </c>
-      <c r="L108" s="6" t="s">
+      <c r="M108" s="6" t="s">
+        <v>1120</v>
+      </c>
+      <c r="P108" s="6" t="s">
         <v>1141</v>
-      </c>
-      <c r="M108" s="6" t="s">
-        <v>1121</v>
-      </c>
-      <c r="P108" s="6" t="s">
-        <v>1142</v>
       </c>
       <c r="Q108" s="6" t="s">
         <v>221</v>
       </c>
       <c r="R108" s="6" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="S108" s="6" t="s">
+        <v>1142</v>
+      </c>
+      <c r="T108" s="4" t="s">
         <v>1143</v>
       </c>
-      <c r="T108" s="4" t="s">
+      <c r="U108" s="4" t="s">
         <v>1144</v>
       </c>
-      <c r="U108" s="4" t="s">
-        <v>1145</v>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A109" s="6" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>1153</v>
+      </c>
+      <c r="G109" s="6" t="s">
+        <v>1078</v>
+      </c>
+      <c r="H109" s="6" t="s">
+        <v>1154</v>
+      </c>
+      <c r="I109" s="6" t="s">
+        <v>1155</v>
+      </c>
+      <c r="J109" s="6" t="s">
+        <v>1156</v>
+      </c>
+      <c r="K109" s="6" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L109" s="6" t="s">
+        <v>1158</v>
+      </c>
+      <c r="M109" s="6" t="s">
+        <v>1120</v>
+      </c>
+      <c r="P109" s="6" t="s">
+        <v>1159</v>
+      </c>
+      <c r="Q109" s="6" t="s">
+        <v>1160</v>
+      </c>
+      <c r="R109" s="6" t="s">
+        <v>1103</v>
+      </c>
+      <c r="S109" s="6" t="s">
+        <v>1161</v>
+      </c>
+      <c r="T109" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="U109" s="4" t="s">
+        <v>1163</v>
       </c>
     </row>
   </sheetData>
@@ -7785,10 +7898,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:C103"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="C103" sqref="C103"/>
+    <sheetView topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8772,7 +8885,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B90">
         <v>4</v>
@@ -8783,7 +8896,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B91">
         <v>8</v>
@@ -8794,7 +8907,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B92">
         <v>7</v>
@@ -8805,7 +8918,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B93">
         <v>4</v>
@@ -8816,7 +8929,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -8827,7 +8940,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B95">
         <v>4</v>
@@ -8838,7 +8951,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B96">
         <v>6</v>
@@ -8849,7 +8962,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B97">
         <v>5</v>
@@ -8860,7 +8973,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B98">
         <v>4</v>
@@ -8871,7 +8984,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B99">
         <v>5</v>
@@ -8882,7 +8995,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B100">
         <v>7</v>
@@ -8893,7 +9006,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B101">
         <v>8</v>
@@ -8904,13 +9017,24 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B102">
         <v>16</v>
       </c>
       <c r="C102" s="10">
         <v>4.1100000000000003</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B103">
+        <v>19</v>
+      </c>
+      <c r="C103" s="10">
+        <v>4.43</v>
       </c>
     </row>
   </sheetData>
@@ -8923,8 +9047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8979,7 +9103,7 @@
         <v>37.866576605619606</v>
       </c>
       <c r="E2" s="3">
-        <v>3.6757401152394198E-3</v>
+        <v>3.6617348706022069E-3</v>
       </c>
       <c r="F2" s="6">
         <v>74</v>
@@ -8996,19 +9120,19 @@
         <v>51</v>
       </c>
       <c r="B3" s="6">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C3" s="6">
         <v>206343</v>
       </c>
       <c r="D3" s="6">
-        <v>100.31840188424128</v>
+        <v>100.80303184503472</v>
       </c>
       <c r="E3" s="3">
-        <v>1.0282137889926485E-2</v>
+        <v>1.0292443960611609E-2</v>
       </c>
       <c r="F3" s="6">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -9022,25 +9146,25 @@
         <v>44</v>
       </c>
       <c r="B4" s="6">
-        <v>1255</v>
+        <v>1265</v>
       </c>
       <c r="C4" s="6">
         <v>194050</v>
       </c>
       <c r="D4" s="6">
-        <v>646.74053079103328</v>
+        <v>651.89384179335218</v>
       </c>
       <c r="E4" s="3">
-        <v>6.2338565467911784E-2</v>
+        <v>6.2595873125835019E-2</v>
       </c>
       <c r="F4" s="6">
-        <v>1255</v>
+        <v>1265</v>
       </c>
       <c r="G4" s="6">
         <v>2</v>
       </c>
       <c r="H4" s="3">
-        <v>1.5936254980079682E-3</v>
+        <v>1.5810276679841897E-3</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -9048,25 +9172,25 @@
         <v>45</v>
       </c>
       <c r="B5" s="6">
-        <v>2088</v>
+        <v>2096</v>
       </c>
       <c r="C5" s="6">
         <v>266369</v>
       </c>
       <c r="D5" s="6">
-        <v>783.8750004692738</v>
+        <v>786.87835296149331</v>
       </c>
       <c r="E5" s="3">
-        <v>0.10371547784621499</v>
+        <v>0.10371616606462467</v>
       </c>
       <c r="F5" s="6">
-        <v>2088</v>
+        <v>2096</v>
       </c>
       <c r="G5" s="6">
         <v>4</v>
       </c>
       <c r="H5" s="3">
-        <v>1.9157088122605363E-3</v>
+        <v>1.9083969465648854E-3</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -9074,25 +9198,25 @@
         <v>46</v>
       </c>
       <c r="B6" s="6">
-        <v>3280</v>
+        <v>3301</v>
       </c>
       <c r="C6" s="6">
         <v>358785</v>
       </c>
       <c r="D6" s="6">
-        <v>914.19652438089668</v>
+        <v>920.04961188455479</v>
       </c>
       <c r="E6" s="3">
-        <v>0.16292469699980131</v>
+        <v>0.1633430649710525</v>
       </c>
       <c r="F6" s="6">
-        <v>3280</v>
+        <v>3301</v>
       </c>
       <c r="G6" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H6" s="3">
-        <v>3.3536585365853658E-3</v>
+        <v>3.6352620418055137E-3</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -9100,25 +9224,25 @@
         <v>47</v>
       </c>
       <c r="B7" s="6">
-        <v>4062</v>
+        <v>4078</v>
       </c>
       <c r="C7" s="6">
         <v>335098</v>
       </c>
       <c r="D7" s="6">
-        <v>1212.1827047609952</v>
+        <v>1216.9574273794531</v>
       </c>
       <c r="E7" s="3">
-        <v>0.20176832902841249</v>
+        <v>0.20179128111237568</v>
       </c>
       <c r="F7" s="6">
-        <v>4062</v>
+        <v>4078</v>
       </c>
       <c r="G7" s="6">
         <v>27</v>
       </c>
       <c r="H7" s="3">
-        <v>6.6469719350073855E-3</v>
+        <v>6.6208925944090244E-3</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -9126,25 +9250,25 @@
         <v>136</v>
       </c>
       <c r="B8" s="6">
-        <v>2701</v>
+        <v>2713</v>
       </c>
       <c r="C8" s="6">
         <v>272250</v>
       </c>
       <c r="D8" s="6">
-        <v>992.10284664830124</v>
+        <v>996.51056014692381</v>
       </c>
       <c r="E8" s="3">
-        <v>0.13416451420623882</v>
+        <v>0.134247117620862</v>
       </c>
       <c r="F8" s="6">
-        <v>2701</v>
+        <v>2713</v>
       </c>
       <c r="G8" s="6">
         <v>109</v>
       </c>
       <c r="H8" s="3">
-        <v>4.035542391706775E-2</v>
+        <v>4.0176925912274238E-2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -9152,25 +9276,25 @@
         <v>48</v>
       </c>
       <c r="B9" s="6">
-        <v>2224</v>
+        <v>2227</v>
       </c>
       <c r="C9" s="6">
         <v>202172</v>
       </c>
       <c r="D9" s="6">
-        <v>1100.053419860317</v>
+        <v>1101.5373048691213</v>
       </c>
       <c r="E9" s="3">
-        <v>0.1104708921120604</v>
+        <v>0.11019842644366372</v>
       </c>
       <c r="F9" s="6">
-        <v>2224</v>
+        <v>2227</v>
       </c>
       <c r="G9" s="6">
         <v>303</v>
       </c>
       <c r="H9" s="3">
-        <v>0.13624100719424462</v>
+        <v>0.13605747642568478</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -9178,25 +9302,25 @@
         <v>49</v>
       </c>
       <c r="B10" s="6">
-        <v>2648</v>
+        <v>2651</v>
       </c>
       <c r="C10" s="6">
         <v>127540</v>
       </c>
       <c r="D10" s="6">
-        <v>2076.2113846636348</v>
+        <v>2078.5635878939938</v>
       </c>
       <c r="E10" s="3">
-        <v>0.13153188952910788</v>
+        <v>0.13117917759414122</v>
       </c>
       <c r="F10" s="6">
-        <v>2648</v>
+        <v>2651</v>
       </c>
       <c r="G10" s="6">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="H10" s="3">
-        <v>0.24244712990936557</v>
+        <v>0.24292719728404374</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -9204,25 +9328,25 @@
         <v>137</v>
       </c>
       <c r="B11" s="6">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="C11" s="6">
         <v>29987</v>
       </c>
       <c r="D11" s="6">
-        <v>5042.1849468102846</v>
+        <v>5048.854503618235</v>
       </c>
       <c r="E11" s="3">
-        <v>7.5104311543810851E-2</v>
+        <v>7.4917116136374876E-2</v>
       </c>
       <c r="F11" s="6">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="G11" s="6">
         <v>466</v>
       </c>
       <c r="H11" s="3">
-        <v>0.3082010582010582</v>
+        <v>0.30779392338177014</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -9230,10 +9354,10 @@
         <v>138</v>
       </c>
       <c r="B12">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E12" s="3">
-        <v>4.0234452612755815E-3</v>
+        <v>4.0575980998564997E-3</v>
       </c>
       <c r="H12" s="3"/>
     </row>
@@ -9242,25 +9366,25 @@
         <v>50</v>
       </c>
       <c r="B13">
-        <v>20132</v>
+        <v>20209</v>
       </c>
       <c r="C13">
         <v>2188017</v>
       </c>
       <c r="D13">
-        <v>920.10254033675244</v>
+        <v>923.62170860646881</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>20132</v>
+        <v>20209</v>
       </c>
       <c r="G13">
-        <v>1577</v>
+        <v>1580</v>
       </c>
       <c r="H13" s="3">
-        <v>7.8333002185575207E-2</v>
+        <v>7.8182987777722798E-2</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -9354,10 +9478,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB56"/>
+  <dimension ref="A1:AC57"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56:XFD56"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9366,12 +9490,12 @@
     <col min="2" max="8" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -9418,46 +9542,49 @@
         <v>857</v>
       </c>
       <c r="P2" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="Q2" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="R2" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="S2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="T2" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="U2" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="V2" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="W2" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="X2" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="Y2" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="Z2" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="AA2" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="AB2" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+        <v>1146</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -9542,8 +9669,11 @@
       <c r="AB3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>500</v>
       </c>
@@ -9628,8 +9758,11 @@
       <c r="AB4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>331</v>
       </c>
@@ -9714,8 +9847,11 @@
       <c r="AB5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>152</v>
       </c>
@@ -9800,8 +9936,11 @@
       <c r="AB6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>313</v>
       </c>
@@ -9886,8 +10025,11 @@
       <c r="AB7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -9972,8 +10114,11 @@
       <c r="AB8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -10058,8 +10203,11 @@
       <c r="AB9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -10144,8 +10292,11 @@
       <c r="AB10">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>232</v>
       </c>
@@ -10230,8 +10381,11 @@
       <c r="AB11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>496</v>
       </c>
@@ -10316,8 +10470,11 @@
       <c r="AB12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>293</v>
       </c>
@@ -10402,8 +10559,11 @@
       <c r="AB13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -10488,8 +10648,11 @@
       <c r="AB14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>168</v>
       </c>
@@ -10574,8 +10737,11 @@
       <c r="AB15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>294</v>
       </c>
@@ -10660,8 +10826,11 @@
       <c r="AB16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -10746,8 +10915,11 @@
       <c r="AB17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -10832,8 +11004,11 @@
       <c r="AB18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -10918,8 +11093,11 @@
       <c r="AB19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -11004,8 +11182,11 @@
       <c r="AB20">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>538</v>
       </c>
@@ -11090,8 +11271,11 @@
       <c r="AB21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -11176,8 +11360,11 @@
       <c r="AB22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>169</v>
       </c>
@@ -11262,8 +11449,11 @@
       <c r="AB23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>170</v>
       </c>
@@ -11348,8 +11538,11 @@
       <c r="AB24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>552</v>
       </c>
@@ -11434,8 +11627,11 @@
       <c r="AB25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -11520,8 +11716,11 @@
       <c r="AB26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -11606,8 +11805,11 @@
       <c r="AB27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -11692,8 +11894,11 @@
       <c r="AB28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -11778,8 +11983,11 @@
       <c r="AB29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>568</v>
       </c>
@@ -11864,8 +12072,11 @@
       <c r="AB30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -11950,8 +12161,11 @@
       <c r="AB31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -12036,8 +12250,11 @@
       <c r="AB32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>164</v>
       </c>
@@ -12122,8 +12339,11 @@
       <c r="AB33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>16</v>
       </c>
@@ -12208,8 +12428,11 @@
       <c r="AB34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -12294,8 +12517,11 @@
       <c r="AB35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>484</v>
       </c>
@@ -12380,8 +12606,11 @@
       <c r="AB36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -12466,8 +12695,11 @@
       <c r="AB37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>21</v>
       </c>
@@ -12552,8 +12784,11 @@
       <c r="AB38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>55</v>
       </c>
@@ -12638,8 +12873,11 @@
       <c r="AB39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>636</v>
       </c>
@@ -12724,8 +12962,11 @@
       <c r="AB40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>165</v>
       </c>
@@ -12810,8 +13051,11 @@
       <c r="AB41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>233</v>
       </c>
@@ -12896,8 +13140,11 @@
       <c r="AB42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>153</v>
       </c>
@@ -12982,8 +13229,11 @@
       <c r="AB43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>23</v>
       </c>
@@ -13068,8 +13318,11 @@
       <c r="AB44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>657</v>
       </c>
@@ -13154,8 +13407,11 @@
       <c r="AB45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>2</v>
       </c>
@@ -13240,8 +13496,11 @@
       <c r="AB46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>506</v>
       </c>
@@ -13326,8 +13585,11 @@
       <c r="AB47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>154</v>
       </c>
@@ -13412,8 +13674,11 @@
       <c r="AB48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>155</v>
       </c>
@@ -13498,8 +13763,11 @@
       <c r="AB49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -13584,520 +13852,630 @@
       <c r="AB50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>543</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>0</v>
+      </c>
+      <c r="AB51">
+        <v>0</v>
+      </c>
+      <c r="AC51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>156</v>
       </c>
-      <c r="B51">
-        <v>0</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51">
-        <v>0</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>0</v>
-      </c>
-      <c r="R51">
-        <v>0</v>
-      </c>
-      <c r="S51">
-        <v>0</v>
-      </c>
-      <c r="T51">
-        <v>0</v>
-      </c>
-      <c r="U51">
-        <v>0</v>
-      </c>
-      <c r="V51">
-        <v>0</v>
-      </c>
-      <c r="W51">
-        <v>0</v>
-      </c>
-      <c r="X51">
-        <v>0</v>
-      </c>
-      <c r="Y51">
-        <v>0</v>
-      </c>
-      <c r="Z51">
-        <v>0</v>
-      </c>
-      <c r="AA51">
-        <v>0</v>
-      </c>
-      <c r="AB51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>0</v>
+      </c>
+      <c r="AB52">
+        <v>0</v>
+      </c>
+      <c r="AC52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>13</v>
       </c>
-      <c r="B52">
-        <v>0</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52">
-        <v>0</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>0</v>
-      </c>
-      <c r="R52">
-        <v>0</v>
-      </c>
-      <c r="S52">
-        <v>0</v>
-      </c>
-      <c r="T52">
-        <v>0</v>
-      </c>
-      <c r="U52">
-        <v>0</v>
-      </c>
-      <c r="V52">
-        <v>0</v>
-      </c>
-      <c r="W52">
-        <v>0</v>
-      </c>
-      <c r="X52">
-        <v>0</v>
-      </c>
-      <c r="Y52">
-        <v>0</v>
-      </c>
-      <c r="Z52">
-        <v>0</v>
-      </c>
-      <c r="AA52">
-        <v>0</v>
-      </c>
-      <c r="AB52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>0</v>
+      </c>
+      <c r="AB53">
+        <v>0</v>
+      </c>
+      <c r="AC53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>234</v>
       </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>1</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="M53">
-        <v>0</v>
-      </c>
-      <c r="N53">
-        <v>0</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>0</v>
-      </c>
-      <c r="R53">
-        <v>0</v>
-      </c>
-      <c r="S53">
-        <v>0</v>
-      </c>
-      <c r="T53">
-        <v>0</v>
-      </c>
-      <c r="U53">
-        <v>0</v>
-      </c>
-      <c r="V53">
-        <v>0</v>
-      </c>
-      <c r="W53">
-        <v>0</v>
-      </c>
-      <c r="X53">
-        <v>0</v>
-      </c>
-      <c r="Y53">
-        <v>0</v>
-      </c>
-      <c r="Z53">
-        <v>0</v>
-      </c>
-      <c r="AA53">
-        <v>0</v>
-      </c>
-      <c r="AB53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <v>0</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>0</v>
+      </c>
+      <c r="AB54">
+        <v>0</v>
+      </c>
+      <c r="AC54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>157</v>
       </c>
-      <c r="B54">
-        <v>0</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>1</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54">
-        <v>0</v>
-      </c>
-      <c r="N54">
-        <v>0</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>0</v>
-      </c>
-      <c r="R54">
-        <v>0</v>
-      </c>
-      <c r="S54">
-        <v>0</v>
-      </c>
-      <c r="T54">
-        <v>0</v>
-      </c>
-      <c r="U54">
-        <v>0</v>
-      </c>
-      <c r="V54">
-        <v>0</v>
-      </c>
-      <c r="W54">
-        <v>0</v>
-      </c>
-      <c r="X54">
-        <v>0</v>
-      </c>
-      <c r="Y54">
-        <v>0</v>
-      </c>
-      <c r="Z54">
-        <v>0</v>
-      </c>
-      <c r="AA54">
-        <v>0</v>
-      </c>
-      <c r="AB54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>0</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>0</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>0</v>
+      </c>
+      <c r="AB55">
+        <v>0</v>
+      </c>
+      <c r="AC55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>24</v>
       </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
-      <c r="N55">
-        <v>0</v>
-      </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55">
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <v>0</v>
-      </c>
-      <c r="R55">
-        <v>0</v>
-      </c>
-      <c r="S55">
-        <v>0</v>
-      </c>
-      <c r="T55">
-        <v>0</v>
-      </c>
-      <c r="U55">
-        <v>0</v>
-      </c>
-      <c r="V55">
-        <v>0</v>
-      </c>
-      <c r="W55">
-        <v>0</v>
-      </c>
-      <c r="X55">
-        <v>0</v>
-      </c>
-      <c r="Y55">
-        <v>0</v>
-      </c>
-      <c r="Z55">
-        <v>0</v>
-      </c>
-      <c r="AA55">
-        <v>0</v>
-      </c>
-      <c r="AB55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>0</v>
+      </c>
+      <c r="AB56">
+        <v>0</v>
+      </c>
+      <c r="AC56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>25</v>
       </c>
-      <c r="B56">
+      <c r="B57">
         <v>4</v>
       </c>
-      <c r="C56">
+      <c r="C57">
         <v>3</v>
       </c>
-      <c r="D56">
+      <c r="D57">
         <v>2</v>
       </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>1</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="M56">
-        <v>0</v>
-      </c>
-      <c r="N56">
-        <v>0</v>
-      </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-      <c r="P56">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>0</v>
-      </c>
-      <c r="R56">
-        <v>0</v>
-      </c>
-      <c r="S56">
-        <v>0</v>
-      </c>
-      <c r="T56">
-        <v>0</v>
-      </c>
-      <c r="U56">
-        <v>0</v>
-      </c>
-      <c r="V56">
-        <v>0</v>
-      </c>
-      <c r="W56">
-        <v>0</v>
-      </c>
-      <c r="X56">
-        <v>0</v>
-      </c>
-      <c r="Y56">
-        <v>0</v>
-      </c>
-      <c r="Z56">
-        <v>0</v>
-      </c>
-      <c r="AA56">
-        <v>0</v>
-      </c>
-      <c r="AB56">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <v>0</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>0</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>0</v>
+      </c>
+      <c r="AB57">
+        <v>0</v>
+      </c>
+      <c r="AC57">
         <v>0</v>
       </c>
     </row>
@@ -14112,10 +14490,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB86"/>
+  <dimension ref="A1:AC87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B64" sqref="B64:S64"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14126,12 +14504,12 @@
     <col min="7" max="8" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>858</v>
       </c>
@@ -14178,46 +14556,49 @@
         <v>857</v>
       </c>
       <c r="P2" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="Q2" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="R2" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="S2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="T2" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="U2" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="V2" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="W2" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="X2" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="Y2" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="Z2" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="AA2" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="AB2" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+        <v>1146</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>860</v>
       </c>
@@ -14302,8 +14683,11 @@
       <c r="AB3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>861</v>
       </c>
@@ -14388,8 +14772,11 @@
       <c r="AB4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>862</v>
       </c>
@@ -14474,8 +14861,11 @@
       <c r="AB5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>863</v>
       </c>
@@ -14560,8 +14950,11 @@
       <c r="AB6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>864</v>
       </c>
@@ -14646,8 +15039,11 @@
       <c r="AB7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>865</v>
       </c>
@@ -14732,8 +15128,11 @@
       <c r="AB8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>866</v>
       </c>
@@ -14818,8 +15217,11 @@
       <c r="AB9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>867</v>
       </c>
@@ -14904,8 +15306,11 @@
       <c r="AB10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>868</v>
       </c>
@@ -14990,8 +15395,11 @@
       <c r="AB11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>869</v>
       </c>
@@ -15076,8 +15484,11 @@
       <c r="AB12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>870</v>
       </c>
@@ -15162,8 +15573,11 @@
       <c r="AB13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>871</v>
       </c>
@@ -15248,8 +15662,11 @@
       <c r="AB14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>872</v>
       </c>
@@ -15334,8 +15751,11 @@
       <c r="AB15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>873</v>
       </c>
@@ -15420,8 +15840,11 @@
       <c r="AB16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>874</v>
       </c>
@@ -15506,8 +15929,11 @@
       <c r="AB17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>875</v>
       </c>
@@ -15592,8 +16018,11 @@
       <c r="AB18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>876</v>
       </c>
@@ -15678,8 +16107,11 @@
       <c r="AB19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>877</v>
       </c>
@@ -15764,8 +16196,11 @@
       <c r="AB20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>878</v>
       </c>
@@ -15850,8 +16285,11 @@
       <c r="AB21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>879</v>
       </c>
@@ -15936,8 +16374,11 @@
       <c r="AB22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>880</v>
       </c>
@@ -16022,8 +16463,11 @@
       <c r="AB23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>881</v>
       </c>
@@ -16108,8 +16552,11 @@
       <c r="AB24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>882</v>
       </c>
@@ -16194,8 +16641,11 @@
       <c r="AB25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>883</v>
       </c>
@@ -16280,8 +16730,11 @@
       <c r="AB26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>884</v>
       </c>
@@ -16366,10 +16819,13 @@
       <c r="AB27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -16452,8 +16908,11 @@
       <c r="AB28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>885</v>
       </c>
@@ -16538,8 +16997,11 @@
       <c r="AB29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>886</v>
       </c>
@@ -16624,10 +17086,13 @@
       <c r="AB30">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -16710,8 +17175,11 @@
       <c r="AB31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>887</v>
       </c>
@@ -16796,10 +17264,13 @@
       <c r="AB32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -16882,8 +17353,11 @@
       <c r="AB33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>888</v>
       </c>
@@ -16968,10 +17442,13 @@
       <c r="AB34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -17054,10 +17531,13 @@
       <c r="AB35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -17140,8 +17620,11 @@
       <c r="AB36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>889</v>
       </c>
@@ -17226,8 +17709,11 @@
       <c r="AB37">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>890</v>
       </c>
@@ -17312,8 +17798,11 @@
       <c r="AB38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>891</v>
       </c>
@@ -17398,8 +17887,11 @@
       <c r="AB39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>892</v>
       </c>
@@ -17484,8 +17976,11 @@
       <c r="AB40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>893</v>
       </c>
@@ -17570,8 +18065,11 @@
       <c r="AB41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>894</v>
       </c>
@@ -17656,8 +18154,11 @@
       <c r="AB42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>895</v>
       </c>
@@ -17742,8 +18243,11 @@
       <c r="AB43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>896</v>
       </c>
@@ -17828,8 +18332,11 @@
       <c r="AB44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>897</v>
       </c>
@@ -17914,8 +18421,11 @@
       <c r="AB45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>898</v>
       </c>
@@ -18000,8 +18510,11 @@
       <c r="AB46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>899</v>
       </c>
@@ -18086,8 +18599,11 @@
       <c r="AB47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>900</v>
       </c>
@@ -18172,8 +18688,11 @@
       <c r="AB48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>901</v>
       </c>
@@ -18258,8 +18777,11 @@
       <c r="AB49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>902</v>
       </c>
@@ -18344,8 +18866,11 @@
       <c r="AB50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>903</v>
       </c>
@@ -18430,8 +18955,11 @@
       <c r="AB51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>904</v>
       </c>
@@ -18516,8 +19044,11 @@
       <c r="AB52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>905</v>
       </c>
@@ -18602,8 +19133,11 @@
       <c r="AB53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>906</v>
       </c>
@@ -18688,8 +19222,11 @@
       <c r="AB54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>907</v>
       </c>
@@ -18774,8 +19311,11 @@
       <c r="AB55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>908</v>
       </c>
@@ -18860,8 +19400,11 @@
       <c r="AB56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>166</v>
       </c>
@@ -18946,8 +19489,11 @@
       <c r="AB57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>909</v>
       </c>
@@ -19032,8 +19578,11 @@
       <c r="AB58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>27</v>
       </c>
@@ -19118,8 +19667,11 @@
       <c r="AB59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>28</v>
       </c>
@@ -19204,8 +19756,11 @@
       <c r="AB60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>29</v>
       </c>
@@ -19290,8 +19845,11 @@
       <c r="AB61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>30</v>
       </c>
@@ -19376,8 +19934,11 @@
       <c r="AB62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>31</v>
       </c>
@@ -19462,10 +20023,13 @@
       <c r="AB63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -19548,8 +20112,11 @@
       <c r="AB64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>52</v>
       </c>
@@ -19634,8 +20201,11 @@
       <c r="AB65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>32</v>
       </c>
@@ -19720,8 +20290,11 @@
       <c r="AB66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>33</v>
       </c>
@@ -19806,8 +20379,11 @@
       <c r="AB67">
         <v>2</v>
       </c>
-    </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>34</v>
       </c>
@@ -19892,8 +20468,11 @@
       <c r="AB68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>35</v>
       </c>
@@ -19978,8 +20557,11 @@
       <c r="AB69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>36</v>
       </c>
@@ -20064,8 +20646,11 @@
       <c r="AB70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>37</v>
       </c>
@@ -20150,8 +20735,11 @@
       <c r="AB71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>332</v>
       </c>
@@ -20236,8 +20824,11 @@
       <c r="AB72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>53</v>
       </c>
@@ -20322,527 +20913,548 @@
       <c r="AB73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <v>0</v>
+      </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>0</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>0</v>
+      </c>
+      <c r="AB74">
+        <v>0</v>
+      </c>
+      <c r="AC74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>158</v>
       </c>
-      <c r="B74">
-        <v>0</v>
-      </c>
-      <c r="C74">
-        <v>0</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74">
-        <v>1</v>
-      </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <v>1</v>
-      </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-      <c r="K74">
-        <v>0</v>
-      </c>
-      <c r="L74">
-        <v>0</v>
-      </c>
-      <c r="M74">
-        <v>0</v>
-      </c>
-      <c r="N74">
-        <v>0</v>
-      </c>
-      <c r="O74">
-        <v>0</v>
-      </c>
-      <c r="P74">
-        <v>0</v>
-      </c>
-      <c r="Q74">
-        <v>0</v>
-      </c>
-      <c r="R74">
-        <v>0</v>
-      </c>
-      <c r="S74">
-        <v>0</v>
-      </c>
-      <c r="T74">
-        <v>0</v>
-      </c>
-      <c r="U74">
-        <v>0</v>
-      </c>
-      <c r="V74">
-        <v>1</v>
-      </c>
-      <c r="W74">
-        <v>0</v>
-      </c>
-      <c r="X74">
-        <v>0</v>
-      </c>
-      <c r="Y74">
-        <v>0</v>
-      </c>
-      <c r="Z74">
-        <v>0</v>
-      </c>
-      <c r="AA74">
-        <v>0</v>
-      </c>
-      <c r="AB74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>0</v>
+      </c>
+      <c r="V75">
+        <v>1</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>0</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>0</v>
+      </c>
+      <c r="AB75">
+        <v>0</v>
+      </c>
+      <c r="AC75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>38</v>
       </c>
-      <c r="B75">
-        <v>1</v>
-      </c>
-      <c r="C75">
-        <v>0</v>
-      </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
-      <c r="K75">
-        <v>0</v>
-      </c>
-      <c r="L75">
-        <v>0</v>
-      </c>
-      <c r="M75">
-        <v>0</v>
-      </c>
-      <c r="N75">
-        <v>0</v>
-      </c>
-      <c r="O75">
-        <v>0</v>
-      </c>
-      <c r="P75">
-        <v>0</v>
-      </c>
-      <c r="Q75">
-        <v>0</v>
-      </c>
-      <c r="R75">
-        <v>0</v>
-      </c>
-      <c r="S75">
-        <v>0</v>
-      </c>
-      <c r="T75">
-        <v>0</v>
-      </c>
-      <c r="U75">
-        <v>0</v>
-      </c>
-      <c r="V75">
-        <v>0</v>
-      </c>
-      <c r="W75">
-        <v>0</v>
-      </c>
-      <c r="X75">
-        <v>0</v>
-      </c>
-      <c r="Y75">
-        <v>0</v>
-      </c>
-      <c r="Z75">
-        <v>0</v>
-      </c>
-      <c r="AA75">
-        <v>0</v>
-      </c>
-      <c r="AB75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>0</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>0</v>
+      </c>
+      <c r="AB76">
+        <v>1</v>
+      </c>
+      <c r="AC76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>39</v>
       </c>
-      <c r="B76">
+      <c r="B77">
         <v>2</v>
       </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-      <c r="H76">
-        <v>0</v>
-      </c>
-      <c r="I76">
-        <v>1</v>
-      </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
-      <c r="K76">
-        <v>0</v>
-      </c>
-      <c r="L76">
-        <v>0</v>
-      </c>
-      <c r="M76">
-        <v>0</v>
-      </c>
-      <c r="N76">
-        <v>0</v>
-      </c>
-      <c r="O76">
-        <v>1</v>
-      </c>
-      <c r="P76">
-        <v>0</v>
-      </c>
-      <c r="Q76">
-        <v>0</v>
-      </c>
-      <c r="R76">
-        <v>0</v>
-      </c>
-      <c r="S76">
-        <v>0</v>
-      </c>
-      <c r="T76">
-        <v>0</v>
-      </c>
-      <c r="U76">
-        <v>0</v>
-      </c>
-      <c r="V76">
-        <v>0</v>
-      </c>
-      <c r="W76">
-        <v>0</v>
-      </c>
-      <c r="X76">
-        <v>0</v>
-      </c>
-      <c r="Y76">
-        <v>0</v>
-      </c>
-      <c r="Z76">
-        <v>0</v>
-      </c>
-      <c r="AA76">
-        <v>0</v>
-      </c>
-      <c r="AB76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>1</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>0</v>
+      </c>
+      <c r="U77">
+        <v>0</v>
+      </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>0</v>
+      </c>
+      <c r="Y77">
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>0</v>
+      </c>
+      <c r="AB77">
+        <v>0</v>
+      </c>
+      <c r="AC77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>159</v>
       </c>
-      <c r="B77">
-        <v>0</v>
-      </c>
-      <c r="C77">
-        <v>0</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77">
-        <v>1</v>
-      </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-      <c r="G77">
-        <v>0</v>
-      </c>
-      <c r="H77">
-        <v>0</v>
-      </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
-      <c r="J77">
-        <v>0</v>
-      </c>
-      <c r="K77">
-        <v>0</v>
-      </c>
-      <c r="L77">
-        <v>0</v>
-      </c>
-      <c r="M77">
-        <v>0</v>
-      </c>
-      <c r="N77">
-        <v>0</v>
-      </c>
-      <c r="O77">
-        <v>0</v>
-      </c>
-      <c r="P77">
-        <v>0</v>
-      </c>
-      <c r="Q77">
-        <v>0</v>
-      </c>
-      <c r="R77">
-        <v>0</v>
-      </c>
-      <c r="S77">
-        <v>0</v>
-      </c>
-      <c r="T77">
-        <v>0</v>
-      </c>
-      <c r="U77">
-        <v>0</v>
-      </c>
-      <c r="V77">
-        <v>0</v>
-      </c>
-      <c r="W77">
-        <v>0</v>
-      </c>
-      <c r="X77">
-        <v>0</v>
-      </c>
-      <c r="Y77">
-        <v>0</v>
-      </c>
-      <c r="Z77">
-        <v>0</v>
-      </c>
-      <c r="AA77">
-        <v>0</v>
-      </c>
-      <c r="AB77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <v>0</v>
+      </c>
+      <c r="V78">
+        <v>0</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>0</v>
+      </c>
+      <c r="Y78">
+        <v>0</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>0</v>
+      </c>
+      <c r="AB78">
+        <v>0</v>
+      </c>
+      <c r="AC78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>40</v>
       </c>
-      <c r="B78">
-        <v>1</v>
-      </c>
-      <c r="C78">
-        <v>0</v>
-      </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78">
-        <v>0</v>
-      </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
-      <c r="H78">
-        <v>1</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-      <c r="J78">
-        <v>0</v>
-      </c>
-      <c r="K78">
-        <v>0</v>
-      </c>
-      <c r="L78">
-        <v>0</v>
-      </c>
-      <c r="M78">
-        <v>0</v>
-      </c>
-      <c r="N78">
-        <v>0</v>
-      </c>
-      <c r="O78">
-        <v>0</v>
-      </c>
-      <c r="P78">
-        <v>0</v>
-      </c>
-      <c r="Q78">
-        <v>0</v>
-      </c>
-      <c r="R78">
-        <v>0</v>
-      </c>
-      <c r="S78">
-        <v>0</v>
-      </c>
-      <c r="T78">
-        <v>0</v>
-      </c>
-      <c r="U78">
-        <v>0</v>
-      </c>
-      <c r="V78">
-        <v>0</v>
-      </c>
-      <c r="W78">
-        <v>0</v>
-      </c>
-      <c r="X78">
-        <v>0</v>
-      </c>
-      <c r="Y78">
-        <v>0</v>
-      </c>
-      <c r="Z78">
-        <v>0</v>
-      </c>
-      <c r="AA78">
-        <v>0</v>
-      </c>
-      <c r="AB78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>0</v>
+      </c>
+      <c r="U79">
+        <v>0</v>
+      </c>
+      <c r="V79">
+        <v>0</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>0</v>
+      </c>
+      <c r="Y79">
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>0</v>
+      </c>
+      <c r="AB79">
+        <v>0</v>
+      </c>
+      <c r="AC79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>333</v>
       </c>
-      <c r="B79">
-        <v>0</v>
-      </c>
-      <c r="C79">
-        <v>0</v>
-      </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-      <c r="F79">
-        <v>0</v>
-      </c>
-      <c r="G79">
-        <v>0</v>
-      </c>
-      <c r="H79">
-        <v>0</v>
-      </c>
-      <c r="I79">
-        <v>0</v>
-      </c>
-      <c r="J79">
-        <v>0</v>
-      </c>
-      <c r="K79">
-        <v>1</v>
-      </c>
-      <c r="L79">
-        <v>0</v>
-      </c>
-      <c r="M79">
-        <v>0</v>
-      </c>
-      <c r="N79">
-        <v>0</v>
-      </c>
-      <c r="O79">
-        <v>1</v>
-      </c>
-      <c r="P79">
-        <v>0</v>
-      </c>
-      <c r="Q79">
-        <v>0</v>
-      </c>
-      <c r="R79">
-        <v>0</v>
-      </c>
-      <c r="S79">
-        <v>0</v>
-      </c>
-      <c r="T79">
-        <v>0</v>
-      </c>
-      <c r="U79">
-        <v>0</v>
-      </c>
-      <c r="V79">
-        <v>0</v>
-      </c>
-      <c r="W79">
-        <v>0</v>
-      </c>
-      <c r="X79">
-        <v>1</v>
-      </c>
-      <c r="Y79">
-        <v>0</v>
-      </c>
-      <c r="Z79">
-        <v>1</v>
-      </c>
-      <c r="AA79">
-        <v>0</v>
-      </c>
-      <c r="AB79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>984</v>
-      </c>
       <c r="B80">
         <v>0</v>
       </c>
@@ -20871,7 +21483,7 @@
         <v>0</v>
       </c>
       <c r="K80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L80">
         <v>0</v>
@@ -20883,7 +21495,7 @@
         <v>0</v>
       </c>
       <c r="O80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P80">
         <v>0</v>
@@ -20895,7 +21507,7 @@
         <v>0</v>
       </c>
       <c r="S80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T80">
         <v>0</v>
@@ -20904,19 +21516,19 @@
         <v>0</v>
       </c>
       <c r="V80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W80">
         <v>0</v>
       </c>
       <c r="X80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y80">
         <v>0</v>
       </c>
       <c r="Z80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA80">
         <v>0</v>
@@ -20924,521 +21536,631 @@
       <c r="AB80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>983</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <v>0</v>
+      </c>
+      <c r="S81">
+        <v>1</v>
+      </c>
+      <c r="T81">
+        <v>0</v>
+      </c>
+      <c r="U81">
+        <v>0</v>
+      </c>
+      <c r="V81">
+        <v>1</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>0</v>
+      </c>
+      <c r="Y81">
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>0</v>
+      </c>
+      <c r="AB81">
+        <v>0</v>
+      </c>
+      <c r="AC81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>160</v>
       </c>
-      <c r="B81">
-        <v>0</v>
-      </c>
-      <c r="C81">
-        <v>0</v>
-      </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
-      <c r="E81">
-        <v>1</v>
-      </c>
-      <c r="F81">
-        <v>0</v>
-      </c>
-      <c r="G81">
-        <v>0</v>
-      </c>
-      <c r="H81">
-        <v>0</v>
-      </c>
-      <c r="I81">
-        <v>0</v>
-      </c>
-      <c r="J81">
-        <v>0</v>
-      </c>
-      <c r="K81">
-        <v>0</v>
-      </c>
-      <c r="L81">
-        <v>0</v>
-      </c>
-      <c r="M81">
-        <v>0</v>
-      </c>
-      <c r="N81">
-        <v>0</v>
-      </c>
-      <c r="O81">
-        <v>0</v>
-      </c>
-      <c r="P81">
-        <v>0</v>
-      </c>
-      <c r="Q81">
-        <v>0</v>
-      </c>
-      <c r="R81">
-        <v>0</v>
-      </c>
-      <c r="S81">
-        <v>0</v>
-      </c>
-      <c r="T81">
-        <v>0</v>
-      </c>
-      <c r="U81">
-        <v>0</v>
-      </c>
-      <c r="V81">
-        <v>0</v>
-      </c>
-      <c r="W81">
-        <v>0</v>
-      </c>
-      <c r="X81">
-        <v>0</v>
-      </c>
-      <c r="Y81">
-        <v>0</v>
-      </c>
-      <c r="Z81">
-        <v>0</v>
-      </c>
-      <c r="AA81">
-        <v>0</v>
-      </c>
-      <c r="AB81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82">
+        <v>0</v>
+      </c>
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
+        <v>0</v>
+      </c>
+      <c r="U82">
+        <v>0</v>
+      </c>
+      <c r="V82">
+        <v>0</v>
+      </c>
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
+        <v>0</v>
+      </c>
+      <c r="Y82">
+        <v>0</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
+        <v>0</v>
+      </c>
+      <c r="AB82">
+        <v>0</v>
+      </c>
+      <c r="AC82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>171</v>
       </c>
-      <c r="B82">
-        <v>0</v>
-      </c>
-      <c r="C82">
-        <v>0</v>
-      </c>
-      <c r="D82">
-        <v>0</v>
-      </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-      <c r="F82">
-        <v>0</v>
-      </c>
-      <c r="G82">
-        <v>1</v>
-      </c>
-      <c r="H82">
-        <v>0</v>
-      </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
-      <c r="J82">
-        <v>0</v>
-      </c>
-      <c r="K82">
-        <v>0</v>
-      </c>
-      <c r="L82">
-        <v>0</v>
-      </c>
-      <c r="M82">
-        <v>0</v>
-      </c>
-      <c r="N82">
-        <v>0</v>
-      </c>
-      <c r="O82">
-        <v>0</v>
-      </c>
-      <c r="P82">
-        <v>0</v>
-      </c>
-      <c r="Q82">
-        <v>0</v>
-      </c>
-      <c r="R82">
-        <v>0</v>
-      </c>
-      <c r="S82">
-        <v>0</v>
-      </c>
-      <c r="T82">
-        <v>0</v>
-      </c>
-      <c r="U82">
-        <v>0</v>
-      </c>
-      <c r="V82">
-        <v>0</v>
-      </c>
-      <c r="W82">
-        <v>0</v>
-      </c>
-      <c r="X82">
-        <v>0</v>
-      </c>
-      <c r="Y82">
-        <v>1</v>
-      </c>
-      <c r="Z82">
-        <v>0</v>
-      </c>
-      <c r="AA82">
-        <v>0</v>
-      </c>
-      <c r="AB82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="R83">
+        <v>0</v>
+      </c>
+      <c r="S83">
+        <v>0</v>
+      </c>
+      <c r="T83">
+        <v>0</v>
+      </c>
+      <c r="U83">
+        <v>0</v>
+      </c>
+      <c r="V83">
+        <v>0</v>
+      </c>
+      <c r="W83">
+        <v>0</v>
+      </c>
+      <c r="X83">
+        <v>0</v>
+      </c>
+      <c r="Y83">
+        <v>1</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+      <c r="AA83">
+        <v>0</v>
+      </c>
+      <c r="AB83">
+        <v>1</v>
+      </c>
+      <c r="AC83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>41</v>
       </c>
-      <c r="B83">
-        <v>0</v>
-      </c>
-      <c r="C83">
-        <v>1</v>
-      </c>
-      <c r="D83">
-        <v>0</v>
-      </c>
-      <c r="E83">
-        <v>0</v>
-      </c>
-      <c r="F83">
-        <v>0</v>
-      </c>
-      <c r="G83">
-        <v>0</v>
-      </c>
-      <c r="H83">
-        <v>0</v>
-      </c>
-      <c r="I83">
-        <v>0</v>
-      </c>
-      <c r="J83">
-        <v>0</v>
-      </c>
-      <c r="K83">
-        <v>0</v>
-      </c>
-      <c r="L83">
-        <v>0</v>
-      </c>
-      <c r="M83">
-        <v>0</v>
-      </c>
-      <c r="N83">
-        <v>0</v>
-      </c>
-      <c r="O83">
-        <v>1</v>
-      </c>
-      <c r="P83">
-        <v>0</v>
-      </c>
-      <c r="Q83">
-        <v>0</v>
-      </c>
-      <c r="R83">
-        <v>0</v>
-      </c>
-      <c r="S83">
-        <v>0</v>
-      </c>
-      <c r="T83">
-        <v>0</v>
-      </c>
-      <c r="U83">
-        <v>0</v>
-      </c>
-      <c r="V83">
-        <v>0</v>
-      </c>
-      <c r="W83">
-        <v>0</v>
-      </c>
-      <c r="X83">
-        <v>0</v>
-      </c>
-      <c r="Y83">
-        <v>0</v>
-      </c>
-      <c r="Z83">
-        <v>0</v>
-      </c>
-      <c r="AA83">
-        <v>0</v>
-      </c>
-      <c r="AB83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <v>1</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+      <c r="R84">
+        <v>0</v>
+      </c>
+      <c r="S84">
+        <v>0</v>
+      </c>
+      <c r="T84">
+        <v>0</v>
+      </c>
+      <c r="U84">
+        <v>0</v>
+      </c>
+      <c r="V84">
+        <v>0</v>
+      </c>
+      <c r="W84">
+        <v>0</v>
+      </c>
+      <c r="X84">
+        <v>0</v>
+      </c>
+      <c r="Y84">
+        <v>0</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+      <c r="AA84">
+        <v>0</v>
+      </c>
+      <c r="AB84">
+        <v>0</v>
+      </c>
+      <c r="AC84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>161</v>
       </c>
-      <c r="B84">
-        <v>0</v>
-      </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-      <c r="E84">
-        <v>1</v>
-      </c>
-      <c r="F84">
-        <v>0</v>
-      </c>
-      <c r="G84">
-        <v>0</v>
-      </c>
-      <c r="H84">
-        <v>0</v>
-      </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
-      <c r="J84">
-        <v>0</v>
-      </c>
-      <c r="K84">
-        <v>0</v>
-      </c>
-      <c r="L84">
-        <v>0</v>
-      </c>
-      <c r="M84">
-        <v>0</v>
-      </c>
-      <c r="N84">
-        <v>0</v>
-      </c>
-      <c r="O84">
-        <v>0</v>
-      </c>
-      <c r="P84">
-        <v>0</v>
-      </c>
-      <c r="Q84">
-        <v>0</v>
-      </c>
-      <c r="R84">
-        <v>0</v>
-      </c>
-      <c r="S84">
-        <v>0</v>
-      </c>
-      <c r="T84">
-        <v>0</v>
-      </c>
-      <c r="U84">
-        <v>0</v>
-      </c>
-      <c r="V84">
-        <v>0</v>
-      </c>
-      <c r="W84">
-        <v>0</v>
-      </c>
-      <c r="X84">
-        <v>0</v>
-      </c>
-      <c r="Y84">
-        <v>0</v>
-      </c>
-      <c r="Z84">
-        <v>0</v>
-      </c>
-      <c r="AA84">
-        <v>0</v>
-      </c>
-      <c r="AB84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="R85">
+        <v>0</v>
+      </c>
+      <c r="S85">
+        <v>0</v>
+      </c>
+      <c r="T85">
+        <v>0</v>
+      </c>
+      <c r="U85">
+        <v>0</v>
+      </c>
+      <c r="V85">
+        <v>0</v>
+      </c>
+      <c r="W85">
+        <v>0</v>
+      </c>
+      <c r="X85">
+        <v>0</v>
+      </c>
+      <c r="Y85">
+        <v>0</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+      <c r="AA85">
+        <v>0</v>
+      </c>
+      <c r="AB85">
+        <v>0</v>
+      </c>
+      <c r="AC85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>235</v>
       </c>
-      <c r="B85">
-        <v>0</v>
-      </c>
-      <c r="C85">
-        <v>0</v>
-      </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-      <c r="F85">
-        <v>0</v>
-      </c>
-      <c r="G85">
-        <v>0</v>
-      </c>
-      <c r="H85">
-        <v>1</v>
-      </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
-      <c r="J85">
-        <v>0</v>
-      </c>
-      <c r="K85">
-        <v>0</v>
-      </c>
-      <c r="L85">
-        <v>0</v>
-      </c>
-      <c r="M85">
-        <v>0</v>
-      </c>
-      <c r="N85">
-        <v>0</v>
-      </c>
-      <c r="O85">
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86">
         <v>2</v>
       </c>
-      <c r="P85">
-        <v>0</v>
-      </c>
-      <c r="Q85">
-        <v>0</v>
-      </c>
-      <c r="R85">
-        <v>0</v>
-      </c>
-      <c r="S85">
-        <v>0</v>
-      </c>
-      <c r="T85">
-        <v>0</v>
-      </c>
-      <c r="U85">
-        <v>0</v>
-      </c>
-      <c r="V85">
-        <v>0</v>
-      </c>
-      <c r="W85">
-        <v>0</v>
-      </c>
-      <c r="X85">
-        <v>0</v>
-      </c>
-      <c r="Y85">
-        <v>0</v>
-      </c>
-      <c r="Z85">
-        <v>1</v>
-      </c>
-      <c r="AA85">
-        <v>1</v>
-      </c>
-      <c r="AB85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="P86">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="R86">
+        <v>0</v>
+      </c>
+      <c r="S86">
+        <v>0</v>
+      </c>
+      <c r="T86">
+        <v>0</v>
+      </c>
+      <c r="U86">
+        <v>0</v>
+      </c>
+      <c r="V86">
+        <v>0</v>
+      </c>
+      <c r="W86">
+        <v>0</v>
+      </c>
+      <c r="X86">
+        <v>0</v>
+      </c>
+      <c r="Y86">
+        <v>0</v>
+      </c>
+      <c r="Z86">
+        <v>1</v>
+      </c>
+      <c r="AA86">
+        <v>1</v>
+      </c>
+      <c r="AB86">
+        <v>0</v>
+      </c>
+      <c r="AC86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>42</v>
       </c>
-      <c r="B86">
+      <c r="B87">
         <v>4</v>
       </c>
-      <c r="C86">
+      <c r="C87">
         <v>2</v>
       </c>
-      <c r="D86">
+      <c r="D87">
         <v>3</v>
       </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-      <c r="F86">
-        <v>1</v>
-      </c>
-      <c r="G86">
-        <v>0</v>
-      </c>
-      <c r="H86">
-        <v>0</v>
-      </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
-      <c r="J86">
-        <v>1</v>
-      </c>
-      <c r="K86">
-        <v>1</v>
-      </c>
-      <c r="L86">
-        <v>0</v>
-      </c>
-      <c r="M86">
-        <v>0</v>
-      </c>
-      <c r="N86">
-        <v>0</v>
-      </c>
-      <c r="O86">
-        <v>0</v>
-      </c>
-      <c r="P86">
-        <v>0</v>
-      </c>
-      <c r="Q86">
-        <v>0</v>
-      </c>
-      <c r="R86">
-        <v>0</v>
-      </c>
-      <c r="S86">
-        <v>0</v>
-      </c>
-      <c r="T86">
-        <v>0</v>
-      </c>
-      <c r="U86">
-        <v>0</v>
-      </c>
-      <c r="V86">
-        <v>0</v>
-      </c>
-      <c r="W86">
-        <v>0</v>
-      </c>
-      <c r="X86">
-        <v>0</v>
-      </c>
-      <c r="Y86">
-        <v>0</v>
-      </c>
-      <c r="Z86">
-        <v>0</v>
-      </c>
-      <c r="AA86">
-        <v>0</v>
-      </c>
-      <c r="AB86">
-        <v>1</v>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="R87">
+        <v>0</v>
+      </c>
+      <c r="S87">
+        <v>0</v>
+      </c>
+      <c r="T87">
+        <v>0</v>
+      </c>
+      <c r="U87">
+        <v>0</v>
+      </c>
+      <c r="V87">
+        <v>0</v>
+      </c>
+      <c r="W87">
+        <v>0</v>
+      </c>
+      <c r="X87">
+        <v>0</v>
+      </c>
+      <c r="Y87">
+        <v>0</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+      <c r="AA87">
+        <v>0</v>
+      </c>
+      <c r="AB87">
+        <v>1</v>
+      </c>
+      <c r="AC87">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -21450,9 +22172,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E223"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -21465,7 +22185,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -21476,10 +22196,10 @@
         <v>486</v>
       </c>
       <c r="C2" s="14" t="s">
+        <v>928</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>929</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -24586,9 +25306,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E137"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -24597,8 +25315,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>910</v>
+      <c r="A1" s="14" t="s">
+        <v>1051</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -24606,16 +25324,16 @@
         <v>837</v>
       </c>
       <c r="B2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>486</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -26922,7 +27640,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A103" sqref="A103"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -26932,13 +27652,13 @@
   <sheetData>
     <row r="1" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -27647,7 +28367,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B91">
         <v>2</v>
@@ -27655,7 +28375,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B92">
         <v>4</v>
@@ -27663,7 +28383,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B93">
         <v>3</v>
@@ -27671,7 +28391,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B94">
         <v>3</v>
@@ -27679,7 +28399,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B95">
         <v>4</v>
@@ -27687,7 +28407,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B96">
         <v>4</v>
@@ -27695,7 +28415,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B97">
         <v>6</v>
@@ -27703,7 +28423,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B98">
         <v>4</v>
@@ -27711,7 +28431,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B99">
         <v>5</v>
@@ -27719,7 +28439,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B100">
         <v>3</v>
@@ -27727,7 +28447,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B101">
         <v>3</v>
@@ -27735,7 +28455,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B102">
         <v>1</v>

--- a/data/original/spain/euskadi/situacion-epidemiologica.xlsx
+++ b/data/original/spain/euskadi/situacion-epidemiologica.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iargueso\Desktop\covid19\Ekaina\15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iargueso\Desktop\covid19\Ekaina\16\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19425" windowHeight="9195"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="01" sheetId="17" r:id="rId1"/>
@@ -21,12 +21,12 @@
     <sheet name="07" sheetId="19" r:id="rId7"/>
     <sheet name="08" sheetId="20" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1642" uniqueCount="1298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="1319">
   <si>
     <t>UDALERRIA / MUNICIPIO</t>
   </si>
@@ -3920,6 +3920,69 @@
   </si>
   <si>
     <t>Hondarribia</t>
+  </si>
+  <si>
+    <t>ZIUN ospitaleratze berriak azken 14 egunetan / Nuevos ingresos en UCI en los últimos 14 días</t>
+  </si>
+  <si>
+    <t>2020/6/16</t>
+  </si>
+  <si>
+    <t>251113</t>
+  </si>
+  <si>
+    <t>125997</t>
+  </si>
+  <si>
+    <t>216961</t>
+  </si>
+  <si>
+    <t>183085</t>
+  </si>
+  <si>
+    <t>83676</t>
+  </si>
+  <si>
+    <t>13622</t>
+  </si>
+  <si>
+    <t>6867</t>
+  </si>
+  <si>
+    <t>20489</t>
+  </si>
+  <si>
+    <t>3320</t>
+  </si>
+  <si>
+    <t>7865</t>
+  </si>
+  <si>
+    <t>2280</t>
+  </si>
+  <si>
+    <t>1601</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>13447</t>
+  </si>
+  <si>
+    <t>4246</t>
+  </si>
+  <si>
+    <t>16-jun.</t>
+  </si>
+  <si>
+    <t>16/06</t>
+  </si>
+  <si>
+    <t>Parte Vieja</t>
+  </si>
+  <si>
+    <t>0,96</t>
   </si>
 </sst>
 </file>
@@ -4030,7 +4093,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office gaia">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4292,10 +4355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U115"/>
+  <dimension ref="A1:V116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="U117" sqref="U117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4322,12 +4385,12 @@
     <col min="20" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>133</v>
       </c>
@@ -4391,8 +4454,11 @@
       <c r="U2" s="4" t="s">
         <v>1122</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V2" s="4" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>438</v>
       </c>
@@ -4416,7 +4482,7 @@
       </c>
       <c r="R3" s="11"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>437</v>
       </c>
@@ -4440,7 +4506,7 @@
       </c>
       <c r="R4" s="11"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>436</v>
       </c>
@@ -4464,7 +4530,7 @@
       </c>
       <c r="R5" s="11"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>435</v>
       </c>
@@ -4488,7 +4554,7 @@
       </c>
       <c r="R6" s="11"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>434</v>
       </c>
@@ -4512,7 +4578,7 @@
       </c>
       <c r="R7" s="11"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>433</v>
       </c>
@@ -4536,7 +4602,7 @@
       </c>
       <c r="R8" s="11"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>432</v>
       </c>
@@ -4560,7 +4626,7 @@
       </c>
       <c r="R9" s="11"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>431</v>
       </c>
@@ -4584,7 +4650,7 @@
       </c>
       <c r="R10" s="11"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>430</v>
       </c>
@@ -4608,7 +4674,7 @@
       </c>
       <c r="R11" s="11"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>429</v>
       </c>
@@ -4632,7 +4698,7 @@
       </c>
       <c r="R12" s="11"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>428</v>
       </c>
@@ -4656,7 +4722,7 @@
       </c>
       <c r="R13" s="11"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>427</v>
       </c>
@@ -4680,7 +4746,7 @@
       </c>
       <c r="R14" s="11"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>426</v>
       </c>
@@ -4704,7 +4770,7 @@
       </c>
       <c r="R15" s="11"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>422</v>
       </c>
@@ -8642,6 +8708,65 @@
         <v>1294</v>
       </c>
     </row>
+    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A116" s="6" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>1302</v>
+      </c>
+      <c r="E116" s="6" t="s">
+        <v>1303</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>1304</v>
+      </c>
+      <c r="G116" s="6" t="s">
+        <v>1305</v>
+      </c>
+      <c r="H116" s="6" t="s">
+        <v>1306</v>
+      </c>
+      <c r="I116" s="6" t="s">
+        <v>1307</v>
+      </c>
+      <c r="J116" s="6" t="s">
+        <v>1308</v>
+      </c>
+      <c r="K116" s="6" t="s">
+        <v>1309</v>
+      </c>
+      <c r="L116" s="6" t="s">
+        <v>1310</v>
+      </c>
+      <c r="M116" s="6" t="s">
+        <v>1175</v>
+      </c>
+      <c r="P116" s="6" t="s">
+        <v>1311</v>
+      </c>
+      <c r="Q116" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="R116" s="6" t="s">
+        <v>1312</v>
+      </c>
+      <c r="S116" s="6" t="s">
+        <v>1318</v>
+      </c>
+      <c r="T116" s="4" t="s">
+        <v>1313</v>
+      </c>
+      <c r="U116" s="4" t="s">
+        <v>1314</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8650,10 +8775,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F109"/>
+  <dimension ref="A1:F110"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="G113" sqref="G113"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="G109" sqref="G109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10830,6 +10955,26 @@
         <v>2.2309072681564479</v>
       </c>
     </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B110">
+        <v>9</v>
+      </c>
+      <c r="C110" s="10">
+        <v>6.63</v>
+      </c>
+      <c r="D110" s="10">
+        <v>9.7570792183359902</v>
+      </c>
+      <c r="E110" s="10">
+        <v>7.7875282297898334</v>
+      </c>
+      <c r="F110" s="10">
+        <v>2.370338972416226</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10840,21 +10985,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" customWidth="1"/>
     <col min="5" max="7" width="18" customWidth="1"/>
     <col min="8" max="8" width="20.5703125" customWidth="1"/>
     <col min="9" max="10" width="18.140625" customWidth="1"/>
     <col min="11" max="11" width="20.85546875" customWidth="1"/>
-    <col min="12" max="12" width="23.5703125" customWidth="1"/>
+    <col min="12" max="12" width="23.7109375" customWidth="1"/>
     <col min="13" max="14" width="20.85546875" customWidth="1"/>
     <col min="15" max="15" width="24.42578125" customWidth="1"/>
     <col min="16" max="16" width="23.5703125" customWidth="1"/>
@@ -10919,13 +11062,13 @@
         <v>43</v>
       </c>
       <c r="B2" s="6">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C2" s="6">
         <v>37</v>
       </c>
       <c r="D2" s="6">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" s="6">
         <v>195423</v>
@@ -10937,16 +11080,16 @@
         <v>100065</v>
       </c>
       <c r="H2" s="21">
-        <v>38.889997594960676</v>
+        <v>39.401708089631214</v>
       </c>
       <c r="I2" s="21">
         <v>38.801149352964615</v>
       </c>
       <c r="J2" s="21">
-        <v>38.974666466796585</v>
+        <v>39.974016889022138</v>
       </c>
       <c r="K2" s="3">
-        <v>3.7167449139280124E-3</v>
+        <v>3.7581141100102495E-3</v>
       </c>
       <c r="L2" s="6">
         <v>0</v>
@@ -10972,10 +11115,10 @@
         <v>51</v>
       </c>
       <c r="B3" s="6">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C3" s="6">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D3" s="6">
         <v>101</v>
@@ -10990,16 +11133,16 @@
         <v>106463</v>
       </c>
       <c r="H3" s="21">
-        <v>104.19544157058878</v>
+        <v>105.16470149217565</v>
       </c>
       <c r="I3" s="21">
-        <v>114.13696435722868</v>
+        <v>116.13936724068883</v>
       </c>
       <c r="J3" s="21">
         <v>94.868639809135573</v>
       </c>
       <c r="K3" s="3">
-        <v>1.0514475743348984E-2</v>
+        <v>1.0591048855483429E-2</v>
       </c>
       <c r="L3" s="6">
         <v>0</v>
@@ -11025,13 +11168,13 @@
         <v>44</v>
       </c>
       <c r="B4" s="6">
-        <v>1306</v>
+        <v>1311</v>
       </c>
       <c r="C4" s="6">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="D4" s="6">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="E4" s="6">
         <v>194050</v>
@@ -11043,16 +11186,16 @@
         <v>98515</v>
       </c>
       <c r="H4" s="21">
-        <v>673.02241690286007</v>
+        <v>675.59907240401958</v>
       </c>
       <c r="I4" s="21">
-        <v>942.06311822892133</v>
+        <v>944.15659182498564</v>
       </c>
       <c r="J4" s="21">
-        <v>408.05968634218141</v>
+        <v>411.10490788204839</v>
       </c>
       <c r="K4" s="3">
-        <v>6.3869327073552432E-2</v>
+        <v>6.3985553223681005E-2</v>
       </c>
       <c r="L4" s="6">
         <v>2</v>
@@ -11064,13 +11207,13 @@
         <v>1</v>
       </c>
       <c r="O4" s="3">
-        <v>1.5313935681470138E-3</v>
+        <v>1.5255530129672007E-3</v>
       </c>
       <c r="P4" s="3">
-        <v>1.1111111111111111E-3</v>
+        <v>1.1086474501108647E-3</v>
       </c>
       <c r="Q4" s="3">
-        <v>2.4875621890547263E-3</v>
+        <v>2.4691358024691358E-3</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -11078,13 +11221,13 @@
         <v>45</v>
       </c>
       <c r="B5" s="6">
-        <v>2138</v>
+        <v>2143</v>
       </c>
       <c r="C5" s="6">
-        <v>1400</v>
+        <v>1404</v>
       </c>
       <c r="D5" s="6">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="E5" s="6">
         <v>266369</v>
@@ -11096,16 +11239,16 @@
         <v>133638</v>
       </c>
       <c r="H5" s="21">
-        <v>802.64595354564528</v>
+        <v>804.52304885328249</v>
       </c>
       <c r="I5" s="21">
-        <v>1054.7649004377274</v>
+        <v>1057.7785144389782</v>
       </c>
       <c r="J5" s="21">
-        <v>548.49668507460456</v>
+        <v>549.24497523159584</v>
       </c>
       <c r="K5" s="3">
-        <v>0.10455790297339593</v>
+        <v>0.10459270828249305</v>
       </c>
       <c r="L5" s="6">
         <v>5</v>
@@ -11117,13 +11260,13 @@
         <v>3</v>
       </c>
       <c r="O5" s="3">
-        <v>2.3386342376052385E-3</v>
+        <v>2.3331777881474567E-3</v>
       </c>
       <c r="P5" s="3">
-        <v>1.4285714285714286E-3</v>
+        <v>1.4245014245014246E-3</v>
       </c>
       <c r="Q5" s="3">
-        <v>4.0927694406548429E-3</v>
+        <v>4.0871934604904629E-3</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -11131,10 +11274,10 @@
         <v>46</v>
       </c>
       <c r="B6" s="6">
-        <v>3344</v>
+        <v>3346</v>
       </c>
       <c r="C6" s="6">
-        <v>2143</v>
+        <v>2145</v>
       </c>
       <c r="D6" s="6">
         <v>1199</v>
@@ -11149,16 +11292,16 @@
         <v>181632</v>
       </c>
       <c r="H6" s="21">
-        <v>932.03450534442629</v>
+        <v>932.5919422495366</v>
       </c>
       <c r="I6" s="21">
-        <v>1209.6888000767699</v>
+        <v>1210.8177676923337</v>
       </c>
       <c r="J6" s="21">
         <v>660.12596899224809</v>
       </c>
       <c r="K6" s="3">
-        <v>0.16353677621283255</v>
+        <v>0.16330714041680902</v>
       </c>
       <c r="L6" s="6">
         <v>12</v>
@@ -11170,10 +11313,10 @@
         <v>9</v>
       </c>
       <c r="O6" s="3">
-        <v>3.5885167464114833E-3</v>
+        <v>3.5863717872086074E-3</v>
       </c>
       <c r="P6" s="3">
-        <v>1.3999066728884741E-3</v>
+        <v>1.3986013986013986E-3</v>
       </c>
       <c r="Q6" s="3">
         <v>7.5062552126772307E-3</v>
@@ -11184,13 +11327,13 @@
         <v>47</v>
       </c>
       <c r="B7" s="6">
-        <v>4122</v>
+        <v>4132</v>
       </c>
       <c r="C7" s="6">
-        <v>2534</v>
+        <v>2541</v>
       </c>
       <c r="D7" s="6">
-        <v>1584</v>
+        <v>1587</v>
       </c>
       <c r="E7" s="6">
         <v>335098</v>
@@ -11202,16 +11345,16 @@
         <v>164820</v>
       </c>
       <c r="H7" s="21">
-        <v>1230.0879145802123</v>
+        <v>1233.0721162167486</v>
       </c>
       <c r="I7" s="21">
-        <v>1488.1546647247442</v>
+        <v>1492.2655892129342</v>
       </c>
       <c r="J7" s="21">
-        <v>961.04841645431384</v>
+        <v>962.86858390971975</v>
       </c>
       <c r="K7" s="3">
-        <v>0.20158450704225353</v>
+        <v>0.20166918834496558</v>
       </c>
       <c r="L7" s="6">
         <v>27</v>
@@ -11223,13 +11366,13 @@
         <v>12</v>
       </c>
       <c r="O7" s="3">
-        <v>6.5502183406113534E-3</v>
+        <v>6.5343659244917716E-3</v>
       </c>
       <c r="P7" s="3">
-        <v>5.9194948697711127E-3</v>
+        <v>5.9031877213695395E-3</v>
       </c>
       <c r="Q7" s="3">
-        <v>7.575757575757576E-3</v>
+        <v>7.5614366729678641E-3</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -11237,13 +11380,13 @@
         <v>135</v>
       </c>
       <c r="B8" s="6">
-        <v>2745</v>
+        <v>2753</v>
       </c>
       <c r="C8" s="6">
-        <v>1411</v>
+        <v>1415</v>
       </c>
       <c r="D8" s="6">
-        <v>1325</v>
+        <v>1329</v>
       </c>
       <c r="E8" s="6">
         <v>272250</v>
@@ -11255,16 +11398,16 @@
         <v>129903</v>
       </c>
       <c r="H8" s="21">
-        <v>1008.2644628099174</v>
+        <v>1011.2029384756657</v>
       </c>
       <c r="I8" s="21">
-        <v>991.23971702951235</v>
+        <v>994.04975166318923</v>
       </c>
       <c r="J8" s="21">
-        <v>1019.9918400652795</v>
+        <v>1023.0710607145331</v>
       </c>
       <c r="K8" s="3">
-        <v>0.13424295774647887</v>
+        <v>0.13436478110205477</v>
       </c>
       <c r="L8" s="6">
         <v>111</v>
@@ -11276,13 +11419,13 @@
         <v>86</v>
       </c>
       <c r="O8" s="3">
-        <v>4.0437158469945354E-2</v>
+        <v>4.0319651289502358E-2</v>
       </c>
       <c r="P8" s="3">
-        <v>1.771793054571226E-2</v>
+        <v>1.7667844522968199E-2</v>
       </c>
       <c r="Q8" s="3">
-        <v>6.4905660377358496E-2</v>
+        <v>6.4710308502633554E-2</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -11290,13 +11433,13 @@
         <v>48</v>
       </c>
       <c r="B9" s="6">
-        <v>2244</v>
+        <v>2248</v>
       </c>
       <c r="C9" s="6">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="D9" s="6">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="E9" s="6">
         <v>202172</v>
@@ -11308,16 +11451,16 @@
         <v>91022</v>
       </c>
       <c r="H9" s="21">
-        <v>1109.9459865856795</v>
+        <v>1111.9244999307521</v>
       </c>
       <c r="I9" s="21">
-        <v>935.67251461988303</v>
+        <v>937.47188484030585</v>
       </c>
       <c r="J9" s="21">
-        <v>1322.7571356375381</v>
+        <v>1324.9544066269693</v>
       </c>
       <c r="K9" s="3">
-        <v>0.10974178403755869</v>
+        <v>0.10971740934159793</v>
       </c>
       <c r="L9" s="6">
         <v>306</v>
@@ -11329,13 +11472,13 @@
         <v>212</v>
       </c>
       <c r="O9" s="3">
-        <v>0.13636363636363635</v>
+        <v>0.13612099644128114</v>
       </c>
       <c r="P9" s="3">
-        <v>9.0384615384615383E-2</v>
+        <v>9.0211132437619967E-2</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.17607973421926909</v>
+        <v>0.175787728026534</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -11343,13 +11486,13 @@
         <v>49</v>
       </c>
       <c r="B10" s="6">
-        <v>2659</v>
+        <v>2663</v>
       </c>
       <c r="C10" s="6">
-        <v>1659</v>
+        <v>1662</v>
       </c>
       <c r="D10" s="6">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="E10" s="6">
         <v>127540</v>
@@ -11361,34 +11504,34 @@
         <v>47942</v>
       </c>
       <c r="H10" s="21">
-        <v>2084.8361298416185</v>
+        <v>2087.9724008154303</v>
       </c>
       <c r="I10" s="21">
-        <v>2084.223221688987</v>
+        <v>2087.9921606070502</v>
       </c>
       <c r="J10" s="21">
-        <v>2083.7678861958198</v>
+        <v>2085.8537399357556</v>
       </c>
       <c r="K10" s="3">
-        <v>0.13003716744913929</v>
+        <v>0.12997218019425058</v>
       </c>
       <c r="L10" s="6">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="M10" s="6">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="N10" s="6">
         <v>323</v>
       </c>
       <c r="O10" s="3">
-        <v>0.24294847687100413</v>
+        <v>0.24333458505444988</v>
       </c>
       <c r="P10" s="3">
-        <v>0.19469559975889089</v>
+        <v>0.19554753309265946</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.32332332332332331</v>
+        <v>0.32300000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -11423,22 +11566,22 @@
         <v>4356.9830196130051</v>
       </c>
       <c r="K11" s="3">
-        <v>7.4188184663536771E-2</v>
+        <v>7.4039728634877247E-2</v>
       </c>
       <c r="L11" s="6">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="M11" s="6">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="N11" s="6">
         <v>141</v>
       </c>
       <c r="O11" s="3">
-        <v>0.31245880026367834</v>
+        <v>0.31443638760711934</v>
       </c>
       <c r="P11" s="3">
-        <v>0.28077571669477236</v>
+        <v>0.28330522765598654</v>
       </c>
       <c r="Q11" s="3">
         <v>0.42598187311178248</v>
@@ -11461,7 +11604,7 @@
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="3">
-        <v>4.0101721439749606E-3</v>
+        <v>4.0021474937771487E-3</v>
       </c>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
@@ -11472,13 +11615,13 @@
         <v>50</v>
       </c>
       <c r="B13">
-        <v>20448</v>
+        <v>20489</v>
       </c>
       <c r="C13">
-        <v>12477</v>
+        <v>12503</v>
       </c>
       <c r="D13">
-        <v>7946</v>
+        <v>7961</v>
       </c>
       <c r="E13">
         <v>2188017</v>
@@ -11490,34 +11633,34 @@
         <v>1061597</v>
       </c>
       <c r="H13" s="18">
-        <v>934.5448412877962</v>
+        <v>936.41868413271015</v>
       </c>
       <c r="I13" s="18">
-        <v>1107.6685428170665</v>
+        <v>1109.9767404698071</v>
       </c>
       <c r="J13" s="18">
-        <v>748.49495618393803</v>
+        <v>749.90792174431544</v>
       </c>
       <c r="K13" s="3">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>1596</v>
+        <v>1601</v>
       </c>
       <c r="M13">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="N13">
         <v>791</v>
       </c>
       <c r="O13" s="3">
-        <v>7.8051643192488265E-2</v>
+        <v>7.8139489482161165E-2</v>
       </c>
       <c r="P13" s="3">
-        <v>6.4518714434559588E-2</v>
+        <v>6.4784451731584425E-2</v>
       </c>
       <c r="Q13" s="3">
-        <v>9.9546941857538387E-2</v>
+        <v>9.9359376962693133E-2</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -11712,10 +11855,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI67"/>
+  <dimension ref="A1:AJ67"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A67" sqref="A67:XFD67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11724,12 +11867,12 @@
     <col min="2" max="8" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -11835,8 +11978,11 @@
       <c r="AI2" t="s">
         <v>1296</v>
       </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ2" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -11942,8 +12088,11 @@
       <c r="AI3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>498</v>
       </c>
@@ -12049,8 +12198,11 @@
       <c r="AI4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>329</v>
       </c>
@@ -12156,8 +12308,11 @@
       <c r="AI5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>150</v>
       </c>
@@ -12263,8 +12418,11 @@
       <c r="AI6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>311</v>
       </c>
@@ -12370,8 +12528,11 @@
       <c r="AI7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -12477,8 +12638,11 @@
       <c r="AI8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -12584,8 +12748,11 @@
       <c r="AI9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -12691,8 +12858,11 @@
       <c r="AI10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>643</v>
       </c>
@@ -12798,8 +12968,11 @@
       <c r="AI11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>230</v>
       </c>
@@ -12905,8 +13078,11 @@
       <c r="AI12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>494</v>
       </c>
@@ -13012,8 +13188,11 @@
       <c r="AI13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>291</v>
       </c>
@@ -13119,8 +13298,11 @@
       <c r="AI14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -13226,8 +13408,11 @@
       <c r="AI15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>166</v>
       </c>
@@ -13333,8 +13518,11 @@
       <c r="AI16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>292</v>
       </c>
@@ -13440,8 +13628,11 @@
       <c r="AI17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -13547,8 +13738,11 @@
       <c r="AI18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -13654,8 +13848,11 @@
       <c r="AI19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -13761,8 +13958,11 @@
       <c r="AI20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>530</v>
       </c>
@@ -13868,8 +14068,11 @@
       <c r="AI21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -13975,8 +14178,11 @@
       <c r="AI22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>536</v>
       </c>
@@ -14082,8 +14288,11 @@
       <c r="AI23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -14189,8 +14398,11 @@
       <c r="AI24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>167</v>
       </c>
@@ -14296,8 +14508,11 @@
       <c r="AI25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>168</v>
       </c>
@@ -14403,8 +14618,11 @@
       <c r="AI26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>550</v>
       </c>
@@ -14510,8 +14728,11 @@
       <c r="AI27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -14617,8 +14838,11 @@
       <c r="AI28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -14724,8 +14948,11 @@
       <c r="AI29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -14831,8 +15058,11 @@
       <c r="AI30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>54</v>
       </c>
@@ -14938,8 +15168,11 @@
       <c r="AI31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>566</v>
       </c>
@@ -15045,8 +15278,11 @@
       <c r="AI32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -15152,8 +15388,11 @@
       <c r="AI33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -15259,8 +15498,11 @@
       <c r="AI34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>162</v>
       </c>
@@ -15366,8 +15608,11 @@
       <c r="AI35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>596</v>
       </c>
@@ -15473,8 +15718,11 @@
       <c r="AI36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -15580,8 +15828,11 @@
       <c r="AI37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -15687,8 +15938,11 @@
       <c r="AI38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>482</v>
       </c>
@@ -15794,8 +16048,11 @@
       <c r="AI39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>624</v>
       </c>
@@ -15901,8 +16158,11 @@
       <c r="AI40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>626</v>
       </c>
@@ -16008,8 +16268,11 @@
       <c r="AI41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>19</v>
       </c>
@@ -16115,8 +16378,11 @@
       <c r="AI42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>21</v>
       </c>
@@ -16222,8 +16488,11 @@
       <c r="AI43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -16329,8 +16598,11 @@
       <c r="AI44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>634</v>
       </c>
@@ -16436,8 +16708,11 @@
       <c r="AI45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>163</v>
       </c>
@@ -16543,8 +16818,11 @@
       <c r="AI46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>231</v>
       </c>
@@ -16650,8 +16928,11 @@
       <c r="AI47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>151</v>
       </c>
@@ -16757,8 +17038,11 @@
       <c r="AI48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>653</v>
       </c>
@@ -16864,8 +17148,11 @@
       <c r="AI49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>23</v>
       </c>
@@ -16971,8 +17258,11 @@
       <c r="AI50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>655</v>
       </c>
@@ -17078,8 +17368,11 @@
       <c r="AI51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>2</v>
       </c>
@@ -17185,8 +17478,11 @@
       <c r="AI52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>504</v>
       </c>
@@ -17292,8 +17588,11 @@
       <c r="AI53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>152</v>
       </c>
@@ -17399,8 +17698,11 @@
       <c r="AI54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>153</v>
       </c>
@@ -17506,8 +17808,11 @@
       <c r="AI55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -17613,8 +17918,11 @@
       <c r="AI56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>541</v>
       </c>
@@ -17720,8 +18028,11 @@
       <c r="AI57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>154</v>
       </c>
@@ -17827,8 +18138,11 @@
       <c r="AI58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>569</v>
       </c>
@@ -17853,8 +18167,11 @@
       <c r="AI59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -17960,8 +18277,11 @@
       <c r="AI60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>232</v>
       </c>
@@ -18067,8 +18387,11 @@
       <c r="AI61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>621</v>
       </c>
@@ -18174,8 +18497,11 @@
       <c r="AI62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>622</v>
       </c>
@@ -18281,8 +18607,11 @@
       <c r="AI63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>620</v>
       </c>
@@ -18388,8 +18717,11 @@
       <c r="AI64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>155</v>
       </c>
@@ -18495,8 +18827,11 @@
       <c r="AI65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>24</v>
       </c>
@@ -18602,8 +18937,11 @@
       <c r="AI66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>25</v>
       </c>
@@ -18707,6 +19045,9 @@
         <v>0</v>
       </c>
       <c r="AI67">
+        <v>0</v>
+      </c>
+      <c r="AJ67">
         <v>0</v>
       </c>
     </row>
@@ -18721,11 +19062,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI99"/>
+  <dimension ref="A1:AJ100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -18735,12 +19074,12 @@
     <col min="7" max="8" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>856</v>
       </c>
@@ -18846,8 +19185,11 @@
       <c r="AI2" t="s">
         <v>1296</v>
       </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ2" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>858</v>
       </c>
@@ -18953,8 +19295,11 @@
       <c r="AI3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>859</v>
       </c>
@@ -19060,8 +19405,11 @@
       <c r="AI4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>860</v>
       </c>
@@ -19167,8 +19515,11 @@
       <c r="AI5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>861</v>
       </c>
@@ -19274,8 +19625,11 @@
       <c r="AI6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>862</v>
       </c>
@@ -19381,8 +19735,11 @@
       <c r="AI7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1271</v>
       </c>
@@ -19488,8 +19845,11 @@
       <c r="AI8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>863</v>
       </c>
@@ -19595,8 +19955,11 @@
       <c r="AI9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>864</v>
       </c>
@@ -19702,8 +20065,11 @@
       <c r="AI10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>865</v>
       </c>
@@ -19809,8 +20175,11 @@
       <c r="AI11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>866</v>
       </c>
@@ -19916,8 +20285,11 @@
       <c r="AI12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>867</v>
       </c>
@@ -20023,8 +20395,11 @@
       <c r="AI13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>868</v>
       </c>
@@ -20130,8 +20505,11 @@
       <c r="AI14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>869</v>
       </c>
@@ -20237,8 +20615,11 @@
       <c r="AI15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>870</v>
       </c>
@@ -20344,8 +20725,11 @@
       <c r="AI16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>871</v>
       </c>
@@ -20451,8 +20835,11 @@
       <c r="AI17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>872</v>
       </c>
@@ -20558,8 +20945,11 @@
       <c r="AI18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>873</v>
       </c>
@@ -20665,8 +21055,11 @@
       <c r="AI19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>874</v>
       </c>
@@ -20772,8 +21165,11 @@
       <c r="AI20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1182</v>
       </c>
@@ -20879,8 +21275,11 @@
       <c r="AI21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1272</v>
       </c>
@@ -20986,8 +21385,11 @@
       <c r="AI22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>875</v>
       </c>
@@ -21093,8 +21495,11 @@
       <c r="AI23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>876</v>
       </c>
@@ -21200,8 +21605,11 @@
       <c r="AI24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>877</v>
       </c>
@@ -21307,8 +21715,11 @@
       <c r="AI25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>878</v>
       </c>
@@ -21414,8 +21825,11 @@
       <c r="AI26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>879</v>
       </c>
@@ -21521,8 +21935,11 @@
       <c r="AI27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>880</v>
       </c>
@@ -21628,8 +22045,11 @@
       <c r="AI28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>881</v>
       </c>
@@ -21735,8 +22155,11 @@
       <c r="AI29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>882</v>
       </c>
@@ -21842,8 +22265,11 @@
       <c r="AI30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1273</v>
       </c>
@@ -21949,8 +22375,11 @@
       <c r="AI31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1203</v>
       </c>
@@ -22056,8 +22485,11 @@
       <c r="AI32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>963</v>
       </c>
@@ -22163,8 +22595,11 @@
       <c r="AI33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>883</v>
       </c>
@@ -22270,8 +22705,11 @@
       <c r="AI34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>884</v>
       </c>
@@ -22377,8 +22815,11 @@
       <c r="AI35">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1067</v>
       </c>
@@ -22484,8 +22925,11 @@
       <c r="AI36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>885</v>
       </c>
@@ -22591,8 +23035,11 @@
       <c r="AI37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>1086</v>
       </c>
@@ -22698,8 +23145,11 @@
       <c r="AI38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>886</v>
       </c>
@@ -22805,8 +23255,11 @@
       <c r="AI39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>925</v>
       </c>
@@ -22912,8 +23365,11 @@
       <c r="AI40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>1144</v>
       </c>
@@ -23019,8 +23475,11 @@
       <c r="AI41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>1297</v>
       </c>
@@ -23045,8 +23504,11 @@
       <c r="AI42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>887</v>
       </c>
@@ -23152,8 +23614,11 @@
       <c r="AI43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>888</v>
       </c>
@@ -23259,8 +23724,11 @@
       <c r="AI44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>889</v>
       </c>
@@ -23366,8 +23834,11 @@
       <c r="AI45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>890</v>
       </c>
@@ -23473,8 +23944,11 @@
       <c r="AI46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>891</v>
       </c>
@@ -23580,8 +24054,11 @@
       <c r="AI47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>892</v>
       </c>
@@ -23687,8 +24164,11 @@
       <c r="AI48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>893</v>
       </c>
@@ -23794,8 +24274,11 @@
       <c r="AI49">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>894</v>
       </c>
@@ -23901,8 +24384,11 @@
       <c r="AI50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>895</v>
       </c>
@@ -24008,8 +24494,11 @@
       <c r="AI51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>896</v>
       </c>
@@ -24115,8 +24604,11 @@
       <c r="AI52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>897</v>
       </c>
@@ -24222,8 +24714,11 @@
       <c r="AI53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>898</v>
       </c>
@@ -24329,8 +24824,11 @@
       <c r="AI54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>899</v>
       </c>
@@ -24436,8 +24934,11 @@
       <c r="AI55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>900</v>
       </c>
@@ -24543,8 +25044,11 @@
       <c r="AI56">
         <v>2</v>
       </c>
-    </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>1274</v>
       </c>
@@ -24650,8 +25154,11 @@
       <c r="AI57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>901</v>
       </c>
@@ -24757,8 +25264,11 @@
       <c r="AI58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>902</v>
       </c>
@@ -24864,8 +25374,11 @@
       <c r="AI59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>903</v>
       </c>
@@ -24971,8 +25484,11 @@
       <c r="AI60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>904</v>
       </c>
@@ -25078,8 +25594,11 @@
       <c r="AI61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>1275</v>
       </c>
@@ -25185,8 +25704,11 @@
       <c r="AI62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>905</v>
       </c>
@@ -25292,8 +25814,11 @@
       <c r="AI63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>906</v>
       </c>
@@ -25399,8 +25924,11 @@
       <c r="AI64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>164</v>
       </c>
@@ -25506,8 +26034,11 @@
       <c r="AI65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>1276</v>
       </c>
@@ -25613,8 +26144,11 @@
       <c r="AI66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>1277</v>
       </c>
@@ -25720,8 +26254,11 @@
       <c r="AI67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>1278</v>
       </c>
@@ -25827,8 +26364,11 @@
       <c r="AI68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>907</v>
       </c>
@@ -25934,3214 +26474,3333 @@
       <c r="AI69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>1317</v>
+      </c>
+      <c r="AD70">
+        <v>0</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
+      </c>
+      <c r="AF70">
+        <v>0</v>
+      </c>
+      <c r="AG70">
+        <v>0</v>
+      </c>
+      <c r="AH70">
+        <v>0</v>
+      </c>
+      <c r="AI70">
+        <v>0</v>
+      </c>
+      <c r="AJ70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>27</v>
       </c>
-      <c r="B70">
-        <v>1</v>
-      </c>
-      <c r="C70">
-        <v>0</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
-      <c r="H70">
-        <v>0</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-      <c r="K70">
-        <v>0</v>
-      </c>
-      <c r="L70">
-        <v>0</v>
-      </c>
-      <c r="M70">
-        <v>0</v>
-      </c>
-      <c r="N70">
-        <v>0</v>
-      </c>
-      <c r="O70">
-        <v>0</v>
-      </c>
-      <c r="P70">
-        <v>0</v>
-      </c>
-      <c r="Q70">
-        <v>0</v>
-      </c>
-      <c r="R70">
-        <v>0</v>
-      </c>
-      <c r="S70">
-        <v>0</v>
-      </c>
-      <c r="T70">
-        <v>0</v>
-      </c>
-      <c r="U70">
-        <v>0</v>
-      </c>
-      <c r="V70">
-        <v>0</v>
-      </c>
-      <c r="W70">
-        <v>0</v>
-      </c>
-      <c r="X70">
-        <v>0</v>
-      </c>
-      <c r="Y70">
-        <v>0</v>
-      </c>
-      <c r="Z70">
-        <v>0</v>
-      </c>
-      <c r="AA70">
-        <v>0</v>
-      </c>
-      <c r="AB70">
-        <v>1</v>
-      </c>
-      <c r="AC70">
-        <v>0</v>
-      </c>
-      <c r="AD70">
-        <v>0</v>
-      </c>
-      <c r="AE70">
-        <v>0</v>
-      </c>
-      <c r="AF70">
-        <v>0</v>
-      </c>
-      <c r="AG70">
-        <v>0</v>
-      </c>
-      <c r="AH70">
-        <v>0</v>
-      </c>
-      <c r="AI70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>0</v>
+      </c>
+      <c r="V71">
+        <v>0</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>0</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>0</v>
+      </c>
+      <c r="AB71">
+        <v>1</v>
+      </c>
+      <c r="AC71">
+        <v>0</v>
+      </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <v>0</v>
+      </c>
+      <c r="AF71">
+        <v>0</v>
+      </c>
+      <c r="AG71">
+        <v>0</v>
+      </c>
+      <c r="AH71">
+        <v>0</v>
+      </c>
+      <c r="AI71">
+        <v>0</v>
+      </c>
+      <c r="AJ71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>28</v>
       </c>
-      <c r="B71">
-        <v>1</v>
-      </c>
-      <c r="C71">
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
         <v>2</v>
       </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-      <c r="H71">
-        <v>0</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-      <c r="K71">
-        <v>0</v>
-      </c>
-      <c r="L71">
-        <v>0</v>
-      </c>
-      <c r="M71">
-        <v>0</v>
-      </c>
-      <c r="N71">
-        <v>0</v>
-      </c>
-      <c r="O71">
-        <v>0</v>
-      </c>
-      <c r="P71">
-        <v>0</v>
-      </c>
-      <c r="Q71">
-        <v>0</v>
-      </c>
-      <c r="R71">
-        <v>0</v>
-      </c>
-      <c r="S71">
-        <v>0</v>
-      </c>
-      <c r="T71">
-        <v>0</v>
-      </c>
-      <c r="U71">
-        <v>0</v>
-      </c>
-      <c r="V71">
-        <v>0</v>
-      </c>
-      <c r="W71">
-        <v>0</v>
-      </c>
-      <c r="X71">
-        <v>0</v>
-      </c>
-      <c r="Y71">
-        <v>0</v>
-      </c>
-      <c r="Z71">
-        <v>0</v>
-      </c>
-      <c r="AA71">
-        <v>0</v>
-      </c>
-      <c r="AB71">
-        <v>0</v>
-      </c>
-      <c r="AC71">
-        <v>0</v>
-      </c>
-      <c r="AD71">
-        <v>0</v>
-      </c>
-      <c r="AE71">
-        <v>0</v>
-      </c>
-      <c r="AF71">
-        <v>0</v>
-      </c>
-      <c r="AG71">
-        <v>1</v>
-      </c>
-      <c r="AH71">
-        <v>1</v>
-      </c>
-      <c r="AI71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>0</v>
+      </c>
+      <c r="U72">
+        <v>0</v>
+      </c>
+      <c r="V72">
+        <v>0</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>0</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>0</v>
+      </c>
+      <c r="AB72">
+        <v>0</v>
+      </c>
+      <c r="AC72">
+        <v>0</v>
+      </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72">
+        <v>0</v>
+      </c>
+      <c r="AF72">
+        <v>0</v>
+      </c>
+      <c r="AG72">
+        <v>1</v>
+      </c>
+      <c r="AH72">
+        <v>1</v>
+      </c>
+      <c r="AI72">
+        <v>0</v>
+      </c>
+      <c r="AJ72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>29</v>
       </c>
-      <c r="B72">
-        <v>0</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-      <c r="E72">
-        <v>1</v>
-      </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
-      <c r="H72">
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
         <v>2</v>
       </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
-      <c r="K72">
-        <v>0</v>
-      </c>
-      <c r="L72">
-        <v>1</v>
-      </c>
-      <c r="M72">
-        <v>0</v>
-      </c>
-      <c r="N72">
-        <v>0</v>
-      </c>
-      <c r="O72">
-        <v>1</v>
-      </c>
-      <c r="P72">
-        <v>0</v>
-      </c>
-      <c r="Q72">
-        <v>0</v>
-      </c>
-      <c r="R72">
-        <v>0</v>
-      </c>
-      <c r="S72">
-        <v>1</v>
-      </c>
-      <c r="T72">
-        <v>0</v>
-      </c>
-      <c r="U72">
-        <v>0</v>
-      </c>
-      <c r="V72">
-        <v>0</v>
-      </c>
-      <c r="W72">
-        <v>0</v>
-      </c>
-      <c r="X72">
-        <v>0</v>
-      </c>
-      <c r="Y72">
-        <v>0</v>
-      </c>
-      <c r="Z72">
-        <v>0</v>
-      </c>
-      <c r="AA72">
-        <v>1</v>
-      </c>
-      <c r="AB72">
-        <v>0</v>
-      </c>
-      <c r="AC72">
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>1</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <v>1</v>
+      </c>
+      <c r="T73">
+        <v>0</v>
+      </c>
+      <c r="U73">
+        <v>0</v>
+      </c>
+      <c r="V73">
+        <v>0</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>0</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>1</v>
+      </c>
+      <c r="AB73">
+        <v>0</v>
+      </c>
+      <c r="AC73">
         <v>2</v>
       </c>
-      <c r="AD72">
-        <v>0</v>
-      </c>
-      <c r="AE72">
+      <c r="AD73">
+        <v>0</v>
+      </c>
+      <c r="AE73">
         <v>2</v>
       </c>
-      <c r="AF72">
-        <v>0</v>
-      </c>
-      <c r="AG72">
-        <v>0</v>
-      </c>
-      <c r="AH72">
-        <v>0</v>
-      </c>
-      <c r="AI72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="AF73">
+        <v>0</v>
+      </c>
+      <c r="AG73">
+        <v>0</v>
+      </c>
+      <c r="AH73">
+        <v>0</v>
+      </c>
+      <c r="AI73">
+        <v>0</v>
+      </c>
+      <c r="AJ73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>30</v>
       </c>
-      <c r="B73">
-        <v>0</v>
-      </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73">
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
         <v>3</v>
       </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-      <c r="K73">
-        <v>0</v>
-      </c>
-      <c r="L73">
-        <v>0</v>
-      </c>
-      <c r="M73">
-        <v>0</v>
-      </c>
-      <c r="N73">
-        <v>0</v>
-      </c>
-      <c r="O73">
-        <v>0</v>
-      </c>
-      <c r="P73">
-        <v>0</v>
-      </c>
-      <c r="Q73">
-        <v>0</v>
-      </c>
-      <c r="R73">
-        <v>0</v>
-      </c>
-      <c r="S73">
-        <v>0</v>
-      </c>
-      <c r="T73">
-        <v>0</v>
-      </c>
-      <c r="U73">
-        <v>0</v>
-      </c>
-      <c r="V73">
-        <v>0</v>
-      </c>
-      <c r="W73">
-        <v>0</v>
-      </c>
-      <c r="X73">
-        <v>0</v>
-      </c>
-      <c r="Y73">
-        <v>0</v>
-      </c>
-      <c r="Z73">
-        <v>0</v>
-      </c>
-      <c r="AA73">
-        <v>0</v>
-      </c>
-      <c r="AB73">
-        <v>0</v>
-      </c>
-      <c r="AC73">
-        <v>0</v>
-      </c>
-      <c r="AD73">
-        <v>0</v>
-      </c>
-      <c r="AE73">
-        <v>0</v>
-      </c>
-      <c r="AF73">
-        <v>0</v>
-      </c>
-      <c r="AG73">
-        <v>0</v>
-      </c>
-      <c r="AH73">
-        <v>0</v>
-      </c>
-      <c r="AI73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <v>0</v>
+      </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>0</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>0</v>
+      </c>
+      <c r="AB74">
+        <v>0</v>
+      </c>
+      <c r="AC74">
+        <v>0</v>
+      </c>
+      <c r="AD74">
+        <v>0</v>
+      </c>
+      <c r="AE74">
+        <v>0</v>
+      </c>
+      <c r="AF74">
+        <v>0</v>
+      </c>
+      <c r="AG74">
+        <v>0</v>
+      </c>
+      <c r="AH74">
+        <v>0</v>
+      </c>
+      <c r="AI74">
+        <v>0</v>
+      </c>
+      <c r="AJ74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>31</v>
       </c>
-      <c r="B74">
-        <v>1</v>
-      </c>
-      <c r="C74">
-        <v>0</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <v>0</v>
-      </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-      <c r="K74">
-        <v>1</v>
-      </c>
-      <c r="L74">
-        <v>0</v>
-      </c>
-      <c r="M74">
-        <v>0</v>
-      </c>
-      <c r="N74">
-        <v>0</v>
-      </c>
-      <c r="O74">
-        <v>1</v>
-      </c>
-      <c r="P74">
-        <v>0</v>
-      </c>
-      <c r="Q74">
-        <v>0</v>
-      </c>
-      <c r="R74">
-        <v>0</v>
-      </c>
-      <c r="S74">
-        <v>0</v>
-      </c>
-      <c r="T74">
-        <v>0</v>
-      </c>
-      <c r="U74">
-        <v>0</v>
-      </c>
-      <c r="V74">
-        <v>0</v>
-      </c>
-      <c r="W74">
-        <v>0</v>
-      </c>
-      <c r="X74">
-        <v>0</v>
-      </c>
-      <c r="Y74">
-        <v>0</v>
-      </c>
-      <c r="Z74">
-        <v>0</v>
-      </c>
-      <c r="AA74">
-        <v>0</v>
-      </c>
-      <c r="AB74">
-        <v>0</v>
-      </c>
-      <c r="AC74">
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>1</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>0</v>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>0</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>0</v>
+      </c>
+      <c r="AB75">
+        <v>0</v>
+      </c>
+      <c r="AC75">
         <v>2</v>
       </c>
-      <c r="AD74">
-        <v>0</v>
-      </c>
-      <c r="AE74">
-        <v>0</v>
-      </c>
-      <c r="AF74">
-        <v>0</v>
-      </c>
-      <c r="AG74">
-        <v>0</v>
-      </c>
-      <c r="AH74">
-        <v>0</v>
-      </c>
-      <c r="AI74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="AD75">
+        <v>0</v>
+      </c>
+      <c r="AE75">
+        <v>0</v>
+      </c>
+      <c r="AF75">
+        <v>0</v>
+      </c>
+      <c r="AG75">
+        <v>0</v>
+      </c>
+      <c r="AH75">
+        <v>0</v>
+      </c>
+      <c r="AI75">
+        <v>0</v>
+      </c>
+      <c r="AJ75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>1048</v>
       </c>
-      <c r="B75">
-        <v>0</v>
-      </c>
-      <c r="C75">
-        <v>0</v>
-      </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
-      <c r="K75">
-        <v>0</v>
-      </c>
-      <c r="L75">
-        <v>0</v>
-      </c>
-      <c r="M75">
-        <v>0</v>
-      </c>
-      <c r="N75">
-        <v>0</v>
-      </c>
-      <c r="O75">
-        <v>0</v>
-      </c>
-      <c r="P75">
-        <v>0</v>
-      </c>
-      <c r="Q75">
-        <v>0</v>
-      </c>
-      <c r="R75">
-        <v>0</v>
-      </c>
-      <c r="S75">
-        <v>0</v>
-      </c>
-      <c r="T75">
-        <v>0</v>
-      </c>
-      <c r="U75">
-        <v>0</v>
-      </c>
-      <c r="V75">
-        <v>0</v>
-      </c>
-      <c r="W75">
-        <v>1</v>
-      </c>
-      <c r="X75">
-        <v>0</v>
-      </c>
-      <c r="Y75">
-        <v>1</v>
-      </c>
-      <c r="Z75">
-        <v>0</v>
-      </c>
-      <c r="AA75">
-        <v>0</v>
-      </c>
-      <c r="AB75">
-        <v>0</v>
-      </c>
-      <c r="AC75">
-        <v>0</v>
-      </c>
-      <c r="AD75">
-        <v>0</v>
-      </c>
-      <c r="AE75">
-        <v>0</v>
-      </c>
-      <c r="AF75">
-        <v>0</v>
-      </c>
-      <c r="AG75">
-        <v>0</v>
-      </c>
-      <c r="AH75">
-        <v>0</v>
-      </c>
-      <c r="AI75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>1</v>
+      </c>
+      <c r="X76">
+        <v>0</v>
+      </c>
+      <c r="Y76">
+        <v>1</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>0</v>
+      </c>
+      <c r="AB76">
+        <v>0</v>
+      </c>
+      <c r="AC76">
+        <v>0</v>
+      </c>
+      <c r="AD76">
+        <v>0</v>
+      </c>
+      <c r="AE76">
+        <v>0</v>
+      </c>
+      <c r="AF76">
+        <v>0</v>
+      </c>
+      <c r="AG76">
+        <v>0</v>
+      </c>
+      <c r="AH76">
+        <v>0</v>
+      </c>
+      <c r="AI76">
+        <v>0</v>
+      </c>
+      <c r="AJ76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>52</v>
       </c>
-      <c r="B76">
-        <v>0</v>
-      </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
-      <c r="D76">
-        <v>1</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-      <c r="G76">
-        <v>1</v>
-      </c>
-      <c r="H76">
-        <v>0</v>
-      </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
-      <c r="K76">
-        <v>0</v>
-      </c>
-      <c r="L76">
-        <v>0</v>
-      </c>
-      <c r="M76">
-        <v>0</v>
-      </c>
-      <c r="N76">
-        <v>0</v>
-      </c>
-      <c r="O76">
-        <v>0</v>
-      </c>
-      <c r="P76">
-        <v>0</v>
-      </c>
-      <c r="Q76">
-        <v>1</v>
-      </c>
-      <c r="R76">
-        <v>0</v>
-      </c>
-      <c r="S76">
-        <v>0</v>
-      </c>
-      <c r="T76">
-        <v>0</v>
-      </c>
-      <c r="U76">
-        <v>0</v>
-      </c>
-      <c r="V76">
-        <v>0</v>
-      </c>
-      <c r="W76">
-        <v>0</v>
-      </c>
-      <c r="X76">
-        <v>0</v>
-      </c>
-      <c r="Y76">
-        <v>0</v>
-      </c>
-      <c r="Z76">
-        <v>0</v>
-      </c>
-      <c r="AA76">
-        <v>0</v>
-      </c>
-      <c r="AB76">
-        <v>1</v>
-      </c>
-      <c r="AC76">
-        <v>1</v>
-      </c>
-      <c r="AD76">
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>1</v>
+      </c>
+      <c r="R77">
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>0</v>
+      </c>
+      <c r="U77">
+        <v>0</v>
+      </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>0</v>
+      </c>
+      <c r="Y77">
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>0</v>
+      </c>
+      <c r="AB77">
+        <v>1</v>
+      </c>
+      <c r="AC77">
+        <v>1</v>
+      </c>
+      <c r="AD77">
         <v>3</v>
       </c>
-      <c r="AE76">
-        <v>0</v>
-      </c>
-      <c r="AF76">
-        <v>0</v>
-      </c>
-      <c r="AG76">
-        <v>0</v>
-      </c>
-      <c r="AH76">
-        <v>0</v>
-      </c>
-      <c r="AI76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="AE77">
+        <v>0</v>
+      </c>
+      <c r="AF77">
+        <v>0</v>
+      </c>
+      <c r="AG77">
+        <v>0</v>
+      </c>
+      <c r="AH77">
+        <v>0</v>
+      </c>
+      <c r="AI77">
+        <v>0</v>
+      </c>
+      <c r="AJ77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>32</v>
       </c>
-      <c r="B77">
-        <v>0</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-      <c r="G77">
-        <v>0</v>
-      </c>
-      <c r="H77">
-        <v>0</v>
-      </c>
-      <c r="I77">
-        <v>1</v>
-      </c>
-      <c r="J77">
-        <v>0</v>
-      </c>
-      <c r="K77">
-        <v>0</v>
-      </c>
-      <c r="L77">
-        <v>0</v>
-      </c>
-      <c r="M77">
-        <v>0</v>
-      </c>
-      <c r="N77">
-        <v>0</v>
-      </c>
-      <c r="O77">
-        <v>1</v>
-      </c>
-      <c r="P77">
-        <v>1</v>
-      </c>
-      <c r="Q77">
-        <v>1</v>
-      </c>
-      <c r="R77">
-        <v>0</v>
-      </c>
-      <c r="S77">
-        <v>0</v>
-      </c>
-      <c r="T77">
-        <v>0</v>
-      </c>
-      <c r="U77">
-        <v>0</v>
-      </c>
-      <c r="V77">
-        <v>0</v>
-      </c>
-      <c r="W77">
-        <v>0</v>
-      </c>
-      <c r="X77">
-        <v>0</v>
-      </c>
-      <c r="Y77">
-        <v>0</v>
-      </c>
-      <c r="Z77">
-        <v>0</v>
-      </c>
-      <c r="AA77">
-        <v>0</v>
-      </c>
-      <c r="AB77">
-        <v>0</v>
-      </c>
-      <c r="AC77">
-        <v>0</v>
-      </c>
-      <c r="AD77">
-        <v>1</v>
-      </c>
-      <c r="AE77">
-        <v>0</v>
-      </c>
-      <c r="AF77">
-        <v>0</v>
-      </c>
-      <c r="AG77">
-        <v>1</v>
-      </c>
-      <c r="AH77">
-        <v>0</v>
-      </c>
-      <c r="AI77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>1</v>
+      </c>
+      <c r="P78">
+        <v>1</v>
+      </c>
+      <c r="Q78">
+        <v>1</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <v>0</v>
+      </c>
+      <c r="V78">
+        <v>0</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>0</v>
+      </c>
+      <c r="Y78">
+        <v>0</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>0</v>
+      </c>
+      <c r="AB78">
+        <v>0</v>
+      </c>
+      <c r="AC78">
+        <v>0</v>
+      </c>
+      <c r="AD78">
+        <v>1</v>
+      </c>
+      <c r="AE78">
+        <v>0</v>
+      </c>
+      <c r="AF78">
+        <v>0</v>
+      </c>
+      <c r="AG78">
+        <v>1</v>
+      </c>
+      <c r="AH78">
+        <v>0</v>
+      </c>
+      <c r="AI78">
+        <v>0</v>
+      </c>
+      <c r="AJ78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>33</v>
       </c>
-      <c r="B78">
-        <v>1</v>
-      </c>
-      <c r="C78">
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
         <v>3</v>
       </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-      <c r="E78">
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
         <v>2</v>
       </c>
-      <c r="F78">
-        <v>0</v>
-      </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
-      <c r="H78">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
         <v>2</v>
       </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-      <c r="J78">
-        <v>0</v>
-      </c>
-      <c r="K78">
-        <v>0</v>
-      </c>
-      <c r="L78">
-        <v>0</v>
-      </c>
-      <c r="M78">
-        <v>0</v>
-      </c>
-      <c r="N78">
-        <v>0</v>
-      </c>
-      <c r="O78">
-        <v>0</v>
-      </c>
-      <c r="P78">
-        <v>0</v>
-      </c>
-      <c r="Q78">
-        <v>0</v>
-      </c>
-      <c r="R78">
-        <v>0</v>
-      </c>
-      <c r="S78">
-        <v>0</v>
-      </c>
-      <c r="T78">
-        <v>0</v>
-      </c>
-      <c r="U78">
-        <v>1</v>
-      </c>
-      <c r="V78">
-        <v>0</v>
-      </c>
-      <c r="W78">
-        <v>1</v>
-      </c>
-      <c r="X78">
-        <v>0</v>
-      </c>
-      <c r="Y78">
-        <v>0</v>
-      </c>
-      <c r="Z78">
-        <v>1</v>
-      </c>
-      <c r="AA78">
-        <v>0</v>
-      </c>
-      <c r="AB78">
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>0</v>
+      </c>
+      <c r="U79">
+        <v>1</v>
+      </c>
+      <c r="V79">
+        <v>0</v>
+      </c>
+      <c r="W79">
+        <v>1</v>
+      </c>
+      <c r="X79">
+        <v>0</v>
+      </c>
+      <c r="Y79">
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <v>1</v>
+      </c>
+      <c r="AA79">
+        <v>0</v>
+      </c>
+      <c r="AB79">
         <v>2</v>
       </c>
-      <c r="AC78">
-        <v>0</v>
-      </c>
-      <c r="AD78">
-        <v>0</v>
-      </c>
-      <c r="AE78">
-        <v>0</v>
-      </c>
-      <c r="AF78">
-        <v>0</v>
-      </c>
-      <c r="AG78">
-        <v>0</v>
-      </c>
-      <c r="AH78">
-        <v>0</v>
-      </c>
-      <c r="AI78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="AC79">
+        <v>0</v>
+      </c>
+      <c r="AD79">
+        <v>0</v>
+      </c>
+      <c r="AE79">
+        <v>0</v>
+      </c>
+      <c r="AF79">
+        <v>0</v>
+      </c>
+      <c r="AG79">
+        <v>0</v>
+      </c>
+      <c r="AH79">
+        <v>0</v>
+      </c>
+      <c r="AI79">
+        <v>0</v>
+      </c>
+      <c r="AJ79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>34</v>
       </c>
-      <c r="B79">
+      <c r="B80">
         <v>5</v>
       </c>
-      <c r="C79">
-        <v>0</v>
-      </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-      <c r="F79">
-        <v>0</v>
-      </c>
-      <c r="G79">
-        <v>0</v>
-      </c>
-      <c r="H79">
-        <v>0</v>
-      </c>
-      <c r="I79">
-        <v>0</v>
-      </c>
-      <c r="J79">
-        <v>0</v>
-      </c>
-      <c r="K79">
-        <v>0</v>
-      </c>
-      <c r="L79">
-        <v>0</v>
-      </c>
-      <c r="M79">
-        <v>0</v>
-      </c>
-      <c r="N79">
-        <v>0</v>
-      </c>
-      <c r="O79">
-        <v>0</v>
-      </c>
-      <c r="P79">
-        <v>0</v>
-      </c>
-      <c r="Q79">
-        <v>0</v>
-      </c>
-      <c r="R79">
-        <v>0</v>
-      </c>
-      <c r="S79">
-        <v>0</v>
-      </c>
-      <c r="T79">
-        <v>0</v>
-      </c>
-      <c r="U79">
-        <v>0</v>
-      </c>
-      <c r="V79">
-        <v>0</v>
-      </c>
-      <c r="W79">
-        <v>0</v>
-      </c>
-      <c r="X79">
-        <v>0</v>
-      </c>
-      <c r="Y79">
-        <v>0</v>
-      </c>
-      <c r="Z79">
-        <v>0</v>
-      </c>
-      <c r="AA79">
-        <v>0</v>
-      </c>
-      <c r="AB79">
-        <v>0</v>
-      </c>
-      <c r="AC79">
-        <v>0</v>
-      </c>
-      <c r="AD79">
-        <v>0</v>
-      </c>
-      <c r="AE79">
-        <v>0</v>
-      </c>
-      <c r="AF79">
-        <v>0</v>
-      </c>
-      <c r="AG79">
-        <v>0</v>
-      </c>
-      <c r="AH79">
-        <v>0</v>
-      </c>
-      <c r="AI79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>0</v>
+      </c>
+      <c r="U80">
+        <v>0</v>
+      </c>
+      <c r="V80">
+        <v>0</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>0</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>0</v>
+      </c>
+      <c r="AB80">
+        <v>0</v>
+      </c>
+      <c r="AC80">
+        <v>0</v>
+      </c>
+      <c r="AD80">
+        <v>0</v>
+      </c>
+      <c r="AE80">
+        <v>0</v>
+      </c>
+      <c r="AF80">
+        <v>0</v>
+      </c>
+      <c r="AG80">
+        <v>0</v>
+      </c>
+      <c r="AH80">
+        <v>0</v>
+      </c>
+      <c r="AI80">
+        <v>0</v>
+      </c>
+      <c r="AJ80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>35</v>
       </c>
-      <c r="B80">
-        <v>0</v>
-      </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-      <c r="E80">
-        <v>1</v>
-      </c>
-      <c r="F80">
-        <v>0</v>
-      </c>
-      <c r="G80">
-        <v>0</v>
-      </c>
-      <c r="H80">
-        <v>0</v>
-      </c>
-      <c r="I80">
-        <v>0</v>
-      </c>
-      <c r="J80">
-        <v>0</v>
-      </c>
-      <c r="K80">
-        <v>0</v>
-      </c>
-      <c r="L80">
-        <v>0</v>
-      </c>
-      <c r="M80">
-        <v>0</v>
-      </c>
-      <c r="N80">
-        <v>0</v>
-      </c>
-      <c r="O80">
-        <v>1</v>
-      </c>
-      <c r="P80">
-        <v>0</v>
-      </c>
-      <c r="Q80">
-        <v>0</v>
-      </c>
-      <c r="R80">
-        <v>0</v>
-      </c>
-      <c r="S80">
-        <v>1</v>
-      </c>
-      <c r="T80">
-        <v>0</v>
-      </c>
-      <c r="U80">
-        <v>0</v>
-      </c>
-      <c r="V80">
-        <v>0</v>
-      </c>
-      <c r="W80">
-        <v>1</v>
-      </c>
-      <c r="X80">
-        <v>0</v>
-      </c>
-      <c r="Y80">
-        <v>0</v>
-      </c>
-      <c r="Z80">
-        <v>0</v>
-      </c>
-      <c r="AA80">
-        <v>0</v>
-      </c>
-      <c r="AB80">
-        <v>0</v>
-      </c>
-      <c r="AC80">
-        <v>0</v>
-      </c>
-      <c r="AD80">
-        <v>0</v>
-      </c>
-      <c r="AE80">
-        <v>0</v>
-      </c>
-      <c r="AF80">
-        <v>0</v>
-      </c>
-      <c r="AG80">
-        <v>0</v>
-      </c>
-      <c r="AH80">
-        <v>0</v>
-      </c>
-      <c r="AI80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>1</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <v>0</v>
+      </c>
+      <c r="S81">
+        <v>1</v>
+      </c>
+      <c r="T81">
+        <v>0</v>
+      </c>
+      <c r="U81">
+        <v>0</v>
+      </c>
+      <c r="V81">
+        <v>0</v>
+      </c>
+      <c r="W81">
+        <v>1</v>
+      </c>
+      <c r="X81">
+        <v>0</v>
+      </c>
+      <c r="Y81">
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>0</v>
+      </c>
+      <c r="AB81">
+        <v>0</v>
+      </c>
+      <c r="AC81">
+        <v>0</v>
+      </c>
+      <c r="AD81">
+        <v>0</v>
+      </c>
+      <c r="AE81">
+        <v>0</v>
+      </c>
+      <c r="AF81">
+        <v>0</v>
+      </c>
+      <c r="AG81">
+        <v>0</v>
+      </c>
+      <c r="AH81">
+        <v>0</v>
+      </c>
+      <c r="AI81">
+        <v>0</v>
+      </c>
+      <c r="AJ81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>36</v>
       </c>
-      <c r="B81">
-        <v>1</v>
-      </c>
-      <c r="C81">
-        <v>0</v>
-      </c>
-      <c r="D81">
-        <v>1</v>
-      </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-      <c r="F81">
-        <v>1</v>
-      </c>
-      <c r="G81">
-        <v>0</v>
-      </c>
-      <c r="H81">
-        <v>0</v>
-      </c>
-      <c r="I81">
-        <v>0</v>
-      </c>
-      <c r="J81">
-        <v>0</v>
-      </c>
-      <c r="K81">
-        <v>0</v>
-      </c>
-      <c r="L81">
-        <v>0</v>
-      </c>
-      <c r="M81">
-        <v>0</v>
-      </c>
-      <c r="N81">
-        <v>1</v>
-      </c>
-      <c r="O81">
-        <v>1</v>
-      </c>
-      <c r="P81">
-        <v>0</v>
-      </c>
-      <c r="Q81">
-        <v>0</v>
-      </c>
-      <c r="R81">
-        <v>0</v>
-      </c>
-      <c r="S81">
-        <v>0</v>
-      </c>
-      <c r="T81">
-        <v>0</v>
-      </c>
-      <c r="U81">
-        <v>0</v>
-      </c>
-      <c r="V81">
-        <v>0</v>
-      </c>
-      <c r="W81">
-        <v>0</v>
-      </c>
-      <c r="X81">
-        <v>0</v>
-      </c>
-      <c r="Y81">
-        <v>0</v>
-      </c>
-      <c r="Z81">
-        <v>0</v>
-      </c>
-      <c r="AA81">
-        <v>0</v>
-      </c>
-      <c r="AB81">
-        <v>0</v>
-      </c>
-      <c r="AC81">
-        <v>0</v>
-      </c>
-      <c r="AD81">
-        <v>0</v>
-      </c>
-      <c r="AE81">
-        <v>0</v>
-      </c>
-      <c r="AF81">
-        <v>0</v>
-      </c>
-      <c r="AG81">
-        <v>0</v>
-      </c>
-      <c r="AH81">
-        <v>0</v>
-      </c>
-      <c r="AI81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>1</v>
+      </c>
+      <c r="O82">
+        <v>1</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82">
+        <v>0</v>
+      </c>
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
+        <v>0</v>
+      </c>
+      <c r="U82">
+        <v>0</v>
+      </c>
+      <c r="V82">
+        <v>0</v>
+      </c>
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
+        <v>0</v>
+      </c>
+      <c r="Y82">
+        <v>0</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
+        <v>0</v>
+      </c>
+      <c r="AB82">
+        <v>0</v>
+      </c>
+      <c r="AC82">
+        <v>0</v>
+      </c>
+      <c r="AD82">
+        <v>0</v>
+      </c>
+      <c r="AE82">
+        <v>0</v>
+      </c>
+      <c r="AF82">
+        <v>0</v>
+      </c>
+      <c r="AG82">
+        <v>0</v>
+      </c>
+      <c r="AH82">
+        <v>0</v>
+      </c>
+      <c r="AI82">
+        <v>0</v>
+      </c>
+      <c r="AJ82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>37</v>
       </c>
-      <c r="B82">
-        <v>0</v>
-      </c>
-      <c r="C82">
-        <v>1</v>
-      </c>
-      <c r="D82">
-        <v>0</v>
-      </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-      <c r="F82">
-        <v>0</v>
-      </c>
-      <c r="G82">
-        <v>0</v>
-      </c>
-      <c r="H82">
-        <v>0</v>
-      </c>
-      <c r="I82">
-        <v>1</v>
-      </c>
-      <c r="J82">
-        <v>0</v>
-      </c>
-      <c r="K82">
-        <v>0</v>
-      </c>
-      <c r="L82">
-        <v>0</v>
-      </c>
-      <c r="M82">
-        <v>0</v>
-      </c>
-      <c r="N82">
-        <v>0</v>
-      </c>
-      <c r="O82">
-        <v>0</v>
-      </c>
-      <c r="P82">
-        <v>0</v>
-      </c>
-      <c r="Q82">
-        <v>0</v>
-      </c>
-      <c r="R82">
-        <v>0</v>
-      </c>
-      <c r="S82">
-        <v>0</v>
-      </c>
-      <c r="T82">
-        <v>0</v>
-      </c>
-      <c r="U82">
-        <v>0</v>
-      </c>
-      <c r="V82">
-        <v>0</v>
-      </c>
-      <c r="W82">
-        <v>0</v>
-      </c>
-      <c r="X82">
-        <v>0</v>
-      </c>
-      <c r="Y82">
-        <v>0</v>
-      </c>
-      <c r="Z82">
-        <v>0</v>
-      </c>
-      <c r="AA82">
-        <v>0</v>
-      </c>
-      <c r="AB82">
-        <v>0</v>
-      </c>
-      <c r="AC82">
-        <v>1</v>
-      </c>
-      <c r="AD82">
-        <v>0</v>
-      </c>
-      <c r="AE82">
-        <v>0</v>
-      </c>
-      <c r="AF82">
-        <v>0</v>
-      </c>
-      <c r="AG82">
-        <v>0</v>
-      </c>
-      <c r="AH82">
-        <v>0</v>
-      </c>
-      <c r="AI82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="R83">
+        <v>0</v>
+      </c>
+      <c r="S83">
+        <v>0</v>
+      </c>
+      <c r="T83">
+        <v>0</v>
+      </c>
+      <c r="U83">
+        <v>0</v>
+      </c>
+      <c r="V83">
+        <v>0</v>
+      </c>
+      <c r="W83">
+        <v>0</v>
+      </c>
+      <c r="X83">
+        <v>0</v>
+      </c>
+      <c r="Y83">
+        <v>0</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+      <c r="AA83">
+        <v>0</v>
+      </c>
+      <c r="AB83">
+        <v>0</v>
+      </c>
+      <c r="AC83">
+        <v>1</v>
+      </c>
+      <c r="AD83">
+        <v>0</v>
+      </c>
+      <c r="AE83">
+        <v>0</v>
+      </c>
+      <c r="AF83">
+        <v>0</v>
+      </c>
+      <c r="AG83">
+        <v>0</v>
+      </c>
+      <c r="AH83">
+        <v>0</v>
+      </c>
+      <c r="AI83">
+        <v>0</v>
+      </c>
+      <c r="AJ83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>330</v>
       </c>
-      <c r="B83">
-        <v>0</v>
-      </c>
-      <c r="C83">
-        <v>0</v>
-      </c>
-      <c r="D83">
-        <v>0</v>
-      </c>
-      <c r="E83">
-        <v>0</v>
-      </c>
-      <c r="F83">
-        <v>0</v>
-      </c>
-      <c r="G83">
-        <v>0</v>
-      </c>
-      <c r="H83">
-        <v>0</v>
-      </c>
-      <c r="I83">
-        <v>0</v>
-      </c>
-      <c r="J83">
-        <v>0</v>
-      </c>
-      <c r="K83">
-        <v>1</v>
-      </c>
-      <c r="L83">
-        <v>0</v>
-      </c>
-      <c r="M83">
-        <v>0</v>
-      </c>
-      <c r="N83">
-        <v>0</v>
-      </c>
-      <c r="O83">
-        <v>0</v>
-      </c>
-      <c r="P83">
-        <v>0</v>
-      </c>
-      <c r="Q83">
-        <v>0</v>
-      </c>
-      <c r="R83">
-        <v>0</v>
-      </c>
-      <c r="S83">
-        <v>0</v>
-      </c>
-      <c r="T83">
-        <v>0</v>
-      </c>
-      <c r="U83">
-        <v>0</v>
-      </c>
-      <c r="V83">
-        <v>0</v>
-      </c>
-      <c r="W83">
-        <v>0</v>
-      </c>
-      <c r="X83">
-        <v>0</v>
-      </c>
-      <c r="Y83">
-        <v>0</v>
-      </c>
-      <c r="Z83">
-        <v>0</v>
-      </c>
-      <c r="AA83">
-        <v>0</v>
-      </c>
-      <c r="AB83">
-        <v>0</v>
-      </c>
-      <c r="AC83">
-        <v>0</v>
-      </c>
-      <c r="AD83">
-        <v>0</v>
-      </c>
-      <c r="AE83">
-        <v>0</v>
-      </c>
-      <c r="AF83">
-        <v>0</v>
-      </c>
-      <c r="AG83">
-        <v>0</v>
-      </c>
-      <c r="AH83">
-        <v>0</v>
-      </c>
-      <c r="AI83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+      <c r="R84">
+        <v>0</v>
+      </c>
+      <c r="S84">
+        <v>0</v>
+      </c>
+      <c r="T84">
+        <v>0</v>
+      </c>
+      <c r="U84">
+        <v>0</v>
+      </c>
+      <c r="V84">
+        <v>0</v>
+      </c>
+      <c r="W84">
+        <v>0</v>
+      </c>
+      <c r="X84">
+        <v>0</v>
+      </c>
+      <c r="Y84">
+        <v>0</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+      <c r="AA84">
+        <v>0</v>
+      </c>
+      <c r="AB84">
+        <v>0</v>
+      </c>
+      <c r="AC84">
+        <v>0</v>
+      </c>
+      <c r="AD84">
+        <v>0</v>
+      </c>
+      <c r="AE84">
+        <v>0</v>
+      </c>
+      <c r="AF84">
+        <v>0</v>
+      </c>
+      <c r="AG84">
+        <v>0</v>
+      </c>
+      <c r="AH84">
+        <v>0</v>
+      </c>
+      <c r="AI84">
+        <v>0</v>
+      </c>
+      <c r="AJ84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>53</v>
       </c>
-      <c r="B84">
-        <v>0</v>
-      </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
-      <c r="D84">
-        <v>1</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-      <c r="F84">
-        <v>0</v>
-      </c>
-      <c r="G84">
-        <v>0</v>
-      </c>
-      <c r="H84">
-        <v>0</v>
-      </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
-      <c r="J84">
-        <v>1</v>
-      </c>
-      <c r="K84">
-        <v>0</v>
-      </c>
-      <c r="L84">
-        <v>0</v>
-      </c>
-      <c r="M84">
-        <v>0</v>
-      </c>
-      <c r="N84">
-        <v>1</v>
-      </c>
-      <c r="O84">
-        <v>0</v>
-      </c>
-      <c r="P84">
-        <v>0</v>
-      </c>
-      <c r="Q84">
-        <v>0</v>
-      </c>
-      <c r="R84">
-        <v>1</v>
-      </c>
-      <c r="S84">
-        <v>0</v>
-      </c>
-      <c r="T84">
-        <v>0</v>
-      </c>
-      <c r="U84">
-        <v>0</v>
-      </c>
-      <c r="V84">
-        <v>0</v>
-      </c>
-      <c r="W84">
-        <v>0</v>
-      </c>
-      <c r="X84">
-        <v>0</v>
-      </c>
-      <c r="Y84">
-        <v>0</v>
-      </c>
-      <c r="Z84">
-        <v>1</v>
-      </c>
-      <c r="AA84">
-        <v>1</v>
-      </c>
-      <c r="AB84">
-        <v>0</v>
-      </c>
-      <c r="AC84">
-        <v>0</v>
-      </c>
-      <c r="AD84">
-        <v>0</v>
-      </c>
-      <c r="AE84">
-        <v>0</v>
-      </c>
-      <c r="AF84">
-        <v>0</v>
-      </c>
-      <c r="AG84">
-        <v>0</v>
-      </c>
-      <c r="AH84">
-        <v>0</v>
-      </c>
-      <c r="AI84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>1</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="R85">
+        <v>1</v>
+      </c>
+      <c r="S85">
+        <v>0</v>
+      </c>
+      <c r="T85">
+        <v>0</v>
+      </c>
+      <c r="U85">
+        <v>0</v>
+      </c>
+      <c r="V85">
+        <v>0</v>
+      </c>
+      <c r="W85">
+        <v>0</v>
+      </c>
+      <c r="X85">
+        <v>0</v>
+      </c>
+      <c r="Y85">
+        <v>0</v>
+      </c>
+      <c r="Z85">
+        <v>1</v>
+      </c>
+      <c r="AA85">
+        <v>1</v>
+      </c>
+      <c r="AB85">
+        <v>0</v>
+      </c>
+      <c r="AC85">
+        <v>0</v>
+      </c>
+      <c r="AD85">
+        <v>0</v>
+      </c>
+      <c r="AE85">
+        <v>0</v>
+      </c>
+      <c r="AF85">
+        <v>0</v>
+      </c>
+      <c r="AG85">
+        <v>0</v>
+      </c>
+      <c r="AH85">
+        <v>0</v>
+      </c>
+      <c r="AI85">
+        <v>0</v>
+      </c>
+      <c r="AJ85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>1163</v>
       </c>
-      <c r="B85">
-        <v>0</v>
-      </c>
-      <c r="C85">
-        <v>0</v>
-      </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-      <c r="F85">
-        <v>0</v>
-      </c>
-      <c r="G85">
-        <v>0</v>
-      </c>
-      <c r="H85">
-        <v>0</v>
-      </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
-      <c r="J85">
-        <v>0</v>
-      </c>
-      <c r="K85">
-        <v>0</v>
-      </c>
-      <c r="L85">
-        <v>0</v>
-      </c>
-      <c r="M85">
-        <v>0</v>
-      </c>
-      <c r="N85">
-        <v>0</v>
-      </c>
-      <c r="O85">
-        <v>0</v>
-      </c>
-      <c r="P85">
-        <v>0</v>
-      </c>
-      <c r="Q85">
-        <v>0</v>
-      </c>
-      <c r="R85">
-        <v>0</v>
-      </c>
-      <c r="S85">
-        <v>0</v>
-      </c>
-      <c r="T85">
-        <v>0</v>
-      </c>
-      <c r="U85">
-        <v>0</v>
-      </c>
-      <c r="V85">
-        <v>0</v>
-      </c>
-      <c r="W85">
-        <v>0</v>
-      </c>
-      <c r="X85">
-        <v>0</v>
-      </c>
-      <c r="Y85">
-        <v>0</v>
-      </c>
-      <c r="Z85">
-        <v>0</v>
-      </c>
-      <c r="AA85">
-        <v>0</v>
-      </c>
-      <c r="AB85">
-        <v>0</v>
-      </c>
-      <c r="AC85">
-        <v>1</v>
-      </c>
-      <c r="AD85">
-        <v>0</v>
-      </c>
-      <c r="AE85">
-        <v>0</v>
-      </c>
-      <c r="AF85">
-        <v>0</v>
-      </c>
-      <c r="AG85">
-        <v>0</v>
-      </c>
-      <c r="AH85">
-        <v>0</v>
-      </c>
-      <c r="AI85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="R86">
+        <v>0</v>
+      </c>
+      <c r="S86">
+        <v>0</v>
+      </c>
+      <c r="T86">
+        <v>0</v>
+      </c>
+      <c r="U86">
+        <v>0</v>
+      </c>
+      <c r="V86">
+        <v>0</v>
+      </c>
+      <c r="W86">
+        <v>0</v>
+      </c>
+      <c r="X86">
+        <v>0</v>
+      </c>
+      <c r="Y86">
+        <v>0</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+      <c r="AA86">
+        <v>0</v>
+      </c>
+      <c r="AB86">
+        <v>0</v>
+      </c>
+      <c r="AC86">
+        <v>1</v>
+      </c>
+      <c r="AD86">
+        <v>0</v>
+      </c>
+      <c r="AE86">
+        <v>0</v>
+      </c>
+      <c r="AF86">
+        <v>0</v>
+      </c>
+      <c r="AG86">
+        <v>0</v>
+      </c>
+      <c r="AH86">
+        <v>0</v>
+      </c>
+      <c r="AI86">
+        <v>0</v>
+      </c>
+      <c r="AJ86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>156</v>
       </c>
-      <c r="B86">
-        <v>0</v>
-      </c>
-      <c r="C86">
-        <v>0</v>
-      </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-      <c r="E86">
-        <v>1</v>
-      </c>
-      <c r="F86">
-        <v>0</v>
-      </c>
-      <c r="G86">
-        <v>0</v>
-      </c>
-      <c r="H86">
-        <v>1</v>
-      </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
-      <c r="J86">
-        <v>0</v>
-      </c>
-      <c r="K86">
-        <v>0</v>
-      </c>
-      <c r="L86">
-        <v>0</v>
-      </c>
-      <c r="M86">
-        <v>0</v>
-      </c>
-      <c r="N86">
-        <v>0</v>
-      </c>
-      <c r="O86">
-        <v>0</v>
-      </c>
-      <c r="P86">
-        <v>0</v>
-      </c>
-      <c r="Q86">
-        <v>0</v>
-      </c>
-      <c r="R86">
-        <v>0</v>
-      </c>
-      <c r="S86">
-        <v>0</v>
-      </c>
-      <c r="T86">
-        <v>0</v>
-      </c>
-      <c r="U86">
-        <v>0</v>
-      </c>
-      <c r="V86">
-        <v>1</v>
-      </c>
-      <c r="W86">
-        <v>0</v>
-      </c>
-      <c r="X86">
-        <v>0</v>
-      </c>
-      <c r="Y86">
-        <v>0</v>
-      </c>
-      <c r="Z86">
-        <v>0</v>
-      </c>
-      <c r="AA86">
-        <v>0</v>
-      </c>
-      <c r="AB86">
-        <v>0</v>
-      </c>
-      <c r="AC86">
-        <v>0</v>
-      </c>
-      <c r="AD86">
-        <v>0</v>
-      </c>
-      <c r="AE86">
-        <v>0</v>
-      </c>
-      <c r="AF86">
-        <v>0</v>
-      </c>
-      <c r="AG86">
-        <v>0</v>
-      </c>
-      <c r="AH86">
-        <v>0</v>
-      </c>
-      <c r="AI86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="R87">
+        <v>0</v>
+      </c>
+      <c r="S87">
+        <v>0</v>
+      </c>
+      <c r="T87">
+        <v>0</v>
+      </c>
+      <c r="U87">
+        <v>0</v>
+      </c>
+      <c r="V87">
+        <v>1</v>
+      </c>
+      <c r="W87">
+        <v>0</v>
+      </c>
+      <c r="X87">
+        <v>0</v>
+      </c>
+      <c r="Y87">
+        <v>0</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+      <c r="AA87">
+        <v>0</v>
+      </c>
+      <c r="AB87">
+        <v>0</v>
+      </c>
+      <c r="AC87">
+        <v>0</v>
+      </c>
+      <c r="AD87">
+        <v>0</v>
+      </c>
+      <c r="AE87">
+        <v>0</v>
+      </c>
+      <c r="AF87">
+        <v>0</v>
+      </c>
+      <c r="AG87">
+        <v>0</v>
+      </c>
+      <c r="AH87">
+        <v>0</v>
+      </c>
+      <c r="AI87">
+        <v>0</v>
+      </c>
+      <c r="AJ87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>38</v>
       </c>
-      <c r="B87">
-        <v>1</v>
-      </c>
-      <c r="C87">
-        <v>0</v>
-      </c>
-      <c r="D87">
-        <v>0</v>
-      </c>
-      <c r="E87">
-        <v>0</v>
-      </c>
-      <c r="F87">
-        <v>0</v>
-      </c>
-      <c r="G87">
-        <v>0</v>
-      </c>
-      <c r="H87">
-        <v>0</v>
-      </c>
-      <c r="I87">
-        <v>0</v>
-      </c>
-      <c r="J87">
-        <v>0</v>
-      </c>
-      <c r="K87">
-        <v>0</v>
-      </c>
-      <c r="L87">
-        <v>0</v>
-      </c>
-      <c r="M87">
-        <v>0</v>
-      </c>
-      <c r="N87">
-        <v>0</v>
-      </c>
-      <c r="O87">
-        <v>0</v>
-      </c>
-      <c r="P87">
-        <v>0</v>
-      </c>
-      <c r="Q87">
-        <v>0</v>
-      </c>
-      <c r="R87">
-        <v>0</v>
-      </c>
-      <c r="S87">
-        <v>0</v>
-      </c>
-      <c r="T87">
-        <v>0</v>
-      </c>
-      <c r="U87">
-        <v>0</v>
-      </c>
-      <c r="V87">
-        <v>0</v>
-      </c>
-      <c r="W87">
-        <v>0</v>
-      </c>
-      <c r="X87">
-        <v>0</v>
-      </c>
-      <c r="Y87">
-        <v>0</v>
-      </c>
-      <c r="Z87">
-        <v>0</v>
-      </c>
-      <c r="AA87">
-        <v>0</v>
-      </c>
-      <c r="AB87">
-        <v>1</v>
-      </c>
-      <c r="AC87">
-        <v>0</v>
-      </c>
-      <c r="AD87">
-        <v>0</v>
-      </c>
-      <c r="AE87">
-        <v>0</v>
-      </c>
-      <c r="AF87">
-        <v>1</v>
-      </c>
-      <c r="AG87">
-        <v>0</v>
-      </c>
-      <c r="AH87">
-        <v>0</v>
-      </c>
-      <c r="AI87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88">
+        <v>0</v>
+      </c>
+      <c r="S88">
+        <v>0</v>
+      </c>
+      <c r="T88">
+        <v>0</v>
+      </c>
+      <c r="U88">
+        <v>0</v>
+      </c>
+      <c r="V88">
+        <v>0</v>
+      </c>
+      <c r="W88">
+        <v>0</v>
+      </c>
+      <c r="X88">
+        <v>0</v>
+      </c>
+      <c r="Y88">
+        <v>0</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+      <c r="AA88">
+        <v>0</v>
+      </c>
+      <c r="AB88">
+        <v>1</v>
+      </c>
+      <c r="AC88">
+        <v>0</v>
+      </c>
+      <c r="AD88">
+        <v>0</v>
+      </c>
+      <c r="AE88">
+        <v>0</v>
+      </c>
+      <c r="AF88">
+        <v>1</v>
+      </c>
+      <c r="AG88">
+        <v>0</v>
+      </c>
+      <c r="AH88">
+        <v>0</v>
+      </c>
+      <c r="AI88">
+        <v>0</v>
+      </c>
+      <c r="AJ88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>39</v>
       </c>
-      <c r="B88">
+      <c r="B89">
         <v>2</v>
       </c>
-      <c r="C88">
-        <v>0</v>
-      </c>
-      <c r="D88">
-        <v>0</v>
-      </c>
-      <c r="E88">
-        <v>0</v>
-      </c>
-      <c r="F88">
-        <v>0</v>
-      </c>
-      <c r="G88">
-        <v>0</v>
-      </c>
-      <c r="H88">
-        <v>0</v>
-      </c>
-      <c r="I88">
-        <v>1</v>
-      </c>
-      <c r="J88">
-        <v>0</v>
-      </c>
-      <c r="K88">
-        <v>0</v>
-      </c>
-      <c r="L88">
-        <v>0</v>
-      </c>
-      <c r="M88">
-        <v>0</v>
-      </c>
-      <c r="N88">
-        <v>0</v>
-      </c>
-      <c r="O88">
-        <v>1</v>
-      </c>
-      <c r="P88">
-        <v>0</v>
-      </c>
-      <c r="Q88">
-        <v>0</v>
-      </c>
-      <c r="R88">
-        <v>0</v>
-      </c>
-      <c r="S88">
-        <v>0</v>
-      </c>
-      <c r="T88">
-        <v>0</v>
-      </c>
-      <c r="U88">
-        <v>0</v>
-      </c>
-      <c r="V88">
-        <v>0</v>
-      </c>
-      <c r="W88">
-        <v>0</v>
-      </c>
-      <c r="X88">
-        <v>0</v>
-      </c>
-      <c r="Y88">
-        <v>0</v>
-      </c>
-      <c r="Z88">
-        <v>0</v>
-      </c>
-      <c r="AA88">
-        <v>0</v>
-      </c>
-      <c r="AB88">
-        <v>0</v>
-      </c>
-      <c r="AC88">
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <v>1</v>
+      </c>
+      <c r="P89">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+      <c r="R89">
+        <v>0</v>
+      </c>
+      <c r="S89">
+        <v>0</v>
+      </c>
+      <c r="T89">
+        <v>0</v>
+      </c>
+      <c r="U89">
+        <v>0</v>
+      </c>
+      <c r="V89">
+        <v>0</v>
+      </c>
+      <c r="W89">
+        <v>0</v>
+      </c>
+      <c r="X89">
+        <v>0</v>
+      </c>
+      <c r="Y89">
+        <v>0</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+      <c r="AA89">
+        <v>0</v>
+      </c>
+      <c r="AB89">
+        <v>0</v>
+      </c>
+      <c r="AC89">
         <v>2</v>
       </c>
-      <c r="AD88">
-        <v>0</v>
-      </c>
-      <c r="AE88">
-        <v>0</v>
-      </c>
-      <c r="AF88">
-        <v>0</v>
-      </c>
-      <c r="AG88">
-        <v>0</v>
-      </c>
-      <c r="AH88">
-        <v>0</v>
-      </c>
-      <c r="AI88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="AD89">
+        <v>0</v>
+      </c>
+      <c r="AE89">
+        <v>0</v>
+      </c>
+      <c r="AF89">
+        <v>0</v>
+      </c>
+      <c r="AG89">
+        <v>0</v>
+      </c>
+      <c r="AH89">
+        <v>0</v>
+      </c>
+      <c r="AI89">
+        <v>0</v>
+      </c>
+      <c r="AJ89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>157</v>
       </c>
-      <c r="B89">
-        <v>0</v>
-      </c>
-      <c r="C89">
-        <v>0</v>
-      </c>
-      <c r="D89">
-        <v>0</v>
-      </c>
-      <c r="E89">
-        <v>1</v>
-      </c>
-      <c r="F89">
-        <v>0</v>
-      </c>
-      <c r="G89">
-        <v>0</v>
-      </c>
-      <c r="H89">
-        <v>0</v>
-      </c>
-      <c r="I89">
-        <v>0</v>
-      </c>
-      <c r="J89">
-        <v>0</v>
-      </c>
-      <c r="K89">
-        <v>0</v>
-      </c>
-      <c r="L89">
-        <v>0</v>
-      </c>
-      <c r="M89">
-        <v>0</v>
-      </c>
-      <c r="N89">
-        <v>0</v>
-      </c>
-      <c r="O89">
-        <v>0</v>
-      </c>
-      <c r="P89">
-        <v>0</v>
-      </c>
-      <c r="Q89">
-        <v>0</v>
-      </c>
-      <c r="R89">
-        <v>0</v>
-      </c>
-      <c r="S89">
-        <v>0</v>
-      </c>
-      <c r="T89">
-        <v>0</v>
-      </c>
-      <c r="U89">
-        <v>0</v>
-      </c>
-      <c r="V89">
-        <v>0</v>
-      </c>
-      <c r="W89">
-        <v>0</v>
-      </c>
-      <c r="X89">
-        <v>0</v>
-      </c>
-      <c r="Y89">
-        <v>0</v>
-      </c>
-      <c r="Z89">
-        <v>0</v>
-      </c>
-      <c r="AA89">
-        <v>0</v>
-      </c>
-      <c r="AB89">
-        <v>0</v>
-      </c>
-      <c r="AC89">
-        <v>0</v>
-      </c>
-      <c r="AD89">
-        <v>0</v>
-      </c>
-      <c r="AE89">
-        <v>0</v>
-      </c>
-      <c r="AF89">
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+      <c r="P90">
+        <v>0</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
+      </c>
+      <c r="R90">
+        <v>0</v>
+      </c>
+      <c r="S90">
+        <v>0</v>
+      </c>
+      <c r="T90">
+        <v>0</v>
+      </c>
+      <c r="U90">
+        <v>0</v>
+      </c>
+      <c r="V90">
+        <v>0</v>
+      </c>
+      <c r="W90">
+        <v>0</v>
+      </c>
+      <c r="X90">
+        <v>0</v>
+      </c>
+      <c r="Y90">
+        <v>0</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+      <c r="AA90">
+        <v>0</v>
+      </c>
+      <c r="AB90">
+        <v>0</v>
+      </c>
+      <c r="AC90">
+        <v>0</v>
+      </c>
+      <c r="AD90">
+        <v>0</v>
+      </c>
+      <c r="AE90">
+        <v>0</v>
+      </c>
+      <c r="AF90">
         <v>4</v>
       </c>
-      <c r="AG89">
-        <v>0</v>
-      </c>
-      <c r="AH89">
-        <v>1</v>
-      </c>
-      <c r="AI89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="AG90">
+        <v>0</v>
+      </c>
+      <c r="AH90">
+        <v>1</v>
+      </c>
+      <c r="AI90">
+        <v>0</v>
+      </c>
+      <c r="AJ90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>40</v>
       </c>
-      <c r="B90">
-        <v>1</v>
-      </c>
-      <c r="C90">
-        <v>0</v>
-      </c>
-      <c r="D90">
-        <v>0</v>
-      </c>
-      <c r="E90">
-        <v>0</v>
-      </c>
-      <c r="F90">
-        <v>0</v>
-      </c>
-      <c r="G90">
-        <v>0</v>
-      </c>
-      <c r="H90">
-        <v>1</v>
-      </c>
-      <c r="I90">
-        <v>0</v>
-      </c>
-      <c r="J90">
-        <v>0</v>
-      </c>
-      <c r="K90">
-        <v>0</v>
-      </c>
-      <c r="L90">
-        <v>0</v>
-      </c>
-      <c r="M90">
-        <v>0</v>
-      </c>
-      <c r="N90">
-        <v>0</v>
-      </c>
-      <c r="O90">
-        <v>0</v>
-      </c>
-      <c r="P90">
-        <v>0</v>
-      </c>
-      <c r="Q90">
-        <v>0</v>
-      </c>
-      <c r="R90">
-        <v>0</v>
-      </c>
-      <c r="S90">
-        <v>0</v>
-      </c>
-      <c r="T90">
-        <v>0</v>
-      </c>
-      <c r="U90">
-        <v>0</v>
-      </c>
-      <c r="V90">
-        <v>0</v>
-      </c>
-      <c r="W90">
-        <v>0</v>
-      </c>
-      <c r="X90">
-        <v>0</v>
-      </c>
-      <c r="Y90">
-        <v>0</v>
-      </c>
-      <c r="Z90">
-        <v>0</v>
-      </c>
-      <c r="AA90">
-        <v>0</v>
-      </c>
-      <c r="AB90">
-        <v>0</v>
-      </c>
-      <c r="AC90">
-        <v>0</v>
-      </c>
-      <c r="AD90">
-        <v>0</v>
-      </c>
-      <c r="AE90">
-        <v>0</v>
-      </c>
-      <c r="AF90">
-        <v>0</v>
-      </c>
-      <c r="AG90">
-        <v>0</v>
-      </c>
-      <c r="AH90">
-        <v>0</v>
-      </c>
-      <c r="AI90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+      <c r="P91">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <v>0</v>
+      </c>
+      <c r="R91">
+        <v>0</v>
+      </c>
+      <c r="S91">
+        <v>0</v>
+      </c>
+      <c r="T91">
+        <v>0</v>
+      </c>
+      <c r="U91">
+        <v>0</v>
+      </c>
+      <c r="V91">
+        <v>0</v>
+      </c>
+      <c r="W91">
+        <v>0</v>
+      </c>
+      <c r="X91">
+        <v>0</v>
+      </c>
+      <c r="Y91">
+        <v>0</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+      <c r="AA91">
+        <v>0</v>
+      </c>
+      <c r="AB91">
+        <v>0</v>
+      </c>
+      <c r="AC91">
+        <v>0</v>
+      </c>
+      <c r="AD91">
+        <v>0</v>
+      </c>
+      <c r="AE91">
+        <v>0</v>
+      </c>
+      <c r="AF91">
+        <v>0</v>
+      </c>
+      <c r="AG91">
+        <v>0</v>
+      </c>
+      <c r="AH91">
+        <v>0</v>
+      </c>
+      <c r="AI91">
+        <v>0</v>
+      </c>
+      <c r="AJ91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>331</v>
       </c>
-      <c r="B91">
-        <v>0</v>
-      </c>
-      <c r="C91">
-        <v>0</v>
-      </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
-      <c r="F91">
-        <v>0</v>
-      </c>
-      <c r="G91">
-        <v>0</v>
-      </c>
-      <c r="H91">
-        <v>0</v>
-      </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
-      <c r="J91">
-        <v>0</v>
-      </c>
-      <c r="K91">
-        <v>1</v>
-      </c>
-      <c r="L91">
-        <v>0</v>
-      </c>
-      <c r="M91">
-        <v>0</v>
-      </c>
-      <c r="N91">
-        <v>0</v>
-      </c>
-      <c r="O91">
-        <v>1</v>
-      </c>
-      <c r="P91">
-        <v>0</v>
-      </c>
-      <c r="Q91">
-        <v>0</v>
-      </c>
-      <c r="R91">
-        <v>0</v>
-      </c>
-      <c r="S91">
-        <v>0</v>
-      </c>
-      <c r="T91">
-        <v>0</v>
-      </c>
-      <c r="U91">
-        <v>0</v>
-      </c>
-      <c r="V91">
-        <v>0</v>
-      </c>
-      <c r="W91">
-        <v>0</v>
-      </c>
-      <c r="X91">
-        <v>1</v>
-      </c>
-      <c r="Y91">
-        <v>0</v>
-      </c>
-      <c r="Z91">
-        <v>1</v>
-      </c>
-      <c r="AA91">
-        <v>0</v>
-      </c>
-      <c r="AB91">
-        <v>0</v>
-      </c>
-      <c r="AC91">
-        <v>0</v>
-      </c>
-      <c r="AD91">
-        <v>0</v>
-      </c>
-      <c r="AE91">
-        <v>0</v>
-      </c>
-      <c r="AF91">
-        <v>0</v>
-      </c>
-      <c r="AG91">
-        <v>0</v>
-      </c>
-      <c r="AH91">
-        <v>0</v>
-      </c>
-      <c r="AI91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+      <c r="O92">
+        <v>1</v>
+      </c>
+      <c r="P92">
+        <v>0</v>
+      </c>
+      <c r="Q92">
+        <v>0</v>
+      </c>
+      <c r="R92">
+        <v>0</v>
+      </c>
+      <c r="S92">
+        <v>0</v>
+      </c>
+      <c r="T92">
+        <v>0</v>
+      </c>
+      <c r="U92">
+        <v>0</v>
+      </c>
+      <c r="V92">
+        <v>0</v>
+      </c>
+      <c r="W92">
+        <v>0</v>
+      </c>
+      <c r="X92">
+        <v>1</v>
+      </c>
+      <c r="Y92">
+        <v>0</v>
+      </c>
+      <c r="Z92">
+        <v>1</v>
+      </c>
+      <c r="AA92">
+        <v>0</v>
+      </c>
+      <c r="AB92">
+        <v>0</v>
+      </c>
+      <c r="AC92">
+        <v>0</v>
+      </c>
+      <c r="AD92">
+        <v>0</v>
+      </c>
+      <c r="AE92">
+        <v>0</v>
+      </c>
+      <c r="AF92">
+        <v>0</v>
+      </c>
+      <c r="AG92">
+        <v>0</v>
+      </c>
+      <c r="AH92">
+        <v>0</v>
+      </c>
+      <c r="AI92">
+        <v>0</v>
+      </c>
+      <c r="AJ92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>1183</v>
       </c>
-      <c r="B92">
-        <v>0</v>
-      </c>
-      <c r="C92">
-        <v>0</v>
-      </c>
-      <c r="D92">
-        <v>0</v>
-      </c>
-      <c r="E92">
-        <v>0</v>
-      </c>
-      <c r="F92">
-        <v>0</v>
-      </c>
-      <c r="G92">
-        <v>0</v>
-      </c>
-      <c r="H92">
-        <v>0</v>
-      </c>
-      <c r="I92">
-        <v>0</v>
-      </c>
-      <c r="J92">
-        <v>0</v>
-      </c>
-      <c r="K92">
-        <v>0</v>
-      </c>
-      <c r="L92">
-        <v>0</v>
-      </c>
-      <c r="M92">
-        <v>0</v>
-      </c>
-      <c r="N92">
-        <v>0</v>
-      </c>
-      <c r="O92">
-        <v>0</v>
-      </c>
-      <c r="P92">
-        <v>0</v>
-      </c>
-      <c r="Q92">
-        <v>0</v>
-      </c>
-      <c r="R92">
-        <v>0</v>
-      </c>
-      <c r="S92">
-        <v>0</v>
-      </c>
-      <c r="T92">
-        <v>0</v>
-      </c>
-      <c r="U92">
-        <v>0</v>
-      </c>
-      <c r="V92">
-        <v>0</v>
-      </c>
-      <c r="W92">
-        <v>0</v>
-      </c>
-      <c r="X92">
-        <v>0</v>
-      </c>
-      <c r="Y92">
-        <v>0</v>
-      </c>
-      <c r="Z92">
-        <v>0</v>
-      </c>
-      <c r="AA92">
-        <v>0</v>
-      </c>
-      <c r="AB92">
-        <v>0</v>
-      </c>
-      <c r="AC92">
-        <v>0</v>
-      </c>
-      <c r="AD92">
-        <v>1</v>
-      </c>
-      <c r="AE92">
-        <v>0</v>
-      </c>
-      <c r="AF92">
-        <v>0</v>
-      </c>
-      <c r="AG92">
-        <v>0</v>
-      </c>
-      <c r="AH92">
-        <v>0</v>
-      </c>
-      <c r="AI92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+      <c r="P93">
+        <v>0</v>
+      </c>
+      <c r="Q93">
+        <v>0</v>
+      </c>
+      <c r="R93">
+        <v>0</v>
+      </c>
+      <c r="S93">
+        <v>0</v>
+      </c>
+      <c r="T93">
+        <v>0</v>
+      </c>
+      <c r="U93">
+        <v>0</v>
+      </c>
+      <c r="V93">
+        <v>0</v>
+      </c>
+      <c r="W93">
+        <v>0</v>
+      </c>
+      <c r="X93">
+        <v>0</v>
+      </c>
+      <c r="Y93">
+        <v>0</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+      <c r="AA93">
+        <v>0</v>
+      </c>
+      <c r="AB93">
+        <v>0</v>
+      </c>
+      <c r="AC93">
+        <v>0</v>
+      </c>
+      <c r="AD93">
+        <v>1</v>
+      </c>
+      <c r="AE93">
+        <v>0</v>
+      </c>
+      <c r="AF93">
+        <v>0</v>
+      </c>
+      <c r="AG93">
+        <v>0</v>
+      </c>
+      <c r="AH93">
+        <v>0</v>
+      </c>
+      <c r="AI93">
+        <v>0</v>
+      </c>
+      <c r="AJ93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>981</v>
       </c>
-      <c r="B93">
-        <v>0</v>
-      </c>
-      <c r="C93">
-        <v>0</v>
-      </c>
-      <c r="D93">
-        <v>0</v>
-      </c>
-      <c r="E93">
-        <v>0</v>
-      </c>
-      <c r="F93">
-        <v>0</v>
-      </c>
-      <c r="G93">
-        <v>0</v>
-      </c>
-      <c r="H93">
-        <v>0</v>
-      </c>
-      <c r="I93">
-        <v>0</v>
-      </c>
-      <c r="J93">
-        <v>0</v>
-      </c>
-      <c r="K93">
-        <v>0</v>
-      </c>
-      <c r="L93">
-        <v>0</v>
-      </c>
-      <c r="M93">
-        <v>0</v>
-      </c>
-      <c r="N93">
-        <v>0</v>
-      </c>
-      <c r="O93">
-        <v>0</v>
-      </c>
-      <c r="P93">
-        <v>0</v>
-      </c>
-      <c r="Q93">
-        <v>0</v>
-      </c>
-      <c r="R93">
-        <v>0</v>
-      </c>
-      <c r="S93">
-        <v>1</v>
-      </c>
-      <c r="T93">
-        <v>0</v>
-      </c>
-      <c r="U93">
-        <v>0</v>
-      </c>
-      <c r="V93">
-        <v>1</v>
-      </c>
-      <c r="W93">
-        <v>0</v>
-      </c>
-      <c r="X93">
-        <v>0</v>
-      </c>
-      <c r="Y93">
-        <v>0</v>
-      </c>
-      <c r="Z93">
-        <v>0</v>
-      </c>
-      <c r="AA93">
-        <v>0</v>
-      </c>
-      <c r="AB93">
-        <v>0</v>
-      </c>
-      <c r="AC93">
-        <v>0</v>
-      </c>
-      <c r="AD93">
-        <v>0</v>
-      </c>
-      <c r="AE93">
-        <v>0</v>
-      </c>
-      <c r="AF93">
-        <v>0</v>
-      </c>
-      <c r="AG93">
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+      <c r="P94">
+        <v>0</v>
+      </c>
+      <c r="Q94">
+        <v>0</v>
+      </c>
+      <c r="R94">
+        <v>0</v>
+      </c>
+      <c r="S94">
+        <v>1</v>
+      </c>
+      <c r="T94">
+        <v>0</v>
+      </c>
+      <c r="U94">
+        <v>0</v>
+      </c>
+      <c r="V94">
+        <v>1</v>
+      </c>
+      <c r="W94">
+        <v>0</v>
+      </c>
+      <c r="X94">
+        <v>0</v>
+      </c>
+      <c r="Y94">
+        <v>0</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+      <c r="AA94">
+        <v>0</v>
+      </c>
+      <c r="AB94">
+        <v>0</v>
+      </c>
+      <c r="AC94">
+        <v>0</v>
+      </c>
+      <c r="AD94">
+        <v>0</v>
+      </c>
+      <c r="AE94">
+        <v>0</v>
+      </c>
+      <c r="AF94">
+        <v>0</v>
+      </c>
+      <c r="AG94">
         <v>2</v>
       </c>
-      <c r="AH93">
-        <v>0</v>
-      </c>
-      <c r="AI93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="AH94">
+        <v>0</v>
+      </c>
+      <c r="AI94">
+        <v>0</v>
+      </c>
+      <c r="AJ94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>158</v>
       </c>
-      <c r="B94">
-        <v>0</v>
-      </c>
-      <c r="C94">
-        <v>0</v>
-      </c>
-      <c r="D94">
-        <v>0</v>
-      </c>
-      <c r="E94">
-        <v>1</v>
-      </c>
-      <c r="F94">
-        <v>0</v>
-      </c>
-      <c r="G94">
-        <v>0</v>
-      </c>
-      <c r="H94">
-        <v>0</v>
-      </c>
-      <c r="I94">
-        <v>0</v>
-      </c>
-      <c r="J94">
-        <v>0</v>
-      </c>
-      <c r="K94">
-        <v>0</v>
-      </c>
-      <c r="L94">
-        <v>0</v>
-      </c>
-      <c r="M94">
-        <v>0</v>
-      </c>
-      <c r="N94">
-        <v>0</v>
-      </c>
-      <c r="O94">
-        <v>0</v>
-      </c>
-      <c r="P94">
-        <v>0</v>
-      </c>
-      <c r="Q94">
-        <v>0</v>
-      </c>
-      <c r="R94">
-        <v>0</v>
-      </c>
-      <c r="S94">
-        <v>0</v>
-      </c>
-      <c r="T94">
-        <v>0</v>
-      </c>
-      <c r="U94">
-        <v>0</v>
-      </c>
-      <c r="V94">
-        <v>0</v>
-      </c>
-      <c r="W94">
-        <v>0</v>
-      </c>
-      <c r="X94">
-        <v>0</v>
-      </c>
-      <c r="Y94">
-        <v>0</v>
-      </c>
-      <c r="Z94">
-        <v>0</v>
-      </c>
-      <c r="AA94">
-        <v>0</v>
-      </c>
-      <c r="AB94">
-        <v>0</v>
-      </c>
-      <c r="AC94">
-        <v>0</v>
-      </c>
-      <c r="AD94">
-        <v>0</v>
-      </c>
-      <c r="AE94">
-        <v>0</v>
-      </c>
-      <c r="AF94">
-        <v>1</v>
-      </c>
-      <c r="AG94">
-        <v>0</v>
-      </c>
-      <c r="AH94">
-        <v>0</v>
-      </c>
-      <c r="AI94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+      <c r="P95">
+        <v>0</v>
+      </c>
+      <c r="Q95">
+        <v>0</v>
+      </c>
+      <c r="R95">
+        <v>0</v>
+      </c>
+      <c r="S95">
+        <v>0</v>
+      </c>
+      <c r="T95">
+        <v>0</v>
+      </c>
+      <c r="U95">
+        <v>0</v>
+      </c>
+      <c r="V95">
+        <v>0</v>
+      </c>
+      <c r="W95">
+        <v>0</v>
+      </c>
+      <c r="X95">
+        <v>0</v>
+      </c>
+      <c r="Y95">
+        <v>0</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+      <c r="AA95">
+        <v>0</v>
+      </c>
+      <c r="AB95">
+        <v>0</v>
+      </c>
+      <c r="AC95">
+        <v>0</v>
+      </c>
+      <c r="AD95">
+        <v>0</v>
+      </c>
+      <c r="AE95">
+        <v>0</v>
+      </c>
+      <c r="AF95">
+        <v>1</v>
+      </c>
+      <c r="AG95">
+        <v>0</v>
+      </c>
+      <c r="AH95">
+        <v>0</v>
+      </c>
+      <c r="AI95">
+        <v>0</v>
+      </c>
+      <c r="AJ95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>169</v>
       </c>
-      <c r="B95">
-        <v>0</v>
-      </c>
-      <c r="C95">
-        <v>0</v>
-      </c>
-      <c r="D95">
-        <v>0</v>
-      </c>
-      <c r="E95">
-        <v>0</v>
-      </c>
-      <c r="F95">
-        <v>0</v>
-      </c>
-      <c r="G95">
-        <v>1</v>
-      </c>
-      <c r="H95">
-        <v>0</v>
-      </c>
-      <c r="I95">
-        <v>0</v>
-      </c>
-      <c r="J95">
-        <v>0</v>
-      </c>
-      <c r="K95">
-        <v>0</v>
-      </c>
-      <c r="L95">
-        <v>0</v>
-      </c>
-      <c r="M95">
-        <v>0</v>
-      </c>
-      <c r="N95">
-        <v>0</v>
-      </c>
-      <c r="O95">
-        <v>0</v>
-      </c>
-      <c r="P95">
-        <v>0</v>
-      </c>
-      <c r="Q95">
-        <v>0</v>
-      </c>
-      <c r="R95">
-        <v>0</v>
-      </c>
-      <c r="S95">
-        <v>0</v>
-      </c>
-      <c r="T95">
-        <v>0</v>
-      </c>
-      <c r="U95">
-        <v>0</v>
-      </c>
-      <c r="V95">
-        <v>0</v>
-      </c>
-      <c r="W95">
-        <v>0</v>
-      </c>
-      <c r="X95">
-        <v>0</v>
-      </c>
-      <c r="Y95">
-        <v>1</v>
-      </c>
-      <c r="Z95">
-        <v>0</v>
-      </c>
-      <c r="AA95">
-        <v>0</v>
-      </c>
-      <c r="AB95">
-        <v>1</v>
-      </c>
-      <c r="AC95">
-        <v>0</v>
-      </c>
-      <c r="AD95">
-        <v>0</v>
-      </c>
-      <c r="AE95">
-        <v>0</v>
-      </c>
-      <c r="AF95">
-        <v>0</v>
-      </c>
-      <c r="AG95">
-        <v>1</v>
-      </c>
-      <c r="AH95">
-        <v>0</v>
-      </c>
-      <c r="AI95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+      <c r="P96">
+        <v>0</v>
+      </c>
+      <c r="Q96">
+        <v>0</v>
+      </c>
+      <c r="R96">
+        <v>0</v>
+      </c>
+      <c r="S96">
+        <v>0</v>
+      </c>
+      <c r="T96">
+        <v>0</v>
+      </c>
+      <c r="U96">
+        <v>0</v>
+      </c>
+      <c r="V96">
+        <v>0</v>
+      </c>
+      <c r="W96">
+        <v>0</v>
+      </c>
+      <c r="X96">
+        <v>0</v>
+      </c>
+      <c r="Y96">
+        <v>1</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+      <c r="AA96">
+        <v>0</v>
+      </c>
+      <c r="AB96">
+        <v>1</v>
+      </c>
+      <c r="AC96">
+        <v>0</v>
+      </c>
+      <c r="AD96">
+        <v>0</v>
+      </c>
+      <c r="AE96">
+        <v>0</v>
+      </c>
+      <c r="AF96">
+        <v>0</v>
+      </c>
+      <c r="AG96">
+        <v>1</v>
+      </c>
+      <c r="AH96">
+        <v>0</v>
+      </c>
+      <c r="AI96">
+        <v>0</v>
+      </c>
+      <c r="AJ96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>41</v>
       </c>
-      <c r="B96">
-        <v>0</v>
-      </c>
-      <c r="C96">
-        <v>1</v>
-      </c>
-      <c r="D96">
-        <v>0</v>
-      </c>
-      <c r="E96">
-        <v>0</v>
-      </c>
-      <c r="F96">
-        <v>0</v>
-      </c>
-      <c r="G96">
-        <v>0</v>
-      </c>
-      <c r="H96">
-        <v>0</v>
-      </c>
-      <c r="I96">
-        <v>0</v>
-      </c>
-      <c r="J96">
-        <v>0</v>
-      </c>
-      <c r="K96">
-        <v>0</v>
-      </c>
-      <c r="L96">
-        <v>0</v>
-      </c>
-      <c r="M96">
-        <v>0</v>
-      </c>
-      <c r="N96">
-        <v>0</v>
-      </c>
-      <c r="O96">
-        <v>1</v>
-      </c>
-      <c r="P96">
-        <v>0</v>
-      </c>
-      <c r="Q96">
-        <v>0</v>
-      </c>
-      <c r="R96">
-        <v>0</v>
-      </c>
-      <c r="S96">
-        <v>0</v>
-      </c>
-      <c r="T96">
-        <v>0</v>
-      </c>
-      <c r="U96">
-        <v>0</v>
-      </c>
-      <c r="V96">
-        <v>0</v>
-      </c>
-      <c r="W96">
-        <v>0</v>
-      </c>
-      <c r="X96">
-        <v>0</v>
-      </c>
-      <c r="Y96">
-        <v>0</v>
-      </c>
-      <c r="Z96">
-        <v>0</v>
-      </c>
-      <c r="AA96">
-        <v>0</v>
-      </c>
-      <c r="AB96">
-        <v>0</v>
-      </c>
-      <c r="AC96">
-        <v>0</v>
-      </c>
-      <c r="AD96">
-        <v>0</v>
-      </c>
-      <c r="AE96">
-        <v>0</v>
-      </c>
-      <c r="AF96">
-        <v>0</v>
-      </c>
-      <c r="AG96">
-        <v>0</v>
-      </c>
-      <c r="AH96">
-        <v>0</v>
-      </c>
-      <c r="AI96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+      <c r="O97">
+        <v>1</v>
+      </c>
+      <c r="P97">
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
+      </c>
+      <c r="R97">
+        <v>0</v>
+      </c>
+      <c r="S97">
+        <v>0</v>
+      </c>
+      <c r="T97">
+        <v>0</v>
+      </c>
+      <c r="U97">
+        <v>0</v>
+      </c>
+      <c r="V97">
+        <v>0</v>
+      </c>
+      <c r="W97">
+        <v>0</v>
+      </c>
+      <c r="X97">
+        <v>0</v>
+      </c>
+      <c r="Y97">
+        <v>0</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+      <c r="AA97">
+        <v>0</v>
+      </c>
+      <c r="AB97">
+        <v>0</v>
+      </c>
+      <c r="AC97">
+        <v>0</v>
+      </c>
+      <c r="AD97">
+        <v>0</v>
+      </c>
+      <c r="AE97">
+        <v>0</v>
+      </c>
+      <c r="AF97">
+        <v>0</v>
+      </c>
+      <c r="AG97">
+        <v>0</v>
+      </c>
+      <c r="AH97">
+        <v>0</v>
+      </c>
+      <c r="AI97">
+        <v>0</v>
+      </c>
+      <c r="AJ97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>159</v>
       </c>
-      <c r="B97">
-        <v>0</v>
-      </c>
-      <c r="C97">
-        <v>0</v>
-      </c>
-      <c r="D97">
-        <v>0</v>
-      </c>
-      <c r="E97">
-        <v>1</v>
-      </c>
-      <c r="F97">
-        <v>0</v>
-      </c>
-      <c r="G97">
-        <v>0</v>
-      </c>
-      <c r="H97">
-        <v>0</v>
-      </c>
-      <c r="I97">
-        <v>0</v>
-      </c>
-      <c r="J97">
-        <v>0</v>
-      </c>
-      <c r="K97">
-        <v>0</v>
-      </c>
-      <c r="L97">
-        <v>0</v>
-      </c>
-      <c r="M97">
-        <v>0</v>
-      </c>
-      <c r="N97">
-        <v>0</v>
-      </c>
-      <c r="O97">
-        <v>0</v>
-      </c>
-      <c r="P97">
-        <v>0</v>
-      </c>
-      <c r="Q97">
-        <v>0</v>
-      </c>
-      <c r="R97">
-        <v>0</v>
-      </c>
-      <c r="S97">
-        <v>0</v>
-      </c>
-      <c r="T97">
-        <v>0</v>
-      </c>
-      <c r="U97">
-        <v>0</v>
-      </c>
-      <c r="V97">
-        <v>0</v>
-      </c>
-      <c r="W97">
-        <v>0</v>
-      </c>
-      <c r="X97">
-        <v>0</v>
-      </c>
-      <c r="Y97">
-        <v>0</v>
-      </c>
-      <c r="Z97">
-        <v>0</v>
-      </c>
-      <c r="AA97">
-        <v>0</v>
-      </c>
-      <c r="AB97">
-        <v>0</v>
-      </c>
-      <c r="AC97">
-        <v>0</v>
-      </c>
-      <c r="AD97">
-        <v>0</v>
-      </c>
-      <c r="AE97">
-        <v>0</v>
-      </c>
-      <c r="AF97">
-        <v>0</v>
-      </c>
-      <c r="AG97">
-        <v>0</v>
-      </c>
-      <c r="AH97">
-        <v>0</v>
-      </c>
-      <c r="AI97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="O98">
+        <v>0</v>
+      </c>
+      <c r="P98">
+        <v>0</v>
+      </c>
+      <c r="Q98">
+        <v>0</v>
+      </c>
+      <c r="R98">
+        <v>0</v>
+      </c>
+      <c r="S98">
+        <v>0</v>
+      </c>
+      <c r="T98">
+        <v>0</v>
+      </c>
+      <c r="U98">
+        <v>0</v>
+      </c>
+      <c r="V98">
+        <v>0</v>
+      </c>
+      <c r="W98">
+        <v>0</v>
+      </c>
+      <c r="X98">
+        <v>0</v>
+      </c>
+      <c r="Y98">
+        <v>0</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+      <c r="AA98">
+        <v>0</v>
+      </c>
+      <c r="AB98">
+        <v>0</v>
+      </c>
+      <c r="AC98">
+        <v>0</v>
+      </c>
+      <c r="AD98">
+        <v>0</v>
+      </c>
+      <c r="AE98">
+        <v>0</v>
+      </c>
+      <c r="AF98">
+        <v>0</v>
+      </c>
+      <c r="AG98">
+        <v>0</v>
+      </c>
+      <c r="AH98">
+        <v>0</v>
+      </c>
+      <c r="AI98">
+        <v>0</v>
+      </c>
+      <c r="AJ98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>233</v>
       </c>
-      <c r="B98">
-        <v>0</v>
-      </c>
-      <c r="C98">
-        <v>0</v>
-      </c>
-      <c r="D98">
-        <v>0</v>
-      </c>
-      <c r="E98">
-        <v>0</v>
-      </c>
-      <c r="F98">
-        <v>0</v>
-      </c>
-      <c r="G98">
-        <v>0</v>
-      </c>
-      <c r="H98">
-        <v>1</v>
-      </c>
-      <c r="I98">
-        <v>0</v>
-      </c>
-      <c r="J98">
-        <v>0</v>
-      </c>
-      <c r="K98">
-        <v>0</v>
-      </c>
-      <c r="L98">
-        <v>0</v>
-      </c>
-      <c r="M98">
-        <v>0</v>
-      </c>
-      <c r="N98">
-        <v>0</v>
-      </c>
-      <c r="O98">
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+      <c r="O99">
         <v>2</v>
       </c>
-      <c r="P98">
-        <v>0</v>
-      </c>
-      <c r="Q98">
-        <v>0</v>
-      </c>
-      <c r="R98">
-        <v>0</v>
-      </c>
-      <c r="S98">
-        <v>0</v>
-      </c>
-      <c r="T98">
-        <v>0</v>
-      </c>
-      <c r="U98">
-        <v>0</v>
-      </c>
-      <c r="V98">
-        <v>0</v>
-      </c>
-      <c r="W98">
-        <v>0</v>
-      </c>
-      <c r="X98">
-        <v>0</v>
-      </c>
-      <c r="Y98">
-        <v>0</v>
-      </c>
-      <c r="Z98">
-        <v>1</v>
-      </c>
-      <c r="AA98">
-        <v>1</v>
-      </c>
-      <c r="AB98">
-        <v>0</v>
-      </c>
-      <c r="AC98">
-        <v>0</v>
-      </c>
-      <c r="AD98">
-        <v>0</v>
-      </c>
-      <c r="AE98">
-        <v>0</v>
-      </c>
-      <c r="AF98">
-        <v>0</v>
-      </c>
-      <c r="AG98">
-        <v>0</v>
-      </c>
-      <c r="AH98">
-        <v>0</v>
-      </c>
-      <c r="AI98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="P99">
+        <v>0</v>
+      </c>
+      <c r="Q99">
+        <v>0</v>
+      </c>
+      <c r="R99">
+        <v>0</v>
+      </c>
+      <c r="S99">
+        <v>0</v>
+      </c>
+      <c r="T99">
+        <v>0</v>
+      </c>
+      <c r="U99">
+        <v>0</v>
+      </c>
+      <c r="V99">
+        <v>0</v>
+      </c>
+      <c r="W99">
+        <v>0</v>
+      </c>
+      <c r="X99">
+        <v>0</v>
+      </c>
+      <c r="Y99">
+        <v>0</v>
+      </c>
+      <c r="Z99">
+        <v>1</v>
+      </c>
+      <c r="AA99">
+        <v>1</v>
+      </c>
+      <c r="AB99">
+        <v>0</v>
+      </c>
+      <c r="AC99">
+        <v>0</v>
+      </c>
+      <c r="AD99">
+        <v>0</v>
+      </c>
+      <c r="AE99">
+        <v>0</v>
+      </c>
+      <c r="AF99">
+        <v>0</v>
+      </c>
+      <c r="AG99">
+        <v>0</v>
+      </c>
+      <c r="AH99">
+        <v>0</v>
+      </c>
+      <c r="AI99">
+        <v>0</v>
+      </c>
+      <c r="AJ99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>42</v>
       </c>
-      <c r="B99">
+      <c r="B100">
         <v>4</v>
       </c>
-      <c r="C99">
+      <c r="C100">
         <v>2</v>
       </c>
-      <c r="D99">
+      <c r="D100">
         <v>3</v>
       </c>
-      <c r="E99">
-        <v>0</v>
-      </c>
-      <c r="F99">
-        <v>1</v>
-      </c>
-      <c r="G99">
-        <v>0</v>
-      </c>
-      <c r="H99">
-        <v>0</v>
-      </c>
-      <c r="I99">
-        <v>0</v>
-      </c>
-      <c r="J99">
-        <v>1</v>
-      </c>
-      <c r="K99">
-        <v>1</v>
-      </c>
-      <c r="L99">
-        <v>0</v>
-      </c>
-      <c r="M99">
-        <v>0</v>
-      </c>
-      <c r="N99">
-        <v>0</v>
-      </c>
-      <c r="O99">
-        <v>0</v>
-      </c>
-      <c r="P99">
-        <v>0</v>
-      </c>
-      <c r="Q99">
-        <v>0</v>
-      </c>
-      <c r="R99">
-        <v>0</v>
-      </c>
-      <c r="S99">
-        <v>0</v>
-      </c>
-      <c r="T99">
-        <v>0</v>
-      </c>
-      <c r="U99">
-        <v>0</v>
-      </c>
-      <c r="V99">
-        <v>0</v>
-      </c>
-      <c r="W99">
-        <v>0</v>
-      </c>
-      <c r="X99">
-        <v>0</v>
-      </c>
-      <c r="Y99">
-        <v>0</v>
-      </c>
-      <c r="Z99">
-        <v>0</v>
-      </c>
-      <c r="AA99">
-        <v>0</v>
-      </c>
-      <c r="AB99">
-        <v>1</v>
-      </c>
-      <c r="AC99">
-        <v>0</v>
-      </c>
-      <c r="AD99">
-        <v>0</v>
-      </c>
-      <c r="AE99">
-        <v>0</v>
-      </c>
-      <c r="AF99">
-        <v>0</v>
-      </c>
-      <c r="AG99">
-        <v>0</v>
-      </c>
-      <c r="AH99">
-        <v>0</v>
-      </c>
-      <c r="AI99">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
+      <c r="P100">
+        <v>0</v>
+      </c>
+      <c r="Q100">
+        <v>0</v>
+      </c>
+      <c r="R100">
+        <v>0</v>
+      </c>
+      <c r="S100">
+        <v>0</v>
+      </c>
+      <c r="T100">
+        <v>0</v>
+      </c>
+      <c r="U100">
+        <v>0</v>
+      </c>
+      <c r="V100">
+        <v>0</v>
+      </c>
+      <c r="W100">
+        <v>0</v>
+      </c>
+      <c r="X100">
+        <v>0</v>
+      </c>
+      <c r="Y100">
+        <v>0</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+      <c r="AA100">
+        <v>0</v>
+      </c>
+      <c r="AB100">
+        <v>1</v>
+      </c>
+      <c r="AC100">
+        <v>0</v>
+      </c>
+      <c r="AD100">
+        <v>0</v>
+      </c>
+      <c r="AE100">
+        <v>0</v>
+      </c>
+      <c r="AF100">
+        <v>0</v>
+      </c>
+      <c r="AG100">
+        <v>0</v>
+      </c>
+      <c r="AH100">
+        <v>0</v>
+      </c>
+      <c r="AI100">
+        <v>0</v>
+      </c>
+      <c r="AJ100">
         <v>0</v>
       </c>
     </row>
@@ -29162,7 +29821,7 @@
   <cols>
     <col min="1" max="1" width="32.140625" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" style="14" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="14" customWidth="1"/>
     <col min="4" max="4" width="26.85546875" style="15" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" style="14" customWidth="1"/>
     <col min="6" max="6" width="22.5703125" style="14" customWidth="1"/>
@@ -33632,7 +34291,7 @@
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="20.140625" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="23.42578125" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">

--- a/data/original/spain/euskadi/situacion-epidemiologica.xlsx
+++ b/data/original/spain/euskadi/situacion-epidemiologica.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iargueso\Desktop\covid19\Ekaina\18\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iargueso\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1613" uniqueCount="1358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="1375">
   <si>
     <t>UDALERRIA / MUNICIPIO</t>
   </si>
@@ -4100,6 +4100,57 @@
   </si>
   <si>
     <t>Santurtzi Kabiezes</t>
+  </si>
+  <si>
+    <t>2020/6/19</t>
+  </si>
+  <si>
+    <t>261250</t>
+  </si>
+  <si>
+    <t>127440</t>
+  </si>
+  <si>
+    <t>224309</t>
+  </si>
+  <si>
+    <t>189446</t>
+  </si>
+  <si>
+    <t>86583</t>
+  </si>
+  <si>
+    <t>13662</t>
+  </si>
+  <si>
+    <t>6992</t>
+  </si>
+  <si>
+    <t>20654</t>
+  </si>
+  <si>
+    <t>3326</t>
+  </si>
+  <si>
+    <t>7889</t>
+  </si>
+  <si>
+    <t>2286</t>
+  </si>
+  <si>
+    <t>4276</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>0,95</t>
+  </si>
+  <si>
+    <t>19-jun.</t>
+  </si>
+  <si>
+    <t>19/06</t>
   </si>
 </sst>
 </file>
@@ -4475,10 +4526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U118"/>
+  <dimension ref="A1:U119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V121" sqref="V121"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="S122" sqref="S122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9002,6 +9053,65 @@
         <v>1350</v>
       </c>
     </row>
+    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A119" s="6" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>1361</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>1362</v>
+      </c>
+      <c r="F119" s="6" t="s">
+        <v>1363</v>
+      </c>
+      <c r="G119" s="6" t="s">
+        <v>1364</v>
+      </c>
+      <c r="H119" s="6" t="s">
+        <v>1365</v>
+      </c>
+      <c r="I119" s="6" t="s">
+        <v>1366</v>
+      </c>
+      <c r="J119" s="6" t="s">
+        <v>1367</v>
+      </c>
+      <c r="K119" s="6" t="s">
+        <v>1368</v>
+      </c>
+      <c r="L119" s="6" t="s">
+        <v>1369</v>
+      </c>
+      <c r="M119" s="6" t="s">
+        <v>1329</v>
+      </c>
+      <c r="P119" s="6" t="s">
+        <v>1351</v>
+      </c>
+      <c r="Q119" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="R119" s="6" t="s">
+        <v>1371</v>
+      </c>
+      <c r="S119" s="6" t="s">
+        <v>1372</v>
+      </c>
+      <c r="T119" s="4" t="s">
+        <v>1169</v>
+      </c>
+      <c r="U119" s="4" t="s">
+        <v>1370</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9010,10 +9120,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F112"/>
+  <dimension ref="A1:F113"/>
   <sheetViews>
     <sheetView topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="E115" sqref="E115"/>
+      <selection activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11250,6 +11360,26 @@
         <v>2.6492023809357819</v>
       </c>
     </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B113">
+        <v>16</v>
+      </c>
+      <c r="C113" s="10">
+        <v>7.82</v>
+      </c>
+      <c r="D113" s="10">
+        <v>9.4521704927629919</v>
+      </c>
+      <c r="E113" s="10">
+        <v>9.2750336219968794</v>
+      </c>
+      <c r="F113" s="10">
+        <v>3.206929197974894</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11261,7 +11391,7 @@
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11339,10 +11469,10 @@
         <v>43</v>
       </c>
       <c r="B2" s="6">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C2" s="6">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2" s="6">
         <v>40</v>
@@ -11357,16 +11487,16 @@
         <v>100065</v>
       </c>
       <c r="H2" s="21">
-        <v>39.913418584301745</v>
+        <v>40.425129078972283</v>
       </c>
       <c r="I2" s="21">
-        <v>39.849829065206904</v>
+        <v>40.898508777449194</v>
       </c>
       <c r="J2" s="21">
         <v>39.974016889022138</v>
       </c>
       <c r="K2" s="3">
-        <v>3.7869592659125115E-3</v>
+        <v>3.8249249540040671E-3</v>
       </c>
       <c r="L2" s="6">
         <v>0</v>
@@ -11392,13 +11522,13 @@
         <v>51</v>
       </c>
       <c r="B3" s="6">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C3" s="6">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D3" s="6">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E3" s="6">
         <v>206343</v>
@@ -11410,16 +11540,16 @@
         <v>106463</v>
       </c>
       <c r="H3" s="21">
-        <v>106.61859137455596</v>
+        <v>108.07248125693627</v>
       </c>
       <c r="I3" s="21">
-        <v>117.1405686824189</v>
+        <v>119.14297156587905</v>
       </c>
       <c r="J3" s="21">
-        <v>96.747226736049143</v>
+        <v>97.686520199505935</v>
       </c>
       <c r="K3" s="3">
-        <v>1.0681167160266057E-2</v>
+        <v>1.0796940060036796E-2</v>
       </c>
       <c r="L3" s="6">
         <v>0</v>
@@ -11445,13 +11575,13 @@
         <v>44</v>
       </c>
       <c r="B4" s="6">
-        <v>1325</v>
+        <v>1330</v>
       </c>
       <c r="C4" s="6">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="D4" s="6">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="E4" s="6">
         <v>194050</v>
@@ -11463,16 +11593,16 @@
         <v>98515</v>
       </c>
       <c r="H4" s="21">
-        <v>682.81370780726616</v>
+        <v>685.39036330842566</v>
       </c>
       <c r="I4" s="21">
-        <v>949.39027581514631</v>
+        <v>952.53048620924267</v>
       </c>
       <c r="J4" s="21">
-        <v>420.24057250164947</v>
+        <v>422.27072019489418</v>
       </c>
       <c r="K4" s="3">
-        <v>6.4329756760693302E-2</v>
+        <v>6.4394306187663411E-2</v>
       </c>
       <c r="L4" s="6">
         <v>2</v>
@@ -11484,13 +11614,13 @@
         <v>1</v>
       </c>
       <c r="O4" s="3">
-        <v>1.5094339622641509E-3</v>
+        <v>1.5037593984962407E-3</v>
       </c>
       <c r="P4" s="3">
-        <v>1.1025358324145535E-3</v>
+        <v>1.0989010989010989E-3</v>
       </c>
       <c r="Q4" s="3">
-        <v>2.4154589371980675E-3</v>
+        <v>2.403846153846154E-3</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -11498,13 +11628,13 @@
         <v>45</v>
       </c>
       <c r="B5" s="6">
-        <v>2152</v>
+        <v>2161</v>
       </c>
       <c r="C5" s="6">
-        <v>1410</v>
+        <v>1414</v>
       </c>
       <c r="D5" s="6">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="E5" s="6">
         <v>266369</v>
@@ -11516,16 +11646,16 @@
         <v>133638</v>
       </c>
       <c r="H5" s="21">
-        <v>807.90182040702939</v>
+        <v>811.28059196077618</v>
       </c>
       <c r="I5" s="21">
-        <v>1062.2989354408542</v>
+        <v>1065.3125494421047</v>
       </c>
       <c r="J5" s="21">
-        <v>551.4898457025696</v>
+        <v>555.23129648752604</v>
       </c>
       <c r="K5" s="3">
-        <v>0.1044812351313298</v>
+        <v>0.10462864336206061</v>
       </c>
       <c r="L5" s="6">
         <v>5</v>
@@ -11537,13 +11667,13 @@
         <v>3</v>
       </c>
       <c r="O5" s="3">
-        <v>2.3234200743494425E-3</v>
+        <v>2.3137436372049976E-3</v>
       </c>
       <c r="P5" s="3">
-        <v>1.4184397163120568E-3</v>
+        <v>1.4144271570014145E-3</v>
       </c>
       <c r="Q5" s="3">
-        <v>4.0705563093622792E-3</v>
+        <v>4.0431266846361188E-3</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -11551,13 +11681,13 @@
         <v>46</v>
       </c>
       <c r="B6" s="6">
-        <v>3368</v>
+        <v>3384</v>
       </c>
       <c r="C6" s="6">
-        <v>2159</v>
+        <v>2168</v>
       </c>
       <c r="D6" s="6">
-        <v>1207</v>
+        <v>1214</v>
       </c>
       <c r="E6" s="6">
         <v>358785</v>
@@ -11569,16 +11699,16 @@
         <v>181632</v>
       </c>
       <c r="H6" s="21">
-        <v>938.72374820574998</v>
+        <v>943.18324344663233</v>
       </c>
       <c r="I6" s="21">
-        <v>1218.7205410012814</v>
+        <v>1223.8008952713192</v>
       </c>
       <c r="J6" s="21">
-        <v>664.53047921071175</v>
+        <v>668.38442565186756</v>
       </c>
       <c r="K6" s="3">
-        <v>0.16351895907170946</v>
+        <v>0.16384235499176916</v>
       </c>
       <c r="L6" s="6">
         <v>12</v>
@@ -11590,13 +11720,13 @@
         <v>9</v>
       </c>
       <c r="O6" s="3">
-        <v>3.5629453681710215E-3</v>
+        <v>3.5460992907801418E-3</v>
       </c>
       <c r="P6" s="3">
-        <v>1.3895321908290875E-3</v>
+        <v>1.3837638376383763E-3</v>
       </c>
       <c r="Q6" s="3">
-        <v>7.4565037282518639E-3</v>
+        <v>7.4135090609555188E-3</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -11604,13 +11734,13 @@
         <v>47</v>
       </c>
       <c r="B7" s="6">
-        <v>4155</v>
+        <v>4162</v>
       </c>
       <c r="C7" s="6">
-        <v>2554</v>
+        <v>2556</v>
       </c>
       <c r="D7" s="6">
-        <v>1597</v>
+        <v>1602</v>
       </c>
       <c r="E7" s="6">
         <v>335098</v>
@@ -11622,16 +11752,16 @@
         <v>164820</v>
       </c>
       <c r="H7" s="21">
-        <v>1239.9357799807817</v>
+        <v>1242.024721126357</v>
       </c>
       <c r="I7" s="21">
-        <v>1499.9001632624297</v>
+        <v>1501.0747131161982</v>
       </c>
       <c r="J7" s="21">
-        <v>968.93580876107274</v>
+        <v>971.96942118674917</v>
       </c>
       <c r="K7" s="3">
-        <v>0.20172840704957032</v>
+        <v>0.20151060327297377</v>
       </c>
       <c r="L7" s="6">
         <v>27</v>
@@ -11643,13 +11773,13 @@
         <v>12</v>
       </c>
       <c r="O7" s="3">
-        <v>6.4981949458483759E-3</v>
+        <v>6.4872657376261415E-3</v>
       </c>
       <c r="P7" s="3">
-        <v>5.8731401722787787E-3</v>
+        <v>5.8685446009389668E-3</v>
       </c>
       <c r="Q7" s="3">
-        <v>7.5140889167188479E-3</v>
+        <v>7.4906367041198503E-3</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -11657,13 +11787,13 @@
         <v>135</v>
       </c>
       <c r="B8" s="6">
-        <v>2770</v>
+        <v>2776</v>
       </c>
       <c r="C8" s="6">
-        <v>1428</v>
+        <v>1430</v>
       </c>
       <c r="D8" s="6">
-        <v>1333</v>
+        <v>1337</v>
       </c>
       <c r="E8" s="6">
         <v>272250</v>
@@ -11675,16 +11805,16 @@
         <v>129903</v>
       </c>
       <c r="H8" s="21">
-        <v>1017.4471992653811</v>
+        <v>1019.6510560146924</v>
       </c>
       <c r="I8" s="21">
-        <v>1003.1823642226391</v>
+        <v>1004.5873815394775</v>
       </c>
       <c r="J8" s="21">
-        <v>1026.1502813637869</v>
+        <v>1029.2295020130405</v>
       </c>
       <c r="K8" s="3">
-        <v>0.13448560469971355</v>
+        <v>0.13440495787740872</v>
       </c>
       <c r="L8" s="6">
         <v>111</v>
@@ -11696,13 +11826,13 @@
         <v>86</v>
       </c>
       <c r="O8" s="3">
-        <v>4.0072202166064982E-2</v>
+        <v>3.9985590778097983E-2</v>
       </c>
       <c r="P8" s="3">
-        <v>1.7507002801120448E-2</v>
+        <v>1.7482517482517484E-2</v>
       </c>
       <c r="Q8" s="3">
-        <v>6.4516129032258063E-2</v>
+        <v>6.4323111443530298E-2</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -11710,13 +11840,13 @@
         <v>48</v>
       </c>
       <c r="B9" s="6">
-        <v>2261</v>
+        <v>2265</v>
       </c>
       <c r="C9" s="6">
         <v>1050</v>
       </c>
       <c r="D9" s="6">
-        <v>1211</v>
+        <v>1215</v>
       </c>
       <c r="E9" s="6">
         <v>202172</v>
@@ -11728,16 +11858,16 @@
         <v>91022</v>
       </c>
       <c r="H9" s="21">
-        <v>1118.3546683022378</v>
+        <v>1120.3331816473103</v>
       </c>
       <c r="I9" s="21">
         <v>944.66936572199734</v>
       </c>
       <c r="J9" s="21">
-        <v>1330.4475841005471</v>
+        <v>1334.8421260794094</v>
       </c>
       <c r="K9" s="3">
-        <v>0.10977326795164344</v>
+        <v>0.10966398760530648</v>
       </c>
       <c r="L9" s="6">
         <v>308</v>
@@ -11749,13 +11879,13 @@
         <v>214</v>
       </c>
       <c r="O9" s="3">
-        <v>0.13622291021671826</v>
+        <v>0.13598233995584988</v>
       </c>
       <c r="P9" s="3">
         <v>8.9523809523809519E-2</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.17671345995045418</v>
+        <v>0.17613168724279835</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -11763,13 +11893,13 @@
         <v>49</v>
       </c>
       <c r="B10" s="6">
-        <v>2667</v>
+        <v>2672</v>
       </c>
       <c r="C10" s="6">
-        <v>1663</v>
+        <v>1667</v>
       </c>
       <c r="D10" s="6">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="E10" s="6">
         <v>127540</v>
@@ -11781,16 +11911,16 @@
         <v>47942</v>
       </c>
       <c r="H10" s="21">
-        <v>2091.1086717892426</v>
+        <v>2095.0290105065078</v>
       </c>
       <c r="I10" s="21">
-        <v>2089.2484735797384</v>
+        <v>2094.2737254704894</v>
       </c>
       <c r="J10" s="21">
-        <v>2092.1113011555631</v>
+        <v>2094.1971548954989</v>
       </c>
       <c r="K10" s="3">
-        <v>0.12948487643831627</v>
+        <v>0.12936961363416288</v>
       </c>
       <c r="L10" s="6">
         <v>648</v>
@@ -11802,13 +11932,13 @@
         <v>323</v>
       </c>
       <c r="O10" s="3">
-        <v>0.24296962879640044</v>
+        <v>0.24251497005988024</v>
       </c>
       <c r="P10" s="3">
-        <v>0.19542994588093807</v>
+        <v>0.19496100779844031</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.32203389830508472</v>
+        <v>0.32171314741035856</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -11816,10 +11946,10 @@
         <v>136</v>
       </c>
       <c r="B11" s="6">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="C11" s="6">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="D11" s="6">
         <v>332</v>
@@ -11834,16 +11964,16 @@
         <v>7597</v>
       </c>
       <c r="H11" s="21">
-        <v>5065.5283956381099</v>
+        <v>5068.8631740420851</v>
       </c>
       <c r="I11" s="21">
-        <v>5301.4738722644033</v>
+        <v>5305.940151853506</v>
       </c>
       <c r="J11" s="21">
         <v>4370.1461103067004</v>
       </c>
       <c r="K11" s="3">
-        <v>7.3748604165655193E-2</v>
+        <v>7.3593492785901035E-2</v>
       </c>
       <c r="L11" s="6">
         <v>477</v>
@@ -11855,10 +11985,10 @@
         <v>141</v>
       </c>
       <c r="O11" s="3">
-        <v>0.31402238314680708</v>
+        <v>0.31381578947368421</v>
       </c>
       <c r="P11" s="3">
-        <v>0.2830665543386689</v>
+        <v>0.28282828282828282</v>
       </c>
       <c r="Q11" s="3">
         <v>0.4246987951807229</v>
@@ -11881,7 +12011,7 @@
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="3">
-        <v>3.9811623051900762E-3</v>
+        <v>3.9701752687130824E-3</v>
       </c>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
@@ -11892,13 +12022,13 @@
         <v>50</v>
       </c>
       <c r="B13">
-        <v>20597</v>
+        <v>20654</v>
       </c>
       <c r="C13">
-        <v>12566</v>
+        <v>12594</v>
       </c>
       <c r="D13">
-        <v>8006</v>
+        <v>8035</v>
       </c>
       <c r="E13">
         <v>2188017</v>
@@ -11910,13 +12040,13 @@
         <v>1061597</v>
       </c>
       <c r="H13" s="18">
-        <v>941.35466040711754</v>
+        <v>943.95975899638802</v>
       </c>
       <c r="I13" s="18">
-        <v>1115.5696809360629</v>
+        <v>1118.055432254399</v>
       </c>
       <c r="J13" s="18">
-        <v>754.14681842544769</v>
+        <v>756.87855184217744</v>
       </c>
       <c r="K13" s="3">
         <v>1</v>
@@ -11931,13 +12061,13 @@
         <v>793</v>
       </c>
       <c r="O13" s="3">
-        <v>7.782686799048405E-2</v>
+        <v>7.7612084826183786E-2</v>
       </c>
       <c r="P13" s="3">
-        <v>6.4459653031991082E-2</v>
+        <v>6.4316341114816586E-2</v>
       </c>
       <c r="Q13" s="3">
-        <v>9.9050711966025481E-2</v>
+        <v>9.8693217174859987E-2</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -12132,10 +12262,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL68"/>
+  <dimension ref="A1:AM68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A68" sqref="A68:XFD68"/>
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12144,12 +12274,12 @@
     <col min="2" max="8" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -12264,8 +12394,11 @@
       <c r="AL2" t="s">
         <v>1355</v>
       </c>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM2" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -12380,8 +12513,11 @@
       <c r="AL3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>498</v>
       </c>
@@ -12496,8 +12632,11 @@
       <c r="AL4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>329</v>
       </c>
@@ -12612,8 +12751,11 @@
       <c r="AL5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>150</v>
       </c>
@@ -12728,8 +12870,11 @@
       <c r="AL6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>311</v>
       </c>
@@ -12844,8 +12989,11 @@
       <c r="AL7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -12960,8 +13108,11 @@
       <c r="AL8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -13076,8 +13227,11 @@
       <c r="AL9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -13192,8 +13346,11 @@
       <c r="AL10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>643</v>
       </c>
@@ -13308,8 +13465,11 @@
       <c r="AL11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>230</v>
       </c>
@@ -13424,8 +13584,11 @@
       <c r="AL12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>494</v>
       </c>
@@ -13540,8 +13703,11 @@
       <c r="AL13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>291</v>
       </c>
@@ -13656,8 +13822,11 @@
       <c r="AL14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -13772,8 +13941,11 @@
       <c r="AL15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>166</v>
       </c>
@@ -13888,8 +14060,11 @@
       <c r="AL16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>292</v>
       </c>
@@ -14004,8 +14179,11 @@
       <c r="AL17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -14120,8 +14298,11 @@
       <c r="AL18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -14236,8 +14417,11 @@
       <c r="AL19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -14352,8 +14536,11 @@
       <c r="AL20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>530</v>
       </c>
@@ -14468,8 +14655,11 @@
       <c r="AL21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -14584,8 +14774,11 @@
       <c r="AL22">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>536</v>
       </c>
@@ -14700,8 +14893,11 @@
       <c r="AL23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -14816,8 +15012,11 @@
       <c r="AL24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>167</v>
       </c>
@@ -14932,8 +15131,11 @@
       <c r="AL25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>168</v>
       </c>
@@ -15048,8 +15250,11 @@
       <c r="AL26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>550</v>
       </c>
@@ -15164,8 +15369,11 @@
       <c r="AL27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -15280,8 +15488,11 @@
       <c r="AL28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>559</v>
       </c>
@@ -15306,8 +15517,11 @@
       <c r="AL29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -15422,8 +15636,11 @@
       <c r="AL30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -15538,8 +15755,11 @@
       <c r="AL31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>54</v>
       </c>
@@ -15654,8 +15874,11 @@
       <c r="AL32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>566</v>
       </c>
@@ -15770,8 +15993,11 @@
       <c r="AL33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -15886,8 +16112,11 @@
       <c r="AL34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -16002,8 +16231,11 @@
       <c r="AL35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>162</v>
       </c>
@@ -16118,8 +16350,11 @@
       <c r="AL36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>596</v>
       </c>
@@ -16234,8 +16469,11 @@
       <c r="AL37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>16</v>
       </c>
@@ -16350,8 +16588,11 @@
       <c r="AL38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -16466,8 +16707,11 @@
       <c r="AL39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>482</v>
       </c>
@@ -16582,8 +16826,11 @@
       <c r="AL40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>624</v>
       </c>
@@ -16698,8 +16945,11 @@
       <c r="AL41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>626</v>
       </c>
@@ -16814,8 +17064,11 @@
       <c r="AL42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -16930,8 +17183,11 @@
       <c r="AL43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>21</v>
       </c>
@@ -17046,8 +17302,11 @@
       <c r="AL44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>55</v>
       </c>
@@ -17162,8 +17421,11 @@
       <c r="AL45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>634</v>
       </c>
@@ -17278,8 +17540,11 @@
       <c r="AL46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>163</v>
       </c>
@@ -17394,8 +17659,11 @@
       <c r="AL47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>231</v>
       </c>
@@ -17510,8 +17778,11 @@
       <c r="AL48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>151</v>
       </c>
@@ -17626,8 +17897,11 @@
       <c r="AL49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>653</v>
       </c>
@@ -17742,8 +18016,11 @@
       <c r="AL50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>23</v>
       </c>
@@ -17858,8 +18135,11 @@
       <c r="AL51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>655</v>
       </c>
@@ -17974,8 +18254,11 @@
       <c r="AL52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>2</v>
       </c>
@@ -18090,8 +18373,11 @@
       <c r="AL53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>504</v>
       </c>
@@ -18206,8 +18492,11 @@
       <c r="AL54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>152</v>
       </c>
@@ -18322,8 +18611,11 @@
       <c r="AL55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>153</v>
       </c>
@@ -18438,8 +18730,11 @@
       <c r="AL56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -18554,8 +18849,11 @@
       <c r="AL57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>541</v>
       </c>
@@ -18670,8 +18968,11 @@
       <c r="AL58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>154</v>
       </c>
@@ -18786,8 +19087,11 @@
       <c r="AL59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>569</v>
       </c>
@@ -18821,8 +19125,11 @@
       <c r="AL60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>13</v>
       </c>
@@ -18937,8 +19244,11 @@
       <c r="AL61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>232</v>
       </c>
@@ -19053,8 +19363,11 @@
       <c r="AL62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>621</v>
       </c>
@@ -19169,8 +19482,11 @@
       <c r="AL63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>622</v>
       </c>
@@ -19285,8 +19601,11 @@
       <c r="AL64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>620</v>
       </c>
@@ -19401,8 +19720,11 @@
       <c r="AL65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>155</v>
       </c>
@@ -19517,8 +19839,11 @@
       <c r="AL66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>24</v>
       </c>
@@ -19633,8 +19958,11 @@
       <c r="AL67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>25</v>
       </c>
@@ -19747,6 +20075,9 @@
         <v>0</v>
       </c>
       <c r="AL68">
+        <v>0</v>
+      </c>
+      <c r="AM68">
         <v>0</v>
       </c>
     </row>
@@ -19761,10 +20092,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL102"/>
+  <dimension ref="A1:AM102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:AL102"/>
+      <selection activeCell="AJ11" sqref="AJ11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19775,12 +20106,12 @@
     <col min="7" max="8" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>856</v>
       </c>
@@ -19895,8 +20226,11 @@
       <c r="AL2" t="s">
         <v>1355</v>
       </c>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM2" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>858</v>
       </c>
@@ -20011,8 +20345,11 @@
       <c r="AL3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>859</v>
       </c>
@@ -20127,8 +20464,11 @@
       <c r="AL4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>860</v>
       </c>
@@ -20243,8 +20583,11 @@
       <c r="AL5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>861</v>
       </c>
@@ -20359,8 +20702,11 @@
       <c r="AL6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>862</v>
       </c>
@@ -20475,8 +20821,11 @@
       <c r="AL7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1270</v>
       </c>
@@ -20591,8 +20940,11 @@
       <c r="AL8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>863</v>
       </c>
@@ -20707,8 +21059,11 @@
       <c r="AL9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>864</v>
       </c>
@@ -20823,8 +21178,11 @@
       <c r="AL10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>865</v>
       </c>
@@ -20939,8 +21297,11 @@
       <c r="AL11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>866</v>
       </c>
@@ -21055,8 +21416,11 @@
       <c r="AL12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>867</v>
       </c>
@@ -21171,8 +21535,11 @@
       <c r="AL13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>868</v>
       </c>
@@ -21287,8 +21654,11 @@
       <c r="AL14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>869</v>
       </c>
@@ -21403,8 +21773,11 @@
       <c r="AL15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>870</v>
       </c>
@@ -21519,8 +21892,11 @@
       <c r="AL16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>871</v>
       </c>
@@ -21635,8 +22011,11 @@
       <c r="AL17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>872</v>
       </c>
@@ -21751,8 +22130,11 @@
       <c r="AL18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>873</v>
       </c>
@@ -21867,8 +22249,11 @@
       <c r="AL19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>874</v>
       </c>
@@ -21983,8 +22368,11 @@
       <c r="AL20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1181</v>
       </c>
@@ -22099,8 +22487,11 @@
       <c r="AL21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1271</v>
       </c>
@@ -22215,8 +22606,11 @@
       <c r="AL22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>875</v>
       </c>
@@ -22331,8 +22725,11 @@
       <c r="AL23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>876</v>
       </c>
@@ -22447,8 +22844,11 @@
       <c r="AL24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>877</v>
       </c>
@@ -22563,8 +22963,11 @@
       <c r="AL25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>878</v>
       </c>
@@ -22679,8 +23082,11 @@
       <c r="AL26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>879</v>
       </c>
@@ -22795,8 +23201,11 @@
       <c r="AL27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>880</v>
       </c>
@@ -22911,8 +23320,11 @@
       <c r="AL28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>881</v>
       </c>
@@ -23027,8 +23439,11 @@
       <c r="AL29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>882</v>
       </c>
@@ -23143,8 +23558,11 @@
       <c r="AL30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1272</v>
       </c>
@@ -23259,8 +23677,11 @@
       <c r="AL31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1202</v>
       </c>
@@ -23375,8 +23796,11 @@
       <c r="AL32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>963</v>
       </c>
@@ -23491,8 +23915,11 @@
       <c r="AL33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>883</v>
       </c>
@@ -23607,8 +24034,11 @@
       <c r="AL34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>884</v>
       </c>
@@ -23723,8 +24153,11 @@
       <c r="AL35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1067</v>
       </c>
@@ -23839,8 +24272,11 @@
       <c r="AL36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>885</v>
       </c>
@@ -23955,8 +24391,11 @@
       <c r="AL37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>1086</v>
       </c>
@@ -24071,8 +24510,11 @@
       <c r="AL38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>886</v>
       </c>
@@ -24187,8 +24629,11 @@
       <c r="AL39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>925</v>
       </c>
@@ -24303,8 +24748,11 @@
       <c r="AL40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>1143</v>
       </c>
@@ -24419,8 +24867,11 @@
       <c r="AL41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>1296</v>
       </c>
@@ -24454,8 +24905,11 @@
       <c r="AL42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>887</v>
       </c>
@@ -24570,8 +25024,11 @@
       <c r="AL43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>888</v>
       </c>
@@ -24686,8 +25143,11 @@
       <c r="AL44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>889</v>
       </c>
@@ -24802,8 +25262,11 @@
       <c r="AL45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>890</v>
       </c>
@@ -24918,8 +25381,11 @@
       <c r="AL46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>891</v>
       </c>
@@ -25034,8 +25500,11 @@
       <c r="AL47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>892</v>
       </c>
@@ -25150,8 +25619,11 @@
       <c r="AL48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>893</v>
       </c>
@@ -25266,8 +25738,11 @@
       <c r="AL49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>894</v>
       </c>
@@ -25382,8 +25857,11 @@
       <c r="AL50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>1356</v>
       </c>
@@ -25408,8 +25886,11 @@
       <c r="AL51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>895</v>
       </c>
@@ -25524,8 +26005,11 @@
       <c r="AL52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>896</v>
       </c>
@@ -25640,8 +26124,11 @@
       <c r="AL53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>897</v>
       </c>
@@ -25756,8 +26243,11 @@
       <c r="AL54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>898</v>
       </c>
@@ -25872,8 +26362,11 @@
       <c r="AL55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>899</v>
       </c>
@@ -25988,8 +26481,11 @@
       <c r="AL56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>900</v>
       </c>
@@ -26104,8 +26600,11 @@
       <c r="AL57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>1273</v>
       </c>
@@ -26220,8 +26719,11 @@
       <c r="AL58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>901</v>
       </c>
@@ -26336,8 +26838,11 @@
       <c r="AL59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>902</v>
       </c>
@@ -26452,8 +26957,11 @@
       <c r="AL60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>903</v>
       </c>
@@ -26568,8 +27076,11 @@
       <c r="AL61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>904</v>
       </c>
@@ -26684,8 +27195,11 @@
       <c r="AL62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>1274</v>
       </c>
@@ -26800,8 +27314,11 @@
       <c r="AL63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>905</v>
       </c>
@@ -26916,8 +27433,11 @@
       <c r="AL64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>906</v>
       </c>
@@ -27032,8 +27552,11 @@
       <c r="AL65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>164</v>
       </c>
@@ -27148,8 +27671,11 @@
       <c r="AL66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>1275</v>
       </c>
@@ -27264,8 +27790,11 @@
       <c r="AL67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>1276</v>
       </c>
@@ -27380,8 +27909,11 @@
       <c r="AL68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>1277</v>
       </c>
@@ -27496,8 +28028,11 @@
       <c r="AL69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>907</v>
       </c>
@@ -27612,8 +28147,11 @@
       <c r="AL70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>1315</v>
       </c>
@@ -27644,8 +28182,11 @@
       <c r="AL71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>27</v>
       </c>
@@ -27760,8 +28301,11 @@
       <c r="AL72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>28</v>
       </c>
@@ -27876,8 +28420,11 @@
       <c r="AL73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>29</v>
       </c>
@@ -27992,8 +28539,11 @@
       <c r="AL74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>30</v>
       </c>
@@ -28108,8 +28658,11 @@
       <c r="AL75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>31</v>
       </c>
@@ -28224,8 +28777,11 @@
       <c r="AL76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>1048</v>
       </c>
@@ -28340,8 +28896,11 @@
       <c r="AL77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>52</v>
       </c>
@@ -28456,8 +29015,11 @@
       <c r="AL78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>32</v>
       </c>
@@ -28572,8 +29134,11 @@
       <c r="AL79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>33</v>
       </c>
@@ -28688,8 +29253,11 @@
       <c r="AL80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>34</v>
       </c>
@@ -28804,8 +29372,11 @@
       <c r="AL81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>35</v>
       </c>
@@ -28920,8 +29491,11 @@
       <c r="AL82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>36</v>
       </c>
@@ -29036,8 +29610,11 @@
       <c r="AL83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>1357</v>
       </c>
@@ -29062,8 +29639,11 @@
       <c r="AL84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>37</v>
       </c>
@@ -29178,8 +29758,11 @@
       <c r="AL85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>330</v>
       </c>
@@ -29294,8 +29877,11 @@
       <c r="AL86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>53</v>
       </c>
@@ -29410,8 +29996,11 @@
       <c r="AL87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>1162</v>
       </c>
@@ -29526,8 +30115,11 @@
       <c r="AL88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>156</v>
       </c>
@@ -29642,8 +30234,11 @@
       <c r="AL89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>38</v>
       </c>
@@ -29758,8 +30353,11 @@
       <c r="AL90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>39</v>
       </c>
@@ -29874,8 +30472,11 @@
       <c r="AL91">
         <v>2</v>
       </c>
-    </row>
-    <row r="92" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>157</v>
       </c>
@@ -29990,8 +30591,11 @@
       <c r="AL92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>40</v>
       </c>
@@ -30106,8 +30710,11 @@
       <c r="AL93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>331</v>
       </c>
@@ -30222,8 +30829,11 @@
       <c r="AL94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>1182</v>
       </c>
@@ -30338,8 +30948,11 @@
       <c r="AL95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>981</v>
       </c>
@@ -30454,8 +31067,11 @@
       <c r="AL96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>158</v>
       </c>
@@ -30570,8 +31186,11 @@
       <c r="AL97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>169</v>
       </c>
@@ -30686,8 +31305,11 @@
       <c r="AL98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>41</v>
       </c>
@@ -30802,8 +31424,11 @@
       <c r="AL99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>159</v>
       </c>
@@ -30918,8 +31543,11 @@
       <c r="AL100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>233</v>
       </c>
@@ -31034,8 +31662,11 @@
       <c r="AL101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>42</v>
       </c>
@@ -31149,6 +31780,9 @@
       </c>
       <c r="AL102">
         <v>0</v>
+      </c>
+      <c r="AM102">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -38783,7 +39417,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/data/original/spain/euskadi/situacion-epidemiologica.xlsx
+++ b/data/original/spain/euskadi/situacion-epidemiologica.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iargueso\Desktop\covid19\Ekaina\24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iargueso\Desktop\covid19\Ekaina\25\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8610"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8610" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="01" sheetId="17" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="1479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1801" uniqueCount="1496">
   <si>
     <t>UDALERRIA / MUNICIPIO</t>
   </si>
@@ -4463,6 +4463,57 @@
   </si>
   <si>
     <t>2020/06/22 (Ultima actualización / Azken eguneratzea)</t>
+  </si>
+  <si>
+    <t>2020/6/25</t>
+  </si>
+  <si>
+    <t>279187</t>
+  </si>
+  <si>
+    <t>129048</t>
+  </si>
+  <si>
+    <t>236132</t>
+  </si>
+  <si>
+    <t>200422</t>
+  </si>
+  <si>
+    <t>91600</t>
+  </si>
+  <si>
+    <t>13719</t>
+  </si>
+  <si>
+    <t>7132</t>
+  </si>
+  <si>
+    <t>20851</t>
+  </si>
+  <si>
+    <t>3343</t>
+  </si>
+  <si>
+    <t>7906</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>0,93</t>
+  </si>
+  <si>
+    <t>13697</t>
+  </si>
+  <si>
+    <t>4303</t>
+  </si>
+  <si>
+    <t>25-jun.</t>
+  </si>
+  <si>
+    <t>25/06</t>
   </si>
 </sst>
 </file>
@@ -4839,11 +4890,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y124"/>
+  <dimension ref="A1:Y125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="W127" sqref="W127"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9816,6 +9865,77 @@
         <v>467.51450438303561</v>
       </c>
     </row>
+    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A125" s="6" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>1482</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>1483</v>
+      </c>
+      <c r="F125" s="6" t="s">
+        <v>1484</v>
+      </c>
+      <c r="G125" s="6" t="s">
+        <v>1485</v>
+      </c>
+      <c r="H125" s="6" t="s">
+        <v>1486</v>
+      </c>
+      <c r="I125" s="6" t="s">
+        <v>1487</v>
+      </c>
+      <c r="J125" s="6" t="s">
+        <v>1488</v>
+      </c>
+      <c r="K125" s="6" t="s">
+        <v>1489</v>
+      </c>
+      <c r="L125" s="6" t="s">
+        <v>1490</v>
+      </c>
+      <c r="M125" s="6" t="s">
+        <v>1470</v>
+      </c>
+      <c r="P125" s="6" t="s">
+        <v>1471</v>
+      </c>
+      <c r="Q125" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="R125" s="6" t="s">
+        <v>1313</v>
+      </c>
+      <c r="S125" s="6" t="s">
+        <v>1491</v>
+      </c>
+      <c r="T125" s="4" t="s">
+        <v>1492</v>
+      </c>
+      <c r="U125" s="4" t="s">
+        <v>1493</v>
+      </c>
+      <c r="V125" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="W125" s="4">
+        <v>1634.0058603457055</v>
+      </c>
+      <c r="X125" s="4">
+        <v>1033.9912482182749</v>
+      </c>
+      <c r="Y125" s="4">
+        <v>469.04825312989317</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9824,7 +9944,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F118"/>
+  <dimension ref="A1:F119"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12179,6 +12299,26 @@
       </c>
       <c r="F118" s="10">
         <v>5.2984047618715637</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B119">
+        <v>9</v>
+      </c>
+      <c r="C119" s="10">
+        <v>7.18</v>
+      </c>
+      <c r="D119" s="10">
+        <v>10.976714120627991</v>
+      </c>
+      <c r="E119" s="10">
+        <v>5.6875206172622379</v>
+      </c>
+      <c r="F119" s="10">
+        <v>4.3223828320531181</v>
       </c>
     </row>
   </sheetData>
@@ -12268,13 +12408,13 @@
         <v>43</v>
       </c>
       <c r="B2" s="6">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C2" s="6">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D2" s="6">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E2" s="6">
         <v>195423</v>
@@ -12286,16 +12426,16 @@
         <v>100065</v>
       </c>
       <c r="H2" s="21">
-        <v>43.495392046995491</v>
+        <v>45.030523531007098</v>
       </c>
       <c r="I2" s="21">
-        <v>44.04454791417605</v>
+        <v>46.141907338660623</v>
       </c>
       <c r="J2" s="21">
-        <v>42.972068155698793</v>
+        <v>43.971418577924346</v>
       </c>
       <c r="K2" s="3">
-        <v>4.0826128722382324E-3</v>
+        <v>4.2204210829216828E-3</v>
       </c>
       <c r="L2" s="6">
         <v>0</v>
@@ -12321,13 +12461,13 @@
         <v>51</v>
       </c>
       <c r="B3" s="6">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C3" s="6">
         <v>126</v>
       </c>
       <c r="D3" s="6">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E3" s="6">
         <v>206343</v>
@@ -12339,16 +12479,16 @@
         <v>106463</v>
       </c>
       <c r="H3" s="21">
-        <v>113.88804078645749</v>
+        <v>114.85730070804438</v>
       </c>
       <c r="I3" s="21">
         <v>126.15138165798959</v>
       </c>
       <c r="J3" s="21">
-        <v>102.38298751678987</v>
+        <v>104.26157444370345</v>
       </c>
       <c r="K3" s="3">
-        <v>1.1287223823246878E-2</v>
+        <v>1.1366361325595894E-2</v>
       </c>
       <c r="L3" s="6">
         <v>0</v>
@@ -12401,7 +12541,7 @@
         <v>428.36116327462821</v>
       </c>
       <c r="K4" s="3">
-        <v>6.4601344860710855E-2</v>
+        <v>6.4505299506018896E-2</v>
       </c>
       <c r="L4" s="6">
         <v>2</v>
@@ -12427,13 +12567,13 @@
         <v>45</v>
       </c>
       <c r="B5" s="6">
-        <v>2190</v>
+        <v>2192</v>
       </c>
       <c r="C5" s="6">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="D5" s="6">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="E5" s="6">
         <v>266369</v>
@@ -12445,16 +12585,16 @@
         <v>133638</v>
       </c>
       <c r="H5" s="21">
-        <v>822.16774474507167</v>
+        <v>822.91858286812658</v>
       </c>
       <c r="I5" s="21">
-        <v>1077.3670054471072</v>
+        <v>1078.1204089474199</v>
       </c>
       <c r="J5" s="21">
-        <v>564.95906852841256</v>
+        <v>565.70735868540385</v>
       </c>
       <c r="K5" s="3">
-        <v>0.10518731988472622</v>
+        <v>0.10512685242914009</v>
       </c>
       <c r="L5" s="6">
         <v>5</v>
@@ -12466,13 +12606,13 @@
         <v>3</v>
       </c>
       <c r="O5" s="3">
-        <v>2.2831050228310501E-3</v>
+        <v>2.2810218978102188E-3</v>
       </c>
       <c r="P5" s="3">
-        <v>1.3986013986013986E-3</v>
+        <v>1.397624039133473E-3</v>
       </c>
       <c r="Q5" s="3">
-        <v>3.9735099337748344E-3</v>
+        <v>3.968253968253968E-3</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -12480,13 +12620,13 @@
         <v>46</v>
       </c>
       <c r="B6" s="6">
-        <v>3420</v>
+        <v>3430</v>
       </c>
       <c r="C6" s="6">
-        <v>2182</v>
+        <v>2186</v>
       </c>
       <c r="D6" s="6">
-        <v>1236</v>
+        <v>1242</v>
       </c>
       <c r="E6" s="6">
         <v>358785</v>
@@ -12498,16 +12638,16 @@
         <v>181632</v>
       </c>
       <c r="H6" s="21">
-        <v>953.21710773861787</v>
+        <v>956.00429226416929</v>
       </c>
       <c r="I6" s="21">
-        <v>1231.7036685802668</v>
+        <v>1233.9616038113948</v>
       </c>
       <c r="J6" s="21">
-        <v>680.49682875264273</v>
+        <v>683.80021141649047</v>
       </c>
       <c r="K6" s="3">
-        <v>0.16426512968299711</v>
+        <v>0.16450050357297011</v>
       </c>
       <c r="L6" s="6">
         <v>12</v>
@@ -12519,13 +12659,13 @@
         <v>9</v>
       </c>
       <c r="O6" s="3">
-        <v>3.5087719298245615E-3</v>
+        <v>3.4985422740524781E-3</v>
       </c>
       <c r="P6" s="3">
-        <v>1.3748854262144821E-3</v>
+        <v>1.3723696248856359E-3</v>
       </c>
       <c r="Q6" s="3">
-        <v>7.2815533980582527E-3</v>
+        <v>7.246376811594203E-3</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -12533,13 +12673,13 @@
         <v>47</v>
       </c>
       <c r="B7" s="6">
-        <v>4187</v>
+        <v>4195</v>
       </c>
       <c r="C7" s="6">
-        <v>2567</v>
+        <v>2571</v>
       </c>
       <c r="D7" s="6">
-        <v>1616</v>
+        <v>1620</v>
       </c>
       <c r="E7" s="6">
         <v>335098</v>
@@ -12551,16 +12691,16 @@
         <v>164820</v>
       </c>
       <c r="H7" s="21">
-        <v>1249.4852252176975</v>
+        <v>1251.8725865269264</v>
       </c>
       <c r="I7" s="21">
-        <v>1507.5347373119253</v>
+        <v>1509.8838370194624</v>
       </c>
       <c r="J7" s="21">
-        <v>980.46353597864334</v>
+        <v>982.89042591918451</v>
       </c>
       <c r="K7" s="3">
-        <v>0.201104707012488</v>
+        <v>0.20118939139609612</v>
       </c>
       <c r="L7" s="6">
         <v>27</v>
@@ -12572,13 +12712,13 @@
         <v>12</v>
       </c>
       <c r="O7" s="3">
-        <v>6.4485311679006452E-3</v>
+        <v>6.4362336114421933E-3</v>
       </c>
       <c r="P7" s="3">
-        <v>5.8433969614335802E-3</v>
+        <v>5.8343057176196032E-3</v>
       </c>
       <c r="Q7" s="3">
-        <v>7.4257425742574254E-3</v>
+        <v>7.4074074074074077E-3</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -12586,13 +12726,13 @@
         <v>135</v>
       </c>
       <c r="B8" s="6">
-        <v>2798</v>
+        <v>2804</v>
       </c>
       <c r="C8" s="6">
-        <v>1448</v>
+        <v>1451</v>
       </c>
       <c r="D8" s="6">
-        <v>1341</v>
+        <v>1344</v>
       </c>
       <c r="E8" s="6">
         <v>272250</v>
@@ -12604,16 +12744,16 @@
         <v>129903</v>
       </c>
       <c r="H8" s="21">
-        <v>1027.7318640955004</v>
+        <v>1029.9357208448118</v>
       </c>
       <c r="I8" s="21">
-        <v>1017.2325373910234</v>
+        <v>1019.340063366281</v>
       </c>
       <c r="J8" s="21">
-        <v>1032.3087226622943</v>
+        <v>1034.6181381492345</v>
       </c>
       <c r="K8" s="3">
-        <v>0.13439000960614794</v>
+        <v>0.13447796268764087</v>
       </c>
       <c r="L8" s="6">
         <v>111</v>
@@ -12625,13 +12765,13 @@
         <v>86</v>
       </c>
       <c r="O8" s="3">
-        <v>3.9671193709792711E-2</v>
+        <v>3.9586305278174035E-2</v>
       </c>
       <c r="P8" s="3">
-        <v>1.7265193370165747E-2</v>
+        <v>1.722949689869056E-2</v>
       </c>
       <c r="Q8" s="3">
-        <v>6.4131245339299037E-2</v>
+        <v>6.3988095238095233E-2</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -12666,7 +12806,7 @@
         <v>1341.4339390477028</v>
       </c>
       <c r="K9" s="3">
-        <v>0.1095581171950048</v>
+        <v>0.10939523284254951</v>
       </c>
       <c r="L9" s="6">
         <v>308</v>
@@ -12719,7 +12859,7 @@
         <v>2094.1971548954989</v>
       </c>
       <c r="K10" s="3">
-        <v>0.12843419788664745</v>
+        <v>0.12824324972423384</v>
       </c>
       <c r="L10" s="6">
         <v>654</v>
@@ -12772,7 +12912,7 @@
         <v>4370.1461103067004</v>
       </c>
       <c r="K11" s="3">
-        <v>7.305475504322767E-2</v>
+        <v>7.2946141671862266E-2</v>
       </c>
       <c r="L11" s="6">
         <v>477</v>
@@ -12810,7 +12950,7 @@
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="3">
-        <v>4.0345821325648411E-3</v>
+        <v>4.0285837609706967E-3</v>
       </c>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
@@ -12821,13 +12961,13 @@
         <v>50</v>
       </c>
       <c r="B13">
-        <v>20820</v>
+        <v>20851</v>
       </c>
       <c r="C13">
-        <v>12685</v>
+        <v>12699</v>
       </c>
       <c r="D13">
-        <v>8110</v>
+        <v>8127</v>
       </c>
       <c r="E13">
         <v>2188017</v>
@@ -12839,13 +12979,13 @@
         <v>1061597</v>
       </c>
       <c r="H13" s="18">
-        <v>951.54653734408828</v>
+        <v>952.96334534877928</v>
       </c>
       <c r="I13" s="18">
-        <v>1126.1341240389909</v>
+        <v>1127.3769996981587</v>
       </c>
       <c r="J13" s="18">
-        <v>763.94337964406452</v>
+        <v>765.54474061249232</v>
       </c>
       <c r="K13" s="3">
         <v>1</v>
@@ -12860,13 +13000,13 @@
         <v>794</v>
       </c>
       <c r="O13" s="3">
-        <v>7.7281460134486071E-2</v>
+        <v>7.7166562754783938E-2</v>
       </c>
       <c r="P13" s="3">
-        <v>6.4249113125739069E-2</v>
+        <v>6.4178281754468852E-2</v>
       </c>
       <c r="Q13" s="3">
-        <v>9.7903822441430338E-2</v>
+        <v>9.7699027931586066E-2</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -13061,7 +13201,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR74"/>
+  <dimension ref="A1:AS74"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13072,12 +13212,12 @@
     <col min="40" max="40" width="8.85546875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -13210,8 +13350,11 @@
       <c r="AR2" t="s">
         <v>1475</v>
       </c>
-    </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS2" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -13344,8 +13487,11 @@
       <c r="AR3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>497</v>
       </c>
@@ -13478,8 +13624,11 @@
       <c r="AR4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>328</v>
       </c>
@@ -13612,8 +13761,11 @@
       <c r="AR5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>149</v>
       </c>
@@ -13746,8 +13898,11 @@
       <c r="AR6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>310</v>
       </c>
@@ -13880,8 +14035,11 @@
       <c r="AR7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -14014,8 +14172,11 @@
       <c r="AR8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -14148,8 +14309,11 @@
       <c r="AR9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -14282,8 +14446,11 @@
       <c r="AR10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>642</v>
       </c>
@@ -14416,8 +14583,11 @@
       <c r="AR11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>653</v>
       </c>
@@ -14454,8 +14624,11 @@
       <c r="AR12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>229</v>
       </c>
@@ -14588,8 +14761,11 @@
       <c r="AR13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>493</v>
       </c>
@@ -14722,8 +14898,11 @@
       <c r="AR14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>290</v>
       </c>
@@ -14856,8 +15035,11 @@
       <c r="AR15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>509</v>
       </c>
@@ -14897,8 +15079,11 @@
       <c r="AR16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -15031,8 +15216,11 @@
       <c r="AR17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>165</v>
       </c>
@@ -15165,8 +15353,11 @@
       <c r="AR18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>291</v>
       </c>
@@ -15299,8 +15490,11 @@
       <c r="AR19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -15433,8 +15627,11 @@
       <c r="AR20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -15567,8 +15764,11 @@
       <c r="AR21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -15701,8 +15901,11 @@
       <c r="AR22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>529</v>
       </c>
@@ -15835,8 +16038,11 @@
       <c r="AR23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>532</v>
       </c>
@@ -15864,8 +16070,11 @@
       <c r="AR24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -15998,8 +16207,11 @@
       <c r="AR25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>535</v>
       </c>
@@ -16132,8 +16344,11 @@
       <c r="AR26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -16266,8 +16481,11 @@
       <c r="AR27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>166</v>
       </c>
@@ -16400,8 +16618,11 @@
       <c r="AR28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>167</v>
       </c>
@@ -16534,8 +16755,11 @@
       <c r="AR29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>549</v>
       </c>
@@ -16668,8 +16892,11 @@
       <c r="AR30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -16802,8 +17029,11 @@
       <c r="AR31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>558</v>
       </c>
@@ -16846,8 +17076,11 @@
       <c r="AR32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -16980,8 +17213,11 @@
       <c r="AR33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -17114,8 +17350,11 @@
       <c r="AR34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>54</v>
       </c>
@@ -17248,8 +17487,11 @@
       <c r="AR35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>565</v>
       </c>
@@ -17382,8 +17624,11 @@
       <c r="AR36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -17516,8 +17761,11 @@
       <c r="AR37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>15</v>
       </c>
@@ -17650,8 +17898,11 @@
       <c r="AR38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>161</v>
       </c>
@@ -17784,8 +18035,11 @@
       <c r="AR39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>595</v>
       </c>
@@ -17918,8 +18172,11 @@
       <c r="AR40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>16</v>
       </c>
@@ -18052,8 +18309,11 @@
       <c r="AR41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -18186,8 +18446,11 @@
       <c r="AR42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>481</v>
       </c>
@@ -18320,8 +18583,11 @@
       <c r="AR43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>623</v>
       </c>
@@ -18454,8 +18720,11 @@
       <c r="AR44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>625</v>
       </c>
@@ -18588,8 +18857,11 @@
       <c r="AR45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>19</v>
       </c>
@@ -18722,8 +18994,11 @@
       <c r="AR46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>21</v>
       </c>
@@ -18856,8 +19131,11 @@
       <c r="AR47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>55</v>
       </c>
@@ -18990,8 +19268,11 @@
       <c r="AR48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>633</v>
       </c>
@@ -19124,8 +19405,11 @@
       <c r="AR49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>162</v>
       </c>
@@ -19258,8 +19542,11 @@
       <c r="AR50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>230</v>
       </c>
@@ -19392,8 +19679,11 @@
       <c r="AR51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>150</v>
       </c>
@@ -19526,8 +19816,11 @@
       <c r="AR52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>652</v>
       </c>
@@ -19660,8 +19953,11 @@
       <c r="AR53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>23</v>
       </c>
@@ -19794,8 +20090,11 @@
       <c r="AR54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>654</v>
       </c>
@@ -19928,8 +20227,11 @@
       <c r="AR55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>495</v>
       </c>
@@ -19954,8 +20256,11 @@
       <c r="AR56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>2</v>
       </c>
@@ -20088,8 +20393,11 @@
       <c r="AR57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>503</v>
       </c>
@@ -20222,8 +20530,11 @@
       <c r="AR58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>151</v>
       </c>
@@ -20356,8 +20667,11 @@
       <c r="AR59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>152</v>
       </c>
@@ -20490,8 +20804,11 @@
       <c r="AR60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -20624,8 +20941,11 @@
       <c r="AR61">
         <v>3</v>
       </c>
-    </row>
-    <row r="62" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>550</v>
       </c>
@@ -20650,8 +20970,11 @@
       <c r="AR62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>540</v>
       </c>
@@ -20784,8 +21107,11 @@
       <c r="AR63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>153</v>
       </c>
@@ -20918,8 +21244,11 @@
       <c r="AR64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>568</v>
       </c>
@@ -20971,8 +21300,11 @@
       <c r="AR65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>13</v>
       </c>
@@ -21105,8 +21437,11 @@
       <c r="AR66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>231</v>
       </c>
@@ -21239,8 +21574,11 @@
       <c r="AR67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>620</v>
       </c>
@@ -21373,8 +21711,11 @@
       <c r="AR68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>621</v>
       </c>
@@ -21507,8 +21848,11 @@
       <c r="AR69">
         <v>3</v>
       </c>
-    </row>
-    <row r="70" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>619</v>
       </c>
@@ -21641,8 +21985,11 @@
       <c r="AR70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>626</v>
       </c>
@@ -21676,8 +22023,11 @@
       <c r="AR71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>154</v>
       </c>
@@ -21810,8 +22160,11 @@
       <c r="AR72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>24</v>
       </c>
@@ -21944,8 +22297,11 @@
       <c r="AR73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>25</v>
       </c>
@@ -22077,6 +22433,9 @@
       </c>
       <c r="AR74">
         <v>2</v>
+      </c>
+      <c r="AS74">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -22090,7 +22449,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR109"/>
+  <dimension ref="A1:AS109"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -22102,12 +22461,12 @@
     <col min="7" max="8" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>855</v>
       </c>
@@ -22240,8 +22599,11 @@
       <c r="AR2" t="s">
         <v>1475</v>
       </c>
-    </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS2" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>857</v>
       </c>
@@ -22374,8 +22736,11 @@
       <c r="AR3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>858</v>
       </c>
@@ -22508,8 +22873,11 @@
       <c r="AR4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>859</v>
       </c>
@@ -22642,8 +23010,11 @@
       <c r="AR5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>860</v>
       </c>
@@ -22776,8 +23147,11 @@
       <c r="AR6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1476</v>
       </c>
@@ -22802,8 +23176,11 @@
       <c r="AR7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>861</v>
       </c>
@@ -22936,8 +23313,11 @@
       <c r="AR8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1269</v>
       </c>
@@ -23070,8 +23450,11 @@
       <c r="AR9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1441</v>
       </c>
@@ -23099,8 +23482,11 @@
       <c r="AR10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>862</v>
       </c>
@@ -23233,8 +23619,11 @@
       <c r="AR11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>863</v>
       </c>
@@ -23367,8 +23756,11 @@
       <c r="AR12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>864</v>
       </c>
@@ -23501,8 +23893,11 @@
       <c r="AR13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>865</v>
       </c>
@@ -23635,8 +24030,11 @@
       <c r="AR14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>866</v>
       </c>
@@ -23769,8 +24167,11 @@
       <c r="AR15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1391</v>
       </c>
@@ -23810,8 +24211,11 @@
       <c r="AR16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>867</v>
       </c>
@@ -23944,8 +24348,11 @@
       <c r="AR17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>868</v>
       </c>
@@ -24078,8 +24485,11 @@
       <c r="AR18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>869</v>
       </c>
@@ -24212,8 +24622,11 @@
       <c r="AR19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>870</v>
       </c>
@@ -24346,8 +24759,11 @@
       <c r="AR20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>871</v>
       </c>
@@ -24480,8 +24896,11 @@
       <c r="AR21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>872</v>
       </c>
@@ -24614,8 +25033,11 @@
       <c r="AR22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>873</v>
       </c>
@@ -24748,8 +25170,11 @@
       <c r="AR23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1180</v>
       </c>
@@ -24882,8 +25307,11 @@
       <c r="AR24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>1270</v>
       </c>
@@ -25016,8 +25444,11 @@
       <c r="AR25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>874</v>
       </c>
@@ -25150,8 +25581,11 @@
       <c r="AR26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>875</v>
       </c>
@@ -25284,8 +25718,11 @@
       <c r="AR27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>876</v>
       </c>
@@ -25418,8 +25855,11 @@
       <c r="AR28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>877</v>
       </c>
@@ -25552,8 +25992,11 @@
       <c r="AR29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>878</v>
       </c>
@@ -25686,8 +26129,11 @@
       <c r="AR30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>879</v>
       </c>
@@ -25820,8 +26266,11 @@
       <c r="AR31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>880</v>
       </c>
@@ -25954,8 +26403,11 @@
       <c r="AR32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>881</v>
       </c>
@@ -26088,8 +26540,11 @@
       <c r="AR33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1271</v>
       </c>
@@ -26222,8 +26677,11 @@
       <c r="AR34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1201</v>
       </c>
@@ -26356,8 +26814,11 @@
       <c r="AR35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>962</v>
       </c>
@@ -26490,8 +26951,11 @@
       <c r="AR36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>882</v>
       </c>
@@ -26624,8 +27088,11 @@
       <c r="AR37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>883</v>
       </c>
@@ -26758,8 +27225,11 @@
       <c r="AR38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1066</v>
       </c>
@@ -26892,8 +27362,11 @@
       <c r="AR39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>884</v>
       </c>
@@ -27026,8 +27499,11 @@
       <c r="AR40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>1085</v>
       </c>
@@ -27160,8 +27636,11 @@
       <c r="AR41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>885</v>
       </c>
@@ -27294,8 +27773,11 @@
       <c r="AR42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>924</v>
       </c>
@@ -27428,8 +27910,11 @@
       <c r="AR43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>1142</v>
       </c>
@@ -27562,8 +28047,11 @@
       <c r="AR44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>1295</v>
       </c>
@@ -27615,8 +28103,11 @@
       <c r="AR45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>886</v>
       </c>
@@ -27749,8 +28240,11 @@
       <c r="AR46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>887</v>
       </c>
@@ -27883,8 +28377,11 @@
       <c r="AR47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>888</v>
       </c>
@@ -28017,8 +28514,11 @@
       <c r="AR48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>1477</v>
       </c>
@@ -28043,8 +28543,11 @@
       <c r="AR49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>889</v>
       </c>
@@ -28177,8 +28680,11 @@
       <c r="AR50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>890</v>
       </c>
@@ -28311,8 +28817,11 @@
       <c r="AR51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>891</v>
       </c>
@@ -28445,8 +28954,11 @@
       <c r="AR52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>892</v>
       </c>
@@ -28579,8 +29091,11 @@
       <c r="AR53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>893</v>
       </c>
@@ -28713,8 +29228,11 @@
       <c r="AR54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>1356</v>
       </c>
@@ -28757,8 +29275,11 @@
       <c r="AR55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>894</v>
       </c>
@@ -28891,8 +29412,11 @@
       <c r="AR56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>895</v>
       </c>
@@ -29025,8 +29549,11 @@
       <c r="AR57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>896</v>
       </c>
@@ -29159,8 +29686,11 @@
       <c r="AR58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>897</v>
       </c>
@@ -29293,8 +29823,11 @@
       <c r="AR59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>898</v>
       </c>
@@ -29427,8 +29960,11 @@
       <c r="AR60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>899</v>
       </c>
@@ -29561,8 +30097,11 @@
       <c r="AR61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>1272</v>
       </c>
@@ -29695,8 +30234,11 @@
       <c r="AR62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>900</v>
       </c>
@@ -29829,8 +30371,11 @@
       <c r="AR63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>901</v>
       </c>
@@ -29963,8 +30508,11 @@
       <c r="AR64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>902</v>
       </c>
@@ -30097,8 +30645,11 @@
       <c r="AR65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>903</v>
       </c>
@@ -30231,8 +30782,11 @@
       <c r="AR66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>1273</v>
       </c>
@@ -30365,8 +30919,11 @@
       <c r="AR67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>904</v>
       </c>
@@ -30499,8 +31056,11 @@
       <c r="AR68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>905</v>
       </c>
@@ -30633,8 +31193,11 @@
       <c r="AR69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>163</v>
       </c>
@@ -30767,8 +31330,11 @@
       <c r="AR70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>1274</v>
       </c>
@@ -30901,8 +31467,11 @@
       <c r="AR71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>1275</v>
       </c>
@@ -31035,8 +31604,11 @@
       <c r="AR72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>1276</v>
       </c>
@@ -31169,8 +31741,11 @@
       <c r="AR73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>906</v>
       </c>
@@ -31303,8 +31878,11 @@
       <c r="AR74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>1316</v>
       </c>
@@ -31353,8 +31931,11 @@
       <c r="AR75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>1439</v>
       </c>
@@ -31388,8 +31969,11 @@
       <c r="AR76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>27</v>
       </c>
@@ -31522,8 +32106,11 @@
       <c r="AR77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>28</v>
       </c>
@@ -31656,8 +32243,11 @@
       <c r="AR78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>29</v>
       </c>
@@ -31790,8 +32380,11 @@
       <c r="AR79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>30</v>
       </c>
@@ -31924,8 +32517,11 @@
       <c r="AR80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>31</v>
       </c>
@@ -32058,8 +32654,11 @@
       <c r="AR81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>1047</v>
       </c>
@@ -32192,8 +32791,11 @@
       <c r="AR82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>52</v>
       </c>
@@ -32326,8 +32928,11 @@
       <c r="AR83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>32</v>
       </c>
@@ -32460,8 +33065,11 @@
       <c r="AR84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>33</v>
       </c>
@@ -32594,8 +33202,11 @@
       <c r="AR85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>34</v>
       </c>
@@ -32728,8 +33339,11 @@
       <c r="AR86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>35</v>
       </c>
@@ -32862,8 +33476,11 @@
       <c r="AR87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>36</v>
       </c>
@@ -32996,8 +33613,11 @@
       <c r="AR88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>1357</v>
       </c>
@@ -33040,8 +33660,11 @@
       <c r="AR89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>37</v>
       </c>
@@ -33174,8 +33797,11 @@
       <c r="AR90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>329</v>
       </c>
@@ -33308,8 +33934,11 @@
       <c r="AR91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>53</v>
       </c>
@@ -33442,8 +34071,11 @@
       <c r="AR92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>1161</v>
       </c>
@@ -33576,8 +34208,11 @@
       <c r="AR93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>155</v>
       </c>
@@ -33710,8 +34345,11 @@
       <c r="AR94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>38</v>
       </c>
@@ -33844,8 +34482,11 @@
       <c r="AR95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>39</v>
       </c>
@@ -33978,8 +34619,11 @@
       <c r="AR96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>156</v>
       </c>
@@ -34112,8 +34756,11 @@
       <c r="AR97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>1420</v>
       </c>
@@ -34150,8 +34797,11 @@
       <c r="AR98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>40</v>
       </c>
@@ -34284,8 +34934,11 @@
       <c r="AR99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>330</v>
       </c>
@@ -34418,8 +35071,11 @@
       <c r="AR100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>1392</v>
       </c>
@@ -34459,8 +35115,11 @@
       <c r="AR101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>1181</v>
       </c>
@@ -34593,8 +35252,11 @@
       <c r="AR102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>980</v>
       </c>
@@ -34727,8 +35389,11 @@
       <c r="AR103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>157</v>
       </c>
@@ -34861,8 +35526,11 @@
       <c r="AR104">
         <v>3</v>
       </c>
-    </row>
-    <row r="105" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>168</v>
       </c>
@@ -34995,8 +35663,11 @@
       <c r="AR105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>41</v>
       </c>
@@ -35129,8 +35800,11 @@
       <c r="AR106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>158</v>
       </c>
@@ -35263,8 +35937,11 @@
       <c r="AR107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>232</v>
       </c>
@@ -35397,8 +36074,11 @@
       <c r="AR108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>42</v>
       </c>
@@ -35529,6 +36209,9 @@
         <v>0</v>
       </c>
       <c r="AR109">
+        <v>0</v>
+      </c>
+      <c r="AS109">
         <v>0</v>
       </c>
     </row>
@@ -43160,7 +43843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D116"/>
   <sheetViews>
-    <sheetView topLeftCell="A96" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/data/original/spain/euskadi/situacion-epidemiologica.xlsx
+++ b/data/original/spain/euskadi/situacion-epidemiologica.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iargueso\Desktop\covid19\Ekaina\28\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agoroslo\Desktop\COVID\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,12 +21,12 @@
     <sheet name="07" sheetId="19" r:id="rId7"/>
     <sheet name="08" sheetId="20" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1876" uniqueCount="1547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1897" uniqueCount="1563">
   <si>
     <t>UDALERRIA / MUNICIPIO</t>
   </si>
@@ -4342,9 +4342,6 @@
     <t>22-jun.</t>
   </si>
   <si>
-    <t>22/06</t>
-  </si>
-  <si>
     <t>Pasai Antxo</t>
   </si>
   <si>
@@ -4667,6 +4664,57 @@
   </si>
   <si>
     <t>28/06</t>
+  </si>
+  <si>
+    <t>2020/6/29</t>
+  </si>
+  <si>
+    <t>289171</t>
+  </si>
+  <si>
+    <t>130444</t>
+  </si>
+  <si>
+    <t>243096</t>
+  </si>
+  <si>
+    <t>206660</t>
+  </si>
+  <si>
+    <t>94451</t>
+  </si>
+  <si>
+    <t>13737</t>
+  </si>
+  <si>
+    <t>7226</t>
+  </si>
+  <si>
+    <t>20963</t>
+  </si>
+  <si>
+    <t>3348</t>
+  </si>
+  <si>
+    <t>7909</t>
+  </si>
+  <si>
+    <t>2315</t>
+  </si>
+  <si>
+    <t>1613</t>
+  </si>
+  <si>
+    <t>13787</t>
+  </si>
+  <si>
+    <t>4316</t>
+  </si>
+  <si>
+    <t>29-jun.</t>
+  </si>
+  <si>
+    <t>29/06</t>
   </si>
 </sst>
 </file>
@@ -5043,10 +5091,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y128"/>
+  <dimension ref="A1:Y129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="U132" sqref="U132"/>
+    <sheetView tabSelected="1" topLeftCell="I118" workbookViewId="0">
+      <selection activeCell="S129" sqref="S129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9880,46 +9928,46 @@
     </row>
     <row r="123" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B123" s="6" t="s">
         <v>1443</v>
       </c>
-      <c r="B123" s="6" t="s">
+      <c r="C123" s="6" t="s">
         <v>1444</v>
       </c>
-      <c r="C123" s="6" t="s">
+      <c r="D123" s="6" t="s">
         <v>1445</v>
       </c>
-      <c r="D123" s="6" t="s">
+      <c r="E123" s="6" t="s">
         <v>1446</v>
       </c>
-      <c r="E123" s="6" t="s">
+      <c r="F123" s="6" t="s">
         <v>1447</v>
       </c>
-      <c r="F123" s="6" t="s">
+      <c r="G123" s="6" t="s">
         <v>1448</v>
       </c>
-      <c r="G123" s="6" t="s">
+      <c r="H123" s="6" t="s">
         <v>1449</v>
       </c>
-      <c r="H123" s="6" t="s">
+      <c r="I123" s="6" t="s">
         <v>1450</v>
       </c>
-      <c r="I123" s="6" t="s">
+      <c r="J123" s="6" t="s">
         <v>1451</v>
       </c>
-      <c r="J123" s="6" t="s">
+      <c r="K123" s="6" t="s">
         <v>1452</v>
       </c>
-      <c r="K123" s="6" t="s">
+      <c r="L123" s="6" t="s">
         <v>1453</v>
       </c>
-      <c r="L123" s="6" t="s">
+      <c r="M123" s="6" t="s">
         <v>1454</v>
       </c>
-      <c r="M123" s="6" t="s">
-        <v>1455</v>
-      </c>
       <c r="P123" s="6" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="Q123" s="6" t="s">
         <v>218</v>
@@ -9931,10 +9979,10 @@
         <v>248</v>
       </c>
       <c r="T123" s="4" t="s">
+        <v>1455</v>
+      </c>
+      <c r="U123" s="4" t="s">
         <v>1456</v>
-      </c>
-      <c r="U123" s="4" t="s">
-        <v>1457</v>
       </c>
       <c r="V123" s="4" t="s">
         <v>218</v>
@@ -9951,46 +9999,46 @@
     </row>
     <row r="124" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B124" s="6" t="s">
         <v>1459</v>
       </c>
-      <c r="B124" s="6" t="s">
+      <c r="C124" s="6" t="s">
         <v>1460</v>
       </c>
-      <c r="C124" s="6" t="s">
+      <c r="D124" s="6" t="s">
         <v>1461</v>
       </c>
-      <c r="D124" s="6" t="s">
+      <c r="E124" s="6" t="s">
         <v>1462</v>
       </c>
-      <c r="E124" s="6" t="s">
+      <c r="F124" s="6" t="s">
         <v>1463</v>
       </c>
-      <c r="F124" s="6" t="s">
+      <c r="G124" s="6" t="s">
         <v>1464</v>
       </c>
-      <c r="G124" s="6" t="s">
+      <c r="H124" s="6" t="s">
         <v>1465</v>
       </c>
-      <c r="H124" s="6" t="s">
+      <c r="I124" s="6" t="s">
         <v>1466</v>
       </c>
-      <c r="I124" s="6" t="s">
+      <c r="J124" s="6" t="s">
         <v>1467</v>
       </c>
-      <c r="J124" s="6" t="s">
+      <c r="K124" s="6" t="s">
+        <v>1452</v>
+      </c>
+      <c r="L124" s="6" t="s">
         <v>1468</v>
       </c>
-      <c r="K124" s="6" t="s">
-        <v>1453</v>
-      </c>
-      <c r="L124" s="6" t="s">
+      <c r="M124" s="6" t="s">
         <v>1469</v>
       </c>
-      <c r="M124" s="6" t="s">
+      <c r="P124" s="6" t="s">
         <v>1470</v>
-      </c>
-      <c r="P124" s="6" t="s">
-        <v>1471</v>
       </c>
       <c r="Q124" s="6" t="s">
         <v>246</v>
@@ -9999,10 +10047,10 @@
         <v>1371</v>
       </c>
       <c r="S124" s="6" t="s">
+        <v>1471</v>
+      </c>
+      <c r="T124" s="4" t="s">
         <v>1472</v>
-      </c>
-      <c r="T124" s="4" t="s">
-        <v>1473</v>
       </c>
       <c r="U124" s="4" t="s">
         <v>1436</v>
@@ -10022,46 +10070,46 @@
     </row>
     <row r="125" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B125" s="6" t="s">
         <v>1479</v>
       </c>
-      <c r="B125" s="6" t="s">
+      <c r="C125" s="6" t="s">
         <v>1480</v>
       </c>
-      <c r="C125" s="6" t="s">
+      <c r="D125" s="6" t="s">
         <v>1481</v>
       </c>
-      <c r="D125" s="6" t="s">
+      <c r="E125" s="6" t="s">
         <v>1482</v>
       </c>
-      <c r="E125" s="6" t="s">
+      <c r="F125" s="6" t="s">
         <v>1483</v>
       </c>
-      <c r="F125" s="6" t="s">
+      <c r="G125" s="6" t="s">
         <v>1484</v>
       </c>
-      <c r="G125" s="6" t="s">
+      <c r="H125" s="6" t="s">
         <v>1485</v>
       </c>
-      <c r="H125" s="6" t="s">
+      <c r="I125" s="6" t="s">
         <v>1486</v>
       </c>
-      <c r="I125" s="6" t="s">
+      <c r="J125" s="6" t="s">
         <v>1487</v>
       </c>
-      <c r="J125" s="6" t="s">
+      <c r="K125" s="6" t="s">
         <v>1488</v>
       </c>
-      <c r="K125" s="6" t="s">
+      <c r="L125" s="6" t="s">
         <v>1489</v>
       </c>
-      <c r="L125" s="6" t="s">
-        <v>1490</v>
-      </c>
       <c r="M125" s="6" t="s">
+        <v>1469</v>
+      </c>
+      <c r="P125" s="6" t="s">
         <v>1470</v>
-      </c>
-      <c r="P125" s="6" t="s">
-        <v>1471</v>
       </c>
       <c r="Q125" s="6" t="s">
         <v>246</v>
@@ -10070,13 +10118,13 @@
         <v>1313</v>
       </c>
       <c r="S125" s="6" t="s">
+        <v>1490</v>
+      </c>
+      <c r="T125" s="4" t="s">
         <v>1491</v>
       </c>
-      <c r="T125" s="4" t="s">
+      <c r="U125" s="4" t="s">
         <v>1492</v>
-      </c>
-      <c r="U125" s="4" t="s">
-        <v>1493</v>
       </c>
       <c r="V125" s="4" t="s">
         <v>218</v>
@@ -10093,46 +10141,46 @@
     </row>
     <row r="126" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B126" s="6" t="s">
         <v>1496</v>
       </c>
-      <c r="B126" s="6" t="s">
+      <c r="C126" s="6" t="s">
         <v>1497</v>
       </c>
-      <c r="C126" s="6" t="s">
+      <c r="D126" s="6" t="s">
         <v>1498</v>
       </c>
-      <c r="D126" s="6" t="s">
+      <c r="E126" s="6" t="s">
         <v>1499</v>
       </c>
-      <c r="E126" s="6" t="s">
+      <c r="F126" s="6" t="s">
         <v>1500</v>
       </c>
-      <c r="F126" s="6" t="s">
+      <c r="G126" s="6" t="s">
         <v>1501</v>
       </c>
-      <c r="G126" s="6" t="s">
+      <c r="H126" s="6" t="s">
         <v>1502</v>
       </c>
-      <c r="H126" s="6" t="s">
+      <c r="I126" s="6" t="s">
         <v>1503</v>
       </c>
-      <c r="I126" s="6" t="s">
+      <c r="J126" s="6" t="s">
         <v>1504</v>
       </c>
-      <c r="J126" s="6" t="s">
+      <c r="K126" s="6" t="s">
+        <v>1488</v>
+      </c>
+      <c r="L126" s="6" t="s">
         <v>1505</v>
       </c>
-      <c r="K126" s="6" t="s">
-        <v>1489</v>
-      </c>
-      <c r="L126" s="6" t="s">
+      <c r="M126" s="6" t="s">
+        <v>1469</v>
+      </c>
+      <c r="P126" s="6" t="s">
         <v>1506</v>
-      </c>
-      <c r="M126" s="6" t="s">
-        <v>1470</v>
-      </c>
-      <c r="P126" s="6" t="s">
-        <v>1507</v>
       </c>
       <c r="Q126" s="6" t="s">
         <v>1061</v>
@@ -10141,13 +10189,13 @@
         <v>1155</v>
       </c>
       <c r="S126" s="6" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="T126" s="4" t="s">
+        <v>1507</v>
+      </c>
+      <c r="U126" s="4" t="s">
         <v>1508</v>
-      </c>
-      <c r="U126" s="4" t="s">
-        <v>1509</v>
       </c>
       <c r="V126" s="4" t="s">
         <v>218</v>
@@ -10164,46 +10212,46 @@
     </row>
     <row r="127" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B127" s="6" t="s">
         <v>1516</v>
       </c>
-      <c r="B127" s="6" t="s">
+      <c r="C127" s="6" t="s">
         <v>1517</v>
       </c>
-      <c r="C127" s="6" t="s">
+      <c r="D127" s="6" t="s">
         <v>1518</v>
       </c>
-      <c r="D127" s="6" t="s">
+      <c r="E127" s="6" t="s">
         <v>1519</v>
       </c>
-      <c r="E127" s="6" t="s">
+      <c r="F127" s="6" t="s">
         <v>1520</v>
       </c>
-      <c r="F127" s="6" t="s">
+      <c r="G127" s="6" t="s">
         <v>1521</v>
       </c>
-      <c r="G127" s="6" t="s">
+      <c r="H127" s="6" t="s">
         <v>1522</v>
       </c>
-      <c r="H127" s="6" t="s">
+      <c r="I127" s="6" t="s">
         <v>1523</v>
       </c>
-      <c r="I127" s="6" t="s">
+      <c r="J127" s="6" t="s">
+        <v>1504</v>
+      </c>
+      <c r="K127" s="6" t="s">
         <v>1524</v>
       </c>
-      <c r="J127" s="6" t="s">
-        <v>1505</v>
-      </c>
-      <c r="K127" s="6" t="s">
+      <c r="L127" s="6" t="s">
         <v>1525</v>
       </c>
-      <c r="L127" s="6" t="s">
-        <v>1526</v>
-      </c>
       <c r="M127" s="6" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="P127" s="6" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="Q127" s="6" t="s">
         <v>462</v>
@@ -10212,13 +10260,13 @@
         <v>1155</v>
       </c>
       <c r="S127" s="6" t="s">
+        <v>1526</v>
+      </c>
+      <c r="T127" s="4" t="s">
         <v>1527</v>
       </c>
-      <c r="T127" s="4" t="s">
+      <c r="U127" s="4" t="s">
         <v>1528</v>
-      </c>
-      <c r="U127" s="4" t="s">
-        <v>1529</v>
       </c>
       <c r="V127" s="4" t="s">
         <v>218</v>
@@ -10235,49 +10283,49 @@
     </row>
     <row r="128" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B128" s="6" t="s">
         <v>1533</v>
       </c>
-      <c r="B128" s="6" t="s">
+      <c r="C128" s="6" t="s">
         <v>1534</v>
       </c>
-      <c r="C128" s="6" t="s">
+      <c r="D128" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="D128" s="6" t="s">
+      <c r="E128" s="6" t="s">
         <v>1536</v>
       </c>
-      <c r="E128" s="6" t="s">
+      <c r="F128" s="6" t="s">
         <v>1537</v>
       </c>
-      <c r="F128" s="6" t="s">
+      <c r="G128" s="6" t="s">
         <v>1538</v>
       </c>
-      <c r="G128" s="6" t="s">
+      <c r="H128" s="6" t="s">
         <v>1539</v>
       </c>
-      <c r="H128" s="6" t="s">
+      <c r="I128" s="6" t="s">
         <v>1540</v>
       </c>
-      <c r="I128" s="6" t="s">
+      <c r="J128" s="6" t="s">
         <v>1541</v>
       </c>
-      <c r="J128" s="6" t="s">
-        <v>1542</v>
-      </c>
       <c r="K128" s="6" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="L128" s="6" t="s">
         <v>191</v>
       </c>
       <c r="M128" s="6" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="P128" s="6" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="Q128" s="6" t="s">
-        <v>462</v>
+        <v>1061</v>
       </c>
       <c r="R128" s="6" t="s">
         <v>1155</v>
@@ -10286,10 +10334,10 @@
         <v>1044</v>
       </c>
       <c r="T128" s="4" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="U128" s="4" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="V128" s="4" t="s">
         <v>218</v>
@@ -10302,6 +10350,77 @@
       </c>
       <c r="Y128" s="4">
         <v>471.00029698953006</v>
+      </c>
+    </row>
+    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A129" s="6" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>1551</v>
+      </c>
+      <c r="G129" s="6" t="s">
+        <v>1552</v>
+      </c>
+      <c r="H129" s="6" t="s">
+        <v>1553</v>
+      </c>
+      <c r="I129" s="6" t="s">
+        <v>1554</v>
+      </c>
+      <c r="J129" s="6" t="s">
+        <v>1555</v>
+      </c>
+      <c r="K129" s="6" t="s">
+        <v>1556</v>
+      </c>
+      <c r="L129" s="6" t="s">
+        <v>1557</v>
+      </c>
+      <c r="M129" s="6" t="s">
+        <v>1469</v>
+      </c>
+      <c r="P129" s="6" t="s">
+        <v>1558</v>
+      </c>
+      <c r="Q129" s="6" t="s">
+        <v>1061</v>
+      </c>
+      <c r="R129" s="6" t="s">
+        <v>1155</v>
+      </c>
+      <c r="S129" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="T129" s="4" t="s">
+        <v>1559</v>
+      </c>
+      <c r="U129" s="4" t="s">
+        <v>1560</v>
+      </c>
+      <c r="V129" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="W129" s="4">
+        <v>1644.6776657407604</v>
+      </c>
+      <c r="X129" s="4">
+        <v>1038.2787637605186</v>
+      </c>
+      <c r="Y129" s="4">
+        <v>472.39461403212783</v>
       </c>
     </row>
   </sheetData>
@@ -10312,10 +10431,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L122"/>
+  <dimension ref="A1:L123"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="G126" sqref="G126"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="C128" sqref="C128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12643,7 +12762,7 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="B117">
         <v>7</v>
@@ -12664,7 +12783,7 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="B118">
         <v>16</v>
@@ -12685,7 +12804,7 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="B119">
         <v>9</v>
@@ -12706,7 +12825,7 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="B120">
         <v>6</v>
@@ -12726,7 +12845,7 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="B121">
         <v>3</v>
@@ -12746,7 +12865,7 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="B122">
         <v>4</v>
@@ -12762,6 +12881,26 @@
       </c>
       <c r="F122" s="10">
         <v>4.6012462405726735</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B123">
+        <v>5</v>
+      </c>
+      <c r="C123" s="10">
+        <v>5.67</v>
+      </c>
+      <c r="D123" s="10">
+        <v>8.8423530416169918</v>
+      </c>
+      <c r="E123" s="10">
+        <v>4.1125149078665411</v>
+      </c>
+      <c r="F123" s="10">
+        <v>4.8801096490922298</v>
       </c>
     </row>
   </sheetData>
@@ -12775,7 +12914,7 @@
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12880,7 +13019,7 @@
         <v>43.971418577924346</v>
       </c>
       <c r="K2" s="3">
-        <v>4.3476183651043904E-3</v>
+        <v>4.3409817297142585E-3</v>
       </c>
       <c r="L2" s="6">
         <v>0</v>
@@ -12933,7 +13072,7 @@
         <v>107.07945483407381</v>
       </c>
       <c r="K3" s="3">
-        <v>1.1466246237637954E-2</v>
+        <v>1.144874302342222E-2</v>
       </c>
       <c r="L3" s="6">
         <v>0</v>
@@ -12959,13 +13098,13 @@
         <v>44</v>
       </c>
       <c r="B4" s="6">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="C4" s="6">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D4" s="6">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E4" s="6">
         <v>194050</v>
@@ -12977,16 +13116,16 @@
         <v>98515</v>
       </c>
       <c r="H4" s="21">
-        <v>696.72764751352747</v>
+        <v>697.75830971399125</v>
       </c>
       <c r="I4" s="21">
-        <v>965.09132778562832</v>
+        <v>966.13806458366048</v>
       </c>
       <c r="J4" s="21">
-        <v>432.42145866111758</v>
+        <v>433.43653250773991</v>
       </c>
       <c r="K4" s="3">
-        <v>6.4593187138693803E-2</v>
+        <v>6.4589991890473694E-2</v>
       </c>
       <c r="L4" s="6">
         <v>2</v>
@@ -12998,13 +13137,13 @@
         <v>1</v>
       </c>
       <c r="O4" s="3">
-        <v>1.4792899408284023E-3</v>
+        <v>1.4771048744460858E-3</v>
       </c>
       <c r="P4" s="3">
-        <v>1.0845986984815619E-3</v>
+        <v>1.0834236186348862E-3</v>
       </c>
       <c r="Q4" s="3">
-        <v>2.3474178403755869E-3</v>
+        <v>2.34192037470726E-3</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -13012,13 +13151,13 @@
         <v>45</v>
       </c>
       <c r="B5" s="6">
-        <v>2198</v>
+        <v>2205</v>
       </c>
       <c r="C5" s="6">
-        <v>1435</v>
+        <v>1438</v>
       </c>
       <c r="D5" s="6">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="E5" s="6">
         <v>266369</v>
@@ -13030,16 +13169,16 @@
         <v>133638</v>
       </c>
       <c r="H5" s="21">
-        <v>825.17109723729118</v>
+        <v>827.79903066798317</v>
       </c>
       <c r="I5" s="21">
-        <v>1081.1340229486707</v>
+        <v>1083.3942334496087</v>
       </c>
       <c r="J5" s="21">
-        <v>567.20393899938642</v>
+        <v>570.19709962735146</v>
       </c>
       <c r="K5" s="3">
-        <v>0.10501170512636759</v>
+        <v>0.10518532652769165</v>
       </c>
       <c r="L5" s="6">
         <v>5</v>
@@ -13051,13 +13190,13 @@
         <v>3</v>
       </c>
       <c r="O5" s="3">
-        <v>2.2747952684258415E-3</v>
+        <v>2.2675736961451248E-3</v>
       </c>
       <c r="P5" s="3">
-        <v>1.3937282229965157E-3</v>
+        <v>1.3908205841446453E-3</v>
       </c>
       <c r="Q5" s="3">
-        <v>3.9577836411609502E-3</v>
+        <v>3.937007874015748E-3</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -13065,10 +13204,10 @@
         <v>46</v>
       </c>
       <c r="B6" s="6">
-        <v>3442</v>
+        <v>3445</v>
       </c>
       <c r="C6" s="6">
-        <v>2193</v>
+        <v>2196</v>
       </c>
       <c r="D6" s="6">
         <v>1247</v>
@@ -13083,16 +13222,16 @@
         <v>181632</v>
       </c>
       <c r="H6" s="21">
-        <v>959.34891369483114</v>
+        <v>960.1850690524966</v>
       </c>
       <c r="I6" s="21">
-        <v>1237.9129904658685</v>
+        <v>1239.6064418892145</v>
       </c>
       <c r="J6" s="21">
         <v>686.55303030303025</v>
       </c>
       <c r="K6" s="3">
-        <v>0.16444508145812431</v>
+        <v>0.16433716548203978</v>
       </c>
       <c r="L6" s="6">
         <v>12</v>
@@ -13104,10 +13243,10 @@
         <v>9</v>
       </c>
       <c r="O6" s="3">
-        <v>3.4863451481696689E-3</v>
+        <v>3.4833091436865023E-3</v>
       </c>
       <c r="P6" s="3">
-        <v>1.3679890560875513E-3</v>
+        <v>1.366120218579235E-3</v>
       </c>
       <c r="Q6" s="3">
         <v>7.2173215717722533E-3</v>
@@ -13118,13 +13257,13 @@
         <v>47</v>
       </c>
       <c r="B7" s="6">
-        <v>4220</v>
+        <v>4229</v>
       </c>
       <c r="C7" s="6">
-        <v>2578</v>
+        <v>2585</v>
       </c>
       <c r="D7" s="6">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="E7" s="6">
         <v>335098</v>
@@ -13136,16 +13275,16 @@
         <v>164820</v>
       </c>
       <c r="H7" s="21">
-        <v>1259.3330906182669</v>
+        <v>1262.0188720911494</v>
       </c>
       <c r="I7" s="21">
-        <v>1513.9947615076521</v>
+        <v>1518.1056859958421</v>
       </c>
       <c r="J7" s="21">
-        <v>993.81143065161996</v>
+        <v>995.0248756218906</v>
       </c>
       <c r="K7" s="3">
-        <v>0.20161482967846733</v>
+        <v>0.2017363926918857</v>
       </c>
       <c r="L7" s="6">
         <v>27</v>
@@ -13157,13 +13296,13 @@
         <v>12</v>
       </c>
       <c r="O7" s="3">
-        <v>6.3981042654028437E-3</v>
+        <v>6.3844880586427051E-3</v>
       </c>
       <c r="P7" s="3">
-        <v>5.8184639255236615E-3</v>
+        <v>5.8027079303675051E-3</v>
       </c>
       <c r="Q7" s="3">
-        <v>7.326007326007326E-3</v>
+        <v>7.3170731707317077E-3</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -13171,13 +13310,13 @@
         <v>135</v>
       </c>
       <c r="B8" s="6">
-        <v>2820</v>
+        <v>2824</v>
       </c>
       <c r="C8" s="6">
         <v>1459</v>
       </c>
       <c r="D8" s="6">
-        <v>1352</v>
+        <v>1356</v>
       </c>
       <c r="E8" s="6">
         <v>272250</v>
@@ -13189,16 +13328,16 @@
         <v>129903</v>
       </c>
       <c r="H8" s="21">
-        <v>1035.8126721763085</v>
+        <v>1037.2819100091826</v>
       </c>
       <c r="I8" s="21">
         <v>1024.9601326336347</v>
       </c>
       <c r="J8" s="21">
-        <v>1040.7765794477418</v>
+        <v>1043.8558000969954</v>
       </c>
       <c r="K8" s="3">
-        <v>0.13472839329224595</v>
+        <v>0.13471354290893478</v>
       </c>
       <c r="L8" s="6">
         <v>111</v>
@@ -13210,13 +13349,13 @@
         <v>86</v>
       </c>
       <c r="O8" s="3">
-        <v>3.9361702127659576E-2</v>
+        <v>3.9305949008498584E-2</v>
       </c>
       <c r="P8" s="3">
         <v>1.7135023989033583E-2</v>
       </c>
       <c r="Q8" s="3">
-        <v>6.3609467455621307E-2</v>
+        <v>6.3421828908554578E-2</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -13224,13 +13363,13 @@
         <v>48</v>
       </c>
       <c r="B9" s="6">
-        <v>2287</v>
+        <v>2293</v>
       </c>
       <c r="C9" s="6">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="D9" s="6">
-        <v>1224</v>
+        <v>1227</v>
       </c>
       <c r="E9" s="6">
         <v>202172</v>
@@ -13242,16 +13381,16 @@
         <v>91022</v>
       </c>
       <c r="H9" s="21">
-        <v>1131.215005045209</v>
+        <v>1134.1827750628179</v>
       </c>
       <c r="I9" s="21">
-        <v>956.36527215474587</v>
+        <v>959.06432748538009</v>
       </c>
       <c r="J9" s="21">
-        <v>1344.7298455318494</v>
+        <v>1348.0257520159962</v>
       </c>
       <c r="K9" s="3">
-        <v>0.10926377143949166</v>
+        <v>0.10938319896961313</v>
       </c>
       <c r="L9" s="6">
         <v>310</v>
@@ -13263,13 +13402,13 @@
         <v>215</v>
       </c>
       <c r="O9" s="3">
-        <v>0.1355487538259729</v>
+        <v>0.13519406890536415</v>
       </c>
       <c r="P9" s="3">
-        <v>8.9369708372530568E-2</v>
+        <v>8.9118198874296436E-2</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.17565359477124182</v>
+        <v>0.17522412387938061</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -13277,13 +13416,13 @@
         <v>49</v>
       </c>
       <c r="B10" s="6">
-        <v>2676</v>
+        <v>2677</v>
       </c>
       <c r="C10" s="6">
         <v>1671</v>
       </c>
       <c r="D10" s="6">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="E10" s="6">
         <v>127540</v>
@@ -13295,34 +13434,34 @@
         <v>47942</v>
       </c>
       <c r="H10" s="21">
-        <v>2098.1652814803201</v>
+        <v>2098.949349223773</v>
       </c>
       <c r="I10" s="21">
         <v>2099.2989773612403</v>
       </c>
       <c r="J10" s="21">
-        <v>2094.1971548954989</v>
+        <v>2096.2830086354343</v>
       </c>
       <c r="K10" s="3">
-        <v>0.12784864554966319</v>
+        <v>0.12770118780708867</v>
       </c>
       <c r="L10" s="6">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="M10" s="6">
         <v>330</v>
       </c>
       <c r="N10" s="6">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O10" s="3">
-        <v>0.24439461883408073</v>
+        <v>0.24467687710123273</v>
       </c>
       <c r="P10" s="3">
         <v>0.19748653500897667</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.32270916334661354</v>
+        <v>0.32338308457711445</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -13357,7 +13496,7 @@
         <v>4370.1461103067004</v>
       </c>
       <c r="K11" s="3">
-        <v>7.2667335531030525E-2</v>
+        <v>7.2556408910938314E-2</v>
       </c>
       <c r="L11" s="6">
         <v>478</v>
@@ -13395,7 +13534,7 @@
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="3">
-        <v>4.013186183173284E-3</v>
+        <v>4.0070600581977771E-3</v>
       </c>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
@@ -13406,13 +13545,13 @@
         <v>50</v>
       </c>
       <c r="B13">
-        <v>20931</v>
+        <v>20963</v>
       </c>
       <c r="C13">
-        <v>12736</v>
+        <v>12753</v>
       </c>
       <c r="D13">
-        <v>8170</v>
+        <v>8185</v>
       </c>
       <c r="E13">
         <v>2188017</v>
@@ -13424,34 +13563,34 @@
         <v>1061597</v>
       </c>
       <c r="H13" s="18">
-        <v>956.61962407056251</v>
+        <v>958.0821355592758</v>
       </c>
       <c r="I13" s="18">
-        <v>1130.6617425116742</v>
+        <v>1132.1709486692353</v>
       </c>
       <c r="J13" s="18">
-        <v>769.5952418855743</v>
+        <v>771.00820744595171</v>
       </c>
       <c r="K13" s="3">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="M13">
         <v>817</v>
       </c>
       <c r="N13">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="O13" s="3">
-        <v>7.7014953896134913E-2</v>
+        <v>7.6945093736583509E-2</v>
       </c>
       <c r="P13" s="3">
-        <v>6.4148869346733667E-2</v>
+        <v>6.4063357641339289E-2</v>
       </c>
       <c r="Q13" s="3">
-        <v>9.7307221542227665E-2</v>
+        <v>9.7251069028711057E-2</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -13648,7 +13787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="A77" sqref="A77:XFD77"/>
     </sheetView>
   </sheetViews>
@@ -13789,25 +13928,25 @@
         <v>1419</v>
       </c>
       <c r="AP2" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="AQ2" t="s">
-        <v>1440</v>
+        <v>1474</v>
       </c>
       <c r="AR2" t="s">
-        <v>1475</v>
+        <v>1494</v>
       </c>
       <c r="AS2" t="s">
-        <v>1495</v>
+        <v>1510</v>
       </c>
       <c r="AT2" t="s">
-        <v>1511</v>
+        <v>1530</v>
       </c>
       <c r="AU2" t="s">
-        <v>1531</v>
+        <v>1545</v>
       </c>
       <c r="AV2" t="s">
-        <v>1546</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.25">
@@ -14084,10 +14223,10 @@
         <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS4">
         <v>0</v>
@@ -14250,7 +14389,7 @@
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="AN6" s="8">
         <v>0</v>
@@ -14268,10 +14407,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -14554,10 +14693,10 @@
         <v>0</v>
       </c>
       <c r="AQ8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS8">
         <v>0</v>
@@ -14989,22 +15128,22 @@
         <v>2</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AQ11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AR11">
+        <v>3</v>
+      </c>
+      <c r="AS11">
         <v>2</v>
       </c>
-      <c r="AS11">
-        <v>3</v>
-      </c>
       <c r="AT11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AU11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV11">
         <v>1</v>
@@ -16739,10 +16878,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR25">
         <v>0</v>
@@ -16885,25 +17024,25 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ26">
         <v>0</v>
       </c>
       <c r="AR26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AT26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:48" x14ac:dyDescent="0.25">
@@ -17656,10 +17795,10 @@
         <v>0</v>
       </c>
       <c r="AT32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV32">
         <v>0</v>
@@ -18868,13 +19007,13 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS41">
         <v>0</v>
@@ -19604,10 +19743,10 @@
         <v>0</v>
       </c>
       <c r="AR46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT46">
         <v>0</v>
@@ -21245,10 +21384,10 @@
         <v>0</v>
       </c>
       <c r="AS58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU58">
         <v>0</v>
@@ -21277,13 +21416,13 @@
         <v>0</v>
       </c>
       <c r="AQ59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT59">
         <v>0</v>
@@ -21730,7 +21869,7 @@
         <v>0</v>
       </c>
       <c r="AV62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:48" x14ac:dyDescent="0.25">
@@ -22004,25 +22143,25 @@
         <v>0</v>
       </c>
       <c r="AP64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR64">
+        <v>0</v>
+      </c>
+      <c r="AS64">
+        <v>1</v>
+      </c>
+      <c r="AT64">
+        <v>0</v>
+      </c>
+      <c r="AU64">
         <v>3</v>
       </c>
-      <c r="AS64">
-        <v>0</v>
-      </c>
-      <c r="AT64">
-        <v>1</v>
-      </c>
-      <c r="AU64">
-        <v>0</v>
-      </c>
       <c r="AV64">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:48" x14ac:dyDescent="0.25">
@@ -22045,10 +22184,10 @@
         <v>0</v>
       </c>
       <c r="AQ65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS65">
         <v>0</v>
@@ -22399,7 +22538,7 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ68">
         <v>0</v>
@@ -22548,19 +22687,19 @@
         <v>0</v>
       </c>
       <c r="AQ69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT69">
         <v>1</v>
       </c>
       <c r="AU69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV69">
         <v>0</v>
@@ -22837,7 +22976,7 @@
         <v>0</v>
       </c>
       <c r="AP71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ71">
         <v>0</v>
@@ -22983,13 +23122,13 @@
         <v>1</v>
       </c>
       <c r="AP72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ72">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR72">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AS72">
         <v>0</v>
@@ -23176,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="AP74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ74">
         <v>0</v>
@@ -23614,13 +23753,13 @@
         <v>0</v>
       </c>
       <c r="AP77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR77">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS77">
         <v>0</v>
@@ -23649,7 +23788,7 @@
   <dimension ref="A1:AV112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D118" sqref="D118"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23790,25 +23929,25 @@
         <v>1419</v>
       </c>
       <c r="AP2" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="AQ2" t="s">
-        <v>1440</v>
+        <v>1474</v>
       </c>
       <c r="AR2" t="s">
-        <v>1475</v>
+        <v>1494</v>
       </c>
       <c r="AS2" t="s">
-        <v>1495</v>
+        <v>1510</v>
       </c>
       <c r="AT2" t="s">
-        <v>1511</v>
+        <v>1530</v>
       </c>
       <c r="AU2" t="s">
-        <v>1531</v>
+        <v>1545</v>
       </c>
       <c r="AV2" t="s">
-        <v>1546</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.25">
@@ -23936,10 +24075,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -24231,10 +24370,10 @@
         <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS5">
         <v>0</v>
@@ -24397,7 +24536,7 @@
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="AL7">
         <v>0</v>
@@ -24415,13 +24554,13 @@
         <v>0</v>
       </c>
       <c r="AQ7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT7">
         <v>0</v>
@@ -24722,12 +24861,12 @@
         <v>0</v>
       </c>
       <c r="AV9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="AK10">
         <v>0</v>
@@ -24745,13 +24884,13 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AS10">
         <v>0</v>
@@ -25189,10 +25328,10 @@
         <v>0</v>
       </c>
       <c r="AR13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT13">
         <v>0</v>
@@ -25329,19 +25468,19 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -25493,7 +25632,7 @@
         <v>0</v>
       </c>
       <c r="AV15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.25">
@@ -27867,19 +28006,19 @@
         <v>0</v>
       </c>
       <c r="AQ32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS32">
         <v>0</v>
       </c>
       <c r="AT32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV32">
         <v>0</v>
@@ -28033,7 +28172,7 @@
     </row>
     <row r="34" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="AN34">
         <v>0</v>
@@ -28051,16 +28190,16 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AV34">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:48" x14ac:dyDescent="0.25">
@@ -28503,7 +28642,7 @@
     </row>
     <row r="38" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="AO38">
         <v>0</v>
@@ -28521,10 +28660,10 @@
         <v>0</v>
       </c>
       <c r="AT38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV38">
         <v>0</v>
@@ -29742,7 +29881,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ47">
         <v>0</v>
@@ -29888,10 +30027,10 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR48">
         <v>0</v>
@@ -30057,7 +30196,7 @@
     </row>
     <row r="50" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="AN50">
         <v>0</v>
@@ -30075,10 +30214,10 @@
         <v>0</v>
       </c>
       <c r="AS50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU50">
         <v>0</v>
@@ -30235,7 +30374,7 @@
     </row>
     <row r="52" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="AL52">
         <v>0</v>
@@ -30253,10 +30392,10 @@
         <v>0</v>
       </c>
       <c r="AQ52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS52">
         <v>0</v>
@@ -30691,10 +30830,10 @@
         <v>0</v>
       </c>
       <c r="AQ55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS55">
         <v>0</v>
@@ -31051,7 +31190,7 @@
         <v>0</v>
       </c>
       <c r="AU58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV58">
         <v>1</v>
@@ -31331,16 +31470,16 @@
         <v>1</v>
       </c>
       <c r="AQ60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR60">
         <v>0</v>
       </c>
       <c r="AS60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU60">
         <v>0</v>
@@ -31474,13 +31613,13 @@
         <v>0</v>
       </c>
       <c r="AP61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS61">
         <v>0</v>
@@ -31915,10 +32054,10 @@
         <v>0</v>
       </c>
       <c r="AQ64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS64">
         <v>0</v>
@@ -32496,16 +32635,16 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ68">
         <v>0</v>
       </c>
       <c r="AR68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT68">
         <v>0</v>
@@ -32791,10 +32930,10 @@
         <v>0</v>
       </c>
       <c r="AQ70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS70">
         <v>0</v>
@@ -33232,10 +33371,10 @@
         <v>0</v>
       </c>
       <c r="AR73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT73">
         <v>0</v>
@@ -33518,7 +33657,7 @@
         <v>0</v>
       </c>
       <c r="AP75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ75">
         <v>0</v>
@@ -33670,10 +33809,10 @@
         <v>0</v>
       </c>
       <c r="AR76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT76">
         <v>0</v>
@@ -33816,10 +33955,10 @@
         <v>0</v>
       </c>
       <c r="AR77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT77">
         <v>0</v>
@@ -33875,10 +34014,10 @@
         <v>0</v>
       </c>
       <c r="AQ78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS78">
         <v>0</v>
@@ -33895,7 +34034,7 @@
     </row>
     <row r="79" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="AI79">
         <v>0</v>
@@ -33919,7 +34058,7 @@
         <v>0</v>
       </c>
       <c r="AP79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ79">
         <v>0</v>
@@ -34357,7 +34496,7 @@
         <v>0</v>
       </c>
       <c r="AP82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ82">
         <v>0</v>
@@ -34512,10 +34651,10 @@
         <v>0</v>
       </c>
       <c r="AS83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU83">
         <v>0</v>
@@ -36761,10 +36900,10 @@
         <v>0</v>
       </c>
       <c r="AT99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV99">
         <v>0</v>
@@ -37582,16 +37721,16 @@
         <v>0</v>
       </c>
       <c r="AP106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT106">
         <v>0</v>
@@ -37728,19 +37867,19 @@
         <v>1</v>
       </c>
       <c r="AP107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ107">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR107">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AS107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU107">
         <v>0</v>
@@ -37892,7 +38031,7 @@
         <v>0</v>
       </c>
       <c r="AV108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:48" x14ac:dyDescent="0.25">
@@ -38318,10 +38457,10 @@
         <v>0</v>
       </c>
       <c r="AR111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT111">
         <v>0</v>
@@ -38489,7 +38628,7 @@
   <dimension ref="A1:F223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E3" sqref="E3:F223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38505,7 +38644,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -42971,7 +43110,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -46123,7 +46262,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="D1" s="15"/>
     </row>
